--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,6 +514,15 @@
     <t>['24', '54', '82', '90+4']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['28', '45+3', '75']</t>
+  </si>
+  <si>
+    <t>['43', '56']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -602,9 +611,6 @@
   </si>
   <si>
     <t>['12', '63']</t>
-  </si>
-  <si>
-    <t>['27']</t>
   </si>
   <si>
     <t>['20', '28', '59']</t>
@@ -713,6 +719,12 @@
   </si>
   <si>
     <t>['50', '90+3']</t>
+  </si>
+  <si>
+    <t>['55', '75']</t>
+  </si>
+  <si>
+    <t>['7', '15', '26', '63', '85', '88']</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1333,7 +1345,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1539,7 +1551,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2363,7 +2375,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2569,7 +2581,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2775,7 +2787,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2856,7 +2868,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ9">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2981,7 +2993,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3187,7 +3199,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3393,7 +3405,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3471,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ12">
         <v>1.17</v>
@@ -3599,7 +3611,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3680,7 +3692,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ13">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3805,7 +3817,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -3886,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4011,7 +4023,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4217,7 +4229,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4423,7 +4435,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4501,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ17">
         <v>2.5</v>
@@ -4629,7 +4641,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -4707,7 +4719,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -5247,7 +5259,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5453,7 +5465,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5659,7 +5671,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5865,7 +5877,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -5946,7 +5958,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ24">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR24">
         <v>1.86</v>
@@ -6071,7 +6083,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6483,7 +6495,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7101,7 +7113,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7385,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
         <v>0.67</v>
@@ -7513,7 +7525,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7719,7 +7731,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8131,7 +8143,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8337,7 +8349,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8543,7 +8555,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8624,7 +8636,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8830,7 +8842,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ38">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>2.66</v>
@@ -8955,7 +8967,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9033,7 +9045,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39">
         <v>1.29</v>
@@ -9161,7 +9173,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9242,7 +9254,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ40">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9367,7 +9379,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9779,7 +9791,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9985,7 +9997,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10272,7 +10284,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.54</v>
@@ -10397,7 +10409,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10603,7 +10615,7 @@
         <v>91</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>3.25</v>
@@ -11015,7 +11027,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11221,7 +11233,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11633,7 +11645,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11839,7 +11851,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12123,7 +12135,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
         <v>0.67</v>
@@ -12457,7 +12469,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12538,7 +12550,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12663,7 +12675,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12950,7 +12962,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13075,7 +13087,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13281,7 +13293,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13359,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ60">
         <v>0.67</v>
@@ -13487,7 +13499,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13693,7 +13705,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13899,7 +13911,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -13980,7 +13992,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ63">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -14105,7 +14117,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14183,7 +14195,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ64">
         <v>1.5</v>
@@ -14311,7 +14323,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14723,7 +14735,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14929,7 +14941,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15341,7 +15353,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15547,7 +15559,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -15831,7 +15843,7 @@
         <v>2.33</v>
       </c>
       <c r="AP72">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ72">
         <v>1.5</v>
@@ -16165,7 +16177,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16243,7 +16255,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16452,7 +16464,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ75">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.52</v>
@@ -16655,7 +16667,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ76">
         <v>0.4</v>
@@ -16783,7 +16795,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -16989,7 +17001,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17401,7 +17413,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17607,7 +17619,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17688,7 +17700,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ81">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17813,7 +17825,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -17894,7 +17906,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.45</v>
@@ -18019,7 +18031,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18431,7 +18443,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18637,7 +18649,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18843,7 +18855,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18921,7 +18933,7 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ87">
         <v>0.86</v>
@@ -19049,7 +19061,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19667,7 +19679,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19873,7 +19885,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -19951,7 +19963,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ92">
         <v>0.4</v>
@@ -20079,7 +20091,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20160,7 +20172,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ93">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR93">
         <v>1.31</v>
@@ -20363,7 +20375,7 @@
         <v>0.25</v>
       </c>
       <c r="AP94">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ94">
         <v>0.4</v>
@@ -20491,7 +20503,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20697,7 +20709,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20778,7 +20790,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -20981,7 +20993,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ97">
         <v>0.2</v>
@@ -21315,7 +21327,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21396,7 +21408,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ99">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR99">
         <v>1.5</v>
@@ -21727,7 +21739,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -21933,7 +21945,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22139,7 +22151,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22345,7 +22357,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22551,7 +22563,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22963,7 +22975,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23532,6 +23544,624 @@
       </c>
       <c r="BP109">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7516404</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45619.3125</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>86</v>
+      </c>
+      <c r="H110" t="s">
+        <v>77</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>166</v>
+      </c>
+      <c r="P110" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q110">
+        <v>2.63</v>
+      </c>
+      <c r="R110">
+        <v>2.2</v>
+      </c>
+      <c r="S110">
+        <v>4</v>
+      </c>
+      <c r="T110">
+        <v>1.4</v>
+      </c>
+      <c r="U110">
+        <v>2.75</v>
+      </c>
+      <c r="V110">
+        <v>2.75</v>
+      </c>
+      <c r="W110">
+        <v>1.4</v>
+      </c>
+      <c r="X110">
+        <v>8</v>
+      </c>
+      <c r="Y110">
+        <v>1.08</v>
+      </c>
+      <c r="Z110">
+        <v>1.91</v>
+      </c>
+      <c r="AA110">
+        <v>3.4</v>
+      </c>
+      <c r="AB110">
+        <v>3.4</v>
+      </c>
+      <c r="AC110">
+        <v>1.03</v>
+      </c>
+      <c r="AD110">
+        <v>10.65</v>
+      </c>
+      <c r="AE110">
+        <v>1.27</v>
+      </c>
+      <c r="AF110">
+        <v>3.61</v>
+      </c>
+      <c r="AG110">
+        <v>1.75</v>
+      </c>
+      <c r="AH110">
+        <v>1.91</v>
+      </c>
+      <c r="AI110">
+        <v>1.73</v>
+      </c>
+      <c r="AJ110">
+        <v>2</v>
+      </c>
+      <c r="AK110">
+        <v>1.33</v>
+      </c>
+      <c r="AL110">
+        <v>1.33</v>
+      </c>
+      <c r="AM110">
+        <v>1.83</v>
+      </c>
+      <c r="AN110">
+        <v>2.6</v>
+      </c>
+      <c r="AO110">
+        <v>1.2</v>
+      </c>
+      <c r="AP110">
+        <v>2.17</v>
+      </c>
+      <c r="AQ110">
+        <v>1.5</v>
+      </c>
+      <c r="AR110">
+        <v>1.36</v>
+      </c>
+      <c r="AS110">
+        <v>1.07</v>
+      </c>
+      <c r="AT110">
+        <v>2.43</v>
+      </c>
+      <c r="AU110">
+        <v>7</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>6</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>16</v>
+      </c>
+      <c r="AZ110">
+        <v>14</v>
+      </c>
+      <c r="BA110">
+        <v>5</v>
+      </c>
+      <c r="BB110">
+        <v>7</v>
+      </c>
+      <c r="BC110">
+        <v>12</v>
+      </c>
+      <c r="BD110">
+        <v>1.74</v>
+      </c>
+      <c r="BE110">
+        <v>6.25</v>
+      </c>
+      <c r="BF110">
+        <v>2.18</v>
+      </c>
+      <c r="BG110">
+        <v>1.38</v>
+      </c>
+      <c r="BH110">
+        <v>2.7</v>
+      </c>
+      <c r="BI110">
+        <v>1.66</v>
+      </c>
+      <c r="BJ110">
+        <v>2.07</v>
+      </c>
+      <c r="BK110">
+        <v>2.07</v>
+      </c>
+      <c r="BL110">
+        <v>1.66</v>
+      </c>
+      <c r="BM110">
+        <v>2.65</v>
+      </c>
+      <c r="BN110">
+        <v>1.41</v>
+      </c>
+      <c r="BO110">
+        <v>3.55</v>
+      </c>
+      <c r="BP110">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7516406</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45619.41666666666</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>85</v>
+      </c>
+      <c r="H111" t="s">
+        <v>83</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>3</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>167</v>
+      </c>
+      <c r="P111" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q111">
+        <v>3.25</v>
+      </c>
+      <c r="R111">
+        <v>2.2</v>
+      </c>
+      <c r="S111">
+        <v>3.2</v>
+      </c>
+      <c r="T111">
+        <v>1.4</v>
+      </c>
+      <c r="U111">
+        <v>2.75</v>
+      </c>
+      <c r="V111">
+        <v>2.75</v>
+      </c>
+      <c r="W111">
+        <v>1.4</v>
+      </c>
+      <c r="X111">
+        <v>8</v>
+      </c>
+      <c r="Y111">
+        <v>1.08</v>
+      </c>
+      <c r="Z111">
+        <v>2.3</v>
+      </c>
+      <c r="AA111">
+        <v>3.64</v>
+      </c>
+      <c r="AB111">
+        <v>2.51</v>
+      </c>
+      <c r="AC111">
+        <v>1.03</v>
+      </c>
+      <c r="AD111">
+        <v>10.65</v>
+      </c>
+      <c r="AE111">
+        <v>1.27</v>
+      </c>
+      <c r="AF111">
+        <v>3.61</v>
+      </c>
+      <c r="AG111">
+        <v>1.88</v>
+      </c>
+      <c r="AH111">
+        <v>1.98</v>
+      </c>
+      <c r="AI111">
+        <v>1.67</v>
+      </c>
+      <c r="AJ111">
+        <v>2.1</v>
+      </c>
+      <c r="AK111">
+        <v>1.53</v>
+      </c>
+      <c r="AL111">
+        <v>1.35</v>
+      </c>
+      <c r="AM111">
+        <v>1.52</v>
+      </c>
+      <c r="AN111">
+        <v>1.6</v>
+      </c>
+      <c r="AO111">
+        <v>1.17</v>
+      </c>
+      <c r="AP111">
+        <v>1.83</v>
+      </c>
+      <c r="AQ111">
+        <v>1</v>
+      </c>
+      <c r="AR111">
+        <v>1.46</v>
+      </c>
+      <c r="AS111">
+        <v>1.28</v>
+      </c>
+      <c r="AT111">
+        <v>2.74</v>
+      </c>
+      <c r="AU111">
+        <v>8</v>
+      </c>
+      <c r="AV111">
+        <v>7</v>
+      </c>
+      <c r="AW111">
+        <v>4</v>
+      </c>
+      <c r="AX111">
+        <v>7</v>
+      </c>
+      <c r="AY111">
+        <v>16</v>
+      </c>
+      <c r="AZ111">
+        <v>16</v>
+      </c>
+      <c r="BA111">
+        <v>2</v>
+      </c>
+      <c r="BB111">
+        <v>6</v>
+      </c>
+      <c r="BC111">
+        <v>8</v>
+      </c>
+      <c r="BD111">
+        <v>1.75</v>
+      </c>
+      <c r="BE111">
+        <v>5.8</v>
+      </c>
+      <c r="BF111">
+        <v>2.18</v>
+      </c>
+      <c r="BG111">
+        <v>1.41</v>
+      </c>
+      <c r="BH111">
+        <v>2.63</v>
+      </c>
+      <c r="BI111">
+        <v>1.72</v>
+      </c>
+      <c r="BJ111">
+        <v>1.98</v>
+      </c>
+      <c r="BK111">
+        <v>2.17</v>
+      </c>
+      <c r="BL111">
+        <v>1.6</v>
+      </c>
+      <c r="BM111">
+        <v>2.8</v>
+      </c>
+      <c r="BN111">
+        <v>1.36</v>
+      </c>
+      <c r="BO111">
+        <v>3.8</v>
+      </c>
+      <c r="BP111">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7516400</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45619.41666666666</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>80</v>
+      </c>
+      <c r="H112" t="s">
+        <v>73</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>3</v>
+      </c>
+      <c r="K112">
+        <v>4</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>6</v>
+      </c>
+      <c r="N112">
+        <v>8</v>
+      </c>
+      <c r="O112" t="s">
+        <v>168</v>
+      </c>
+      <c r="P112" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q112">
+        <v>6</v>
+      </c>
+      <c r="R112">
+        <v>2.4</v>
+      </c>
+      <c r="S112">
+        <v>2</v>
+      </c>
+      <c r="T112">
+        <v>1.3</v>
+      </c>
+      <c r="U112">
+        <v>3.4</v>
+      </c>
+      <c r="V112">
+        <v>2.5</v>
+      </c>
+      <c r="W112">
+        <v>1.5</v>
+      </c>
+      <c r="X112">
+        <v>6</v>
+      </c>
+      <c r="Y112">
+        <v>1.13</v>
+      </c>
+      <c r="Z112">
+        <v>2.86</v>
+      </c>
+      <c r="AA112">
+        <v>3.26</v>
+      </c>
+      <c r="AB112">
+        <v>2.21</v>
+      </c>
+      <c r="AC112">
+        <v>1.03</v>
+      </c>
+      <c r="AD112">
+        <v>17</v>
+      </c>
+      <c r="AE112">
+        <v>1.19</v>
+      </c>
+      <c r="AF112">
+        <v>4.5</v>
+      </c>
+      <c r="AG112">
+        <v>1.65</v>
+      </c>
+      <c r="AH112">
+        <v>2.1</v>
+      </c>
+      <c r="AI112">
+        <v>1.73</v>
+      </c>
+      <c r="AJ112">
+        <v>2</v>
+      </c>
+      <c r="AK112">
+        <v>2.8</v>
+      </c>
+      <c r="AL112">
+        <v>1.22</v>
+      </c>
+      <c r="AM112">
+        <v>1.15</v>
+      </c>
+      <c r="AN112">
+        <v>0.6</v>
+      </c>
+      <c r="AO112">
+        <v>2.33</v>
+      </c>
+      <c r="AP112">
+        <v>0.5</v>
+      </c>
+      <c r="AQ112">
+        <v>2.43</v>
+      </c>
+      <c r="AR112">
+        <v>1.64</v>
+      </c>
+      <c r="AS112">
+        <v>1.49</v>
+      </c>
+      <c r="AT112">
+        <v>3.13</v>
+      </c>
+      <c r="AU112">
+        <v>3</v>
+      </c>
+      <c r="AV112">
+        <v>11</v>
+      </c>
+      <c r="AW112">
+        <v>10</v>
+      </c>
+      <c r="AX112">
+        <v>4</v>
+      </c>
+      <c r="AY112">
+        <v>17</v>
+      </c>
+      <c r="AZ112">
+        <v>18</v>
+      </c>
+      <c r="BA112">
+        <v>10</v>
+      </c>
+      <c r="BB112">
+        <v>5</v>
+      </c>
+      <c r="BC112">
+        <v>15</v>
+      </c>
+      <c r="BD112">
+        <v>3.3</v>
+      </c>
+      <c r="BE112">
+        <v>7</v>
+      </c>
+      <c r="BF112">
+        <v>1.34</v>
+      </c>
+      <c r="BG112">
+        <v>1.3</v>
+      </c>
+      <c r="BH112">
+        <v>3.1</v>
+      </c>
+      <c r="BI112">
+        <v>1.53</v>
+      </c>
+      <c r="BJ112">
+        <v>2.3</v>
+      </c>
+      <c r="BK112">
+        <v>1.86</v>
+      </c>
+      <c r="BL112">
+        <v>1.82</v>
+      </c>
+      <c r="BM112">
+        <v>2.33</v>
+      </c>
+      <c r="BN112">
+        <v>1.5</v>
+      </c>
+      <c r="BO112">
+        <v>3.05</v>
+      </c>
+      <c r="BP112">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -726,6 +726,9 @@
   <si>
     <t>['7', '15', '26', '63', '85', '88']</t>
   </si>
+  <si>
+    <t>['54']</t>
+  </si>
 </sst>
 </file>
 
@@ -1086,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3071,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>0.67</v>
@@ -5543,7 +5546,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>0.86</v>
@@ -8633,7 +8636,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -13783,7 +13786,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
         <v>0.4</v>
@@ -17903,7 +17906,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -21199,7 +21202,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ98">
         <v>0.8</v>
@@ -24161,6 +24164,212 @@
         <v>3.05</v>
       </c>
       <c r="BP112">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7516405</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45619.54166666666</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>78</v>
+      </c>
+      <c r="H113" t="s">
+        <v>70</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>91</v>
+      </c>
+      <c r="P113" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q113">
+        <v>6.5</v>
+      </c>
+      <c r="R113">
+        <v>2.4</v>
+      </c>
+      <c r="S113">
+        <v>1.95</v>
+      </c>
+      <c r="T113">
+        <v>1.33</v>
+      </c>
+      <c r="U113">
+        <v>3.25</v>
+      </c>
+      <c r="V113">
+        <v>2.5</v>
+      </c>
+      <c r="W113">
+        <v>1.5</v>
+      </c>
+      <c r="X113">
+        <v>6</v>
+      </c>
+      <c r="Y113">
+        <v>1.13</v>
+      </c>
+      <c r="Z113">
+        <v>7.11</v>
+      </c>
+      <c r="AA113">
+        <v>2.19</v>
+      </c>
+      <c r="AB113">
+        <v>1.94</v>
+      </c>
+      <c r="AC113">
+        <v>1.04</v>
+      </c>
+      <c r="AD113">
+        <v>15</v>
+      </c>
+      <c r="AE113">
+        <v>1.19</v>
+      </c>
+      <c r="AF113">
+        <v>4.5</v>
+      </c>
+      <c r="AG113">
+        <v>1.65</v>
+      </c>
+      <c r="AH113">
+        <v>2.1</v>
+      </c>
+      <c r="AI113">
+        <v>1.83</v>
+      </c>
+      <c r="AJ113">
+        <v>1.83</v>
+      </c>
+      <c r="AK113">
+        <v>2.9</v>
+      </c>
+      <c r="AL113">
+        <v>1.22</v>
+      </c>
+      <c r="AM113">
+        <v>1.12</v>
+      </c>
+      <c r="AN113">
+        <v>1.17</v>
+      </c>
+      <c r="AO113">
+        <v>3</v>
+      </c>
+      <c r="AP113">
+        <v>1</v>
+      </c>
+      <c r="AQ113">
+        <v>3</v>
+      </c>
+      <c r="AR113">
+        <v>1.3</v>
+      </c>
+      <c r="AS113">
+        <v>1.67</v>
+      </c>
+      <c r="AT113">
+        <v>2.97</v>
+      </c>
+      <c r="AU113">
+        <v>4</v>
+      </c>
+      <c r="AV113">
+        <v>8</v>
+      </c>
+      <c r="AW113">
+        <v>3</v>
+      </c>
+      <c r="AX113">
+        <v>6</v>
+      </c>
+      <c r="AY113">
+        <v>11</v>
+      </c>
+      <c r="AZ113">
+        <v>24</v>
+      </c>
+      <c r="BA113">
+        <v>7</v>
+      </c>
+      <c r="BB113">
+        <v>9</v>
+      </c>
+      <c r="BC113">
+        <v>16</v>
+      </c>
+      <c r="BD113">
+        <v>3.55</v>
+      </c>
+      <c r="BE113">
+        <v>7</v>
+      </c>
+      <c r="BF113">
+        <v>1.3</v>
+      </c>
+      <c r="BG113">
+        <v>1.34</v>
+      </c>
+      <c r="BH113">
+        <v>2.9</v>
+      </c>
+      <c r="BI113">
+        <v>1.57</v>
+      </c>
+      <c r="BJ113">
+        <v>2.23</v>
+      </c>
+      <c r="BK113">
+        <v>1.92</v>
+      </c>
+      <c r="BL113">
+        <v>1.77</v>
+      </c>
+      <c r="BM113">
+        <v>2.43</v>
+      </c>
+      <c r="BN113">
+        <v>1.48</v>
+      </c>
+      <c r="BO113">
+        <v>3.15</v>
+      </c>
+      <c r="BP113">
         <v>1.3</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,13 +514,16 @@
     <t>['24', '54', '82', '90+4']</t>
   </si>
   <si>
+    <t>['43', '56']</t>
+  </si>
+  <si>
     <t>['27']</t>
   </si>
   <si>
     <t>['28', '45+3', '75']</t>
   </si>
   <si>
-    <t>['43', '56']</t>
+    <t>['3', '50', '54', '78', '84']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -721,13 +724,13 @@
     <t>['50', '90+3']</t>
   </si>
   <si>
-    <t>['55', '75']</t>
+    <t>['54']</t>
   </si>
   <si>
     <t>['7', '15', '26', '63', '85', '88']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['55', '75']</t>
   </si>
 </sst>
 </file>
@@ -1089,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1351,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1554,7 +1557,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2047,7 +2050,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ5">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2378,7 +2381,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2584,7 +2587,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2790,7 +2793,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2996,7 +2999,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3202,7 +3205,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3408,7 +3411,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3614,7 +3617,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3820,7 +3823,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4026,7 +4029,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4232,7 +4235,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4438,7 +4441,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4644,7 +4647,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5262,7 +5265,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5468,7 +5471,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5674,7 +5677,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5755,7 +5758,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ23">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR23">
         <v>0.96</v>
@@ -5880,7 +5883,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6086,7 +6089,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6498,7 +6501,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7116,7 +7119,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7528,7 +7531,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7734,7 +7737,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8146,7 +8149,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8352,7 +8355,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8558,7 +8561,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8970,7 +8973,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9176,7 +9179,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9382,7 +9385,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9460,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ41">
         <v>1.5</v>
@@ -9794,7 +9797,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9875,7 +9878,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR43">
         <v>1.43</v>
@@ -10000,7 +10003,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10412,7 +10415,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10490,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
@@ -10618,7 +10621,7 @@
         <v>91</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q47">
         <v>3.25</v>
@@ -11030,7 +11033,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11236,7 +11239,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11648,7 +11651,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11854,7 +11857,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12472,7 +12475,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12678,7 +12681,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13090,7 +13093,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13296,7 +13299,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13502,7 +13505,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13580,7 +13583,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ61">
         <v>0.86</v>
@@ -13708,7 +13711,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13789,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -13914,7 +13917,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14120,7 +14123,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14326,7 +14329,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14738,7 +14741,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14944,7 +14947,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15356,7 +15359,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15562,7 +15565,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16180,7 +16183,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16464,7 +16467,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16798,7 +16801,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17004,7 +17007,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17416,7 +17419,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17622,7 +17625,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17828,7 +17831,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18034,7 +18037,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18446,7 +18449,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18652,7 +18655,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18858,7 +18861,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19064,7 +19067,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19682,7 +19685,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19888,7 +19891,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20094,7 +20097,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20381,7 +20384,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ94">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR94">
         <v>1.6</v>
@@ -20506,7 +20509,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20712,7 +20715,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21330,7 +21333,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21408,7 +21411,7 @@
         <v>2.2</v>
       </c>
       <c r="AP99">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ99">
         <v>2.43</v>
@@ -21742,7 +21745,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -21948,7 +21951,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22154,7 +22157,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22360,7 +22363,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22566,7 +22569,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22978,7 +22981,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23554,7 +23557,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7516404</v>
+        <v>7516405</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23563,196 +23566,196 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45619.3125</v>
+        <v>45618.875</v>
       </c>
       <c r="F110">
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H110" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O110" t="s">
-        <v>166</v>
+        <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q110">
-        <v>2.63</v>
+        <v>6.5</v>
       </c>
       <c r="R110">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S110">
+        <v>1.95</v>
+      </c>
+      <c r="T110">
+        <v>1.33</v>
+      </c>
+      <c r="U110">
+        <v>3.25</v>
+      </c>
+      <c r="V110">
+        <v>2.5</v>
+      </c>
+      <c r="W110">
+        <v>1.5</v>
+      </c>
+      <c r="X110">
+        <v>6</v>
+      </c>
+      <c r="Y110">
+        <v>1.13</v>
+      </c>
+      <c r="Z110">
+        <v>7.11</v>
+      </c>
+      <c r="AA110">
+        <v>2.19</v>
+      </c>
+      <c r="AB110">
+        <v>1.94</v>
+      </c>
+      <c r="AC110">
+        <v>1.04</v>
+      </c>
+      <c r="AD110">
+        <v>15</v>
+      </c>
+      <c r="AE110">
+        <v>1.19</v>
+      </c>
+      <c r="AF110">
+        <v>4.5</v>
+      </c>
+      <c r="AG110">
+        <v>1.65</v>
+      </c>
+      <c r="AH110">
+        <v>2.1</v>
+      </c>
+      <c r="AI110">
+        <v>1.83</v>
+      </c>
+      <c r="AJ110">
+        <v>1.83</v>
+      </c>
+      <c r="AK110">
+        <v>2.9</v>
+      </c>
+      <c r="AL110">
+        <v>1.22</v>
+      </c>
+      <c r="AM110">
+        <v>1.12</v>
+      </c>
+      <c r="AN110">
+        <v>1.17</v>
+      </c>
+      <c r="AO110">
+        <v>3</v>
+      </c>
+      <c r="AP110">
+        <v>1</v>
+      </c>
+      <c r="AQ110">
+        <v>3</v>
+      </c>
+      <c r="AR110">
+        <v>1.3</v>
+      </c>
+      <c r="AS110">
+        <v>1.67</v>
+      </c>
+      <c r="AT110">
+        <v>2.97</v>
+      </c>
+      <c r="AU110">
         <v>4</v>
       </c>
-      <c r="T110">
-        <v>1.4</v>
-      </c>
-      <c r="U110">
-        <v>2.75</v>
-      </c>
-      <c r="V110">
-        <v>2.75</v>
-      </c>
-      <c r="W110">
-        <v>1.4</v>
-      </c>
-      <c r="X110">
+      <c r="AV110">
         <v>8</v>
       </c>
-      <c r="Y110">
-        <v>1.08</v>
-      </c>
-      <c r="Z110">
-        <v>1.91</v>
-      </c>
-      <c r="AA110">
-        <v>3.4</v>
-      </c>
-      <c r="AB110">
-        <v>3.4</v>
-      </c>
-      <c r="AC110">
-        <v>1.03</v>
-      </c>
-      <c r="AD110">
-        <v>10.65</v>
-      </c>
-      <c r="AE110">
-        <v>1.27</v>
-      </c>
-      <c r="AF110">
-        <v>3.61</v>
-      </c>
-      <c r="AG110">
-        <v>1.75</v>
-      </c>
-      <c r="AH110">
-        <v>1.91</v>
-      </c>
-      <c r="AI110">
-        <v>1.73</v>
-      </c>
-      <c r="AJ110">
-        <v>2</v>
-      </c>
-      <c r="AK110">
-        <v>1.33</v>
-      </c>
-      <c r="AL110">
-        <v>1.33</v>
-      </c>
-      <c r="AM110">
-        <v>1.83</v>
-      </c>
-      <c r="AN110">
-        <v>2.6</v>
-      </c>
-      <c r="AO110">
-        <v>1.2</v>
-      </c>
-      <c r="AP110">
-        <v>2.17</v>
-      </c>
-      <c r="AQ110">
-        <v>1.5</v>
-      </c>
-      <c r="AR110">
-        <v>1.36</v>
-      </c>
-      <c r="AS110">
-        <v>1.07</v>
-      </c>
-      <c r="AT110">
+      <c r="AW110">
+        <v>3</v>
+      </c>
+      <c r="AX110">
+        <v>6</v>
+      </c>
+      <c r="AY110">
+        <v>11</v>
+      </c>
+      <c r="AZ110">
+        <v>24</v>
+      </c>
+      <c r="BA110">
+        <v>7</v>
+      </c>
+      <c r="BB110">
+        <v>9</v>
+      </c>
+      <c r="BC110">
+        <v>16</v>
+      </c>
+      <c r="BD110">
+        <v>3.55</v>
+      </c>
+      <c r="BE110">
+        <v>7</v>
+      </c>
+      <c r="BF110">
+        <v>1.3</v>
+      </c>
+      <c r="BG110">
+        <v>1.34</v>
+      </c>
+      <c r="BH110">
+        <v>2.9</v>
+      </c>
+      <c r="BI110">
+        <v>1.57</v>
+      </c>
+      <c r="BJ110">
+        <v>2.23</v>
+      </c>
+      <c r="BK110">
+        <v>1.92</v>
+      </c>
+      <c r="BL110">
+        <v>1.77</v>
+      </c>
+      <c r="BM110">
         <v>2.43</v>
       </c>
-      <c r="AU110">
-        <v>7</v>
-      </c>
-      <c r="AV110">
-        <v>5</v>
-      </c>
-      <c r="AW110">
-        <v>6</v>
-      </c>
-      <c r="AX110">
-        <v>3</v>
-      </c>
-      <c r="AY110">
-        <v>16</v>
-      </c>
-      <c r="AZ110">
-        <v>14</v>
-      </c>
-      <c r="BA110">
-        <v>5</v>
-      </c>
-      <c r="BB110">
-        <v>7</v>
-      </c>
-      <c r="BC110">
-        <v>12</v>
-      </c>
-      <c r="BD110">
-        <v>1.74</v>
-      </c>
-      <c r="BE110">
-        <v>6.25</v>
-      </c>
-      <c r="BF110">
-        <v>2.18</v>
-      </c>
-      <c r="BG110">
-        <v>1.38</v>
-      </c>
-      <c r="BH110">
-        <v>2.7</v>
-      </c>
-      <c r="BI110">
-        <v>1.66</v>
-      </c>
-      <c r="BJ110">
-        <v>2.07</v>
-      </c>
-      <c r="BK110">
-        <v>2.07</v>
-      </c>
-      <c r="BL110">
-        <v>1.66</v>
-      </c>
-      <c r="BM110">
-        <v>2.65</v>
-      </c>
       <c r="BN110">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="BO110">
-        <v>3.55</v>
+        <v>3.15</v>
       </c>
       <c r="BP110">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23760,7 +23763,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7516406</v>
+        <v>7516400</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23769,196 +23772,196 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45619.41666666666</v>
+        <v>45618.875</v>
       </c>
       <c r="F111">
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N111">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>91</v>
+        <v>237</v>
       </c>
       <c r="Q111">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="R111">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S111">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="T111">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U111">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W111">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X111">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y111">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z111">
-        <v>2.3</v>
+        <v>2.86</v>
       </c>
       <c r="AA111">
-        <v>3.64</v>
+        <v>3.26</v>
       </c>
       <c r="AB111">
-        <v>2.51</v>
+        <v>2.21</v>
       </c>
       <c r="AC111">
         <v>1.03</v>
       </c>
       <c r="AD111">
-        <v>10.65</v>
+        <v>17</v>
       </c>
       <c r="AE111">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AF111">
-        <v>3.61</v>
+        <v>4.5</v>
       </c>
       <c r="AG111">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="AH111">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AI111">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AJ111">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK111">
+        <v>2.8</v>
+      </c>
+      <c r="AL111">
+        <v>1.22</v>
+      </c>
+      <c r="AM111">
+        <v>1.15</v>
+      </c>
+      <c r="AN111">
+        <v>0.6</v>
+      </c>
+      <c r="AO111">
+        <v>2.33</v>
+      </c>
+      <c r="AP111">
+        <v>0.5</v>
+      </c>
+      <c r="AQ111">
+        <v>2.43</v>
+      </c>
+      <c r="AR111">
+        <v>1.64</v>
+      </c>
+      <c r="AS111">
+        <v>1.49</v>
+      </c>
+      <c r="AT111">
+        <v>3.13</v>
+      </c>
+      <c r="AU111">
+        <v>3</v>
+      </c>
+      <c r="AV111">
+        <v>11</v>
+      </c>
+      <c r="AW111">
+        <v>10</v>
+      </c>
+      <c r="AX111">
+        <v>4</v>
+      </c>
+      <c r="AY111">
+        <v>17</v>
+      </c>
+      <c r="AZ111">
+        <v>18</v>
+      </c>
+      <c r="BA111">
+        <v>10</v>
+      </c>
+      <c r="BB111">
+        <v>5</v>
+      </c>
+      <c r="BC111">
+        <v>15</v>
+      </c>
+      <c r="BD111">
+        <v>3.3</v>
+      </c>
+      <c r="BE111">
+        <v>7</v>
+      </c>
+      <c r="BF111">
+        <v>1.34</v>
+      </c>
+      <c r="BG111">
+        <v>1.3</v>
+      </c>
+      <c r="BH111">
+        <v>3.1</v>
+      </c>
+      <c r="BI111">
         <v>1.53</v>
       </c>
-      <c r="AL111">
-        <v>1.35</v>
-      </c>
-      <c r="AM111">
-        <v>1.52</v>
-      </c>
-      <c r="AN111">
-        <v>1.6</v>
-      </c>
-      <c r="AO111">
-        <v>1.17</v>
-      </c>
-      <c r="AP111">
-        <v>1.83</v>
-      </c>
-      <c r="AQ111">
-        <v>1</v>
-      </c>
-      <c r="AR111">
-        <v>1.46</v>
-      </c>
-      <c r="AS111">
-        <v>1.28</v>
-      </c>
-      <c r="AT111">
-        <v>2.74</v>
-      </c>
-      <c r="AU111">
-        <v>8</v>
-      </c>
-      <c r="AV111">
-        <v>7</v>
-      </c>
-      <c r="AW111">
-        <v>4</v>
-      </c>
-      <c r="AX111">
-        <v>7</v>
-      </c>
-      <c r="AY111">
-        <v>16</v>
-      </c>
-      <c r="AZ111">
-        <v>16</v>
-      </c>
-      <c r="BA111">
-        <v>2</v>
-      </c>
-      <c r="BB111">
-        <v>6</v>
-      </c>
-      <c r="BC111">
-        <v>8</v>
-      </c>
-      <c r="BD111">
-        <v>1.75</v>
-      </c>
-      <c r="BE111">
-        <v>5.8</v>
-      </c>
-      <c r="BF111">
-        <v>2.18</v>
-      </c>
-      <c r="BG111">
-        <v>1.41</v>
-      </c>
-      <c r="BH111">
-        <v>2.63</v>
-      </c>
-      <c r="BI111">
-        <v>1.72</v>
-      </c>
       <c r="BJ111">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="BK111">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="BL111">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="BM111">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="BN111">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="BO111">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="BP111">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -23966,7 +23969,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7516400</v>
+        <v>7516404</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23975,94 +23978,94 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45619.41666666666</v>
+        <v>45619.3125</v>
       </c>
       <c r="F112">
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H112" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>3</v>
+      </c>
+      <c r="O112" t="s">
+        <v>167</v>
+      </c>
+      <c r="P112" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q112">
+        <v>2.63</v>
+      </c>
+      <c r="R112">
+        <v>2.2</v>
+      </c>
+      <c r="S112">
         <v>4</v>
       </c>
-      <c r="L112">
-        <v>2</v>
-      </c>
-      <c r="M112">
-        <v>6</v>
-      </c>
-      <c r="N112">
+      <c r="T112">
+        <v>1.4</v>
+      </c>
+      <c r="U112">
+        <v>2.75</v>
+      </c>
+      <c r="V112">
+        <v>2.75</v>
+      </c>
+      <c r="W112">
+        <v>1.4</v>
+      </c>
+      <c r="X112">
         <v>8</v>
       </c>
-      <c r="O112" t="s">
-        <v>168</v>
-      </c>
-      <c r="P112" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q112">
-        <v>6</v>
-      </c>
-      <c r="R112">
-        <v>2.4</v>
-      </c>
-      <c r="S112">
-        <v>2</v>
-      </c>
-      <c r="T112">
-        <v>1.3</v>
-      </c>
-      <c r="U112">
+      <c r="Y112">
+        <v>1.08</v>
+      </c>
+      <c r="Z112">
+        <v>1.91</v>
+      </c>
+      <c r="AA112">
         <v>3.4</v>
       </c>
-      <c r="V112">
-        <v>2.5</v>
-      </c>
-      <c r="W112">
-        <v>1.5</v>
-      </c>
-      <c r="X112">
-        <v>6</v>
-      </c>
-      <c r="Y112">
-        <v>1.13</v>
-      </c>
-      <c r="Z112">
-        <v>2.86</v>
-      </c>
-      <c r="AA112">
-        <v>3.26</v>
-      </c>
       <c r="AB112">
-        <v>2.21</v>
+        <v>3.4</v>
       </c>
       <c r="AC112">
         <v>1.03</v>
       </c>
       <c r="AD112">
-        <v>17</v>
+        <v>10.65</v>
       </c>
       <c r="AE112">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AF112">
-        <v>4.5</v>
+        <v>3.61</v>
       </c>
       <c r="AG112">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AH112">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AI112">
         <v>1.73</v>
@@ -24071,100 +24074,100 @@
         <v>2</v>
       </c>
       <c r="AK112">
-        <v>2.8</v>
+        <v>1.33</v>
       </c>
       <c r="AL112">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AM112">
-        <v>1.15</v>
+        <v>1.83</v>
       </c>
       <c r="AN112">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="AO112">
-        <v>2.33</v>
+        <v>1.2</v>
       </c>
       <c r="AP112">
-        <v>0.5</v>
+        <v>2.17</v>
       </c>
       <c r="AQ112">
+        <v>1.5</v>
+      </c>
+      <c r="AR112">
+        <v>1.36</v>
+      </c>
+      <c r="AS112">
+        <v>1.07</v>
+      </c>
+      <c r="AT112">
         <v>2.43</v>
       </c>
-      <c r="AR112">
-        <v>1.64</v>
-      </c>
-      <c r="AS112">
-        <v>1.49</v>
-      </c>
-      <c r="AT112">
-        <v>3.13</v>
-      </c>
       <c r="AU112">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV112">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AW112">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY112">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ112">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA112">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BB112">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC112">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD112">
-        <v>3.3</v>
+        <v>1.74</v>
       </c>
       <c r="BE112">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="BF112">
-        <v>1.34</v>
+        <v>2.18</v>
       </c>
       <c r="BG112">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BH112">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="BI112">
-        <v>1.53</v>
+        <v>1.66</v>
       </c>
       <c r="BJ112">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="BK112">
-        <v>1.86</v>
+        <v>2.07</v>
       </c>
       <c r="BL112">
-        <v>1.82</v>
+        <v>1.66</v>
       </c>
       <c r="BM112">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="BN112">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="BO112">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="BP112">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24172,7 +24175,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7516405</v>
+        <v>7516406</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24181,196 +24184,402 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45619.54166666666</v>
+        <v>45619.41666666666</v>
       </c>
       <c r="F113">
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="H113" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O113" t="s">
+        <v>168</v>
+      </c>
+      <c r="P113" t="s">
         <v>91</v>
       </c>
-      <c r="P113" t="s">
-        <v>237</v>
-      </c>
       <c r="Q113">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="R113">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S113">
+        <v>3.2</v>
+      </c>
+      <c r="T113">
+        <v>1.4</v>
+      </c>
+      <c r="U113">
+        <v>2.75</v>
+      </c>
+      <c r="V113">
+        <v>2.75</v>
+      </c>
+      <c r="W113">
+        <v>1.4</v>
+      </c>
+      <c r="X113">
+        <v>8</v>
+      </c>
+      <c r="Y113">
+        <v>1.08</v>
+      </c>
+      <c r="Z113">
+        <v>2.3</v>
+      </c>
+      <c r="AA113">
+        <v>3.64</v>
+      </c>
+      <c r="AB113">
+        <v>2.51</v>
+      </c>
+      <c r="AC113">
+        <v>1.03</v>
+      </c>
+      <c r="AD113">
+        <v>10.65</v>
+      </c>
+      <c r="AE113">
+        <v>1.27</v>
+      </c>
+      <c r="AF113">
+        <v>3.61</v>
+      </c>
+      <c r="AG113">
+        <v>1.88</v>
+      </c>
+      <c r="AH113">
+        <v>1.98</v>
+      </c>
+      <c r="AI113">
+        <v>1.67</v>
+      </c>
+      <c r="AJ113">
+        <v>2.1</v>
+      </c>
+      <c r="AK113">
+        <v>1.53</v>
+      </c>
+      <c r="AL113">
+        <v>1.35</v>
+      </c>
+      <c r="AM113">
+        <v>1.52</v>
+      </c>
+      <c r="AN113">
+        <v>1.6</v>
+      </c>
+      <c r="AO113">
+        <v>1.17</v>
+      </c>
+      <c r="AP113">
+        <v>1.83</v>
+      </c>
+      <c r="AQ113">
+        <v>1</v>
+      </c>
+      <c r="AR113">
+        <v>1.46</v>
+      </c>
+      <c r="AS113">
+        <v>1.28</v>
+      </c>
+      <c r="AT113">
+        <v>2.74</v>
+      </c>
+      <c r="AU113">
+        <v>8</v>
+      </c>
+      <c r="AV113">
+        <v>7</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>7</v>
+      </c>
+      <c r="AY113">
+        <v>16</v>
+      </c>
+      <c r="AZ113">
+        <v>16</v>
+      </c>
+      <c r="BA113">
+        <v>2</v>
+      </c>
+      <c r="BB113">
+        <v>6</v>
+      </c>
+      <c r="BC113">
+        <v>8</v>
+      </c>
+      <c r="BD113">
+        <v>1.75</v>
+      </c>
+      <c r="BE113">
+        <v>5.8</v>
+      </c>
+      <c r="BF113">
+        <v>2.18</v>
+      </c>
+      <c r="BG113">
+        <v>1.41</v>
+      </c>
+      <c r="BH113">
+        <v>2.63</v>
+      </c>
+      <c r="BI113">
+        <v>1.72</v>
+      </c>
+      <c r="BJ113">
+        <v>1.98</v>
+      </c>
+      <c r="BK113">
+        <v>2.17</v>
+      </c>
+      <c r="BL113">
+        <v>1.6</v>
+      </c>
+      <c r="BM113">
+        <v>2.8</v>
+      </c>
+      <c r="BN113">
+        <v>1.36</v>
+      </c>
+      <c r="BO113">
+        <v>3.8</v>
+      </c>
+      <c r="BP113">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7516403</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45621.58333333334</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>88</v>
+      </c>
+      <c r="H114" t="s">
+        <v>82</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>5</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>5</v>
+      </c>
+      <c r="O114" t="s">
+        <v>169</v>
+      </c>
+      <c r="P114" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q114">
         <v>1.95</v>
       </c>
-      <c r="T113">
-        <v>1.33</v>
-      </c>
-      <c r="U113">
-        <v>3.25</v>
-      </c>
-      <c r="V113">
+      <c r="R114">
         <v>2.5</v>
       </c>
-      <c r="W113">
-        <v>1.5</v>
-      </c>
-      <c r="X113">
+      <c r="S114">
         <v>6</v>
       </c>
-      <c r="Y113">
+      <c r="T114">
+        <v>1.29</v>
+      </c>
+      <c r="U114">
+        <v>3.5</v>
+      </c>
+      <c r="V114">
+        <v>2.25</v>
+      </c>
+      <c r="W114">
+        <v>1.57</v>
+      </c>
+      <c r="X114">
+        <v>5.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.14</v>
+      </c>
+      <c r="Z114">
+        <v>1.4</v>
+      </c>
+      <c r="AA114">
+        <v>4.75</v>
+      </c>
+      <c r="AB114">
+        <v>6</v>
+      </c>
+      <c r="AC114">
+        <v>1.02</v>
+      </c>
+      <c r="AD114">
+        <v>23</v>
+      </c>
+      <c r="AE114">
         <v>1.13</v>
       </c>
-      <c r="Z113">
-        <v>7.11</v>
-      </c>
-      <c r="AA113">
-        <v>2.19</v>
-      </c>
-      <c r="AB113">
-        <v>1.94</v>
-      </c>
-      <c r="AC113">
-        <v>1.04</v>
-      </c>
-      <c r="AD113">
-        <v>15</v>
-      </c>
-      <c r="AE113">
-        <v>1.19</v>
-      </c>
-      <c r="AF113">
-        <v>4.5</v>
-      </c>
-      <c r="AG113">
-        <v>1.65</v>
-      </c>
-      <c r="AH113">
-        <v>2.1</v>
-      </c>
-      <c r="AI113">
+      <c r="AF114">
+        <v>5.61</v>
+      </c>
+      <c r="AG114">
+        <v>1.45</v>
+      </c>
+      <c r="AH114">
+        <v>2.55</v>
+      </c>
+      <c r="AI114">
+        <v>1.73</v>
+      </c>
+      <c r="AJ114">
+        <v>2</v>
+      </c>
+      <c r="AK114">
+        <v>1.12</v>
+      </c>
+      <c r="AL114">
+        <v>1.2</v>
+      </c>
+      <c r="AM114">
+        <v>3.1</v>
+      </c>
+      <c r="AN114">
+        <v>1.6</v>
+      </c>
+      <c r="AO114">
+        <v>0.4</v>
+      </c>
+      <c r="AP114">
         <v>1.83</v>
       </c>
-      <c r="AJ113">
-        <v>1.83</v>
-      </c>
-      <c r="AK113">
-        <v>2.9</v>
-      </c>
-      <c r="AL113">
-        <v>1.22</v>
-      </c>
-      <c r="AM113">
-        <v>1.12</v>
-      </c>
-      <c r="AN113">
-        <v>1.17</v>
-      </c>
-      <c r="AO113">
-        <v>3</v>
-      </c>
-      <c r="AP113">
-        <v>1</v>
-      </c>
-      <c r="AQ113">
-        <v>3</v>
-      </c>
-      <c r="AR113">
+      <c r="AQ114">
+        <v>0.33</v>
+      </c>
+      <c r="AR114">
+        <v>1.48</v>
+      </c>
+      <c r="AS114">
+        <v>1.21</v>
+      </c>
+      <c r="AT114">
+        <v>2.69</v>
+      </c>
+      <c r="AU114">
+        <v>9</v>
+      </c>
+      <c r="AV114">
+        <v>4</v>
+      </c>
+      <c r="AW114">
+        <v>7</v>
+      </c>
+      <c r="AX114">
+        <v>5</v>
+      </c>
+      <c r="AY114">
+        <v>24</v>
+      </c>
+      <c r="AZ114">
+        <v>11</v>
+      </c>
+      <c r="BA114">
+        <v>8</v>
+      </c>
+      <c r="BB114">
+        <v>1</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
         <v>1.3</v>
       </c>
-      <c r="AS113">
-        <v>1.67</v>
-      </c>
-      <c r="AT113">
-        <v>2.97</v>
-      </c>
-      <c r="AU113">
-        <v>4</v>
-      </c>
-      <c r="AV113">
-        <v>8</v>
-      </c>
-      <c r="AW113">
-        <v>3</v>
-      </c>
-      <c r="AX113">
-        <v>6</v>
-      </c>
-      <c r="AY113">
-        <v>11</v>
-      </c>
-      <c r="AZ113">
-        <v>24</v>
-      </c>
-      <c r="BA113">
+      <c r="BE114">
         <v>7</v>
       </c>
-      <c r="BB113">
-        <v>9</v>
-      </c>
-      <c r="BC113">
-        <v>16</v>
-      </c>
-      <c r="BD113">
-        <v>3.55</v>
-      </c>
-      <c r="BE113">
-        <v>7</v>
-      </c>
-      <c r="BF113">
-        <v>1.3</v>
-      </c>
-      <c r="BG113">
-        <v>1.34</v>
-      </c>
-      <c r="BH113">
-        <v>2.9</v>
-      </c>
-      <c r="BI113">
-        <v>1.57</v>
-      </c>
-      <c r="BJ113">
-        <v>2.23</v>
-      </c>
-      <c r="BK113">
-        <v>1.92</v>
-      </c>
-      <c r="BL113">
-        <v>1.77</v>
-      </c>
-      <c r="BM113">
-        <v>2.43</v>
-      </c>
-      <c r="BN113">
-        <v>1.48</v>
-      </c>
-      <c r="BO113">
-        <v>3.15</v>
-      </c>
-      <c r="BP113">
-        <v>1.3</v>
+      <c r="BF114">
+        <v>3.45</v>
+      </c>
+      <c r="BG114">
+        <v>1.27</v>
+      </c>
+      <c r="BH114">
+        <v>3.3</v>
+      </c>
+      <c r="BI114">
+        <v>1.47</v>
+      </c>
+      <c r="BJ114">
+        <v>2.48</v>
+      </c>
+      <c r="BK114">
+        <v>1.76</v>
+      </c>
+      <c r="BL114">
+        <v>1.93</v>
+      </c>
+      <c r="BM114">
+        <v>2.18</v>
+      </c>
+      <c r="BN114">
+        <v>1.58</v>
+      </c>
+      <c r="BO114">
+        <v>2.8</v>
+      </c>
+      <c r="BP114">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -521,6 +521,9 @@
   </si>
   <si>
     <t>['28', '45+3', '75']</t>
+  </si>
+  <si>
+    <t>['35']</t>
   </si>
   <si>
     <t>['3', '50', '54', '78', '84']</t>
@@ -1092,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1354,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1432,7 +1435,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ2">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1557,7 +1560,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ6">
         <v>0.67</v>
@@ -2381,7 +2384,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2587,7 +2590,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2665,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -2793,7 +2796,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2999,7 +3002,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3205,7 +3208,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3283,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3411,7 +3414,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3617,7 +3620,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3823,7 +3826,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4029,7 +4032,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4110,7 +4113,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ15">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4235,7 +4238,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4441,7 +4444,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4647,7 +4650,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -4934,7 +4937,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ19">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5265,7 +5268,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5343,7 +5346,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21">
         <v>1.29</v>
@@ -5471,7 +5474,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5677,7 +5680,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5883,7 +5886,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6089,7 +6092,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6170,7 +6173,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR25">
         <v>1.29</v>
@@ -6376,7 +6379,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ26">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR26">
         <v>1.44</v>
@@ -6501,7 +6504,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6582,7 +6585,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ27">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -6785,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -7119,7 +7122,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7531,7 +7534,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7737,7 +7740,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8149,7 +8152,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8227,7 +8230,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ35">
         <v>0.67</v>
@@ -8355,7 +8358,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8433,7 +8436,7 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ36">
         <v>0.86</v>
@@ -8561,7 +8564,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8973,7 +8976,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9179,7 +9182,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9385,7 +9388,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9672,7 +9675,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR42">
         <v>1.49</v>
@@ -9797,7 +9800,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10003,7 +10006,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10287,7 +10290,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10415,7 +10418,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10905,7 +10908,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ48">
         <v>1.17</v>
@@ -11033,7 +11036,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11239,7 +11242,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11651,7 +11654,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11732,7 +11735,7 @@
         <v>0</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.43</v>
@@ -11857,7 +11860,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12475,7 +12478,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12553,7 +12556,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12681,7 +12684,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12759,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57">
         <v>0.4</v>
@@ -13093,7 +13096,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13174,7 +13177,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ59">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>2.34</v>
@@ -13299,7 +13302,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13505,7 +13508,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13711,7 +13714,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13917,7 +13920,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14123,7 +14126,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14329,7 +14332,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14741,7 +14744,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14947,7 +14950,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15359,7 +15362,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15437,7 +15440,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
         <v>1.29</v>
@@ -15565,7 +15568,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16058,7 +16061,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ73">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR73">
         <v>1.95</v>
@@ -16183,7 +16186,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16801,7 +16804,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17007,7 +17010,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17085,10 +17088,10 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ78">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17419,7 +17422,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17500,7 +17503,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.32</v>
@@ -17625,7 +17628,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17703,7 +17706,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ81">
         <v>2.43</v>
@@ -17831,7 +17834,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18037,7 +18040,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18449,7 +18452,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18655,7 +18658,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18861,7 +18864,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19067,7 +19070,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19685,7 +19688,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19891,7 +19894,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20097,7 +20100,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20175,7 +20178,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20509,7 +20512,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20590,7 +20593,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ95">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AR95">
         <v>1.8</v>
@@ -20715,7 +20718,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20793,7 +20796,7 @@
         <v>1.4</v>
       </c>
       <c r="AP96">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21002,7 +21005,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ97">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21208,7 +21211,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21333,7 +21336,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21617,7 +21620,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ100">
         <v>0.67</v>
@@ -21745,7 +21748,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -21951,7 +21954,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22157,7 +22160,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22363,7 +22366,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22569,7 +22572,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22981,7 +22984,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23599,7 +23602,7 @@
         <v>91</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>6.5</v>
@@ -23805,7 +23808,7 @@
         <v>166</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -23978,7 +23981,7 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45619.3125</v>
+        <v>45618.875</v>
       </c>
       <c r="F112">
         <v>13</v>
@@ -24011,7 +24014,7 @@
         <v>167</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q112">
         <v>2.63</v>
@@ -24381,7 +24384,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7516403</v>
+        <v>7516399</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24390,195 +24393,813 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45621.58333333334</v>
+        <v>45620.3125</v>
       </c>
       <c r="F114">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H114" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M114">
         <v>0</v>
       </c>
       <c r="N114">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O114" t="s">
-        <v>169</v>
+        <v>91</v>
       </c>
       <c r="P114" t="s">
         <v>91</v>
       </c>
       <c r="Q114">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="R114">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="S114">
+        <v>3</v>
+      </c>
+      <c r="T114">
+        <v>1.36</v>
+      </c>
+      <c r="U114">
+        <v>3</v>
+      </c>
+      <c r="V114">
+        <v>2.63</v>
+      </c>
+      <c r="W114">
+        <v>1.44</v>
+      </c>
+      <c r="X114">
+        <v>7</v>
+      </c>
+      <c r="Y114">
+        <v>1.1</v>
+      </c>
+      <c r="Z114">
+        <v>2.61</v>
+      </c>
+      <c r="AA114">
+        <v>3.45</v>
+      </c>
+      <c r="AB114">
+        <v>2.46</v>
+      </c>
+      <c r="AC114">
+        <v>1.05</v>
+      </c>
+      <c r="AD114">
+        <v>13</v>
+      </c>
+      <c r="AE114">
+        <v>1.25</v>
+      </c>
+      <c r="AF114">
+        <v>3.82</v>
+      </c>
+      <c r="AG114">
+        <v>1.73</v>
+      </c>
+      <c r="AH114">
+        <v>2</v>
+      </c>
+      <c r="AI114">
+        <v>1.62</v>
+      </c>
+      <c r="AJ114">
+        <v>2.2</v>
+      </c>
+      <c r="AK114">
+        <v>1.6</v>
+      </c>
+      <c r="AL114">
+        <v>1.33</v>
+      </c>
+      <c r="AM114">
+        <v>1.47</v>
+      </c>
+      <c r="AN114">
+        <v>1.67</v>
+      </c>
+      <c r="AO114">
+        <v>2.2</v>
+      </c>
+      <c r="AP114">
+        <v>1.57</v>
+      </c>
+      <c r="AQ114">
+        <v>2</v>
+      </c>
+      <c r="AR114">
+        <v>1.24</v>
+      </c>
+      <c r="AS114">
+        <v>1.3</v>
+      </c>
+      <c r="AT114">
+        <v>2.54</v>
+      </c>
+      <c r="AU114">
         <v>6</v>
       </c>
-      <c r="T114">
-        <v>1.29</v>
-      </c>
-      <c r="U114">
-        <v>3.5</v>
-      </c>
-      <c r="V114">
-        <v>2.25</v>
-      </c>
-      <c r="W114">
-        <v>1.57</v>
-      </c>
-      <c r="X114">
-        <v>5.5</v>
-      </c>
-      <c r="Y114">
-        <v>1.14</v>
-      </c>
-      <c r="Z114">
-        <v>1.4</v>
-      </c>
-      <c r="AA114">
-        <v>4.75</v>
-      </c>
-      <c r="AB114">
-        <v>6</v>
-      </c>
-      <c r="AC114">
-        <v>1.02</v>
-      </c>
-      <c r="AD114">
-        <v>23</v>
-      </c>
-      <c r="AE114">
-        <v>1.13</v>
-      </c>
-      <c r="AF114">
-        <v>5.61</v>
-      </c>
-      <c r="AG114">
-        <v>1.45</v>
-      </c>
-      <c r="AH114">
-        <v>2.55</v>
-      </c>
-      <c r="AI114">
-        <v>1.73</v>
-      </c>
-      <c r="AJ114">
-        <v>2</v>
-      </c>
-      <c r="AK114">
-        <v>1.12</v>
-      </c>
-      <c r="AL114">
-        <v>1.2</v>
-      </c>
-      <c r="AM114">
-        <v>3.1</v>
-      </c>
-      <c r="AN114">
-        <v>1.6</v>
-      </c>
-      <c r="AO114">
-        <v>0.4</v>
-      </c>
-      <c r="AP114">
-        <v>1.83</v>
-      </c>
-      <c r="AQ114">
-        <v>0.33</v>
-      </c>
-      <c r="AR114">
-        <v>1.48</v>
-      </c>
-      <c r="AS114">
-        <v>1.21</v>
-      </c>
-      <c r="AT114">
-        <v>2.69</v>
-      </c>
-      <c r="AU114">
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>3</v>
+      </c>
+      <c r="AX114">
         <v>9</v>
       </c>
-      <c r="AV114">
+      <c r="AY114">
+        <v>12</v>
+      </c>
+      <c r="AZ114">
+        <v>21</v>
+      </c>
+      <c r="BA114">
+        <v>5</v>
+      </c>
+      <c r="BB114">
         <v>4</v>
-      </c>
-      <c r="AW114">
-        <v>7</v>
-      </c>
-      <c r="AX114">
-        <v>5</v>
-      </c>
-      <c r="AY114">
-        <v>24</v>
-      </c>
-      <c r="AZ114">
-        <v>11</v>
-      </c>
-      <c r="BA114">
-        <v>8</v>
-      </c>
-      <c r="BB114">
-        <v>1</v>
       </c>
       <c r="BC114">
         <v>9</v>
       </c>
       <c r="BD114">
+        <v>1.95</v>
+      </c>
+      <c r="BE114">
+        <v>6.25</v>
+      </c>
+      <c r="BF114">
+        <v>1.95</v>
+      </c>
+      <c r="BG114">
+        <v>1.34</v>
+      </c>
+      <c r="BH114">
+        <v>2.9</v>
+      </c>
+      <c r="BI114">
+        <v>1.57</v>
+      </c>
+      <c r="BJ114">
+        <v>2.2</v>
+      </c>
+      <c r="BK114">
+        <v>1.94</v>
+      </c>
+      <c r="BL114">
+        <v>1.76</v>
+      </c>
+      <c r="BM114">
+        <v>2.45</v>
+      </c>
+      <c r="BN114">
+        <v>1.48</v>
+      </c>
+      <c r="BO114">
+        <v>3.2</v>
+      </c>
+      <c r="BP114">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7516402</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45620.41666666666</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>76</v>
+      </c>
+      <c r="H115" t="s">
+        <v>75</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>169</v>
+      </c>
+      <c r="P115" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q115">
+        <v>2.38</v>
+      </c>
+      <c r="R115">
+        <v>2.2</v>
+      </c>
+      <c r="S115">
+        <v>4.75</v>
+      </c>
+      <c r="T115">
+        <v>1.4</v>
+      </c>
+      <c r="U115">
+        <v>2.75</v>
+      </c>
+      <c r="V115">
+        <v>2.75</v>
+      </c>
+      <c r="W115">
+        <v>1.4</v>
+      </c>
+      <c r="X115">
+        <v>8</v>
+      </c>
+      <c r="Y115">
+        <v>1.08</v>
+      </c>
+      <c r="Z115">
+        <v>1.74</v>
+      </c>
+      <c r="AA115">
+        <v>3.6</v>
+      </c>
+      <c r="AB115">
+        <v>4.4</v>
+      </c>
+      <c r="AC115">
+        <v>1.03</v>
+      </c>
+      <c r="AD115">
+        <v>10.65</v>
+      </c>
+      <c r="AE115">
+        <v>1.27</v>
+      </c>
+      <c r="AF115">
+        <v>3.61</v>
+      </c>
+      <c r="AG115">
+        <v>1.94</v>
+      </c>
+      <c r="AH115">
+        <v>1.9</v>
+      </c>
+      <c r="AI115">
+        <v>1.83</v>
+      </c>
+      <c r="AJ115">
+        <v>1.83</v>
+      </c>
+      <c r="AK115">
+        <v>1.22</v>
+      </c>
+      <c r="AL115">
         <v>1.3</v>
       </c>
-      <c r="BE114">
+      <c r="AM115">
+        <v>2.15</v>
+      </c>
+      <c r="AN115">
+        <v>1.67</v>
+      </c>
+      <c r="AO115">
+        <v>0.8</v>
+      </c>
+      <c r="AP115">
+        <v>1.57</v>
+      </c>
+      <c r="AQ115">
+        <v>0.83</v>
+      </c>
+      <c r="AR115">
+        <v>1.6</v>
+      </c>
+      <c r="AS115">
+        <v>1.03</v>
+      </c>
+      <c r="AT115">
+        <v>2.63</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>5</v>
+      </c>
+      <c r="AW115">
+        <v>3</v>
+      </c>
+      <c r="AX115">
         <v>7</v>
       </c>
-      <c r="BF114">
+      <c r="AY115">
+        <v>12</v>
+      </c>
+      <c r="AZ115">
+        <v>16</v>
+      </c>
+      <c r="BA115">
+        <v>1</v>
+      </c>
+      <c r="BB115">
+        <v>9</v>
+      </c>
+      <c r="BC115">
+        <v>10</v>
+      </c>
+      <c r="BD115">
+        <v>1.48</v>
+      </c>
+      <c r="BE115">
+        <v>6.4</v>
+      </c>
+      <c r="BF115">
+        <v>2.8</v>
+      </c>
+      <c r="BG115">
+        <v>1.41</v>
+      </c>
+      <c r="BH115">
+        <v>2.65</v>
+      </c>
+      <c r="BI115">
+        <v>1.67</v>
+      </c>
+      <c r="BJ115">
+        <v>2.05</v>
+      </c>
+      <c r="BK115">
+        <v>2.08</v>
+      </c>
+      <c r="BL115">
+        <v>1.65</v>
+      </c>
+      <c r="BM115">
+        <v>2.65</v>
+      </c>
+      <c r="BN115">
+        <v>1.41</v>
+      </c>
+      <c r="BO115">
+        <v>3.55</v>
+      </c>
+      <c r="BP115">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7516401</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45620.41666666666</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>79</v>
+      </c>
+      <c r="H116" t="s">
+        <v>87</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>1</v>
+      </c>
+      <c r="M116">
+        <v>1</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>115</v>
+      </c>
+      <c r="P116" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q116">
+        <v>2.6</v>
+      </c>
+      <c r="R116">
+        <v>2.1</v>
+      </c>
+      <c r="S116">
+        <v>4.5</v>
+      </c>
+      <c r="T116">
+        <v>1.44</v>
+      </c>
+      <c r="U116">
+        <v>2.63</v>
+      </c>
+      <c r="V116">
+        <v>3</v>
+      </c>
+      <c r="W116">
+        <v>1.36</v>
+      </c>
+      <c r="X116">
+        <v>9</v>
+      </c>
+      <c r="Y116">
+        <v>1.07</v>
+      </c>
+      <c r="Z116">
+        <v>1.98</v>
+      </c>
+      <c r="AA116">
+        <v>3.35</v>
+      </c>
+      <c r="AB116">
+        <v>3.6</v>
+      </c>
+      <c r="AC116">
+        <v>1.05</v>
+      </c>
+      <c r="AD116">
+        <v>9</v>
+      </c>
+      <c r="AE116">
+        <v>1.32</v>
+      </c>
+      <c r="AF116">
+        <v>3.25</v>
+      </c>
+      <c r="AG116">
+        <v>2.1</v>
+      </c>
+      <c r="AH116">
+        <v>1.65</v>
+      </c>
+      <c r="AI116">
+        <v>1.83</v>
+      </c>
+      <c r="AJ116">
+        <v>1.83</v>
+      </c>
+      <c r="AK116">
+        <v>1.28</v>
+      </c>
+      <c r="AL116">
+        <v>1.33</v>
+      </c>
+      <c r="AM116">
+        <v>1.9</v>
+      </c>
+      <c r="AN116">
+        <v>1.6</v>
+      </c>
+      <c r="AO116">
+        <v>0.2</v>
+      </c>
+      <c r="AP116">
+        <v>1.5</v>
+      </c>
+      <c r="AQ116">
+        <v>0.33</v>
+      </c>
+      <c r="AR116">
+        <v>1.38</v>
+      </c>
+      <c r="AS116">
+        <v>1.09</v>
+      </c>
+      <c r="AT116">
+        <v>2.47</v>
+      </c>
+      <c r="AU116">
+        <v>3</v>
+      </c>
+      <c r="AV116">
+        <v>4</v>
+      </c>
+      <c r="AW116">
+        <v>4</v>
+      </c>
+      <c r="AX116">
+        <v>9</v>
+      </c>
+      <c r="AY116">
+        <v>11</v>
+      </c>
+      <c r="AZ116">
+        <v>15</v>
+      </c>
+      <c r="BA116">
+        <v>2</v>
+      </c>
+      <c r="BB116">
+        <v>8</v>
+      </c>
+      <c r="BC116">
+        <v>10</v>
+      </c>
+      <c r="BD116">
+        <v>1.57</v>
+      </c>
+      <c r="BE116">
+        <v>6.4</v>
+      </c>
+      <c r="BF116">
+        <v>2.55</v>
+      </c>
+      <c r="BG116">
+        <v>1.35</v>
+      </c>
+      <c r="BH116">
+        <v>2.9</v>
+      </c>
+      <c r="BI116">
+        <v>1.6</v>
+      </c>
+      <c r="BJ116">
+        <v>2.17</v>
+      </c>
+      <c r="BK116">
+        <v>1.98</v>
+      </c>
+      <c r="BL116">
+        <v>1.72</v>
+      </c>
+      <c r="BM116">
+        <v>2.5</v>
+      </c>
+      <c r="BN116">
+        <v>1.46</v>
+      </c>
+      <c r="BO116">
+        <v>3.3</v>
+      </c>
+      <c r="BP116">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7516403</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45621.58333333334</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>88</v>
+      </c>
+      <c r="H117" t="s">
+        <v>82</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>5</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" t="s">
+        <v>170</v>
+      </c>
+      <c r="P117" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q117">
+        <v>1.95</v>
+      </c>
+      <c r="R117">
+        <v>2.5</v>
+      </c>
+      <c r="S117">
+        <v>6</v>
+      </c>
+      <c r="T117">
+        <v>1.29</v>
+      </c>
+      <c r="U117">
+        <v>3.5</v>
+      </c>
+      <c r="V117">
+        <v>2.25</v>
+      </c>
+      <c r="W117">
+        <v>1.57</v>
+      </c>
+      <c r="X117">
+        <v>5.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.14</v>
+      </c>
+      <c r="Z117">
+        <v>1.4</v>
+      </c>
+      <c r="AA117">
+        <v>4.75</v>
+      </c>
+      <c r="AB117">
+        <v>6</v>
+      </c>
+      <c r="AC117">
+        <v>1.02</v>
+      </c>
+      <c r="AD117">
+        <v>23</v>
+      </c>
+      <c r="AE117">
+        <v>1.13</v>
+      </c>
+      <c r="AF117">
+        <v>5.61</v>
+      </c>
+      <c r="AG117">
+        <v>1.45</v>
+      </c>
+      <c r="AH117">
+        <v>2.55</v>
+      </c>
+      <c r="AI117">
+        <v>1.73</v>
+      </c>
+      <c r="AJ117">
+        <v>2</v>
+      </c>
+      <c r="AK117">
+        <v>1.12</v>
+      </c>
+      <c r="AL117">
+        <v>1.2</v>
+      </c>
+      <c r="AM117">
+        <v>3.1</v>
+      </c>
+      <c r="AN117">
+        <v>1.6</v>
+      </c>
+      <c r="AO117">
+        <v>0.4</v>
+      </c>
+      <c r="AP117">
+        <v>1.83</v>
+      </c>
+      <c r="AQ117">
+        <v>0.33</v>
+      </c>
+      <c r="AR117">
+        <v>1.48</v>
+      </c>
+      <c r="AS117">
+        <v>1.21</v>
+      </c>
+      <c r="AT117">
+        <v>2.69</v>
+      </c>
+      <c r="AU117">
+        <v>9</v>
+      </c>
+      <c r="AV117">
+        <v>4</v>
+      </c>
+      <c r="AW117">
+        <v>7</v>
+      </c>
+      <c r="AX117">
+        <v>5</v>
+      </c>
+      <c r="AY117">
+        <v>24</v>
+      </c>
+      <c r="AZ117">
+        <v>11</v>
+      </c>
+      <c r="BA117">
+        <v>8</v>
+      </c>
+      <c r="BB117">
+        <v>1</v>
+      </c>
+      <c r="BC117">
+        <v>9</v>
+      </c>
+      <c r="BD117">
+        <v>1.3</v>
+      </c>
+      <c r="BE117">
+        <v>7</v>
+      </c>
+      <c r="BF117">
         <v>3.45</v>
       </c>
-      <c r="BG114">
+      <c r="BG117">
         <v>1.27</v>
       </c>
-      <c r="BH114">
+      <c r="BH117">
         <v>3.3</v>
       </c>
-      <c r="BI114">
+      <c r="BI117">
         <v>1.47</v>
       </c>
-      <c r="BJ114">
+      <c r="BJ117">
         <v>2.48</v>
       </c>
-      <c r="BK114">
+      <c r="BK117">
         <v>1.76</v>
       </c>
-      <c r="BL114">
+      <c r="BL117">
         <v>1.93</v>
       </c>
-      <c r="BM114">
+      <c r="BM117">
         <v>2.18</v>
       </c>
-      <c r="BN114">
+      <c r="BN117">
         <v>1.58</v>
       </c>
-      <c r="BO114">
+      <c r="BO117">
         <v>2.8</v>
       </c>
-      <c r="BP114">
+      <c r="BP117">
         <v>1.36</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -514,16 +514,19 @@
     <t>['24', '54', '82', '90+4']</t>
   </si>
   <si>
-    <t>['43', '56']</t>
-  </si>
-  <si>
     <t>['27']</t>
   </si>
   <si>
     <t>['28', '45+3', '75']</t>
   </si>
   <si>
+    <t>['43', '56']</t>
+  </si>
+  <si>
     <t>['35']</t>
+  </si>
+  <si>
+    <t>['3', '9']</t>
   </si>
   <si>
     <t>['3', '50', '54', '78', '84']</t>
@@ -727,13 +730,16 @@
     <t>['50', '90+3']</t>
   </si>
   <si>
-    <t>['54']</t>
+    <t>['55', '75']</t>
   </si>
   <si>
     <t>['7', '15', '26', '63', '85', '88']</t>
   </si>
   <si>
-    <t>['55', '75']</t>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['12', '32', '82', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP117"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1360,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1560,7 +1566,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1847,7 +1853,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2384,7 +2390,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2590,7 +2596,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2796,7 +2802,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3002,7 +3008,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3208,7 +3214,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3414,7 +3420,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3620,7 +3626,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3826,7 +3832,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4032,7 +4038,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4238,7 +4244,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4316,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.67</v>
@@ -4444,7 +4450,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4650,7 +4656,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5143,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="AQ20">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5268,7 +5274,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5474,7 +5480,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5680,7 +5686,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5886,7 +5892,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6092,7 +6098,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6504,7 +6510,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7122,7 +7128,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7534,7 +7540,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7740,7 +7746,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8024,7 +8030,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>1.17</v>
@@ -8152,7 +8158,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8358,7 +8364,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8564,7 +8570,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8976,7 +8982,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9182,7 +9188,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9388,7 +9394,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9800,7 +9806,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10006,7 +10012,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10418,7 +10424,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10624,7 +10630,7 @@
         <v>91</v>
       </c>
       <c r="P47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q47">
         <v>3.25</v>
@@ -11036,7 +11042,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11242,7 +11248,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11654,7 +11660,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11860,7 +11866,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -11938,7 +11944,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>1.29</v>
@@ -12478,7 +12484,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12684,7 +12690,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12765,7 +12771,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ57">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR57">
         <v>1.53</v>
@@ -13096,7 +13102,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13302,7 +13308,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13508,7 +13514,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13714,7 +13720,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13920,7 +13926,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14126,7 +14132,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14332,7 +14338,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14744,7 +14750,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14950,7 +14956,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15362,7 +15368,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15568,7 +15574,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16186,7 +16192,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16679,7 +16685,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ76">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16804,7 +16810,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17010,7 +17016,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17294,7 +17300,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>0.86</v>
@@ -17422,7 +17428,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17628,7 +17634,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17834,7 +17840,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18040,7 +18046,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18452,7 +18458,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18658,7 +18664,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18864,7 +18870,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19070,7 +19076,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19688,7 +19694,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19894,7 +19900,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -19975,7 +19981,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ92">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20100,7 +20106,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20512,7 +20518,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20590,7 +20596,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>2</v>
@@ -20718,7 +20724,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21336,7 +21342,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21748,7 +21754,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -21954,7 +21960,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22160,7 +22166,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22366,7 +22372,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22572,7 +22578,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22984,7 +22990,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23560,7 +23566,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>7516405</v>
+        <v>7516404</v>
       </c>
       <c r="C110" t="s">
         <v>68</v>
@@ -23569,196 +23575,196 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45618.875</v>
+        <v>45619.3125</v>
       </c>
       <c r="F110">
         <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H110" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110">
         <v>0</v>
       </c>
       <c r="K110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O110" t="s">
-        <v>91</v>
+        <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q110">
-        <v>6.5</v>
+        <v>2.63</v>
       </c>
       <c r="R110">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S110">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="T110">
+        <v>1.4</v>
+      </c>
+      <c r="U110">
+        <v>2.75</v>
+      </c>
+      <c r="V110">
+        <v>2.75</v>
+      </c>
+      <c r="W110">
+        <v>1.4</v>
+      </c>
+      <c r="X110">
+        <v>8</v>
+      </c>
+      <c r="Y110">
+        <v>1.08</v>
+      </c>
+      <c r="Z110">
+        <v>1.91</v>
+      </c>
+      <c r="AA110">
+        <v>3.4</v>
+      </c>
+      <c r="AB110">
+        <v>3.4</v>
+      </c>
+      <c r="AC110">
+        <v>1.03</v>
+      </c>
+      <c r="AD110">
+        <v>10.65</v>
+      </c>
+      <c r="AE110">
+        <v>1.27</v>
+      </c>
+      <c r="AF110">
+        <v>3.61</v>
+      </c>
+      <c r="AG110">
+        <v>1.75</v>
+      </c>
+      <c r="AH110">
+        <v>1.91</v>
+      </c>
+      <c r="AI110">
+        <v>1.73</v>
+      </c>
+      <c r="AJ110">
+        <v>2</v>
+      </c>
+      <c r="AK110">
         <v>1.33</v>
       </c>
-      <c r="U110">
-        <v>3.25</v>
-      </c>
-      <c r="V110">
-        <v>2.5</v>
-      </c>
-      <c r="W110">
+      <c r="AL110">
+        <v>1.33</v>
+      </c>
+      <c r="AM110">
+        <v>1.83</v>
+      </c>
+      <c r="AN110">
+        <v>2.6</v>
+      </c>
+      <c r="AO110">
+        <v>1.2</v>
+      </c>
+      <c r="AP110">
+        <v>2.17</v>
+      </c>
+      <c r="AQ110">
         <v>1.5</v>
       </c>
-      <c r="X110">
-        <v>6</v>
-      </c>
-      <c r="Y110">
-        <v>1.13</v>
-      </c>
-      <c r="Z110">
-        <v>7.11</v>
-      </c>
-      <c r="AA110">
-        <v>2.19</v>
-      </c>
-      <c r="AB110">
-        <v>1.94</v>
-      </c>
-      <c r="AC110">
-        <v>1.04</v>
-      </c>
-      <c r="AD110">
-        <v>15</v>
-      </c>
-      <c r="AE110">
-        <v>1.19</v>
-      </c>
-      <c r="AF110">
-        <v>4.5</v>
-      </c>
-      <c r="AG110">
-        <v>1.65</v>
-      </c>
-      <c r="AH110">
-        <v>2.1</v>
-      </c>
-      <c r="AI110">
-        <v>1.83</v>
-      </c>
-      <c r="AJ110">
-        <v>1.83</v>
-      </c>
-      <c r="AK110">
-        <v>2.9</v>
-      </c>
-      <c r="AL110">
-        <v>1.22</v>
-      </c>
-      <c r="AM110">
-        <v>1.12</v>
-      </c>
-      <c r="AN110">
-        <v>1.17</v>
-      </c>
-      <c r="AO110">
-        <v>3</v>
-      </c>
-      <c r="AP110">
-        <v>1</v>
-      </c>
-      <c r="AQ110">
-        <v>3</v>
-      </c>
       <c r="AR110">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AS110">
-        <v>1.67</v>
+        <v>1.07</v>
       </c>
       <c r="AT110">
-        <v>2.97</v>
+        <v>2.43</v>
       </c>
       <c r="AU110">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV110">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AW110">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AX110">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AY110">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ110">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="BA110">
+        <v>5</v>
+      </c>
+      <c r="BB110">
         <v>7</v>
       </c>
-      <c r="BB110">
-        <v>9</v>
-      </c>
       <c r="BC110">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BD110">
+        <v>1.74</v>
+      </c>
+      <c r="BE110">
+        <v>6.25</v>
+      </c>
+      <c r="BF110">
+        <v>2.18</v>
+      </c>
+      <c r="BG110">
+        <v>1.38</v>
+      </c>
+      <c r="BH110">
+        <v>2.7</v>
+      </c>
+      <c r="BI110">
+        <v>1.66</v>
+      </c>
+      <c r="BJ110">
+        <v>2.07</v>
+      </c>
+      <c r="BK110">
+        <v>2.07</v>
+      </c>
+      <c r="BL110">
+        <v>1.66</v>
+      </c>
+      <c r="BM110">
+        <v>2.65</v>
+      </c>
+      <c r="BN110">
+        <v>1.41</v>
+      </c>
+      <c r="BO110">
         <v>3.55</v>
       </c>
-      <c r="BE110">
-        <v>7</v>
-      </c>
-      <c r="BF110">
-        <v>1.3</v>
-      </c>
-      <c r="BG110">
-        <v>1.34</v>
-      </c>
-      <c r="BH110">
-        <v>2.9</v>
-      </c>
-      <c r="BI110">
-        <v>1.57</v>
-      </c>
-      <c r="BJ110">
-        <v>2.23</v>
-      </c>
-      <c r="BK110">
-        <v>1.92</v>
-      </c>
-      <c r="BL110">
-        <v>1.77</v>
-      </c>
-      <c r="BM110">
-        <v>2.43</v>
-      </c>
-      <c r="BN110">
-        <v>1.48</v>
-      </c>
-      <c r="BO110">
-        <v>3.15</v>
-      </c>
       <c r="BP110">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="111" spans="1:68">
@@ -23766,7 +23772,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7516400</v>
+        <v>7516406</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23775,196 +23781,196 @@
         <v>69</v>
       </c>
       <c r="E111" s="2">
-        <v>45618.875</v>
+        <v>45619.41666666666</v>
       </c>
       <c r="F111">
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H111" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
         <v>3</v>
       </c>
-      <c r="K111">
-        <v>4</v>
-      </c>
-      <c r="L111">
-        <v>2</v>
-      </c>
       <c r="M111">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>167</v>
+      </c>
+      <c r="P111" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q111">
+        <v>3.25</v>
+      </c>
+      <c r="R111">
+        <v>2.2</v>
+      </c>
+      <c r="S111">
+        <v>3.2</v>
+      </c>
+      <c r="T111">
+        <v>1.4</v>
+      </c>
+      <c r="U111">
+        <v>2.75</v>
+      </c>
+      <c r="V111">
+        <v>2.75</v>
+      </c>
+      <c r="W111">
+        <v>1.4</v>
+      </c>
+      <c r="X111">
         <v>8</v>
       </c>
-      <c r="O111" t="s">
-        <v>166</v>
-      </c>
-      <c r="P111" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q111">
-        <v>6</v>
-      </c>
-      <c r="R111">
-        <v>2.4</v>
-      </c>
-      <c r="S111">
-        <v>2</v>
-      </c>
-      <c r="T111">
-        <v>1.3</v>
-      </c>
-      <c r="U111">
-        <v>3.4</v>
-      </c>
-      <c r="V111">
-        <v>2.5</v>
-      </c>
-      <c r="W111">
-        <v>1.5</v>
-      </c>
-      <c r="X111">
-        <v>6</v>
-      </c>
       <c r="Y111">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z111">
-        <v>2.86</v>
+        <v>2.3</v>
       </c>
       <c r="AA111">
-        <v>3.26</v>
+        <v>3.64</v>
       </c>
       <c r="AB111">
-        <v>2.21</v>
+        <v>2.51</v>
       </c>
       <c r="AC111">
         <v>1.03</v>
       </c>
       <c r="AD111">
-        <v>17</v>
+        <v>10.65</v>
       </c>
       <c r="AE111">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="AF111">
-        <v>4.5</v>
+        <v>3.61</v>
       </c>
       <c r="AG111">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="AH111">
+        <v>1.98</v>
+      </c>
+      <c r="AI111">
+        <v>1.67</v>
+      </c>
+      <c r="AJ111">
         <v>2.1</v>
       </c>
-      <c r="AI111">
-        <v>1.73</v>
-      </c>
-      <c r="AJ111">
-        <v>2</v>
-      </c>
       <c r="AK111">
-        <v>2.8</v>
+        <v>1.53</v>
       </c>
       <c r="AL111">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AM111">
-        <v>1.15</v>
+        <v>1.52</v>
       </c>
       <c r="AN111">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="AO111">
-        <v>2.33</v>
+        <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>0.5</v>
+        <v>1.83</v>
       </c>
       <c r="AQ111">
-        <v>2.43</v>
+        <v>1</v>
       </c>
       <c r="AR111">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AS111">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="AT111">
-        <v>3.13</v>
+        <v>2.74</v>
       </c>
       <c r="AU111">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV111">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AW111">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX111">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY111">
         <v>17</v>
       </c>
       <c r="AZ111">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA111">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB111">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC111">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="BD111">
-        <v>3.3</v>
+        <v>1.75</v>
       </c>
       <c r="BE111">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="BF111">
-        <v>1.34</v>
+        <v>2.18</v>
       </c>
       <c r="BG111">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="BH111">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="BI111">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="BJ111">
-        <v>2.3</v>
+        <v>1.98</v>
       </c>
       <c r="BK111">
-        <v>1.86</v>
+        <v>2.17</v>
       </c>
       <c r="BL111">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="BM111">
-        <v>2.33</v>
+        <v>2.8</v>
       </c>
       <c r="BN111">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="BO111">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="BP111">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -23972,7 +23978,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7516404</v>
+        <v>7516400</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23981,94 +23987,94 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45618.875</v>
+        <v>45619.41666666666</v>
       </c>
       <c r="F112">
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H112" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N112">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O112" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P112" t="s">
         <v>239</v>
       </c>
       <c r="Q112">
-        <v>2.63</v>
+        <v>6</v>
       </c>
       <c r="R112">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S112">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T112">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U112">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V112">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W112">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X112">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y112">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z112">
-        <v>1.91</v>
+        <v>2.86</v>
       </c>
       <c r="AA112">
-        <v>3.4</v>
+        <v>3.26</v>
       </c>
       <c r="AB112">
-        <v>3.4</v>
+        <v>2.21</v>
       </c>
       <c r="AC112">
         <v>1.03</v>
       </c>
       <c r="AD112">
-        <v>10.65</v>
+        <v>17</v>
       </c>
       <c r="AE112">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AF112">
-        <v>3.61</v>
+        <v>4.5</v>
       </c>
       <c r="AG112">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AH112">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AI112">
         <v>1.73</v>
@@ -24077,100 +24083,100 @@
         <v>2</v>
       </c>
       <c r="AK112">
-        <v>1.33</v>
+        <v>2.8</v>
       </c>
       <c r="AL112">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AM112">
-        <v>1.83</v>
+        <v>1.15</v>
       </c>
       <c r="AN112">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="AO112">
-        <v>1.2</v>
+        <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>2.17</v>
+        <v>0.5</v>
       </c>
       <c r="AQ112">
+        <v>2.43</v>
+      </c>
+      <c r="AR112">
+        <v>1.64</v>
+      </c>
+      <c r="AS112">
+        <v>1.49</v>
+      </c>
+      <c r="AT112">
+        <v>3.13</v>
+      </c>
+      <c r="AU112">
+        <v>4</v>
+      </c>
+      <c r="AV112">
+        <v>11</v>
+      </c>
+      <c r="AW112">
+        <v>14</v>
+      </c>
+      <c r="AX112">
+        <v>7</v>
+      </c>
+      <c r="AY112">
+        <v>18</v>
+      </c>
+      <c r="AZ112">
+        <v>18</v>
+      </c>
+      <c r="BA112">
+        <v>10</v>
+      </c>
+      <c r="BB112">
+        <v>5</v>
+      </c>
+      <c r="BC112">
+        <v>15</v>
+      </c>
+      <c r="BD112">
+        <v>3.3</v>
+      </c>
+      <c r="BE112">
+        <v>7</v>
+      </c>
+      <c r="BF112">
+        <v>1.34</v>
+      </c>
+      <c r="BG112">
+        <v>1.3</v>
+      </c>
+      <c r="BH112">
+        <v>3.1</v>
+      </c>
+      <c r="BI112">
+        <v>1.53</v>
+      </c>
+      <c r="BJ112">
+        <v>2.3</v>
+      </c>
+      <c r="BK112">
+        <v>1.86</v>
+      </c>
+      <c r="BL112">
+        <v>1.82</v>
+      </c>
+      <c r="BM112">
+        <v>2.33</v>
+      </c>
+      <c r="BN112">
         <v>1.5</v>
       </c>
-      <c r="AR112">
-        <v>1.36</v>
-      </c>
-      <c r="AS112">
-        <v>1.07</v>
-      </c>
-      <c r="AT112">
-        <v>2.43</v>
-      </c>
-      <c r="AU112">
-        <v>7</v>
-      </c>
-      <c r="AV112">
-        <v>5</v>
-      </c>
-      <c r="AW112">
-        <v>6</v>
-      </c>
-      <c r="AX112">
-        <v>3</v>
-      </c>
-      <c r="AY112">
-        <v>16</v>
-      </c>
-      <c r="AZ112">
-        <v>14</v>
-      </c>
-      <c r="BA112">
-        <v>5</v>
-      </c>
-      <c r="BB112">
-        <v>7</v>
-      </c>
-      <c r="BC112">
-        <v>12</v>
-      </c>
-      <c r="BD112">
-        <v>1.74</v>
-      </c>
-      <c r="BE112">
-        <v>6.25</v>
-      </c>
-      <c r="BF112">
-        <v>2.18</v>
-      </c>
-      <c r="BG112">
-        <v>1.38</v>
-      </c>
-      <c r="BH112">
-        <v>2.7</v>
-      </c>
-      <c r="BI112">
-        <v>1.66</v>
-      </c>
-      <c r="BJ112">
-        <v>2.07</v>
-      </c>
-      <c r="BK112">
-        <v>2.07</v>
-      </c>
-      <c r="BL112">
-        <v>1.66</v>
-      </c>
-      <c r="BM112">
-        <v>2.65</v>
-      </c>
-      <c r="BN112">
-        <v>1.41</v>
-      </c>
       <c r="BO112">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="BP112">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24178,7 +24184,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7516406</v>
+        <v>7516405</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24187,196 +24193,196 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45619.41666666666</v>
+        <v>45619.54166666666</v>
       </c>
       <c r="F113">
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H113" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113">
         <v>0</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>1</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113" t="s">
+        <v>91</v>
+      </c>
+      <c r="P113" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q113">
+        <v>6.5</v>
+      </c>
+      <c r="R113">
+        <v>2.4</v>
+      </c>
+      <c r="S113">
+        <v>1.95</v>
+      </c>
+      <c r="T113">
+        <v>1.33</v>
+      </c>
+      <c r="U113">
+        <v>3.25</v>
+      </c>
+      <c r="V113">
+        <v>2.5</v>
+      </c>
+      <c r="W113">
+        <v>1.5</v>
+      </c>
+      <c r="X113">
+        <v>6</v>
+      </c>
+      <c r="Y113">
+        <v>1.13</v>
+      </c>
+      <c r="Z113">
+        <v>7.11</v>
+      </c>
+      <c r="AA113">
+        <v>2.19</v>
+      </c>
+      <c r="AB113">
+        <v>1.94</v>
+      </c>
+      <c r="AC113">
+        <v>1.04</v>
+      </c>
+      <c r="AD113">
+        <v>15</v>
+      </c>
+      <c r="AE113">
+        <v>1.19</v>
+      </c>
+      <c r="AF113">
+        <v>4.5</v>
+      </c>
+      <c r="AG113">
+        <v>1.65</v>
+      </c>
+      <c r="AH113">
+        <v>2.1</v>
+      </c>
+      <c r="AI113">
+        <v>1.83</v>
+      </c>
+      <c r="AJ113">
+        <v>1.83</v>
+      </c>
+      <c r="AK113">
+        <v>2.9</v>
+      </c>
+      <c r="AL113">
+        <v>1.22</v>
+      </c>
+      <c r="AM113">
+        <v>1.12</v>
+      </c>
+      <c r="AN113">
+        <v>1.17</v>
+      </c>
+      <c r="AO113">
         <v>3</v>
       </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-      <c r="N113">
+      <c r="AP113">
+        <v>1</v>
+      </c>
+      <c r="AQ113">
         <v>3</v>
       </c>
-      <c r="O113" t="s">
-        <v>168</v>
-      </c>
-      <c r="P113" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q113">
-        <v>3.25</v>
-      </c>
-      <c r="R113">
-        <v>2.2</v>
-      </c>
-      <c r="S113">
-        <v>3.2</v>
-      </c>
-      <c r="T113">
-        <v>1.4</v>
-      </c>
-      <c r="U113">
-        <v>2.75</v>
-      </c>
-      <c r="V113">
-        <v>2.75</v>
-      </c>
-      <c r="W113">
-        <v>1.4</v>
-      </c>
-      <c r="X113">
+      <c r="AR113">
+        <v>1.3</v>
+      </c>
+      <c r="AS113">
+        <v>1.67</v>
+      </c>
+      <c r="AT113">
+        <v>2.97</v>
+      </c>
+      <c r="AU113">
+        <v>4</v>
+      </c>
+      <c r="AV113">
         <v>8</v>
       </c>
-      <c r="Y113">
-        <v>1.08</v>
-      </c>
-      <c r="Z113">
-        <v>2.3</v>
-      </c>
-      <c r="AA113">
-        <v>3.64</v>
-      </c>
-      <c r="AB113">
-        <v>2.51</v>
-      </c>
-      <c r="AC113">
-        <v>1.03</v>
-      </c>
-      <c r="AD113">
-        <v>10.65</v>
-      </c>
-      <c r="AE113">
-        <v>1.27</v>
-      </c>
-      <c r="AF113">
-        <v>3.61</v>
-      </c>
-      <c r="AG113">
-        <v>1.88</v>
-      </c>
-      <c r="AH113">
-        <v>1.98</v>
-      </c>
-      <c r="AI113">
-        <v>1.67</v>
-      </c>
-      <c r="AJ113">
-        <v>2.1</v>
-      </c>
-      <c r="AK113">
-        <v>1.53</v>
-      </c>
-      <c r="AL113">
-        <v>1.35</v>
-      </c>
-      <c r="AM113">
-        <v>1.52</v>
-      </c>
-      <c r="AN113">
-        <v>1.6</v>
-      </c>
-      <c r="AO113">
-        <v>1.17</v>
-      </c>
-      <c r="AP113">
-        <v>1.83</v>
-      </c>
-      <c r="AQ113">
-        <v>1</v>
-      </c>
-      <c r="AR113">
-        <v>1.46</v>
-      </c>
-      <c r="AS113">
-        <v>1.28</v>
-      </c>
-      <c r="AT113">
-        <v>2.74</v>
-      </c>
-      <c r="AU113">
+      <c r="AW113">
         <v>8</v>
       </c>
-      <c r="AV113">
+      <c r="AX113">
+        <v>17</v>
+      </c>
+      <c r="AY113">
+        <v>12</v>
+      </c>
+      <c r="AZ113">
+        <v>25</v>
+      </c>
+      <c r="BA113">
         <v>7</v>
       </c>
-      <c r="AW113">
-        <v>4</v>
-      </c>
-      <c r="AX113">
+      <c r="BB113">
+        <v>9</v>
+      </c>
+      <c r="BC113">
+        <v>16</v>
+      </c>
+      <c r="BD113">
+        <v>3.55</v>
+      </c>
+      <c r="BE113">
         <v>7</v>
       </c>
-      <c r="AY113">
-        <v>16</v>
-      </c>
-      <c r="AZ113">
-        <v>16</v>
-      </c>
-      <c r="BA113">
-        <v>2</v>
-      </c>
-      <c r="BB113">
-        <v>6</v>
-      </c>
-      <c r="BC113">
-        <v>8</v>
-      </c>
-      <c r="BD113">
-        <v>1.75</v>
-      </c>
-      <c r="BE113">
-        <v>5.8</v>
-      </c>
       <c r="BF113">
-        <v>2.18</v>
+        <v>1.3</v>
       </c>
       <c r="BG113">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="BH113">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="BI113">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="BJ113">
-        <v>1.98</v>
+        <v>2.23</v>
       </c>
       <c r="BK113">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="BL113">
-        <v>1.6</v>
+        <v>1.77</v>
       </c>
       <c r="BM113">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="BN113">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="BO113">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="BP113">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24632,7 +24638,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24838,7 +24844,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25002,7 +25008,7 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>7516403</v>
+        <v>7516398</v>
       </c>
       <c r="C117" t="s">
         <v>68</v>
@@ -25011,94 +25017,94 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45621.58333333334</v>
+        <v>45620.54166666666</v>
       </c>
       <c r="F117">
         <v>13</v>
       </c>
       <c r="G117" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K117">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L117">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M117">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N117">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O117" t="s">
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>91</v>
+        <v>241</v>
       </c>
       <c r="Q117">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="R117">
+        <v>2.38</v>
+      </c>
+      <c r="S117">
+        <v>5.5</v>
+      </c>
+      <c r="T117">
+        <v>1.33</v>
+      </c>
+      <c r="U117">
+        <v>3.25</v>
+      </c>
+      <c r="V117">
         <v>2.5</v>
       </c>
-      <c r="S117">
-        <v>6</v>
-      </c>
-      <c r="T117">
-        <v>1.29</v>
-      </c>
-      <c r="U117">
-        <v>3.5</v>
-      </c>
-      <c r="V117">
-        <v>2.25</v>
-      </c>
       <c r="W117">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="X117">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y117">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z117">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AA117">
-        <v>4.75</v>
+        <v>4.02</v>
       </c>
       <c r="AB117">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AC117">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD117">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE117">
-        <v>1.13</v>
+        <v>1.19</v>
       </c>
       <c r="AF117">
-        <v>5.61</v>
+        <v>4.5</v>
       </c>
       <c r="AG117">
-        <v>1.45</v>
+        <v>1.65</v>
       </c>
       <c r="AH117">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="AI117">
         <v>1.73</v>
@@ -25107,99 +25113,305 @@
         <v>2</v>
       </c>
       <c r="AK117">
-        <v>1.12</v>
+        <v>1.17</v>
       </c>
       <c r="AL117">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM117">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AN117">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="AO117">
         <v>0.4</v>
       </c>
       <c r="AP117">
+        <v>2</v>
+      </c>
+      <c r="AQ117">
+        <v>0.83</v>
+      </c>
+      <c r="AR117">
+        <v>1.67</v>
+      </c>
+      <c r="AS117">
+        <v>1.26</v>
+      </c>
+      <c r="AT117">
+        <v>2.93</v>
+      </c>
+      <c r="AU117">
+        <v>4</v>
+      </c>
+      <c r="AV117">
+        <v>10</v>
+      </c>
+      <c r="AW117">
+        <v>6</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>13</v>
+      </c>
+      <c r="AZ117">
+        <v>20</v>
+      </c>
+      <c r="BA117">
+        <v>4</v>
+      </c>
+      <c r="BB117">
+        <v>4</v>
+      </c>
+      <c r="BC117">
+        <v>8</v>
+      </c>
+      <c r="BD117">
+        <v>1.38</v>
+      </c>
+      <c r="BE117">
+        <v>6.75</v>
+      </c>
+      <c r="BF117">
+        <v>3.05</v>
+      </c>
+      <c r="BG117">
+        <v>1.3</v>
+      </c>
+      <c r="BH117">
+        <v>3.15</v>
+      </c>
+      <c r="BI117">
+        <v>1.52</v>
+      </c>
+      <c r="BJ117">
+        <v>2.33</v>
+      </c>
+      <c r="BK117">
+        <v>1.84</v>
+      </c>
+      <c r="BL117">
+        <v>1.84</v>
+      </c>
+      <c r="BM117">
+        <v>2.33</v>
+      </c>
+      <c r="BN117">
+        <v>1.52</v>
+      </c>
+      <c r="BO117">
+        <v>2.95</v>
+      </c>
+      <c r="BP117">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7516403</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45621.58333333334</v>
+      </c>
+      <c r="F118">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>88</v>
+      </c>
+      <c r="H118" t="s">
+        <v>82</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>5</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>5</v>
+      </c>
+      <c r="O118" t="s">
+        <v>171</v>
+      </c>
+      <c r="P118" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q118">
+        <v>1.95</v>
+      </c>
+      <c r="R118">
+        <v>2.5</v>
+      </c>
+      <c r="S118">
+        <v>6</v>
+      </c>
+      <c r="T118">
+        <v>1.29</v>
+      </c>
+      <c r="U118">
+        <v>3.5</v>
+      </c>
+      <c r="V118">
+        <v>2.25</v>
+      </c>
+      <c r="W118">
+        <v>1.57</v>
+      </c>
+      <c r="X118">
+        <v>5.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.14</v>
+      </c>
+      <c r="Z118">
+        <v>1.4</v>
+      </c>
+      <c r="AA118">
+        <v>4.75</v>
+      </c>
+      <c r="AB118">
+        <v>6</v>
+      </c>
+      <c r="AC118">
+        <v>1.02</v>
+      </c>
+      <c r="AD118">
+        <v>23</v>
+      </c>
+      <c r="AE118">
+        <v>1.13</v>
+      </c>
+      <c r="AF118">
+        <v>5.61</v>
+      </c>
+      <c r="AG118">
+        <v>1.45</v>
+      </c>
+      <c r="AH118">
+        <v>2.55</v>
+      </c>
+      <c r="AI118">
+        <v>1.73</v>
+      </c>
+      <c r="AJ118">
+        <v>2</v>
+      </c>
+      <c r="AK118">
+        <v>1.12</v>
+      </c>
+      <c r="AL118">
+        <v>1.2</v>
+      </c>
+      <c r="AM118">
+        <v>3.1</v>
+      </c>
+      <c r="AN118">
+        <v>1.6</v>
+      </c>
+      <c r="AO118">
+        <v>0.4</v>
+      </c>
+      <c r="AP118">
         <v>1.83</v>
       </c>
-      <c r="AQ117">
+      <c r="AQ118">
         <v>0.33</v>
       </c>
-      <c r="AR117">
+      <c r="AR118">
         <v>1.48</v>
       </c>
-      <c r="AS117">
+      <c r="AS118">
         <v>1.21</v>
       </c>
-      <c r="AT117">
+      <c r="AT118">
         <v>2.69</v>
       </c>
-      <c r="AU117">
+      <c r="AU118">
         <v>9</v>
       </c>
-      <c r="AV117">
+      <c r="AV118">
         <v>4</v>
       </c>
-      <c r="AW117">
+      <c r="AW118">
         <v>7</v>
       </c>
-      <c r="AX117">
+      <c r="AX118">
         <v>5</v>
       </c>
-      <c r="AY117">
+      <c r="AY118">
         <v>24</v>
       </c>
-      <c r="AZ117">
+      <c r="AZ118">
         <v>11</v>
       </c>
-      <c r="BA117">
+      <c r="BA118">
         <v>8</v>
       </c>
-      <c r="BB117">
-        <v>1</v>
-      </c>
-      <c r="BC117">
+      <c r="BB118">
+        <v>1</v>
+      </c>
+      <c r="BC118">
         <v>9</v>
       </c>
-      <c r="BD117">
+      <c r="BD118">
         <v>1.3</v>
       </c>
-      <c r="BE117">
+      <c r="BE118">
         <v>7</v>
       </c>
-      <c r="BF117">
+      <c r="BF118">
         <v>3.45</v>
       </c>
-      <c r="BG117">
+      <c r="BG118">
         <v>1.27</v>
       </c>
-      <c r="BH117">
+      <c r="BH118">
         <v>3.3</v>
       </c>
-      <c r="BI117">
+      <c r="BI118">
         <v>1.47</v>
       </c>
-      <c r="BJ117">
+      <c r="BJ118">
         <v>2.48</v>
       </c>
-      <c r="BK117">
+      <c r="BK118">
         <v>1.76</v>
       </c>
-      <c r="BL117">
+      <c r="BL118">
         <v>1.93</v>
       </c>
-      <c r="BM117">
+      <c r="BM118">
         <v>2.18</v>
       </c>
-      <c r="BN117">
+      <c r="BN118">
         <v>1.58</v>
       </c>
-      <c r="BO117">
+      <c r="BO118">
         <v>2.8</v>
       </c>
-      <c r="BP117">
+      <c r="BP118">
         <v>1.36</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,18 @@
     <t>['3', '50', '54', '78', '84']</t>
   </si>
   <si>
+    <t>['40', '66']</t>
+  </si>
+  <si>
+    <t>['6', '51', '55', '90+3']</t>
+  </si>
+  <si>
+    <t>['8', '10', '37', '43']</t>
+  </si>
+  <si>
+    <t>['44', '50']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -740,6 +752,15 @@
   </si>
   <si>
     <t>['12', '32', '82', '90+1']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1381,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1566,7 +1587,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1647,7 +1668,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ3">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1850,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2265,7 +2286,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ6">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2390,7 +2411,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2468,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
         <v>1.29</v>
@@ -2596,7 +2617,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2674,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>1.5</v>
@@ -2802,7 +2823,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3008,7 +3029,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3214,7 +3235,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3420,7 +3441,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3501,7 +3522,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ12">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3626,7 +3647,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3832,7 +3853,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4038,7 +4059,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4116,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.83</v>
@@ -4244,7 +4265,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4450,7 +4471,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4656,7 +4677,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -4737,7 +4758,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5146,10 +5167,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ20">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5274,7 +5295,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5480,7 +5501,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5561,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="AQ22">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>1.83</v>
@@ -5686,7 +5707,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5892,7 +5913,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6098,7 +6119,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6176,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ25">
         <v>0.33</v>
@@ -6510,7 +6531,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7003,7 +7024,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -7128,7 +7149,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7415,7 +7436,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ31">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR31">
         <v>1.56</v>
@@ -7540,7 +7561,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7618,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -7746,7 +7767,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8033,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.63</v>
@@ -8158,7 +8179,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8364,7 +8385,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8442,10 +8463,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR36">
         <v>1.86</v>
@@ -8570,7 +8591,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8982,7 +9003,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9188,7 +9209,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9394,7 +9415,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9678,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
         <v>0.33</v>
@@ -9806,7 +9827,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9884,7 +9905,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ43">
         <v>0.33</v>
@@ -10012,7 +10033,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10296,7 +10317,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10424,7 +10445,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10711,7 +10732,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR47">
         <v>0.7</v>
@@ -10917,7 +10938,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ48">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.29</v>
@@ -11042,7 +11063,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11248,7 +11269,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11660,7 +11681,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11866,7 +11887,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12153,7 +12174,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12484,7 +12505,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12690,7 +12711,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12768,10 +12789,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR57">
         <v>1.53</v>
@@ -12974,7 +12995,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ58">
         <v>1.5</v>
@@ -13102,7 +13123,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13308,7 +13329,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13514,7 +13535,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13595,7 +13616,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ61">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.54</v>
@@ -13720,7 +13741,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13926,7 +13947,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14004,7 +14025,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ63">
         <v>2.43</v>
@@ -14132,7 +14153,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14338,7 +14359,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14625,7 +14646,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR66">
         <v>1.46</v>
@@ -14750,7 +14771,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14831,7 +14852,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ67">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.89</v>
@@ -14956,7 +14977,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15034,7 +15055,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -15243,7 +15264,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR69">
         <v>0.8</v>
@@ -15368,7 +15389,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15574,7 +15595,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16192,7 +16213,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16685,7 +16706,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16810,7 +16831,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -16888,7 +16909,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ77">
         <v>3</v>
@@ -17016,7 +17037,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17303,7 +17324,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR79">
         <v>1.77</v>
@@ -17428,7 +17449,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17506,7 +17527,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -17634,7 +17655,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17712,7 +17733,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ81">
         <v>2.43</v>
@@ -17840,7 +17861,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18046,7 +18067,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18127,7 +18148,7 @@
         <v>0</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.37</v>
@@ -18458,7 +18479,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18664,7 +18685,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18745,7 +18766,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ86">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -18870,7 +18891,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18951,7 +18972,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ87">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR87">
         <v>1.44</v>
@@ -19076,7 +19097,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19154,7 +19175,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -19363,7 +19384,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ89">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR89">
         <v>1.9</v>
@@ -19566,7 +19587,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.29</v>
@@ -19694,7 +19715,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19900,7 +19921,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -19981,7 +20002,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ92">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20106,7 +20127,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20518,7 +20539,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20724,7 +20745,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21342,7 +21363,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21626,7 +21647,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ100">
         <v>0.67</v>
@@ -21754,7 +21775,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -21960,7 +21981,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22038,10 +22059,10 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ102">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR102">
         <v>1.28</v>
@@ -22166,7 +22187,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22372,7 +22393,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22453,7 +22474,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ104">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22578,7 +22599,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22865,7 +22886,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ106">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR106">
         <v>1.79</v>
@@ -22990,7 +23011,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23274,7 +23295,7 @@
         <v>1.6</v>
       </c>
       <c r="AP108">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
         <v>1.5</v>
@@ -23483,7 +23504,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ109">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.89</v>
@@ -23608,7 +23629,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24020,7 +24041,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24226,7 +24247,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24638,7 +24659,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24716,7 +24737,7 @@
         <v>0.8</v>
       </c>
       <c r="AP115">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ115">
         <v>0.83</v>
@@ -24844,7 +24865,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25050,7 +25071,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25131,7 +25152,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25413,6 +25434,1036 @@
       </c>
       <c r="BP118">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7516412</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45625.58333333334</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>72</v>
+      </c>
+      <c r="H119" t="s">
+        <v>74</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>2</v>
+      </c>
+      <c r="L119">
+        <v>2</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>3</v>
+      </c>
+      <c r="O119" t="s">
+        <v>172</v>
+      </c>
+      <c r="P119" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q119">
+        <v>2.55</v>
+      </c>
+      <c r="R119">
+        <v>2.1</v>
+      </c>
+      <c r="S119">
+        <v>4</v>
+      </c>
+      <c r="T119">
+        <v>1.4</v>
+      </c>
+      <c r="U119">
+        <v>2.75</v>
+      </c>
+      <c r="V119">
+        <v>2.8</v>
+      </c>
+      <c r="W119">
+        <v>1.38</v>
+      </c>
+      <c r="X119">
+        <v>7</v>
+      </c>
+      <c r="Y119">
+        <v>1.07</v>
+      </c>
+      <c r="Z119">
+        <v>2.01</v>
+      </c>
+      <c r="AA119">
+        <v>3.5</v>
+      </c>
+      <c r="AB119">
+        <v>3.4</v>
+      </c>
+      <c r="AC119">
+        <v>1.04</v>
+      </c>
+      <c r="AD119">
+        <v>10.06</v>
+      </c>
+      <c r="AE119">
+        <v>1.29</v>
+      </c>
+      <c r="AF119">
+        <v>3.44</v>
+      </c>
+      <c r="AG119">
+        <v>1.97</v>
+      </c>
+      <c r="AH119">
+        <v>1.92</v>
+      </c>
+      <c r="AI119">
+        <v>1.75</v>
+      </c>
+      <c r="AJ119">
+        <v>1.95</v>
+      </c>
+      <c r="AK119">
+        <v>1.28</v>
+      </c>
+      <c r="AL119">
+        <v>1.25</v>
+      </c>
+      <c r="AM119">
+        <v>1.77</v>
+      </c>
+      <c r="AN119">
+        <v>1.67</v>
+      </c>
+      <c r="AO119">
+        <v>1.17</v>
+      </c>
+      <c r="AP119">
+        <v>1.86</v>
+      </c>
+      <c r="AQ119">
+        <v>1</v>
+      </c>
+      <c r="AR119">
+        <v>1.31</v>
+      </c>
+      <c r="AS119">
+        <v>1.05</v>
+      </c>
+      <c r="AT119">
+        <v>2.36</v>
+      </c>
+      <c r="AU119">
+        <v>8</v>
+      </c>
+      <c r="AV119">
+        <v>5</v>
+      </c>
+      <c r="AW119">
+        <v>8</v>
+      </c>
+      <c r="AX119">
+        <v>8</v>
+      </c>
+      <c r="AY119">
+        <v>17</v>
+      </c>
+      <c r="AZ119">
+        <v>18</v>
+      </c>
+      <c r="BA119">
+        <v>9</v>
+      </c>
+      <c r="BB119">
+        <v>5</v>
+      </c>
+      <c r="BC119">
+        <v>14</v>
+      </c>
+      <c r="BD119">
+        <v>1.52</v>
+      </c>
+      <c r="BE119">
+        <v>6.25</v>
+      </c>
+      <c r="BF119">
+        <v>2.65</v>
+      </c>
+      <c r="BG119">
+        <v>1.38</v>
+      </c>
+      <c r="BH119">
+        <v>2.75</v>
+      </c>
+      <c r="BI119">
+        <v>1.65</v>
+      </c>
+      <c r="BJ119">
+        <v>2.08</v>
+      </c>
+      <c r="BK119">
+        <v>2.05</v>
+      </c>
+      <c r="BL119">
+        <v>1.67</v>
+      </c>
+      <c r="BM119">
+        <v>2.63</v>
+      </c>
+      <c r="BN119">
+        <v>1.41</v>
+      </c>
+      <c r="BO119">
+        <v>3.4</v>
+      </c>
+      <c r="BP119">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7516410</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45626.3125</v>
+      </c>
+      <c r="F120">
+        <v>0</v>
+      </c>
+      <c r="G120" t="s">
+        <v>76</v>
+      </c>
+      <c r="H120" t="s">
+        <v>78</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>173</v>
+      </c>
+      <c r="P120" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q120">
+        <v>2.3</v>
+      </c>
+      <c r="R120">
+        <v>2.15</v>
+      </c>
+      <c r="S120">
+        <v>5.5</v>
+      </c>
+      <c r="T120">
+        <v>1.5</v>
+      </c>
+      <c r="U120">
+        <v>2.8</v>
+      </c>
+      <c r="V120">
+        <v>3.25</v>
+      </c>
+      <c r="W120">
+        <v>1.38</v>
+      </c>
+      <c r="X120">
+        <v>9.5</v>
+      </c>
+      <c r="Y120">
+        <v>1.08</v>
+      </c>
+      <c r="Z120">
+        <v>1.68</v>
+      </c>
+      <c r="AA120">
+        <v>3.6</v>
+      </c>
+      <c r="AB120">
+        <v>5</v>
+      </c>
+      <c r="AC120">
+        <v>1.05</v>
+      </c>
+      <c r="AD120">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE120">
+        <v>1.36</v>
+      </c>
+      <c r="AF120">
+        <v>3.06</v>
+      </c>
+      <c r="AG120">
+        <v>2.1</v>
+      </c>
+      <c r="AH120">
+        <v>1.65</v>
+      </c>
+      <c r="AI120">
+        <v>2.05</v>
+      </c>
+      <c r="AJ120">
+        <v>1.75</v>
+      </c>
+      <c r="AK120">
+        <v>1.18</v>
+      </c>
+      <c r="AL120">
+        <v>1.3</v>
+      </c>
+      <c r="AM120">
+        <v>2.25</v>
+      </c>
+      <c r="AN120">
+        <v>1.57</v>
+      </c>
+      <c r="AO120">
+        <v>0.67</v>
+      </c>
+      <c r="AP120">
+        <v>1.75</v>
+      </c>
+      <c r="AQ120">
+        <v>0.57</v>
+      </c>
+      <c r="AR120">
+        <v>1.52</v>
+      </c>
+      <c r="AS120">
+        <v>1.14</v>
+      </c>
+      <c r="AT120">
+        <v>2.66</v>
+      </c>
+      <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>0</v>
+      </c>
+      <c r="AW120">
+        <v>7</v>
+      </c>
+      <c r="AX120">
+        <v>6</v>
+      </c>
+      <c r="AY120">
+        <v>16</v>
+      </c>
+      <c r="AZ120">
+        <v>8</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>4</v>
+      </c>
+      <c r="BC120">
+        <v>7</v>
+      </c>
+      <c r="BD120">
+        <v>1.48</v>
+      </c>
+      <c r="BE120">
+        <v>6.4</v>
+      </c>
+      <c r="BF120">
+        <v>2.8</v>
+      </c>
+      <c r="BG120">
+        <v>1.43</v>
+      </c>
+      <c r="BH120">
+        <v>2.6</v>
+      </c>
+      <c r="BI120">
+        <v>1.72</v>
+      </c>
+      <c r="BJ120">
+        <v>1.98</v>
+      </c>
+      <c r="BK120">
+        <v>2.14</v>
+      </c>
+      <c r="BL120">
+        <v>1.61</v>
+      </c>
+      <c r="BM120">
+        <v>2.7</v>
+      </c>
+      <c r="BN120">
+        <v>1.38</v>
+      </c>
+      <c r="BO120">
+        <v>3.65</v>
+      </c>
+      <c r="BP120">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7516411</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45626.41666666666</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>82</v>
+      </c>
+      <c r="H121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121" t="s">
+        <v>91</v>
+      </c>
+      <c r="P121" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q121">
+        <v>4</v>
+      </c>
+      <c r="R121">
+        <v>2.15</v>
+      </c>
+      <c r="S121">
+        <v>2.5</v>
+      </c>
+      <c r="T121">
+        <v>1.35</v>
+      </c>
+      <c r="U121">
+        <v>2.95</v>
+      </c>
+      <c r="V121">
+        <v>2.55</v>
+      </c>
+      <c r="W121">
+        <v>1.45</v>
+      </c>
+      <c r="X121">
+        <v>5.75</v>
+      </c>
+      <c r="Y121">
+        <v>1.1</v>
+      </c>
+      <c r="Z121">
+        <v>3.45</v>
+      </c>
+      <c r="AA121">
+        <v>3.6</v>
+      </c>
+      <c r="AB121">
+        <v>1.99</v>
+      </c>
+      <c r="AC121">
+        <v>1.05</v>
+      </c>
+      <c r="AD121">
+        <v>13</v>
+      </c>
+      <c r="AE121">
+        <v>1.25</v>
+      </c>
+      <c r="AF121">
+        <v>3.82</v>
+      </c>
+      <c r="AG121">
+        <v>1.82</v>
+      </c>
+      <c r="AH121">
+        <v>1.92</v>
+      </c>
+      <c r="AI121">
+        <v>1.62</v>
+      </c>
+      <c r="AJ121">
+        <v>2.15</v>
+      </c>
+      <c r="AK121">
+        <v>1.77</v>
+      </c>
+      <c r="AL121">
+        <v>1.25</v>
+      </c>
+      <c r="AM121">
+        <v>1.28</v>
+      </c>
+      <c r="AN121">
+        <v>0</v>
+      </c>
+      <c r="AO121">
+        <v>0.86</v>
+      </c>
+      <c r="AP121">
+        <v>0</v>
+      </c>
+      <c r="AQ121">
+        <v>1.13</v>
+      </c>
+      <c r="AR121">
+        <v>1.33</v>
+      </c>
+      <c r="AS121">
+        <v>1.16</v>
+      </c>
+      <c r="AT121">
+        <v>2.49</v>
+      </c>
+      <c r="AU121">
+        <v>5</v>
+      </c>
+      <c r="AV121">
+        <v>6</v>
+      </c>
+      <c r="AW121">
+        <v>8</v>
+      </c>
+      <c r="AX121">
+        <v>5</v>
+      </c>
+      <c r="AY121">
+        <v>14</v>
+      </c>
+      <c r="AZ121">
+        <v>16</v>
+      </c>
+      <c r="BA121">
+        <v>1</v>
+      </c>
+      <c r="BB121">
+        <v>10</v>
+      </c>
+      <c r="BC121">
+        <v>11</v>
+      </c>
+      <c r="BD121">
+        <v>2.18</v>
+      </c>
+      <c r="BE121">
+        <v>6.25</v>
+      </c>
+      <c r="BF121">
+        <v>1.74</v>
+      </c>
+      <c r="BG121">
+        <v>1.34</v>
+      </c>
+      <c r="BH121">
+        <v>2.9</v>
+      </c>
+      <c r="BI121">
+        <v>1.57</v>
+      </c>
+      <c r="BJ121">
+        <v>2.23</v>
+      </c>
+      <c r="BK121">
+        <v>1.94</v>
+      </c>
+      <c r="BL121">
+        <v>1.76</v>
+      </c>
+      <c r="BM121">
+        <v>2.45</v>
+      </c>
+      <c r="BN121">
+        <v>1.48</v>
+      </c>
+      <c r="BO121">
+        <v>3.15</v>
+      </c>
+      <c r="BP121">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7516408</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45626.54166666666</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>83</v>
+      </c>
+      <c r="H122" t="s">
+        <v>81</v>
+      </c>
+      <c r="I122">
+        <v>4</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+      <c r="K122">
+        <v>4</v>
+      </c>
+      <c r="L122">
+        <v>4</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>5</v>
+      </c>
+      <c r="O122" t="s">
+        <v>174</v>
+      </c>
+      <c r="P122" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q122">
+        <v>2.88</v>
+      </c>
+      <c r="R122">
+        <v>2.1</v>
+      </c>
+      <c r="S122">
+        <v>3.75</v>
+      </c>
+      <c r="T122">
+        <v>1.4</v>
+      </c>
+      <c r="U122">
+        <v>2.75</v>
+      </c>
+      <c r="V122">
+        <v>3</v>
+      </c>
+      <c r="W122">
+        <v>1.36</v>
+      </c>
+      <c r="X122">
+        <v>8</v>
+      </c>
+      <c r="Y122">
+        <v>1.08</v>
+      </c>
+      <c r="Z122">
+        <v>2.19</v>
+      </c>
+      <c r="AA122">
+        <v>3.3</v>
+      </c>
+      <c r="AB122">
+        <v>3.2</v>
+      </c>
+      <c r="AC122">
+        <v>1.04</v>
+      </c>
+      <c r="AD122">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE122">
+        <v>1.31</v>
+      </c>
+      <c r="AF122">
+        <v>3.33</v>
+      </c>
+      <c r="AG122">
+        <v>1.98</v>
+      </c>
+      <c r="AH122">
+        <v>1.8</v>
+      </c>
+      <c r="AI122">
+        <v>1.73</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>1.38</v>
+      </c>
+      <c r="AL122">
+        <v>1.35</v>
+      </c>
+      <c r="AM122">
+        <v>1.7</v>
+      </c>
+      <c r="AN122">
+        <v>1.8</v>
+      </c>
+      <c r="AO122">
+        <v>0.83</v>
+      </c>
+      <c r="AP122">
+        <v>2</v>
+      </c>
+      <c r="AQ122">
+        <v>0.71</v>
+      </c>
+      <c r="AR122">
+        <v>1.44</v>
+      </c>
+      <c r="AS122">
+        <v>1.39</v>
+      </c>
+      <c r="AT122">
+        <v>2.83</v>
+      </c>
+      <c r="AU122">
+        <v>8</v>
+      </c>
+      <c r="AV122">
+        <v>3</v>
+      </c>
+      <c r="AW122">
+        <v>4</v>
+      </c>
+      <c r="AX122">
+        <v>3</v>
+      </c>
+      <c r="AY122">
+        <v>14</v>
+      </c>
+      <c r="AZ122">
+        <v>7</v>
+      </c>
+      <c r="BA122">
+        <v>5</v>
+      </c>
+      <c r="BB122">
+        <v>5</v>
+      </c>
+      <c r="BC122">
+        <v>10</v>
+      </c>
+      <c r="BD122">
+        <v>1.78</v>
+      </c>
+      <c r="BE122">
+        <v>6.1</v>
+      </c>
+      <c r="BF122">
+        <v>2.15</v>
+      </c>
+      <c r="BG122">
+        <v>1.47</v>
+      </c>
+      <c r="BH122">
+        <v>2.48</v>
+      </c>
+      <c r="BI122">
+        <v>1.79</v>
+      </c>
+      <c r="BJ122">
+        <v>1.9</v>
+      </c>
+      <c r="BK122">
+        <v>2.28</v>
+      </c>
+      <c r="BL122">
+        <v>1.55</v>
+      </c>
+      <c r="BM122">
+        <v>2.9</v>
+      </c>
+      <c r="BN122">
+        <v>1.34</v>
+      </c>
+      <c r="BO122">
+        <v>3.95</v>
+      </c>
+      <c r="BP122">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7516413</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45626.54166666666</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>75</v>
+      </c>
+      <c r="H123" t="s">
+        <v>88</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>175</v>
+      </c>
+      <c r="P123" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q123">
+        <v>3.1</v>
+      </c>
+      <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
+        <v>3.3</v>
+      </c>
+      <c r="T123">
+        <v>1.4</v>
+      </c>
+      <c r="U123">
+        <v>2.75</v>
+      </c>
+      <c r="V123">
+        <v>2.75</v>
+      </c>
+      <c r="W123">
+        <v>1.4</v>
+      </c>
+      <c r="X123">
+        <v>6.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.08</v>
+      </c>
+      <c r="Z123">
+        <v>2.55</v>
+      </c>
+      <c r="AA123">
+        <v>3.3</v>
+      </c>
+      <c r="AB123">
+        <v>2.8</v>
+      </c>
+      <c r="AC123">
+        <v>1.04</v>
+      </c>
+      <c r="AD123">
+        <v>10.06</v>
+      </c>
+      <c r="AE123">
+        <v>1.29</v>
+      </c>
+      <c r="AF123">
+        <v>3.44</v>
+      </c>
+      <c r="AG123">
+        <v>1.95</v>
+      </c>
+      <c r="AH123">
+        <v>1.86</v>
+      </c>
+      <c r="AI123">
+        <v>1.7</v>
+      </c>
+      <c r="AJ123">
+        <v>2.05</v>
+      </c>
+      <c r="AK123">
+        <v>1.42</v>
+      </c>
+      <c r="AL123">
+        <v>1.28</v>
+      </c>
+      <c r="AM123">
+        <v>1.5</v>
+      </c>
+      <c r="AN123">
+        <v>1</v>
+      </c>
+      <c r="AO123">
+        <v>0.67</v>
+      </c>
+      <c r="AP123">
+        <v>1.29</v>
+      </c>
+      <c r="AQ123">
+        <v>0.57</v>
+      </c>
+      <c r="AR123">
+        <v>1.28</v>
+      </c>
+      <c r="AS123">
+        <v>1.26</v>
+      </c>
+      <c r="AT123">
+        <v>2.54</v>
+      </c>
+      <c r="AU123">
+        <v>5</v>
+      </c>
+      <c r="AV123">
+        <v>5</v>
+      </c>
+      <c r="AW123">
+        <v>5</v>
+      </c>
+      <c r="AX123">
+        <v>7</v>
+      </c>
+      <c r="AY123">
+        <v>13</v>
+      </c>
+      <c r="AZ123">
+        <v>18</v>
+      </c>
+      <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>10</v>
+      </c>
+      <c r="BC123">
+        <v>15</v>
+      </c>
+      <c r="BD123">
+        <v>1.84</v>
+      </c>
+      <c r="BE123">
+        <v>5.8</v>
+      </c>
+      <c r="BF123">
+        <v>2.07</v>
+      </c>
+      <c r="BG123">
+        <v>1.44</v>
+      </c>
+      <c r="BH123">
+        <v>2.55</v>
+      </c>
+      <c r="BI123">
+        <v>1.75</v>
+      </c>
+      <c r="BJ123">
+        <v>1.95</v>
+      </c>
+      <c r="BK123">
+        <v>2.23</v>
+      </c>
+      <c r="BL123">
+        <v>1.57</v>
+      </c>
+      <c r="BM123">
+        <v>2.9</v>
+      </c>
+      <c r="BN123">
+        <v>1.35</v>
+      </c>
+      <c r="BO123">
+        <v>3.8</v>
+      </c>
+      <c r="BP123">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,12 @@
     <t>['44', '50']</t>
   </si>
   <si>
+    <t>['41', '71', '81']</t>
+  </si>
+  <si>
+    <t>['45+5', '47']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -761,6 +767,9 @@
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['13', '71']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1390,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1459,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ2">
         <v>0.33</v>
@@ -1587,7 +1596,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2411,7 +2420,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2492,7 +2501,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2617,7 +2626,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2823,7 +2832,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2901,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3029,7 +3038,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3235,7 +3244,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3441,7 +3450,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3647,7 +3656,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3853,7 +3862,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4059,7 +4068,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4265,7 +4274,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4471,7 +4480,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4677,7 +4686,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5295,7 +5304,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5376,7 +5385,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ21">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5501,7 +5510,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5707,7 +5716,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5913,7 +5922,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -5991,7 +6000,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ24">
         <v>2.43</v>
@@ -6119,7 +6128,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6531,7 +6540,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6609,7 +6618,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ27">
         <v>2</v>
@@ -6818,7 +6827,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -7149,7 +7158,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7561,7 +7570,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7767,7 +7776,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8179,7 +8188,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8385,7 +8394,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8591,7 +8600,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8875,7 +8884,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -9003,7 +9012,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9084,7 +9093,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>2.02</v>
@@ -9209,7 +9218,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9415,7 +9424,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9827,7 +9836,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10033,7 +10042,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10111,7 +10120,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ44">
         <v>0.67</v>
@@ -10445,7 +10454,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10526,7 +10535,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR46">
         <v>0.55</v>
@@ -11063,7 +11072,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11269,7 +11278,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11347,7 +11356,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ50">
         <v>2.5</v>
@@ -11681,7 +11690,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11887,7 +11896,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -11968,7 +11977,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR53">
         <v>1.74</v>
@@ -12380,7 +12389,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR55">
         <v>1.55</v>
@@ -12505,7 +12514,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12711,7 +12720,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13123,7 +13132,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13201,7 +13210,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ59">
         <v>2</v>
@@ -13329,7 +13338,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13535,7 +13544,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13741,7 +13750,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13947,7 +13956,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14153,7 +14162,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14359,7 +14368,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14437,7 +14446,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ65">
         <v>0.67</v>
@@ -14771,7 +14780,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14977,7 +14986,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15058,7 +15067,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR68">
         <v>1.48</v>
@@ -15389,7 +15398,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15470,7 +15479,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.39</v>
@@ -15595,7 +15604,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16085,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ73">
         <v>0.83</v>
@@ -16213,7 +16222,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16831,7 +16840,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17037,7 +17046,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17449,7 +17458,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17655,7 +17664,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17861,7 +17870,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18067,7 +18076,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18354,7 +18363,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ84">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR84">
         <v>0.9</v>
@@ -18479,7 +18488,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18685,7 +18694,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18891,7 +18900,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19097,7 +19106,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19590,7 +19599,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -19715,7 +19724,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19793,7 +19802,7 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ91">
         <v>1.5</v>
@@ -19921,7 +19930,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20127,7 +20136,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20539,7 +20548,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20745,7 +20754,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21363,7 +21372,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21775,7 +21784,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -21856,7 +21865,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ101">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -21981,7 +21990,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22187,7 +22196,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22393,7 +22402,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22471,7 +22480,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ104">
         <v>0.57</v>
@@ -22599,7 +22608,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22680,7 +22689,7 @@
         <v>0</v>
       </c>
       <c r="AQ105">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AR105">
         <v>1.42</v>
@@ -23011,7 +23020,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23089,7 +23098,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ107">
         <v>2.5</v>
@@ -23629,7 +23638,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24041,7 +24050,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24247,7 +24256,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24659,7 +24668,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24865,7 +24874,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25071,7 +25080,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25483,7 +25492,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25895,7 +25904,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26101,7 +26110,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26307,7 +26316,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26464,6 +26473,418 @@
       </c>
       <c r="BP123">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7516409</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45627.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>77</v>
+      </c>
+      <c r="H124" t="s">
+        <v>80</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>1</v>
+      </c>
+      <c r="L124">
+        <v>3</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>176</v>
+      </c>
+      <c r="P124" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q124">
+        <v>2.5</v>
+      </c>
+      <c r="R124">
+        <v>2.25</v>
+      </c>
+      <c r="S124">
+        <v>4.33</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.63</v>
+      </c>
+      <c r="W124">
+        <v>1.44</v>
+      </c>
+      <c r="X124">
+        <v>7</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>1.8</v>
+      </c>
+      <c r="AA124">
+        <v>3.7</v>
+      </c>
+      <c r="AB124">
+        <v>4.1</v>
+      </c>
+      <c r="AC124">
+        <v>1.05</v>
+      </c>
+      <c r="AD124">
+        <v>13</v>
+      </c>
+      <c r="AE124">
+        <v>1.25</v>
+      </c>
+      <c r="AF124">
+        <v>3.82</v>
+      </c>
+      <c r="AG124">
+        <v>1.74</v>
+      </c>
+      <c r="AH124">
+        <v>2</v>
+      </c>
+      <c r="AI124">
+        <v>1.67</v>
+      </c>
+      <c r="AJ124">
+        <v>2.1</v>
+      </c>
+      <c r="AK124">
+        <v>1.25</v>
+      </c>
+      <c r="AL124">
+        <v>1.3</v>
+      </c>
+      <c r="AM124">
+        <v>2.05</v>
+      </c>
+      <c r="AN124">
+        <v>1.17</v>
+      </c>
+      <c r="AO124">
+        <v>1.5</v>
+      </c>
+      <c r="AP124">
+        <v>1.43</v>
+      </c>
+      <c r="AQ124">
+        <v>1.29</v>
+      </c>
+      <c r="AR124">
+        <v>1.28</v>
+      </c>
+      <c r="AS124">
+        <v>1.16</v>
+      </c>
+      <c r="AT124">
+        <v>2.44</v>
+      </c>
+      <c r="AU124">
+        <v>7</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>4</v>
+      </c>
+      <c r="AX124">
+        <v>3</v>
+      </c>
+      <c r="AY124">
+        <v>13</v>
+      </c>
+      <c r="AZ124">
+        <v>10</v>
+      </c>
+      <c r="BA124">
+        <v>3</v>
+      </c>
+      <c r="BB124">
+        <v>8</v>
+      </c>
+      <c r="BC124">
+        <v>11</v>
+      </c>
+      <c r="BD124">
+        <v>1.43</v>
+      </c>
+      <c r="BE124">
+        <v>6.4</v>
+      </c>
+      <c r="BF124">
+        <v>2.95</v>
+      </c>
+      <c r="BG124">
+        <v>1.35</v>
+      </c>
+      <c r="BH124">
+        <v>2.88</v>
+      </c>
+      <c r="BI124">
+        <v>1.61</v>
+      </c>
+      <c r="BJ124">
+        <v>2.15</v>
+      </c>
+      <c r="BK124">
+        <v>1.97</v>
+      </c>
+      <c r="BL124">
+        <v>1.73</v>
+      </c>
+      <c r="BM124">
+        <v>2.5</v>
+      </c>
+      <c r="BN124">
+        <v>1.46</v>
+      </c>
+      <c r="BO124">
+        <v>3.3</v>
+      </c>
+      <c r="BP124">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7516407</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45627.54166666666</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" t="s">
+        <v>86</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>2</v>
+      </c>
+      <c r="M125">
+        <v>2</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>177</v>
+      </c>
+      <c r="P125" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q125">
+        <v>1.67</v>
+      </c>
+      <c r="R125">
+        <v>2.88</v>
+      </c>
+      <c r="S125">
+        <v>7.5</v>
+      </c>
+      <c r="T125">
+        <v>1.2</v>
+      </c>
+      <c r="U125">
+        <v>4.33</v>
+      </c>
+      <c r="V125">
+        <v>2</v>
+      </c>
+      <c r="W125">
+        <v>1.73</v>
+      </c>
+      <c r="X125">
+        <v>4</v>
+      </c>
+      <c r="Y125">
+        <v>1.22</v>
+      </c>
+      <c r="Z125">
+        <v>1.25</v>
+      </c>
+      <c r="AA125">
+        <v>6.2</v>
+      </c>
+      <c r="AB125">
+        <v>9</v>
+      </c>
+      <c r="AC125">
+        <v>1.01</v>
+      </c>
+      <c r="AD125">
+        <v>29</v>
+      </c>
+      <c r="AE125">
+        <v>1.09</v>
+      </c>
+      <c r="AF125">
+        <v>6.89</v>
+      </c>
+      <c r="AG125">
+        <v>1.4</v>
+      </c>
+      <c r="AH125">
+        <v>2.75</v>
+      </c>
+      <c r="AI125">
+        <v>1.73</v>
+      </c>
+      <c r="AJ125">
+        <v>2</v>
+      </c>
+      <c r="AK125">
+        <v>1.07</v>
+      </c>
+      <c r="AL125">
+        <v>1.14</v>
+      </c>
+      <c r="AM125">
+        <v>4.2</v>
+      </c>
+      <c r="AN125">
+        <v>2.71</v>
+      </c>
+      <c r="AO125">
+        <v>1.29</v>
+      </c>
+      <c r="AP125">
+        <v>2.5</v>
+      </c>
+      <c r="AQ125">
+        <v>1.25</v>
+      </c>
+      <c r="AR125">
+        <v>1.89</v>
+      </c>
+      <c r="AS125">
+        <v>1.1</v>
+      </c>
+      <c r="AT125">
+        <v>2.99</v>
+      </c>
+      <c r="AU125">
+        <v>-1</v>
+      </c>
+      <c r="AV125">
+        <v>-1</v>
+      </c>
+      <c r="AW125">
+        <v>-1</v>
+      </c>
+      <c r="AX125">
+        <v>-1</v>
+      </c>
+      <c r="AY125">
+        <v>-1</v>
+      </c>
+      <c r="AZ125">
+        <v>-1</v>
+      </c>
+      <c r="BA125">
+        <v>-1</v>
+      </c>
+      <c r="BB125">
+        <v>-1</v>
+      </c>
+      <c r="BC125">
+        <v>-1</v>
+      </c>
+      <c r="BD125">
+        <v>1.2</v>
+      </c>
+      <c r="BE125">
+        <v>8</v>
+      </c>
+      <c r="BF125">
+        <v>4.4</v>
+      </c>
+      <c r="BG125">
+        <v>1.25</v>
+      </c>
+      <c r="BH125">
+        <v>3.45</v>
+      </c>
+      <c r="BI125">
+        <v>1.44</v>
+      </c>
+      <c r="BJ125">
+        <v>2.55</v>
+      </c>
+      <c r="BK125">
+        <v>1.72</v>
+      </c>
+      <c r="BL125">
+        <v>1.98</v>
+      </c>
+      <c r="BM125">
+        <v>2.1</v>
+      </c>
+      <c r="BN125">
+        <v>1.64</v>
+      </c>
+      <c r="BO125">
+        <v>2.65</v>
+      </c>
+      <c r="BP125">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,12 @@
     <t>['45+5', '47']</t>
   </si>
   <si>
+    <t>['3', '78', '89']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -770,6 +776,9 @@
   </si>
   <si>
     <t>['13', '71']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP125"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,7 +1399,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1596,7 +1605,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2086,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ5">
         <v>0.33</v>
@@ -2420,7 +2429,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2626,7 +2635,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2707,7 +2716,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2832,7 +2841,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3038,7 +3047,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3119,7 +3128,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3244,7 +3253,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3450,7 +3459,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3656,7 +3665,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3862,7 +3871,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4068,7 +4077,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4274,7 +4283,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4480,7 +4489,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4686,7 +4695,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -4970,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ19">
         <v>2</v>
@@ -5304,7 +5313,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5510,7 +5519,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5716,7 +5725,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5922,7 +5931,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6128,7 +6137,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6412,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ26">
         <v>0.83</v>
@@ -6540,7 +6549,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7158,7 +7167,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7570,7 +7579,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7776,7 +7785,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -7854,7 +7863,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ33">
         <v>2.5</v>
@@ -8188,7 +8197,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8269,7 +8278,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ35">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8394,7 +8403,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8600,7 +8609,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9012,7 +9021,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9218,7 +9227,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9424,7 +9433,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9505,7 +9514,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ41">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR41">
         <v>0</v>
@@ -9836,7 +9845,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10042,7 +10051,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10123,7 +10132,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR44">
         <v>2.36</v>
@@ -10454,7 +10463,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10738,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ47">
         <v>0.57</v>
@@ -11072,7 +11081,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11150,7 +11159,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ49">
         <v>3</v>
@@ -11278,7 +11287,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11690,7 +11699,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11896,7 +11905,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12514,7 +12523,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12720,7 +12729,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13132,7 +13141,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13338,7 +13347,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13419,7 +13428,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ60">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR60">
         <v>1.5</v>
@@ -13544,7 +13553,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13750,7 +13759,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13956,7 +13965,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14162,7 +14171,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14243,7 +14252,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR64">
         <v>1.79</v>
@@ -14368,7 +14377,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14780,7 +14789,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14986,7 +14995,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15270,7 +15279,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ69">
         <v>0.57</v>
@@ -15398,7 +15407,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15604,7 +15613,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -15891,7 +15900,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ72">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16222,7 +16231,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16303,7 +16312,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16840,7 +16849,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17046,7 +17055,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17458,7 +17467,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17664,7 +17673,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17870,7 +17879,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18076,7 +18085,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18360,7 +18369,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ84">
         <v>1.29</v>
@@ -18488,7 +18497,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18694,7 +18703,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18900,7 +18909,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19106,7 +19115,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19390,7 +19399,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ89">
         <v>0.57</v>
@@ -19724,7 +19733,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19805,7 +19814,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -19930,7 +19939,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20136,7 +20145,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20548,7 +20557,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20754,7 +20763,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21372,7 +21381,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21784,7 +21793,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -21990,7 +21999,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22196,7 +22205,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22274,10 +22283,10 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ103">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -22402,7 +22411,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22608,7 +22617,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -23020,7 +23029,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23307,7 +23316,7 @@
         <v>2</v>
       </c>
       <c r="AQ108">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23510,7 +23519,7 @@
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23638,7 +23647,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24050,7 +24059,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24256,7 +24265,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24668,7 +24677,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24874,7 +24883,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25080,7 +25089,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25492,7 +25501,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25904,7 +25913,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26110,7 +26119,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26316,7 +26325,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26728,7 +26737,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -26821,31 +26830,31 @@
         <v>2.99</v>
       </c>
       <c r="AU125">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AV125">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AW125">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AX125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY125">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="AZ125">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA125">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BB125">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC125">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD125">
         <v>1.2</v>
@@ -26885,6 +26894,418 @@
       </c>
       <c r="BP125">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7516415</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45628.58333333334</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>73</v>
+      </c>
+      <c r="H126" t="s">
+        <v>85</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>3</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>178</v>
+      </c>
+      <c r="P126" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q126">
+        <v>1.67</v>
+      </c>
+      <c r="R126">
+        <v>2.88</v>
+      </c>
+      <c r="S126">
+        <v>8</v>
+      </c>
+      <c r="T126">
+        <v>1.22</v>
+      </c>
+      <c r="U126">
+        <v>4</v>
+      </c>
+      <c r="V126">
+        <v>2.1</v>
+      </c>
+      <c r="W126">
+        <v>1.67</v>
+      </c>
+      <c r="X126">
+        <v>4.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.18</v>
+      </c>
+      <c r="Z126">
+        <v>1.23</v>
+      </c>
+      <c r="AA126">
+        <v>6.4</v>
+      </c>
+      <c r="AB126">
+        <v>10</v>
+      </c>
+      <c r="AC126">
+        <v>1.01</v>
+      </c>
+      <c r="AD126">
+        <v>26</v>
+      </c>
+      <c r="AE126">
+        <v>1.1</v>
+      </c>
+      <c r="AF126">
+        <v>6.6</v>
+      </c>
+      <c r="AG126">
+        <v>1.36</v>
+      </c>
+      <c r="AH126">
+        <v>2.9</v>
+      </c>
+      <c r="AI126">
+        <v>1.83</v>
+      </c>
+      <c r="AJ126">
+        <v>1.83</v>
+      </c>
+      <c r="AK126">
+        <v>1.06</v>
+      </c>
+      <c r="AL126">
+        <v>1.14</v>
+      </c>
+      <c r="AM126">
+        <v>4.33</v>
+      </c>
+      <c r="AN126">
+        <v>2.4</v>
+      </c>
+      <c r="AO126">
+        <v>0.67</v>
+      </c>
+      <c r="AP126">
+        <v>2.5</v>
+      </c>
+      <c r="AQ126">
+        <v>0.57</v>
+      </c>
+      <c r="AR126">
+        <v>2</v>
+      </c>
+      <c r="AS126">
+        <v>1.17</v>
+      </c>
+      <c r="AT126">
+        <v>3.17</v>
+      </c>
+      <c r="AU126">
+        <v>5</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>10</v>
+      </c>
+      <c r="AX126">
+        <v>2</v>
+      </c>
+      <c r="AY126">
+        <v>19</v>
+      </c>
+      <c r="AZ126">
+        <v>7</v>
+      </c>
+      <c r="BA126">
+        <v>17</v>
+      </c>
+      <c r="BB126">
+        <v>3</v>
+      </c>
+      <c r="BC126">
+        <v>20</v>
+      </c>
+      <c r="BD126">
+        <v>1.18</v>
+      </c>
+      <c r="BE126">
+        <v>8</v>
+      </c>
+      <c r="BF126">
+        <v>4.6</v>
+      </c>
+      <c r="BG126">
+        <v>1.32</v>
+      </c>
+      <c r="BH126">
+        <v>3.05</v>
+      </c>
+      <c r="BI126">
+        <v>1.54</v>
+      </c>
+      <c r="BJ126">
+        <v>2.3</v>
+      </c>
+      <c r="BK126">
+        <v>1.88</v>
+      </c>
+      <c r="BL126">
+        <v>1.81</v>
+      </c>
+      <c r="BM126">
+        <v>2.33</v>
+      </c>
+      <c r="BN126">
+        <v>1.52</v>
+      </c>
+      <c r="BO126">
+        <v>3.05</v>
+      </c>
+      <c r="BP126">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7516414</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45628.58333333334</v>
+      </c>
+      <c r="F127">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>87</v>
+      </c>
+      <c r="H127" t="s">
+        <v>84</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>179</v>
+      </c>
+      <c r="P127" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q127">
+        <v>4.33</v>
+      </c>
+      <c r="R127">
+        <v>2.3</v>
+      </c>
+      <c r="S127">
+        <v>2.4</v>
+      </c>
+      <c r="T127">
+        <v>1.33</v>
+      </c>
+      <c r="U127">
+        <v>3.25</v>
+      </c>
+      <c r="V127">
+        <v>2.63</v>
+      </c>
+      <c r="W127">
+        <v>1.44</v>
+      </c>
+      <c r="X127">
+        <v>6.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.11</v>
+      </c>
+      <c r="Z127">
+        <v>4.1</v>
+      </c>
+      <c r="AA127">
+        <v>3.7</v>
+      </c>
+      <c r="AB127">
+        <v>1.81</v>
+      </c>
+      <c r="AC127">
+        <v>1.04</v>
+      </c>
+      <c r="AD127">
+        <v>15</v>
+      </c>
+      <c r="AE127">
+        <v>1.21</v>
+      </c>
+      <c r="AF127">
+        <v>4.22</v>
+      </c>
+      <c r="AG127">
+        <v>1.72</v>
+      </c>
+      <c r="AH127">
+        <v>2.13</v>
+      </c>
+      <c r="AI127">
+        <v>1.67</v>
+      </c>
+      <c r="AJ127">
+        <v>2.1</v>
+      </c>
+      <c r="AK127">
+        <v>2.05</v>
+      </c>
+      <c r="AL127">
+        <v>1.3</v>
+      </c>
+      <c r="AM127">
+        <v>1.28</v>
+      </c>
+      <c r="AN127">
+        <v>0.83</v>
+      </c>
+      <c r="AO127">
+        <v>1.5</v>
+      </c>
+      <c r="AP127">
+        <v>0.86</v>
+      </c>
+      <c r="AQ127">
+        <v>1.43</v>
+      </c>
+      <c r="AR127">
+        <v>1.08</v>
+      </c>
+      <c r="AS127">
+        <v>1.3</v>
+      </c>
+      <c r="AT127">
+        <v>2.38</v>
+      </c>
+      <c r="AU127">
+        <v>5</v>
+      </c>
+      <c r="AV127">
+        <v>3</v>
+      </c>
+      <c r="AW127">
+        <v>5</v>
+      </c>
+      <c r="AX127">
+        <v>8</v>
+      </c>
+      <c r="AY127">
+        <v>14</v>
+      </c>
+      <c r="AZ127">
+        <v>13</v>
+      </c>
+      <c r="BA127">
+        <v>6</v>
+      </c>
+      <c r="BB127">
+        <v>9</v>
+      </c>
+      <c r="BC127">
+        <v>15</v>
+      </c>
+      <c r="BD127">
+        <v>2.7</v>
+      </c>
+      <c r="BE127">
+        <v>6.4</v>
+      </c>
+      <c r="BF127">
+        <v>1.49</v>
+      </c>
+      <c r="BG127">
+        <v>1.37</v>
+      </c>
+      <c r="BH127">
+        <v>2.8</v>
+      </c>
+      <c r="BI127">
+        <v>1.64</v>
+      </c>
+      <c r="BJ127">
+        <v>2.1</v>
+      </c>
+      <c r="BK127">
+        <v>2.02</v>
+      </c>
+      <c r="BL127">
+        <v>1.68</v>
+      </c>
+      <c r="BM127">
+        <v>2.55</v>
+      </c>
+      <c r="BN127">
+        <v>1.44</v>
+      </c>
+      <c r="BO127">
+        <v>3.4</v>
+      </c>
+      <c r="BP127">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,9 @@
     <t>['29']</t>
   </si>
   <si>
+    <t>['79', '81']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -779,6 +782,9 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['38', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1405,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1605,7 +1611,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2429,7 +2435,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2635,7 +2641,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2841,7 +2847,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3047,7 +3053,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3253,7 +3259,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3459,7 +3465,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3665,7 +3671,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3871,7 +3877,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4077,7 +4083,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4283,7 +4289,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4489,7 +4495,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4695,7 +4701,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -4982,7 +4988,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ19">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5313,7 +5319,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5519,7 +5525,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5725,7 +5731,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5931,7 +5937,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6137,7 +6143,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6549,7 +6555,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6630,7 +6636,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -7167,7 +7173,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7579,7 +7585,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7785,7 +7791,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8197,7 +8203,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8403,7 +8409,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8609,7 +8615,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9021,7 +9027,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9227,7 +9233,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9433,7 +9439,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9511,7 +9517,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ41">
         <v>1.43</v>
@@ -9845,7 +9851,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10051,7 +10057,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10463,7 +10469,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10541,7 +10547,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ46">
         <v>1.29</v>
@@ -11081,7 +11087,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11287,7 +11293,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11699,7 +11705,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11905,7 +11911,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12523,7 +12529,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12729,7 +12735,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13141,7 +13147,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13222,7 +13228,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ59">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR59">
         <v>2.34</v>
@@ -13347,7 +13353,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13553,7 +13559,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13631,7 +13637,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ61">
         <v>1.13</v>
@@ -13759,7 +13765,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13965,7 +13971,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14171,7 +14177,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14377,7 +14383,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14789,7 +14795,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14995,7 +15001,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15407,7 +15413,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15613,7 +15619,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16231,7 +16237,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16515,7 +16521,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16849,7 +16855,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17055,7 +17061,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17467,7 +17473,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17548,7 +17554,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR80">
         <v>1.32</v>
@@ -17673,7 +17679,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17879,7 +17885,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18085,7 +18091,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18497,7 +18503,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18703,7 +18709,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18909,7 +18915,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19115,7 +19121,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19733,7 +19739,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19939,7 +19945,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20145,7 +20151,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20557,7 +20563,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20638,7 +20644,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR95">
         <v>1.8</v>
@@ -20763,7 +20769,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21381,7 +21387,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21459,7 +21465,7 @@
         <v>2.2</v>
       </c>
       <c r="AP99">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ99">
         <v>2.43</v>
@@ -21793,7 +21799,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -21999,7 +22005,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22205,7 +22211,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22411,7 +22417,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22617,7 +22623,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -23029,7 +23035,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23647,7 +23653,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24059,7 +24065,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24265,7 +24271,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24552,7 +24558,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ114">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AR114">
         <v>1.24</v>
@@ -24677,7 +24683,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24883,7 +24889,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25089,7 +25095,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25373,7 +25379,7 @@
         <v>0.4</v>
       </c>
       <c r="AP118">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ118">
         <v>0.33</v>
@@ -25501,7 +25507,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25913,7 +25919,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26119,7 +26125,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26325,7 +26331,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26737,7 +26743,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -26943,7 +26949,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q126">
         <v>1.67</v>
@@ -27149,7 +27155,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27306,6 +27312,212 @@
       </c>
       <c r="BP127">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7516420</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45632.58333333334</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>88</v>
+      </c>
+      <c r="H128" t="s">
+        <v>71</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>1</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>4</v>
+      </c>
+      <c r="O128" t="s">
+        <v>180</v>
+      </c>
+      <c r="P128" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q128">
+        <v>2.65</v>
+      </c>
+      <c r="R128">
+        <v>2.4</v>
+      </c>
+      <c r="S128">
+        <v>3.83</v>
+      </c>
+      <c r="T128">
+        <v>1.3</v>
+      </c>
+      <c r="U128">
+        <v>3.2</v>
+      </c>
+      <c r="V128">
+        <v>2.54</v>
+      </c>
+      <c r="W128">
+        <v>1.52</v>
+      </c>
+      <c r="X128">
+        <v>5.9</v>
+      </c>
+      <c r="Y128">
+        <v>1.1</v>
+      </c>
+      <c r="Z128">
+        <v>2.08</v>
+      </c>
+      <c r="AA128">
+        <v>3.6</v>
+      </c>
+      <c r="AB128">
+        <v>3.27</v>
+      </c>
+      <c r="AC128">
+        <v>1.04</v>
+      </c>
+      <c r="AD128">
+        <v>15</v>
+      </c>
+      <c r="AE128">
+        <v>1.21</v>
+      </c>
+      <c r="AF128">
+        <v>4.22</v>
+      </c>
+      <c r="AG128">
+        <v>1.69</v>
+      </c>
+      <c r="AH128">
+        <v>2.12</v>
+      </c>
+      <c r="AI128">
+        <v>1.58</v>
+      </c>
+      <c r="AJ128">
+        <v>2.23</v>
+      </c>
+      <c r="AK128">
+        <v>1.33</v>
+      </c>
+      <c r="AL128">
+        <v>1.28</v>
+      </c>
+      <c r="AM128">
+        <v>1.75</v>
+      </c>
+      <c r="AN128">
+        <v>1.83</v>
+      </c>
+      <c r="AO128">
+        <v>2</v>
+      </c>
+      <c r="AP128">
+        <v>1.71</v>
+      </c>
+      <c r="AQ128">
+        <v>1.86</v>
+      </c>
+      <c r="AR128">
+        <v>1.57</v>
+      </c>
+      <c r="AS128">
+        <v>1.32</v>
+      </c>
+      <c r="AT128">
+        <v>2.89</v>
+      </c>
+      <c r="AU128">
+        <v>8</v>
+      </c>
+      <c r="AV128">
+        <v>6</v>
+      </c>
+      <c r="AW128">
+        <v>8</v>
+      </c>
+      <c r="AX128">
+        <v>3</v>
+      </c>
+      <c r="AY128">
+        <v>22</v>
+      </c>
+      <c r="AZ128">
+        <v>12</v>
+      </c>
+      <c r="BA128">
+        <v>8</v>
+      </c>
+      <c r="BB128">
+        <v>1</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>1.66</v>
+      </c>
+      <c r="BE128">
+        <v>6.5</v>
+      </c>
+      <c r="BF128">
+        <v>2.48</v>
+      </c>
+      <c r="BG128">
+        <v>1.28</v>
+      </c>
+      <c r="BH128">
+        <v>3.3</v>
+      </c>
+      <c r="BI128">
+        <v>1.49</v>
+      </c>
+      <c r="BJ128">
+        <v>2.4</v>
+      </c>
+      <c r="BK128">
+        <v>1.79</v>
+      </c>
+      <c r="BL128">
+        <v>1.9</v>
+      </c>
+      <c r="BM128">
+        <v>2.23</v>
+      </c>
+      <c r="BN128">
+        <v>1.57</v>
+      </c>
+      <c r="BO128">
+        <v>2.88</v>
+      </c>
+      <c r="BP128">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -557,6 +557,15 @@
   </si>
   <si>
     <t>['79', '81']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['39', '42', '59']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -1146,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1414,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1611,7 +1620,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2104,7 +2113,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ5">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2435,7 +2444,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2641,7 +2650,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2847,7 +2856,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3053,7 +3062,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3259,7 +3268,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3337,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ11">
         <v>3</v>
@@ -3465,7 +3474,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3671,7 +3680,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3749,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ13">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3877,7 +3886,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4083,7 +4092,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4289,7 +4298,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4367,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ16">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4495,7 +4504,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4701,7 +4710,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5319,7 +5328,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5525,7 +5534,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5731,7 +5740,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5812,7 +5821,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ23">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR23">
         <v>0.96</v>
@@ -5937,7 +5946,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6018,7 +6027,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ24">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR24">
         <v>1.86</v>
@@ -6143,7 +6152,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6555,7 +6564,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6839,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28">
         <v>1.29</v>
@@ -7045,7 +7054,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ29">
         <v>0.57</v>
@@ -7173,7 +7182,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7585,7 +7594,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7666,7 +7675,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR32">
         <v>1.45</v>
@@ -7791,7 +7800,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8075,7 +8084,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8203,7 +8212,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8409,7 +8418,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8615,7 +8624,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9027,7 +9036,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9233,7 +9242,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9314,7 +9323,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ40">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9439,7 +9448,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9851,7 +9860,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9932,7 +9941,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ43">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR43">
         <v>1.43</v>
@@ -10057,7 +10066,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10469,7 +10478,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10959,7 +10968,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11087,7 +11096,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11293,7 +11302,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11580,7 +11589,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11705,7 +11714,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11911,7 +11920,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -11989,7 +11998,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ53">
         <v>1.25</v>
@@ -12401,7 +12410,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ55">
         <v>1.29</v>
@@ -12529,7 +12538,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12735,7 +12744,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13147,7 +13156,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13353,7 +13362,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13559,7 +13568,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13765,7 +13774,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13846,7 +13855,7 @@
         <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -13971,7 +13980,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14052,7 +14061,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ63">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -14177,7 +14186,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14383,7 +14392,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14464,7 +14473,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ65">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14795,7 +14804,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14873,7 +14882,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15001,7 +15010,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15413,7 +15422,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15491,7 +15500,7 @@
         <v>1.25</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ70">
         <v>1.25</v>
@@ -15619,7 +15628,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16237,7 +16246,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16855,7 +16864,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17061,7 +17070,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17345,7 +17354,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ79">
         <v>1.13</v>
@@ -17473,7 +17482,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17679,7 +17688,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17760,7 +17769,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17885,7 +17894,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18091,7 +18100,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18503,7 +18512,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18709,7 +18718,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18787,7 +18796,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ86">
         <v>0.57</v>
@@ -18915,7 +18924,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19121,7 +19130,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19202,7 +19211,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ88">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -19739,7 +19748,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19945,7 +19954,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20151,7 +20160,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20438,7 +20447,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ94">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR94">
         <v>1.6</v>
@@ -20563,7 +20572,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20641,7 +20650,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ95">
         <v>1.86</v>
@@ -20769,7 +20778,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20847,7 +20856,7 @@
         <v>1.4</v>
       </c>
       <c r="AP96">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21387,7 +21396,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21468,7 +21477,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ99">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR99">
         <v>1.5</v>
@@ -21674,7 +21683,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ100">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR100">
         <v>1.54</v>
@@ -21799,7 +21808,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22005,7 +22014,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22211,7 +22220,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22417,7 +22426,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22623,7 +22632,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22907,7 +22916,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ106">
         <v>1.13</v>
@@ -23035,7 +23044,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23653,7 +23662,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24065,7 +24074,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24146,7 +24155,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ112">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR112">
         <v>1.64</v>
@@ -24271,7 +24280,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24683,7 +24692,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24889,7 +24898,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -24967,7 +24976,7 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AQ116">
         <v>0.33</v>
@@ -25095,7 +25104,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25173,7 +25182,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ117">
         <v>0.71</v>
@@ -25382,7 +25391,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ118">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -25507,7 +25516,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25919,7 +25928,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26125,7 +26134,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26331,7 +26340,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26743,7 +26752,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -26949,7 +26958,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q126">
         <v>1.67</v>
@@ -27155,7 +27164,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27328,7 +27337,7 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45632.58333333334</v>
+        <v>45631.875</v>
       </c>
       <c r="F128">
         <v>15</v>
@@ -27361,7 +27370,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27518,6 +27527,624 @@
       </c>
       <c r="BP128">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7516419</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45633.3125</v>
+      </c>
+      <c r="F129">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>79</v>
+      </c>
+      <c r="H129" t="s">
+        <v>72</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>181</v>
+      </c>
+      <c r="P129" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q129">
+        <v>2.75</v>
+      </c>
+      <c r="R129">
+        <v>2.1</v>
+      </c>
+      <c r="S129">
+        <v>4.2</v>
+      </c>
+      <c r="T129">
+        <v>1.47</v>
+      </c>
+      <c r="U129">
+        <v>2.85</v>
+      </c>
+      <c r="V129">
+        <v>3.2</v>
+      </c>
+      <c r="W129">
+        <v>1.4</v>
+      </c>
+      <c r="X129">
+        <v>9</v>
+      </c>
+      <c r="Y129">
+        <v>1.09</v>
+      </c>
+      <c r="Z129">
+        <v>2.07</v>
+      </c>
+      <c r="AA129">
+        <v>3.33</v>
+      </c>
+      <c r="AB129">
+        <v>3.57</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>9</v>
+      </c>
+      <c r="AE129">
+        <v>1.32</v>
+      </c>
+      <c r="AF129">
+        <v>3.25</v>
+      </c>
+      <c r="AG129">
+        <v>1.99</v>
+      </c>
+      <c r="AH129">
+        <v>1.78</v>
+      </c>
+      <c r="AI129">
+        <v>1.83</v>
+      </c>
+      <c r="AJ129">
+        <v>1.95</v>
+      </c>
+      <c r="AK129">
+        <v>1.33</v>
+      </c>
+      <c r="AL129">
+        <v>1.35</v>
+      </c>
+      <c r="AM129">
+        <v>1.8</v>
+      </c>
+      <c r="AN129">
+        <v>1.5</v>
+      </c>
+      <c r="AO129">
+        <v>0.67</v>
+      </c>
+      <c r="AP129">
+        <v>1.43</v>
+      </c>
+      <c r="AQ129">
+        <v>0.71</v>
+      </c>
+      <c r="AR129">
+        <v>1.29</v>
+      </c>
+      <c r="AS129">
+        <v>1.06</v>
+      </c>
+      <c r="AT129">
+        <v>2.35</v>
+      </c>
+      <c r="AU129">
+        <v>6</v>
+      </c>
+      <c r="AV129">
+        <v>3</v>
+      </c>
+      <c r="AW129">
+        <v>10</v>
+      </c>
+      <c r="AX129">
+        <v>6</v>
+      </c>
+      <c r="AY129">
+        <v>18</v>
+      </c>
+      <c r="AZ129">
+        <v>12</v>
+      </c>
+      <c r="BA129">
+        <v>5</v>
+      </c>
+      <c r="BB129">
+        <v>3</v>
+      </c>
+      <c r="BC129">
+        <v>8</v>
+      </c>
+      <c r="BD129">
+        <v>1.72</v>
+      </c>
+      <c r="BE129">
+        <v>6.4</v>
+      </c>
+      <c r="BF129">
+        <v>2.4</v>
+      </c>
+      <c r="BG129">
+        <v>1.36</v>
+      </c>
+      <c r="BH129">
+        <v>2.8</v>
+      </c>
+      <c r="BI129">
+        <v>1.63</v>
+      </c>
+      <c r="BJ129">
+        <v>2.12</v>
+      </c>
+      <c r="BK129">
+        <v>2</v>
+      </c>
+      <c r="BL129">
+        <v>1.71</v>
+      </c>
+      <c r="BM129">
+        <v>2.55</v>
+      </c>
+      <c r="BN129">
+        <v>1.43</v>
+      </c>
+      <c r="BO129">
+        <v>3.4</v>
+      </c>
+      <c r="BP129">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7516424</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45633.41666666666</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>81</v>
+      </c>
+      <c r="H130" t="s">
+        <v>82</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>182</v>
+      </c>
+      <c r="P130" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q130">
+        <v>1.75</v>
+      </c>
+      <c r="R130">
+        <v>2.5</v>
+      </c>
+      <c r="S130">
+        <v>6.5</v>
+      </c>
+      <c r="T130">
+        <v>1.28</v>
+      </c>
+      <c r="U130">
+        <v>3.3</v>
+      </c>
+      <c r="V130">
+        <v>2.35</v>
+      </c>
+      <c r="W130">
+        <v>1.53</v>
+      </c>
+      <c r="X130">
+        <v>5.25</v>
+      </c>
+      <c r="Y130">
+        <v>1.12</v>
+      </c>
+      <c r="Z130">
+        <v>1.29</v>
+      </c>
+      <c r="AA130">
+        <v>5.21</v>
+      </c>
+      <c r="AB130">
+        <v>10.09</v>
+      </c>
+      <c r="AC130">
+        <v>1.04</v>
+      </c>
+      <c r="AD130">
+        <v>15</v>
+      </c>
+      <c r="AE130">
+        <v>1.19</v>
+      </c>
+      <c r="AF130">
+        <v>4.5</v>
+      </c>
+      <c r="AG130">
+        <v>1.63</v>
+      </c>
+      <c r="AH130">
+        <v>2.22</v>
+      </c>
+      <c r="AI130">
+        <v>1.95</v>
+      </c>
+      <c r="AJ130">
+        <v>1.77</v>
+      </c>
+      <c r="AK130">
+        <v>1.06</v>
+      </c>
+      <c r="AL130">
+        <v>1.11</v>
+      </c>
+      <c r="AM130">
+        <v>3.25</v>
+      </c>
+      <c r="AN130">
+        <v>2.67</v>
+      </c>
+      <c r="AO130">
+        <v>0.33</v>
+      </c>
+      <c r="AP130">
+        <v>2.71</v>
+      </c>
+      <c r="AQ130">
+        <v>0.29</v>
+      </c>
+      <c r="AR130">
+        <v>1.76</v>
+      </c>
+      <c r="AS130">
+        <v>1.19</v>
+      </c>
+      <c r="AT130">
+        <v>2.95</v>
+      </c>
+      <c r="AU130">
+        <v>8</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>12</v>
+      </c>
+      <c r="AX130">
+        <v>3</v>
+      </c>
+      <c r="AY130">
+        <v>27</v>
+      </c>
+      <c r="AZ130">
+        <v>13</v>
+      </c>
+      <c r="BA130">
+        <v>7</v>
+      </c>
+      <c r="BB130">
+        <v>6</v>
+      </c>
+      <c r="BC130">
+        <v>13</v>
+      </c>
+      <c r="BD130">
+        <v>1.24</v>
+      </c>
+      <c r="BE130">
+        <v>8</v>
+      </c>
+      <c r="BF130">
+        <v>4.35</v>
+      </c>
+      <c r="BG130">
+        <v>1.33</v>
+      </c>
+      <c r="BH130">
+        <v>2.95</v>
+      </c>
+      <c r="BI130">
+        <v>1.57</v>
+      </c>
+      <c r="BJ130">
+        <v>2.23</v>
+      </c>
+      <c r="BK130">
+        <v>1.9</v>
+      </c>
+      <c r="BL130">
+        <v>1.79</v>
+      </c>
+      <c r="BM130">
+        <v>2.38</v>
+      </c>
+      <c r="BN130">
+        <v>1.5</v>
+      </c>
+      <c r="BO130">
+        <v>3.05</v>
+      </c>
+      <c r="BP130">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7516416</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45633.54166666666</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>84</v>
+      </c>
+      <c r="H131" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>183</v>
+      </c>
+      <c r="P131" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q131">
+        <v>4</v>
+      </c>
+      <c r="R131">
+        <v>2.35</v>
+      </c>
+      <c r="S131">
+        <v>2.5</v>
+      </c>
+      <c r="T131">
+        <v>1.35</v>
+      </c>
+      <c r="U131">
+        <v>3.5</v>
+      </c>
+      <c r="V131">
+        <v>2.55</v>
+      </c>
+      <c r="W131">
+        <v>1.57</v>
+      </c>
+      <c r="X131">
+        <v>6</v>
+      </c>
+      <c r="Y131">
+        <v>1.15</v>
+      </c>
+      <c r="Z131">
+        <v>3.61</v>
+      </c>
+      <c r="AA131">
+        <v>3.85</v>
+      </c>
+      <c r="AB131">
+        <v>1.9</v>
+      </c>
+      <c r="AC131">
+        <v>1.04</v>
+      </c>
+      <c r="AD131">
+        <v>15</v>
+      </c>
+      <c r="AE131">
+        <v>1.19</v>
+      </c>
+      <c r="AF131">
+        <v>4.5</v>
+      </c>
+      <c r="AG131">
+        <v>1.63</v>
+      </c>
+      <c r="AH131">
+        <v>2.22</v>
+      </c>
+      <c r="AI131">
+        <v>1.57</v>
+      </c>
+      <c r="AJ131">
+        <v>2.35</v>
+      </c>
+      <c r="AK131">
+        <v>1.95</v>
+      </c>
+      <c r="AL131">
+        <v>1.3</v>
+      </c>
+      <c r="AM131">
+        <v>1.33</v>
+      </c>
+      <c r="AN131">
+        <v>2</v>
+      </c>
+      <c r="AO131">
+        <v>2.43</v>
+      </c>
+      <c r="AP131">
+        <v>2.14</v>
+      </c>
+      <c r="AQ131">
+        <v>2.13</v>
+      </c>
+      <c r="AR131">
+        <v>1.61</v>
+      </c>
+      <c r="AS131">
+        <v>1.57</v>
+      </c>
+      <c r="AT131">
+        <v>3.18</v>
+      </c>
+      <c r="AU131">
+        <v>6</v>
+      </c>
+      <c r="AV131">
+        <v>3</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>6</v>
+      </c>
+      <c r="AY131">
+        <v>13</v>
+      </c>
+      <c r="AZ131">
+        <v>13</v>
+      </c>
+      <c r="BA131">
+        <v>1</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
+        <v>4</v>
+      </c>
+      <c r="BD131">
+        <v>2.55</v>
+      </c>
+      <c r="BE131">
+        <v>6.5</v>
+      </c>
+      <c r="BF131">
+        <v>1.63</v>
+      </c>
+      <c r="BG131">
+        <v>1.41</v>
+      </c>
+      <c r="BH131">
+        <v>2.65</v>
+      </c>
+      <c r="BI131">
+        <v>1.68</v>
+      </c>
+      <c r="BJ131">
+        <v>2.04</v>
+      </c>
+      <c r="BK131">
+        <v>2.1</v>
+      </c>
+      <c r="BL131">
+        <v>1.63</v>
+      </c>
+      <c r="BM131">
+        <v>2.7</v>
+      </c>
+      <c r="BN131">
+        <v>1.4</v>
+      </c>
+      <c r="BO131">
+        <v>3.55</v>
+      </c>
+      <c r="BP131">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,18 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['54', '64', '69']</t>
+  </si>
+  <si>
+    <t>['25', '90+1']</t>
+  </si>
+  <si>
+    <t>['51', '66']</t>
+  </si>
+  <si>
+    <t>['56', '83', '90+4']</t>
+  </si>
+  <si>
     <t>['52']</t>
   </si>
   <si>
@@ -794,6 +806,9 @@
   </si>
   <si>
     <t>['38', '90+1']</t>
+  </si>
+  <si>
+    <t>['36', '45+9', '53']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1429,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1495,7 +1510,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ2">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1620,7 +1635,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2316,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
         <v>0.57</v>
@@ -2444,7 +2459,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2650,7 +2665,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2856,7 +2871,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3062,7 +3077,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3268,7 +3283,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3474,7 +3489,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3552,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3680,7 +3695,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3886,7 +3901,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4092,7 +4107,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4170,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4298,7 +4313,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4504,7 +4519,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4585,7 +4600,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ17">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4710,7 +4725,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -4788,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ18">
         <v>0.57</v>
@@ -5328,7 +5343,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5406,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
         <v>1.25</v>
@@ -5534,7 +5549,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5740,7 +5755,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5946,7 +5961,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6152,7 +6167,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6233,7 +6248,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR25">
         <v>1.29</v>
@@ -6439,7 +6454,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ26">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR26">
         <v>1.44</v>
@@ -6564,7 +6579,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7182,7 +7197,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7466,7 +7481,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ31">
         <v>0.57</v>
@@ -7594,7 +7609,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7672,7 +7687,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ32">
         <v>0.71</v>
@@ -7800,7 +7815,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -7881,7 +7896,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ33">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -8212,7 +8227,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8290,7 +8305,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ35">
         <v>0.57</v>
@@ -8418,7 +8433,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8624,7 +8639,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9036,7 +9051,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9114,7 +9129,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9242,7 +9257,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9448,7 +9463,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9735,7 +9750,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR42">
         <v>1.49</v>
@@ -9860,7 +9875,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10066,7 +10081,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10478,7 +10493,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11096,7 +11111,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11302,7 +11317,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11383,7 +11398,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ50">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -11714,7 +11729,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11795,7 +11810,7 @@
         <v>0</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR52">
         <v>1.43</v>
@@ -11920,7 +11935,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12538,7 +12553,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12616,7 +12631,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12744,7 +12759,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13156,7 +13171,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13362,7 +13377,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13440,7 +13455,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ60">
         <v>0.57</v>
@@ -13568,7 +13583,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13774,7 +13789,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13980,7 +13995,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14186,7 +14201,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14264,7 +14279,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ64">
         <v>1.43</v>
@@ -14392,7 +14407,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14804,7 +14819,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15010,7 +15025,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15088,7 +15103,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ68">
         <v>1.29</v>
@@ -15422,7 +15437,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15628,7 +15643,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -15709,7 +15724,7 @@
         <v>0</v>
       </c>
       <c r="AQ71">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR71">
         <v>1.33</v>
@@ -16121,7 +16136,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ73">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR73">
         <v>1.95</v>
@@ -16246,7 +16261,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16324,7 +16339,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ74">
         <v>0.57</v>
@@ -16736,7 +16751,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ76">
         <v>0.71</v>
@@ -16864,7 +16879,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17070,7 +17085,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17148,10 +17163,10 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ78">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17482,7 +17497,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17688,7 +17703,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17894,7 +17909,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18100,7 +18115,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18512,7 +18527,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18593,7 +18608,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ85">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR85">
         <v>1.46</v>
@@ -18718,7 +18733,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18924,7 +18939,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19130,7 +19145,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19620,7 +19635,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ90">
         <v>1.25</v>
@@ -19748,7 +19763,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19954,7 +19969,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20160,7 +20175,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20238,7 +20253,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ93">
         <v>1.5</v>
@@ -20444,7 +20459,7 @@
         <v>0.25</v>
       </c>
       <c r="AP94">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ94">
         <v>0.29</v>
@@ -20572,7 +20587,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20778,7 +20793,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21062,10 +21077,10 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ97">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21271,7 +21286,7 @@
         <v>1</v>
       </c>
       <c r="AQ98">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -21396,7 +21411,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21808,7 +21823,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22014,7 +22029,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22220,7 +22235,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22426,7 +22441,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22632,7 +22647,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -23044,7 +23059,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23125,7 +23140,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ107">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR107">
         <v>1.87</v>
@@ -23328,7 +23343,7 @@
         <v>1.6</v>
       </c>
       <c r="AP108">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ108">
         <v>1.43</v>
@@ -23662,7 +23677,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23740,7 +23755,7 @@
         <v>1.2</v>
       </c>
       <c r="AP110">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ110">
         <v>1.5</v>
@@ -24074,7 +24089,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24152,7 +24167,7 @@
         <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ112">
         <v>2.13</v>
@@ -24280,7 +24295,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24564,7 +24579,7 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ114">
         <v>1.86</v>
@@ -24692,7 +24707,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24773,7 +24788,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ115">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -24898,7 +24913,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -24979,7 +24994,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR116">
         <v>1.38</v>
@@ -25104,7 +25119,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25516,7 +25531,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25928,7 +25943,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26134,7 +26149,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26212,7 +26227,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ122">
         <v>0.71</v>
@@ -26340,7 +26355,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26752,7 +26767,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -26958,7 +26973,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q126">
         <v>1.67</v>
@@ -27164,7 +27179,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27337,7 +27352,7 @@
         <v>69</v>
       </c>
       <c r="E128" s="2">
-        <v>45631.875</v>
+        <v>45632.58333333334</v>
       </c>
       <c r="F128">
         <v>15</v>
@@ -27370,7 +27385,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27782,7 +27797,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28145,6 +28160,830 @@
       </c>
       <c r="BP131">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7516421</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45634.3125</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>86</v>
+      </c>
+      <c r="H132" t="s">
+        <v>76</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>184</v>
+      </c>
+      <c r="P132" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q132">
+        <v>3.3</v>
+      </c>
+      <c r="R132">
+        <v>2.15</v>
+      </c>
+      <c r="S132">
+        <v>3.25</v>
+      </c>
+      <c r="T132">
+        <v>1.45</v>
+      </c>
+      <c r="U132">
+        <v>2.95</v>
+      </c>
+      <c r="V132">
+        <v>2.95</v>
+      </c>
+      <c r="W132">
+        <v>1.45</v>
+      </c>
+      <c r="X132">
+        <v>8</v>
+      </c>
+      <c r="Y132">
+        <v>1.1</v>
+      </c>
+      <c r="Z132">
+        <v>2.64</v>
+      </c>
+      <c r="AA132">
+        <v>3.34</v>
+      </c>
+      <c r="AB132">
+        <v>2.59</v>
+      </c>
+      <c r="AC132">
+        <v>1.04</v>
+      </c>
+      <c r="AD132">
+        <v>10.06</v>
+      </c>
+      <c r="AE132">
+        <v>1.29</v>
+      </c>
+      <c r="AF132">
+        <v>3.44</v>
+      </c>
+      <c r="AG132">
+        <v>1.88</v>
+      </c>
+      <c r="AH132">
+        <v>1.88</v>
+      </c>
+      <c r="AI132">
+        <v>1.72</v>
+      </c>
+      <c r="AJ132">
+        <v>2.1</v>
+      </c>
+      <c r="AK132">
+        <v>1.53</v>
+      </c>
+      <c r="AL132">
+        <v>1.35</v>
+      </c>
+      <c r="AM132">
+        <v>1.5</v>
+      </c>
+      <c r="AN132">
+        <v>2.17</v>
+      </c>
+      <c r="AO132">
+        <v>2.5</v>
+      </c>
+      <c r="AP132">
+        <v>2.29</v>
+      </c>
+      <c r="AQ132">
+        <v>2.14</v>
+      </c>
+      <c r="AR132">
+        <v>1.36</v>
+      </c>
+      <c r="AS132">
+        <v>1.24</v>
+      </c>
+      <c r="AT132">
+        <v>2.6</v>
+      </c>
+      <c r="AU132">
+        <v>6</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>8</v>
+      </c>
+      <c r="AX132">
+        <v>7</v>
+      </c>
+      <c r="AY132">
+        <v>16</v>
+      </c>
+      <c r="AZ132">
+        <v>13</v>
+      </c>
+      <c r="BA132">
+        <v>5</v>
+      </c>
+      <c r="BB132">
+        <v>3</v>
+      </c>
+      <c r="BC132">
+        <v>8</v>
+      </c>
+      <c r="BD132">
+        <v>2.05</v>
+      </c>
+      <c r="BE132">
+        <v>6.4</v>
+      </c>
+      <c r="BF132">
+        <v>1.95</v>
+      </c>
+      <c r="BG132">
+        <v>1.4</v>
+      </c>
+      <c r="BH132">
+        <v>2.7</v>
+      </c>
+      <c r="BI132">
+        <v>1.66</v>
+      </c>
+      <c r="BJ132">
+        <v>2.06</v>
+      </c>
+      <c r="BK132">
+        <v>2.07</v>
+      </c>
+      <c r="BL132">
+        <v>1.66</v>
+      </c>
+      <c r="BM132">
+        <v>2.65</v>
+      </c>
+      <c r="BN132">
+        <v>1.41</v>
+      </c>
+      <c r="BO132">
+        <v>3.45</v>
+      </c>
+      <c r="BP132">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7516417</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45634.41666666666</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>74</v>
+      </c>
+      <c r="H133" t="s">
+        <v>70</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>2</v>
+      </c>
+      <c r="K133">
+        <v>3</v>
+      </c>
+      <c r="L133">
+        <v>2</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133" t="s">
+        <v>185</v>
+      </c>
+      <c r="P133" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q133">
+        <v>6</v>
+      </c>
+      <c r="R133">
+        <v>2.8</v>
+      </c>
+      <c r="S133">
+        <v>1.8</v>
+      </c>
+      <c r="T133">
+        <v>1.25</v>
+      </c>
+      <c r="U133">
+        <v>4.33</v>
+      </c>
+      <c r="V133">
+        <v>2.15</v>
+      </c>
+      <c r="W133">
+        <v>1.78</v>
+      </c>
+      <c r="X133">
+        <v>4.75</v>
+      </c>
+      <c r="Y133">
+        <v>1.22</v>
+      </c>
+      <c r="Z133">
+        <v>7.91</v>
+      </c>
+      <c r="AA133">
+        <v>5.21</v>
+      </c>
+      <c r="AB133">
+        <v>1.34</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>26</v>
+      </c>
+      <c r="AE133">
+        <v>1.11</v>
+      </c>
+      <c r="AF133">
+        <v>6.09</v>
+      </c>
+      <c r="AG133">
+        <v>1.4</v>
+      </c>
+      <c r="AH133">
+        <v>2.87</v>
+      </c>
+      <c r="AI133">
+        <v>1.63</v>
+      </c>
+      <c r="AJ133">
+        <v>2.25</v>
+      </c>
+      <c r="AK133">
+        <v>3.3</v>
+      </c>
+      <c r="AL133">
+        <v>1.17</v>
+      </c>
+      <c r="AM133">
+        <v>1.11</v>
+      </c>
+      <c r="AN133">
+        <v>1.57</v>
+      </c>
+      <c r="AO133">
+        <v>3</v>
+      </c>
+      <c r="AP133">
+        <v>1.38</v>
+      </c>
+      <c r="AQ133">
+        <v>3</v>
+      </c>
+      <c r="AR133">
+        <v>1.23</v>
+      </c>
+      <c r="AS133">
+        <v>1.89</v>
+      </c>
+      <c r="AT133">
+        <v>3.12</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>9</v>
+      </c>
+      <c r="AW133">
+        <v>5</v>
+      </c>
+      <c r="AX133">
+        <v>6</v>
+      </c>
+      <c r="AY133">
+        <v>12</v>
+      </c>
+      <c r="AZ133">
+        <v>18</v>
+      </c>
+      <c r="BA133">
+        <v>3</v>
+      </c>
+      <c r="BB133">
+        <v>7</v>
+      </c>
+      <c r="BC133">
+        <v>10</v>
+      </c>
+      <c r="BD133">
+        <v>4.1</v>
+      </c>
+      <c r="BE133">
+        <v>7.5</v>
+      </c>
+      <c r="BF133">
+        <v>1.26</v>
+      </c>
+      <c r="BG133">
+        <v>1.28</v>
+      </c>
+      <c r="BH133">
+        <v>3.3</v>
+      </c>
+      <c r="BI133">
+        <v>1.49</v>
+      </c>
+      <c r="BJ133">
+        <v>2.4</v>
+      </c>
+      <c r="BK133">
+        <v>1.79</v>
+      </c>
+      <c r="BL133">
+        <v>1.9</v>
+      </c>
+      <c r="BM133">
+        <v>2.23</v>
+      </c>
+      <c r="BN133">
+        <v>1.57</v>
+      </c>
+      <c r="BO133">
+        <v>2.8</v>
+      </c>
+      <c r="BP133">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7516418</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45634.41666666666</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>80</v>
+      </c>
+      <c r="H134" t="s">
+        <v>75</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>186</v>
+      </c>
+      <c r="P134" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q134">
+        <v>3</v>
+      </c>
+      <c r="R134">
+        <v>2.2</v>
+      </c>
+      <c r="S134">
+        <v>3.4</v>
+      </c>
+      <c r="T134">
+        <v>1.4</v>
+      </c>
+      <c r="U134">
+        <v>3.2</v>
+      </c>
+      <c r="V134">
+        <v>2.85</v>
+      </c>
+      <c r="W134">
+        <v>1.47</v>
+      </c>
+      <c r="X134">
+        <v>7.5</v>
+      </c>
+      <c r="Y134">
+        <v>1.12</v>
+      </c>
+      <c r="Z134">
+        <v>2.36</v>
+      </c>
+      <c r="AA134">
+        <v>3.43</v>
+      </c>
+      <c r="AB134">
+        <v>2.87</v>
+      </c>
+      <c r="AC134">
+        <v>1.05</v>
+      </c>
+      <c r="AD134">
+        <v>13</v>
+      </c>
+      <c r="AE134">
+        <v>1.25</v>
+      </c>
+      <c r="AF134">
+        <v>3.82</v>
+      </c>
+      <c r="AG134">
+        <v>1.79</v>
+      </c>
+      <c r="AH134">
+        <v>1.98</v>
+      </c>
+      <c r="AI134">
+        <v>1.65</v>
+      </c>
+      <c r="AJ134">
+        <v>2.2</v>
+      </c>
+      <c r="AK134">
+        <v>1.45</v>
+      </c>
+      <c r="AL134">
+        <v>1.33</v>
+      </c>
+      <c r="AM134">
+        <v>1.65</v>
+      </c>
+      <c r="AN134">
+        <v>0.5</v>
+      </c>
+      <c r="AO134">
+        <v>0.83</v>
+      </c>
+      <c r="AP134">
+        <v>0.86</v>
+      </c>
+      <c r="AQ134">
+        <v>0.71</v>
+      </c>
+      <c r="AR134">
+        <v>1.67</v>
+      </c>
+      <c r="AS134">
+        <v>1.1</v>
+      </c>
+      <c r="AT134">
+        <v>2.77</v>
+      </c>
+      <c r="AU134">
+        <v>7</v>
+      </c>
+      <c r="AV134">
+        <v>6</v>
+      </c>
+      <c r="AW134">
+        <v>3</v>
+      </c>
+      <c r="AX134">
+        <v>1</v>
+      </c>
+      <c r="AY134">
+        <v>12</v>
+      </c>
+      <c r="AZ134">
+        <v>10</v>
+      </c>
+      <c r="BA134">
+        <v>5</v>
+      </c>
+      <c r="BB134">
+        <v>10</v>
+      </c>
+      <c r="BC134">
+        <v>15</v>
+      </c>
+      <c r="BD134">
+        <v>1.91</v>
+      </c>
+      <c r="BE134">
+        <v>6.4</v>
+      </c>
+      <c r="BF134">
+        <v>2.08</v>
+      </c>
+      <c r="BG134">
+        <v>1.38</v>
+      </c>
+      <c r="BH134">
+        <v>2.7</v>
+      </c>
+      <c r="BI134">
+        <v>1.65</v>
+      </c>
+      <c r="BJ134">
+        <v>2.08</v>
+      </c>
+      <c r="BK134">
+        <v>2.04</v>
+      </c>
+      <c r="BL134">
+        <v>1.67</v>
+      </c>
+      <c r="BM134">
+        <v>2.63</v>
+      </c>
+      <c r="BN134">
+        <v>1.41</v>
+      </c>
+      <c r="BO134">
+        <v>3.4</v>
+      </c>
+      <c r="BP134">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7516422</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45634.54166666666</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>83</v>
+      </c>
+      <c r="H135" t="s">
+        <v>87</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>3</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>187</v>
+      </c>
+      <c r="P135" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q135">
+        <v>2.4</v>
+      </c>
+      <c r="R135">
+        <v>2.2</v>
+      </c>
+      <c r="S135">
+        <v>4.75</v>
+      </c>
+      <c r="T135">
+        <v>1.44</v>
+      </c>
+      <c r="U135">
+        <v>3</v>
+      </c>
+      <c r="V135">
+        <v>3</v>
+      </c>
+      <c r="W135">
+        <v>1.44</v>
+      </c>
+      <c r="X135">
+        <v>8.5</v>
+      </c>
+      <c r="Y135">
+        <v>1.1</v>
+      </c>
+      <c r="Z135">
+        <v>1.77</v>
+      </c>
+      <c r="AA135">
+        <v>3.59</v>
+      </c>
+      <c r="AB135">
+        <v>4.52</v>
+      </c>
+      <c r="AC135">
+        <v>1.04</v>
+      </c>
+      <c r="AD135">
+        <v>10.06</v>
+      </c>
+      <c r="AE135">
+        <v>1.29</v>
+      </c>
+      <c r="AF135">
+        <v>3.44</v>
+      </c>
+      <c r="AG135">
+        <v>1.93</v>
+      </c>
+      <c r="AH135">
+        <v>1.83</v>
+      </c>
+      <c r="AI135">
+        <v>1.87</v>
+      </c>
+      <c r="AJ135">
+        <v>1.9</v>
+      </c>
+      <c r="AK135">
+        <v>1.22</v>
+      </c>
+      <c r="AL135">
+        <v>1.3</v>
+      </c>
+      <c r="AM135">
+        <v>2.1</v>
+      </c>
+      <c r="AN135">
+        <v>2</v>
+      </c>
+      <c r="AO135">
+        <v>0.33</v>
+      </c>
+      <c r="AP135">
+        <v>2.14</v>
+      </c>
+      <c r="AQ135">
+        <v>0.29</v>
+      </c>
+      <c r="AR135">
+        <v>1.47</v>
+      </c>
+      <c r="AS135">
+        <v>1.16</v>
+      </c>
+      <c r="AT135">
+        <v>2.63</v>
+      </c>
+      <c r="AU135">
+        <v>7</v>
+      </c>
+      <c r="AV135">
+        <v>2</v>
+      </c>
+      <c r="AW135">
+        <v>9</v>
+      </c>
+      <c r="AX135">
+        <v>3</v>
+      </c>
+      <c r="AY135">
+        <v>20</v>
+      </c>
+      <c r="AZ135">
+        <v>9</v>
+      </c>
+      <c r="BA135">
+        <v>7</v>
+      </c>
+      <c r="BB135">
+        <v>5</v>
+      </c>
+      <c r="BC135">
+        <v>12</v>
+      </c>
+      <c r="BD135">
+        <v>1.57</v>
+      </c>
+      <c r="BE135">
+        <v>6.5</v>
+      </c>
+      <c r="BF135">
+        <v>2.65</v>
+      </c>
+      <c r="BG135">
+        <v>1.47</v>
+      </c>
+      <c r="BH135">
+        <v>2.48</v>
+      </c>
+      <c r="BI135">
+        <v>1.77</v>
+      </c>
+      <c r="BJ135">
+        <v>1.92</v>
+      </c>
+      <c r="BK135">
+        <v>2.2</v>
+      </c>
+      <c r="BL135">
+        <v>1.57</v>
+      </c>
+      <c r="BM135">
+        <v>2.85</v>
+      </c>
+      <c r="BN135">
+        <v>1.36</v>
+      </c>
+      <c r="BO135">
+        <v>3.9</v>
+      </c>
+      <c r="BP135">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>['56', '83', '90+4']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -1170,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,7 +1432,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1635,7 +1638,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2459,7 +2462,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2665,7 +2668,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2871,7 +2874,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3077,7 +3080,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3283,7 +3286,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3489,7 +3492,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3695,7 +3698,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3901,7 +3904,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -3982,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4107,7 +4110,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4313,7 +4316,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4519,7 +4522,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4597,7 +4600,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>2.14</v>
@@ -4725,7 +4728,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5343,7 +5346,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5549,7 +5552,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5755,7 +5758,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5961,7 +5964,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6167,7 +6170,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6579,7 +6582,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7197,7 +7200,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7609,7 +7612,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7815,7 +7818,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8227,7 +8230,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8433,7 +8436,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8639,7 +8642,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8926,7 +8929,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR38">
         <v>2.66</v>
@@ -9051,7 +9054,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9257,7 +9260,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9463,7 +9466,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9875,7 +9878,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10081,7 +10084,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10493,7 +10496,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11111,7 +11114,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11317,7 +11320,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11729,7 +11732,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11935,7 +11938,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12219,7 +12222,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
         <v>0.57</v>
@@ -12553,7 +12556,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12759,7 +12762,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13046,7 +13049,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ58">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13171,7 +13174,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13377,7 +13380,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13583,7 +13586,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13789,7 +13792,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13995,7 +13998,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14201,7 +14204,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14407,7 +14410,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14819,7 +14822,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15025,7 +15028,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15437,7 +15440,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15643,7 +15646,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -15927,7 +15930,7 @@
         <v>2.33</v>
       </c>
       <c r="AP72">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ72">
         <v>1.43</v>
@@ -16261,7 +16264,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16879,7 +16882,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17085,7 +17088,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17497,7 +17500,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17703,7 +17706,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17909,7 +17912,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -17990,7 +17993,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR82">
         <v>1.45</v>
@@ -18115,7 +18118,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18527,7 +18530,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18733,7 +18736,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18939,7 +18942,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19017,7 +19020,7 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>1.13</v>
@@ -19145,7 +19148,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19763,7 +19766,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19969,7 +19972,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20047,7 +20050,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ92">
         <v>0.71</v>
@@ -20175,7 +20178,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20256,7 +20259,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ93">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>1.31</v>
@@ -20587,7 +20590,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20793,7 +20796,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21411,7 +21414,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21823,7 +21826,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22029,7 +22032,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22235,7 +22238,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22441,7 +22444,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22647,7 +22650,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -23059,7 +23062,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23677,7 +23680,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23758,7 +23761,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ110">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AR110">
         <v>1.36</v>
@@ -23961,7 +23964,7 @@
         <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
         <v>1</v>
@@ -24089,7 +24092,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24295,7 +24298,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24707,7 +24710,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24913,7 +24916,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25119,7 +25122,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25531,7 +25534,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25943,7 +25946,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26149,7 +26152,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26355,7 +26358,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26767,7 +26770,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -26973,7 +26976,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q126">
         <v>1.67</v>
@@ -27179,7 +27182,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27385,7 +27388,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27797,7 +27800,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -27896,13 +27899,13 @@
         <v>6</v>
       </c>
       <c r="AW130">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX130">
         <v>3</v>
       </c>
       <c r="AY130">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ130">
         <v>13</v>
@@ -28385,7 +28388,7 @@
         <v>45634.41666666666</v>
       </c>
       <c r="F133">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
         <v>74</v>
@@ -28415,7 +28418,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -28984,6 +28987,212 @@
       </c>
       <c r="BP135">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7516423</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45635.58333333334</v>
+      </c>
+      <c r="F136">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>85</v>
+      </c>
+      <c r="H136" t="s">
+        <v>77</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>188</v>
+      </c>
+      <c r="P136" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q136">
+        <v>3.1</v>
+      </c>
+      <c r="R136">
+        <v>2.2</v>
+      </c>
+      <c r="S136">
+        <v>3.25</v>
+      </c>
+      <c r="T136">
+        <v>1.36</v>
+      </c>
+      <c r="U136">
+        <v>3</v>
+      </c>
+      <c r="V136">
+        <v>2.63</v>
+      </c>
+      <c r="W136">
+        <v>1.44</v>
+      </c>
+      <c r="X136">
+        <v>7</v>
+      </c>
+      <c r="Y136">
+        <v>1.1</v>
+      </c>
+      <c r="Z136">
+        <v>2.54</v>
+      </c>
+      <c r="AA136">
+        <v>3.26</v>
+      </c>
+      <c r="AB136">
+        <v>2.67</v>
+      </c>
+      <c r="AC136">
+        <v>1.05</v>
+      </c>
+      <c r="AD136">
+        <v>13</v>
+      </c>
+      <c r="AE136">
+        <v>1.25</v>
+      </c>
+      <c r="AF136">
+        <v>3.82</v>
+      </c>
+      <c r="AG136">
+        <v>1.75</v>
+      </c>
+      <c r="AH136">
+        <v>1.95</v>
+      </c>
+      <c r="AI136">
+        <v>1.62</v>
+      </c>
+      <c r="AJ136">
+        <v>2.2</v>
+      </c>
+      <c r="AK136">
+        <v>1.5</v>
+      </c>
+      <c r="AL136">
+        <v>1.33</v>
+      </c>
+      <c r="AM136">
+        <v>1.57</v>
+      </c>
+      <c r="AN136">
+        <v>1.83</v>
+      </c>
+      <c r="AO136">
+        <v>1.5</v>
+      </c>
+      <c r="AP136">
+        <v>2</v>
+      </c>
+      <c r="AQ136">
+        <v>1.29</v>
+      </c>
+      <c r="AR136">
+        <v>1.55</v>
+      </c>
+      <c r="AS136">
+        <v>1.07</v>
+      </c>
+      <c r="AT136">
+        <v>2.62</v>
+      </c>
+      <c r="AU136">
+        <v>3</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
+        <v>4</v>
+      </c>
+      <c r="AX136">
+        <v>8</v>
+      </c>
+      <c r="AY136">
+        <v>8</v>
+      </c>
+      <c r="AZ136">
+        <v>16</v>
+      </c>
+      <c r="BA136">
+        <v>3</v>
+      </c>
+      <c r="BB136">
+        <v>5</v>
+      </c>
+      <c r="BC136">
+        <v>8</v>
+      </c>
+      <c r="BD136">
+        <v>1.9</v>
+      </c>
+      <c r="BE136">
+        <v>6.4</v>
+      </c>
+      <c r="BF136">
+        <v>2.12</v>
+      </c>
+      <c r="BG136">
+        <v>1.36</v>
+      </c>
+      <c r="BH136">
+        <v>2.8</v>
+      </c>
+      <c r="BI136">
+        <v>1.61</v>
+      </c>
+      <c r="BJ136">
+        <v>2.15</v>
+      </c>
+      <c r="BK136">
+        <v>1.98</v>
+      </c>
+      <c r="BL136">
+        <v>1.72</v>
+      </c>
+      <c r="BM136">
+        <v>2.55</v>
+      </c>
+      <c r="BN136">
+        <v>1.44</v>
+      </c>
+      <c r="BO136">
+        <v>3.3</v>
+      </c>
+      <c r="BP136">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -28935,7 +28935,7 @@
         <v>3</v>
       </c>
       <c r="AY135">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ135">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -581,6 +581,12 @@
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['57', '82']</t>
+  </si>
+  <si>
+    <t>['49', '76']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -1173,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1438,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1638,7 +1644,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1716,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ3">
         <v>1.13</v>
@@ -2462,7 +2468,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2543,7 +2549,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2668,7 +2674,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2874,7 +2880,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3080,7 +3086,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3158,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ10">
         <v>0.57</v>
@@ -3286,7 +3292,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3492,7 +3498,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3573,7 +3579,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3698,7 +3704,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3904,7 +3910,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4110,7 +4116,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4316,7 +4322,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4522,7 +4528,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4728,7 +4734,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5346,7 +5352,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5427,7 +5433,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5552,7 +5558,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5630,7 +5636,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ22">
         <v>1.13</v>
@@ -5758,7 +5764,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5836,7 +5842,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23">
         <v>0.29</v>
@@ -5964,7 +5970,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6170,7 +6176,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6582,7 +6588,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7200,7 +7206,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7612,7 +7618,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7818,7 +7824,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8105,7 +8111,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR34">
         <v>1.63</v>
@@ -8230,7 +8236,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8436,7 +8442,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8642,7 +8648,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8720,7 +8726,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ37">
         <v>1</v>
@@ -9054,7 +9060,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9135,7 +9141,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR39">
         <v>2.02</v>
@@ -9260,7 +9266,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9338,7 +9344,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ40">
         <v>2.13</v>
@@ -9466,7 +9472,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9878,7 +9884,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10084,7 +10090,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10496,7 +10502,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10989,7 +10995,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR48">
         <v>1.29</v>
@@ -11114,7 +11120,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11320,7 +11326,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11604,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ51">
         <v>0.71</v>
@@ -11732,7 +11738,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11938,7 +11944,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12019,7 +12025,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR53">
         <v>1.74</v>
@@ -12556,7 +12562,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12762,7 +12768,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13174,7 +13180,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13380,7 +13386,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13586,7 +13592,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13792,7 +13798,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13870,7 +13876,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ62">
         <v>0.29</v>
@@ -13998,7 +14004,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14204,7 +14210,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14410,7 +14416,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14694,7 +14700,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ66">
         <v>0.57</v>
@@ -14822,7 +14828,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14903,7 +14909,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
         <v>1.89</v>
@@ -15028,7 +15034,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15440,7 +15446,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15521,7 +15527,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR70">
         <v>1.39</v>
@@ -15646,7 +15652,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16264,7 +16270,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16882,7 +16888,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17088,7 +17094,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17500,7 +17506,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17706,7 +17712,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17912,7 +17918,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -17990,7 +17996,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ82">
         <v>1.29</v>
@@ -18118,7 +18124,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18199,7 +18205,7 @@
         <v>0</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
         <v>1.37</v>
@@ -18530,7 +18536,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18608,7 +18614,7 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ85">
         <v>2.14</v>
@@ -18736,7 +18742,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18942,7 +18948,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19148,7 +19154,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19641,7 +19647,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -19766,7 +19772,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19972,7 +19978,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20178,7 +20184,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20590,7 +20596,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20796,7 +20802,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21286,7 +21292,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98">
         <v>0.71</v>
@@ -21414,7 +21420,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21826,7 +21832,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -21904,7 +21910,7 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AQ101">
         <v>1.29</v>
@@ -22032,7 +22038,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22238,7 +22244,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22444,7 +22450,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22650,7 +22656,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22731,7 +22737,7 @@
         <v>0</v>
       </c>
       <c r="AQ105">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR105">
         <v>1.42</v>
@@ -23062,7 +23068,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23555,7 +23561,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR109">
         <v>1.89</v>
@@ -23680,7 +23686,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24092,7 +24098,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24298,7 +24304,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24376,7 +24382,7 @@
         <v>3</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ113">
         <v>3</v>
@@ -24710,7 +24716,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24916,7 +24922,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25122,7 +25128,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25534,7 +25540,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25615,7 +25621,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR119">
         <v>1.31</v>
@@ -25946,7 +25952,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26152,7 +26158,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26358,7 +26364,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26770,7 +26776,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -26851,7 +26857,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ125">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR125">
         <v>1.89</v>
@@ -26976,7 +26982,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q126">
         <v>1.67</v>
@@ -27182,7 +27188,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27388,7 +27394,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27800,7 +27806,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28418,7 +28424,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -29193,6 +29199,418 @@
       </c>
       <c r="BP136">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7516431</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45639.58333333334</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137" t="s">
+        <v>86</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>189</v>
+      </c>
+      <c r="P137" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q137">
+        <v>2.63</v>
+      </c>
+      <c r="R137">
+        <v>2.2</v>
+      </c>
+      <c r="S137">
+        <v>3.6</v>
+      </c>
+      <c r="T137">
+        <v>1.32</v>
+      </c>
+      <c r="U137">
+        <v>3.28</v>
+      </c>
+      <c r="V137">
+        <v>2.58</v>
+      </c>
+      <c r="W137">
+        <v>1.5</v>
+      </c>
+      <c r="X137">
+        <v>6.5</v>
+      </c>
+      <c r="Y137">
+        <v>1.11</v>
+      </c>
+      <c r="Z137">
+        <v>2.13</v>
+      </c>
+      <c r="AA137">
+        <v>3.59</v>
+      </c>
+      <c r="AB137">
+        <v>3.17</v>
+      </c>
+      <c r="AC137">
+        <v>1.05</v>
+      </c>
+      <c r="AD137">
+        <v>13</v>
+      </c>
+      <c r="AE137">
+        <v>1.22</v>
+      </c>
+      <c r="AF137">
+        <v>4.12</v>
+      </c>
+      <c r="AG137">
+        <v>1.72</v>
+      </c>
+      <c r="AH137">
+        <v>2.07</v>
+      </c>
+      <c r="AI137">
+        <v>1.57</v>
+      </c>
+      <c r="AJ137">
+        <v>2.38</v>
+      </c>
+      <c r="AK137">
+        <v>1.36</v>
+      </c>
+      <c r="AL137">
+        <v>1.32</v>
+      </c>
+      <c r="AM137">
+        <v>1.75</v>
+      </c>
+      <c r="AN137">
+        <v>0.43</v>
+      </c>
+      <c r="AO137">
+        <v>1.25</v>
+      </c>
+      <c r="AP137">
+        <v>0.75</v>
+      </c>
+      <c r="AQ137">
+        <v>1.11</v>
+      </c>
+      <c r="AR137">
+        <v>1.4</v>
+      </c>
+      <c r="AS137">
+        <v>1.07</v>
+      </c>
+      <c r="AT137">
+        <v>2.47</v>
+      </c>
+      <c r="AU137">
+        <v>5</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>9</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
+        <v>18</v>
+      </c>
+      <c r="AZ137">
+        <v>10</v>
+      </c>
+      <c r="BA137">
+        <v>7</v>
+      </c>
+      <c r="BB137">
+        <v>6</v>
+      </c>
+      <c r="BC137">
+        <v>13</v>
+      </c>
+      <c r="BD137">
+        <v>1.79</v>
+      </c>
+      <c r="BE137">
+        <v>6.4</v>
+      </c>
+      <c r="BF137">
+        <v>2.23</v>
+      </c>
+      <c r="BG137">
+        <v>1.38</v>
+      </c>
+      <c r="BH137">
+        <v>2.75</v>
+      </c>
+      <c r="BI137">
+        <v>1.65</v>
+      </c>
+      <c r="BJ137">
+        <v>2.08</v>
+      </c>
+      <c r="BK137">
+        <v>2.02</v>
+      </c>
+      <c r="BL137">
+        <v>1.68</v>
+      </c>
+      <c r="BM137">
+        <v>2.6</v>
+      </c>
+      <c r="BN137">
+        <v>1.43</v>
+      </c>
+      <c r="BO137">
+        <v>3.4</v>
+      </c>
+      <c r="BP137">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7516425</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45639.58333333334</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s">
+        <v>74</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>190</v>
+      </c>
+      <c r="P138" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q138">
+        <v>2.95</v>
+      </c>
+      <c r="R138">
+        <v>2.05</v>
+      </c>
+      <c r="S138">
+        <v>4</v>
+      </c>
+      <c r="T138">
+        <v>1.52</v>
+      </c>
+      <c r="U138">
+        <v>2.7</v>
+      </c>
+      <c r="V138">
+        <v>3.4</v>
+      </c>
+      <c r="W138">
+        <v>1.36</v>
+      </c>
+      <c r="X138">
+        <v>9.5</v>
+      </c>
+      <c r="Y138">
+        <v>1.08</v>
+      </c>
+      <c r="Z138">
+        <v>2.18</v>
+      </c>
+      <c r="AA138">
+        <v>3.26</v>
+      </c>
+      <c r="AB138">
+        <v>3.36</v>
+      </c>
+      <c r="AC138">
+        <v>1.05</v>
+      </c>
+      <c r="AD138">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE138">
+        <v>1.38</v>
+      </c>
+      <c r="AF138">
+        <v>2.96</v>
+      </c>
+      <c r="AG138">
+        <v>2.16</v>
+      </c>
+      <c r="AH138">
+        <v>1.66</v>
+      </c>
+      <c r="AI138">
+        <v>1.9</v>
+      </c>
+      <c r="AJ138">
+        <v>1.9</v>
+      </c>
+      <c r="AK138">
+        <v>1.35</v>
+      </c>
+      <c r="AL138">
+        <v>1.36</v>
+      </c>
+      <c r="AM138">
+        <v>1.72</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
+        <v>1</v>
+      </c>
+      <c r="AP138">
+        <v>1.25</v>
+      </c>
+      <c r="AQ138">
+        <v>0.88</v>
+      </c>
+      <c r="AR138">
+        <v>1.3</v>
+      </c>
+      <c r="AS138">
+        <v>1.1</v>
+      </c>
+      <c r="AT138">
+        <v>2.4</v>
+      </c>
+      <c r="AU138">
+        <v>6</v>
+      </c>
+      <c r="AV138">
+        <v>0</v>
+      </c>
+      <c r="AW138">
+        <v>3</v>
+      </c>
+      <c r="AX138">
+        <v>3</v>
+      </c>
+      <c r="AY138">
+        <v>11</v>
+      </c>
+      <c r="AZ138">
+        <v>8</v>
+      </c>
+      <c r="BA138">
+        <v>4</v>
+      </c>
+      <c r="BB138">
+        <v>2</v>
+      </c>
+      <c r="BC138">
+        <v>6</v>
+      </c>
+      <c r="BD138">
+        <v>1.52</v>
+      </c>
+      <c r="BE138">
+        <v>6.75</v>
+      </c>
+      <c r="BF138">
+        <v>2.8</v>
+      </c>
+      <c r="BG138">
+        <v>1.36</v>
+      </c>
+      <c r="BH138">
+        <v>2.8</v>
+      </c>
+      <c r="BI138">
+        <v>1.63</v>
+      </c>
+      <c r="BJ138">
+        <v>2.12</v>
+      </c>
+      <c r="BK138">
+        <v>2.02</v>
+      </c>
+      <c r="BL138">
+        <v>1.7</v>
+      </c>
+      <c r="BM138">
+        <v>2.55</v>
+      </c>
+      <c r="BN138">
+        <v>1.44</v>
+      </c>
+      <c r="BO138">
+        <v>3.4</v>
+      </c>
+      <c r="BP138">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -587,6 +587,12 @@
   </si>
   <si>
     <t>['49', '76']</t>
+  </si>
+  <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['54', '88', '90']</t>
   </si>
   <si>
     <t>['52']</t>
@@ -1179,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1438,7 +1444,7 @@
         <v>89</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>1.6</v>
@@ -1644,7 +1650,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1725,7 +1731,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ3">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2468,7 +2474,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2546,7 +2552,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7">
         <v>1.11</v>
@@ -2674,7 +2680,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2880,7 +2886,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2958,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ9">
         <v>1</v>
@@ -3086,7 +3092,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3167,7 +3173,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3292,7 +3298,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3498,7 +3504,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3704,7 +3710,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3910,7 +3916,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4116,7 +4122,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4322,7 +4328,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4528,7 +4534,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4734,7 +4740,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5224,7 +5230,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ20">
         <v>0.71</v>
@@ -5352,7 +5358,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5558,7 +5564,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5639,7 +5645,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR22">
         <v>1.83</v>
@@ -5764,7 +5770,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5970,7 +5976,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6048,7 +6054,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
         <v>2.13</v>
@@ -6176,7 +6182,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6588,7 +6594,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6666,7 +6672,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>1.86</v>
@@ -7206,7 +7212,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7618,7 +7624,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7824,7 +7830,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8236,7 +8242,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8317,7 +8323,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ35">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8442,7 +8448,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8523,7 +8529,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR36">
         <v>1.86</v>
@@ -8648,7 +8654,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9060,7 +9066,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9266,7 +9272,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9472,7 +9478,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9756,7 +9762,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>0.29</v>
@@ -9884,7 +9890,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10090,7 +10096,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10171,7 +10177,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ44">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>2.36</v>
@@ -10502,7 +10508,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11120,7 +11126,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11326,7 +11332,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11404,7 +11410,7 @@
         <v>3</v>
       </c>
       <c r="AP50">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ50">
         <v>2.14</v>
@@ -11738,7 +11744,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11944,7 +11950,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12562,7 +12568,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12768,7 +12774,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13052,7 +13058,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.29</v>
@@ -13180,7 +13186,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13386,7 +13392,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13467,7 +13473,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ60">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR60">
         <v>1.5</v>
@@ -13592,7 +13598,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13673,7 +13679,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR61">
         <v>1.54</v>
@@ -13798,7 +13804,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14004,7 +14010,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14210,7 +14216,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14416,7 +14422,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14494,7 +14500,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ65">
         <v>0.71</v>
@@ -14828,7 +14834,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15034,7 +15040,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15446,7 +15452,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15652,7 +15658,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16270,7 +16276,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16351,7 +16357,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ74">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16888,7 +16894,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17094,7 +17100,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17381,7 +17387,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR79">
         <v>1.77</v>
@@ -17506,7 +17512,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17584,7 +17590,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ80">
         <v>1.86</v>
@@ -17712,7 +17718,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17918,7 +17924,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18124,7 +18130,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18536,7 +18542,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18742,7 +18748,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18948,7 +18954,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19029,7 +19035,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR87">
         <v>1.44</v>
@@ -19154,7 +19160,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19232,7 +19238,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>0.71</v>
@@ -19772,7 +19778,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19978,7 +19984,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20184,7 +20190,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20596,7 +20602,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20802,7 +20808,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21420,7 +21426,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21832,7 +21838,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22038,7 +22044,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22244,7 +22250,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22325,7 +22331,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ103">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -22450,7 +22456,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22528,7 +22534,7 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
         <v>0.57</v>
@@ -22656,7 +22662,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22943,7 +22949,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ106">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR106">
         <v>1.79</v>
@@ -23068,7 +23074,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23686,7 +23692,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24098,7 +24104,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24304,7 +24310,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24716,7 +24722,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24922,7 +24928,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25128,7 +25134,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25540,7 +25546,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25952,7 +25958,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26033,7 +26039,7 @@
         <v>0</v>
       </c>
       <c r="AQ121">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR121">
         <v>1.33</v>
@@ -26158,7 +26164,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26364,7 +26370,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26442,7 +26448,7 @@
         <v>0.67</v>
       </c>
       <c r="AP123">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
         <v>0.57</v>
@@ -26648,7 +26654,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
         <v>1.29</v>
@@ -26776,7 +26782,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -26982,7 +26988,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>1.67</v>
@@ -27063,7 +27069,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ126">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR126">
         <v>2</v>
@@ -27188,7 +27194,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27394,7 +27400,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27806,7 +27812,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28424,7 +28430,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -29611,6 +29617,418 @@
       </c>
       <c r="BP138">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7516426</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45640.41666666666</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>77</v>
+      </c>
+      <c r="H139" t="s">
+        <v>79</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>191</v>
+      </c>
+      <c r="P139" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q139">
+        <v>2.95</v>
+      </c>
+      <c r="R139">
+        <v>2.05</v>
+      </c>
+      <c r="S139">
+        <v>3.4</v>
+      </c>
+      <c r="T139">
+        <v>1.4</v>
+      </c>
+      <c r="U139">
+        <v>2.75</v>
+      </c>
+      <c r="V139">
+        <v>2.8</v>
+      </c>
+      <c r="W139">
+        <v>1.38</v>
+      </c>
+      <c r="X139">
+        <v>7</v>
+      </c>
+      <c r="Y139">
+        <v>1.07</v>
+      </c>
+      <c r="Z139">
+        <v>2.46</v>
+      </c>
+      <c r="AA139">
+        <v>3.64</v>
+      </c>
+      <c r="AB139">
+        <v>2.61</v>
+      </c>
+      <c r="AC139">
+        <v>1.05</v>
+      </c>
+      <c r="AD139">
+        <v>9</v>
+      </c>
+      <c r="AE139">
+        <v>1.3</v>
+      </c>
+      <c r="AF139">
+        <v>3.45</v>
+      </c>
+      <c r="AG139">
+        <v>1.69</v>
+      </c>
+      <c r="AH139">
+        <v>2.12</v>
+      </c>
+      <c r="AI139">
+        <v>1.8</v>
+      </c>
+      <c r="AJ139">
+        <v>1.91</v>
+      </c>
+      <c r="AK139">
+        <v>1.4</v>
+      </c>
+      <c r="AL139">
+        <v>1.25</v>
+      </c>
+      <c r="AM139">
+        <v>1.55</v>
+      </c>
+      <c r="AN139">
+        <v>1.43</v>
+      </c>
+      <c r="AO139">
+        <v>1.13</v>
+      </c>
+      <c r="AP139">
+        <v>1.38</v>
+      </c>
+      <c r="AQ139">
+        <v>1.11</v>
+      </c>
+      <c r="AR139">
+        <v>1.31</v>
+      </c>
+      <c r="AS139">
+        <v>1.22</v>
+      </c>
+      <c r="AT139">
+        <v>2.53</v>
+      </c>
+      <c r="AU139">
+        <v>9</v>
+      </c>
+      <c r="AV139">
+        <v>3</v>
+      </c>
+      <c r="AW139">
+        <v>10</v>
+      </c>
+      <c r="AX139">
+        <v>4</v>
+      </c>
+      <c r="AY139">
+        <v>25</v>
+      </c>
+      <c r="AZ139">
+        <v>9</v>
+      </c>
+      <c r="BA139">
+        <v>8</v>
+      </c>
+      <c r="BB139">
+        <v>4</v>
+      </c>
+      <c r="BC139">
+        <v>12</v>
+      </c>
+      <c r="BD139">
+        <v>1.61</v>
+      </c>
+      <c r="BE139">
+        <v>6.5</v>
+      </c>
+      <c r="BF139">
+        <v>2.55</v>
+      </c>
+      <c r="BG139">
+        <v>1.37</v>
+      </c>
+      <c r="BH139">
+        <v>2.8</v>
+      </c>
+      <c r="BI139">
+        <v>1.63</v>
+      </c>
+      <c r="BJ139">
+        <v>2.12</v>
+      </c>
+      <c r="BK139">
+        <v>1.95</v>
+      </c>
+      <c r="BL139">
+        <v>1.7</v>
+      </c>
+      <c r="BM139">
+        <v>2.55</v>
+      </c>
+      <c r="BN139">
+        <v>1.43</v>
+      </c>
+      <c r="BO139">
+        <v>3.3</v>
+      </c>
+      <c r="BP139">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7516430</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45640.54166666666</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140" t="s">
+        <v>75</v>
+      </c>
+      <c r="H140" t="s">
+        <v>85</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>192</v>
+      </c>
+      <c r="P140" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q140">
+        <v>2.55</v>
+      </c>
+      <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>3.95</v>
+      </c>
+      <c r="T140">
+        <v>1.36</v>
+      </c>
+      <c r="U140">
+        <v>2.85</v>
+      </c>
+      <c r="V140">
+        <v>2.65</v>
+      </c>
+      <c r="W140">
+        <v>1.42</v>
+      </c>
+      <c r="X140">
+        <v>6.25</v>
+      </c>
+      <c r="Y140">
+        <v>1.08</v>
+      </c>
+      <c r="Z140">
+        <v>1.98</v>
+      </c>
+      <c r="AA140">
+        <v>3.58</v>
+      </c>
+      <c r="AB140">
+        <v>3.58</v>
+      </c>
+      <c r="AC140">
+        <v>1.03</v>
+      </c>
+      <c r="AD140">
+        <v>10.65</v>
+      </c>
+      <c r="AE140">
+        <v>1.27</v>
+      </c>
+      <c r="AF140">
+        <v>3.61</v>
+      </c>
+      <c r="AG140">
+        <v>1.83</v>
+      </c>
+      <c r="AH140">
+        <v>1.93</v>
+      </c>
+      <c r="AI140">
+        <v>1.73</v>
+      </c>
+      <c r="AJ140">
+        <v>2</v>
+      </c>
+      <c r="AK140">
+        <v>1.28</v>
+      </c>
+      <c r="AL140">
+        <v>1.25</v>
+      </c>
+      <c r="AM140">
+        <v>1.77</v>
+      </c>
+      <c r="AN140">
+        <v>1.29</v>
+      </c>
+      <c r="AO140">
+        <v>0.57</v>
+      </c>
+      <c r="AP140">
+        <v>1.5</v>
+      </c>
+      <c r="AQ140">
+        <v>0.5</v>
+      </c>
+      <c r="AR140">
+        <v>1.29</v>
+      </c>
+      <c r="AS140">
+        <v>1.1</v>
+      </c>
+      <c r="AT140">
+        <v>2.39</v>
+      </c>
+      <c r="AU140">
+        <v>7</v>
+      </c>
+      <c r="AV140">
+        <v>2</v>
+      </c>
+      <c r="AW140">
+        <v>8</v>
+      </c>
+      <c r="AX140">
+        <v>6</v>
+      </c>
+      <c r="AY140">
+        <v>21</v>
+      </c>
+      <c r="AZ140">
+        <v>9</v>
+      </c>
+      <c r="BA140">
+        <v>6</v>
+      </c>
+      <c r="BB140">
+        <v>1</v>
+      </c>
+      <c r="BC140">
+        <v>7</v>
+      </c>
+      <c r="BD140">
+        <v>1.65</v>
+      </c>
+      <c r="BE140">
+        <v>6.75</v>
+      </c>
+      <c r="BF140">
+        <v>2.48</v>
+      </c>
+      <c r="BG140">
+        <v>1.41</v>
+      </c>
+      <c r="BH140">
+        <v>2.65</v>
+      </c>
+      <c r="BI140">
+        <v>1.71</v>
+      </c>
+      <c r="BJ140">
+        <v>2</v>
+      </c>
+      <c r="BK140">
+        <v>2.05</v>
+      </c>
+      <c r="BL140">
+        <v>1.7</v>
+      </c>
+      <c r="BM140">
+        <v>2.7</v>
+      </c>
+      <c r="BN140">
+        <v>1.4</v>
+      </c>
+      <c r="BO140">
+        <v>3.55</v>
+      </c>
+      <c r="BP140">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,12 @@
     <t>['52']</t>
   </si>
   <si>
+    <t>['45+1', '74']</t>
+  </si>
+  <si>
+    <t>['41', '74', '90']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -824,6 +830,9 @@
   </si>
   <si>
     <t>['36', '45+9', '53']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,7 +1659,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1934,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2140,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ5">
         <v>0.29</v>
@@ -2474,7 +2483,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2680,7 +2689,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2886,7 +2895,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2967,7 +2976,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3092,7 +3101,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3298,7 +3307,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3504,7 +3513,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3710,7 +3719,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3916,7 +3925,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4122,7 +4131,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4328,7 +4337,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4534,7 +4543,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4740,7 +4749,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5024,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ19">
         <v>1.86</v>
@@ -5233,7 +5242,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ20">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5358,7 +5367,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5564,7 +5573,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5770,7 +5779,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5976,7 +5985,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6182,7 +6191,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6260,7 +6269,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ25">
         <v>0.29</v>
@@ -6466,7 +6475,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ26">
         <v>0.71</v>
@@ -6594,7 +6603,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6881,7 +6890,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -7212,7 +7221,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7624,7 +7633,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7830,7 +7839,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -7908,7 +7917,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ33">
         <v>2.14</v>
@@ -8242,7 +8251,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8448,7 +8457,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8654,7 +8663,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8735,7 +8744,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -9066,7 +9075,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9272,7 +9281,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9478,7 +9487,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9890,7 +9899,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -9968,7 +9977,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
         <v>0.29</v>
@@ -10096,7 +10105,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10383,7 +10392,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR45">
         <v>1.54</v>
@@ -10508,7 +10517,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10589,7 +10598,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ46">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR46">
         <v>0.55</v>
@@ -10792,7 +10801,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ47">
         <v>0.57</v>
@@ -11126,7 +11135,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11204,7 +11213,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ49">
         <v>3</v>
@@ -11332,7 +11341,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11744,7 +11753,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11950,7 +11959,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12443,7 +12452,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ55">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR55">
         <v>1.55</v>
@@ -12568,7 +12577,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12649,7 +12658,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12774,7 +12783,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12855,7 +12864,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ57">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>1.53</v>
@@ -13186,7 +13195,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13392,7 +13401,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13598,7 +13607,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13804,7 +13813,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14010,7 +14019,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14088,7 +14097,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ63">
         <v>2.13</v>
@@ -14216,7 +14225,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14422,7 +14431,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14834,7 +14843,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15040,7 +15049,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15121,7 +15130,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ68">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR68">
         <v>1.48</v>
@@ -15324,7 +15333,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ69">
         <v>0.57</v>
@@ -15452,7 +15461,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15658,7 +15667,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16276,7 +16285,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16563,7 +16572,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR75">
         <v>1.52</v>
@@ -16769,7 +16778,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ76">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16894,7 +16903,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -16972,7 +16981,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ77">
         <v>3</v>
@@ -17100,7 +17109,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17512,7 +17521,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17718,7 +17727,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17924,7 +17933,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18130,7 +18139,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18414,10 +18423,10 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ84">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR84">
         <v>0.9</v>
@@ -18542,7 +18551,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18748,7 +18757,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18954,7 +18963,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19160,7 +19169,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19444,7 +19453,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ89">
         <v>0.57</v>
@@ -19778,7 +19787,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19984,7 +19993,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20065,7 +20074,7 @@
         <v>2</v>
       </c>
       <c r="AQ92">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20190,7 +20199,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20602,7 +20611,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20808,7 +20817,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20889,7 +20898,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -21426,7 +21435,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21838,7 +21847,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -21919,7 +21928,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ101">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -22044,7 +22053,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22122,7 +22131,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ102">
         <v>0.57</v>
@@ -22250,7 +22259,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22328,7 +22337,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ103">
         <v>0.5</v>
@@ -22456,7 +22465,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22662,7 +22671,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -23074,7 +23083,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23564,7 +23573,7 @@
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ109">
         <v>0.88</v>
@@ -23692,7 +23701,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23979,7 +23988,7 @@
         <v>2</v>
       </c>
       <c r="AQ111">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR111">
         <v>1.46</v>
@@ -24104,7 +24113,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24310,7 +24319,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24722,7 +24731,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24928,7 +24937,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25134,7 +25143,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25215,7 +25224,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ117">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25546,7 +25555,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25624,7 +25633,7 @@
         <v>1.17</v>
       </c>
       <c r="AP119">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ119">
         <v>0.88</v>
@@ -25958,7 +25967,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26164,7 +26173,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26245,7 +26254,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ122">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR122">
         <v>1.44</v>
@@ -26370,7 +26379,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26657,7 +26666,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -26782,7 +26791,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -26988,7 +26997,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q126">
         <v>1.67</v>
@@ -27066,7 +27075,7 @@
         <v>0.67</v>
       </c>
       <c r="AP126">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ126">
         <v>0.5</v>
@@ -27194,7 +27203,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27272,7 +27281,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ127">
         <v>1.43</v>
@@ -27400,7 +27409,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27812,7 +27821,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28430,7 +28439,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -30028,6 +30037,624 @@
         <v>3.55</v>
       </c>
       <c r="BP140">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7516432</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45641.3125</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>87</v>
+      </c>
+      <c r="H141" t="s">
+        <v>81</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>193</v>
+      </c>
+      <c r="P141" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q141">
+        <v>3.6</v>
+      </c>
+      <c r="R141">
+        <v>2.15</v>
+      </c>
+      <c r="S141">
+        <v>3</v>
+      </c>
+      <c r="T141">
+        <v>1.44</v>
+      </c>
+      <c r="U141">
+        <v>3</v>
+      </c>
+      <c r="V141">
+        <v>3</v>
+      </c>
+      <c r="W141">
+        <v>1.44</v>
+      </c>
+      <c r="X141">
+        <v>8.5</v>
+      </c>
+      <c r="Y141">
+        <v>1.1</v>
+      </c>
+      <c r="Z141">
+        <v>3.01</v>
+      </c>
+      <c r="AA141">
+        <v>3.45</v>
+      </c>
+      <c r="AB141">
+        <v>2.34</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>10.06</v>
+      </c>
+      <c r="AE141">
+        <v>1.29</v>
+      </c>
+      <c r="AF141">
+        <v>3.44</v>
+      </c>
+      <c r="AG141">
+        <v>1.95</v>
+      </c>
+      <c r="AH141">
+        <v>1.88</v>
+      </c>
+      <c r="AI141">
+        <v>1.75</v>
+      </c>
+      <c r="AJ141">
+        <v>2.05</v>
+      </c>
+      <c r="AK141">
+        <v>1.63</v>
+      </c>
+      <c r="AL141">
+        <v>1.33</v>
+      </c>
+      <c r="AM141">
+        <v>1.44</v>
+      </c>
+      <c r="AN141">
+        <v>0.86</v>
+      </c>
+      <c r="AO141">
+        <v>0.71</v>
+      </c>
+      <c r="AP141">
+        <v>0.88</v>
+      </c>
+      <c r="AQ141">
+        <v>0.75</v>
+      </c>
+      <c r="AR141">
+        <v>1.1</v>
+      </c>
+      <c r="AS141">
+        <v>1.32</v>
+      </c>
+      <c r="AT141">
+        <v>2.42</v>
+      </c>
+      <c r="AU141">
+        <v>6</v>
+      </c>
+      <c r="AV141">
+        <v>7</v>
+      </c>
+      <c r="AW141">
+        <v>7</v>
+      </c>
+      <c r="AX141">
+        <v>7</v>
+      </c>
+      <c r="AY141">
+        <v>19</v>
+      </c>
+      <c r="AZ141">
+        <v>17</v>
+      </c>
+      <c r="BA141">
+        <v>7</v>
+      </c>
+      <c r="BB141">
+        <v>6</v>
+      </c>
+      <c r="BC141">
+        <v>13</v>
+      </c>
+      <c r="BD141">
+        <v>2.12</v>
+      </c>
+      <c r="BE141">
+        <v>6.25</v>
+      </c>
+      <c r="BF141">
+        <v>1.9</v>
+      </c>
+      <c r="BG141">
+        <v>1.46</v>
+      </c>
+      <c r="BH141">
+        <v>2.5</v>
+      </c>
+      <c r="BI141">
+        <v>1.76</v>
+      </c>
+      <c r="BJ141">
+        <v>1.94</v>
+      </c>
+      <c r="BK141">
+        <v>2.23</v>
+      </c>
+      <c r="BL141">
+        <v>1.57</v>
+      </c>
+      <c r="BM141">
+        <v>2.9</v>
+      </c>
+      <c r="BN141">
+        <v>1.34</v>
+      </c>
+      <c r="BO141">
+        <v>3.9</v>
+      </c>
+      <c r="BP141">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7516429</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45641.41666666666</v>
+      </c>
+      <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>72</v>
+      </c>
+      <c r="H142" t="s">
+        <v>80</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>2</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>194</v>
+      </c>
+      <c r="P142" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q142">
+        <v>2.75</v>
+      </c>
+      <c r="R142">
+        <v>2.2</v>
+      </c>
+      <c r="S142">
+        <v>3.75</v>
+      </c>
+      <c r="T142">
+        <v>1.42</v>
+      </c>
+      <c r="U142">
+        <v>3.1</v>
+      </c>
+      <c r="V142">
+        <v>2.85</v>
+      </c>
+      <c r="W142">
+        <v>1.47</v>
+      </c>
+      <c r="X142">
+        <v>7.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.12</v>
+      </c>
+      <c r="Z142">
+        <v>2.07</v>
+      </c>
+      <c r="AA142">
+        <v>3.44</v>
+      </c>
+      <c r="AB142">
+        <v>3.44</v>
+      </c>
+      <c r="AC142">
+        <v>1.03</v>
+      </c>
+      <c r="AD142">
+        <v>10.65</v>
+      </c>
+      <c r="AE142">
+        <v>1.25</v>
+      </c>
+      <c r="AF142">
+        <v>3.82</v>
+      </c>
+      <c r="AG142">
+        <v>1.79</v>
+      </c>
+      <c r="AH142">
+        <v>1.98</v>
+      </c>
+      <c r="AI142">
+        <v>1.68</v>
+      </c>
+      <c r="AJ142">
+        <v>2.15</v>
+      </c>
+      <c r="AK142">
+        <v>1.35</v>
+      </c>
+      <c r="AL142">
+        <v>1.33</v>
+      </c>
+      <c r="AM142">
+        <v>1.8</v>
+      </c>
+      <c r="AN142">
+        <v>1.86</v>
+      </c>
+      <c r="AO142">
+        <v>1.29</v>
+      </c>
+      <c r="AP142">
+        <v>2</v>
+      </c>
+      <c r="AQ142">
+        <v>1.13</v>
+      </c>
+      <c r="AR142">
+        <v>1.4</v>
+      </c>
+      <c r="AS142">
+        <v>1.11</v>
+      </c>
+      <c r="AT142">
+        <v>2.51</v>
+      </c>
+      <c r="AU142">
+        <v>5</v>
+      </c>
+      <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>1</v>
+      </c>
+      <c r="AY142">
+        <v>12</v>
+      </c>
+      <c r="AZ142">
+        <v>8</v>
+      </c>
+      <c r="BA142">
+        <v>4</v>
+      </c>
+      <c r="BB142">
+        <v>9</v>
+      </c>
+      <c r="BC142">
+        <v>13</v>
+      </c>
+      <c r="BD142">
+        <v>1.64</v>
+      </c>
+      <c r="BE142">
+        <v>6.75</v>
+      </c>
+      <c r="BF142">
+        <v>2.5</v>
+      </c>
+      <c r="BG142">
+        <v>1.35</v>
+      </c>
+      <c r="BH142">
+        <v>2.9</v>
+      </c>
+      <c r="BI142">
+        <v>1.58</v>
+      </c>
+      <c r="BJ142">
+        <v>2.2</v>
+      </c>
+      <c r="BK142">
+        <v>1.95</v>
+      </c>
+      <c r="BL142">
+        <v>1.75</v>
+      </c>
+      <c r="BM142">
+        <v>2.48</v>
+      </c>
+      <c r="BN142">
+        <v>1.47</v>
+      </c>
+      <c r="BO142">
+        <v>3.2</v>
+      </c>
+      <c r="BP142">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7516433</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45641.54166666666</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>73</v>
+      </c>
+      <c r="H143" t="s">
+        <v>83</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>195</v>
+      </c>
+      <c r="P143" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q143">
+        <v>1.8</v>
+      </c>
+      <c r="R143">
+        <v>2.65</v>
+      </c>
+      <c r="S143">
+        <v>7</v>
+      </c>
+      <c r="T143">
+        <v>1.33</v>
+      </c>
+      <c r="U143">
+        <v>3.6</v>
+      </c>
+      <c r="V143">
+        <v>2.45</v>
+      </c>
+      <c r="W143">
+        <v>1.6</v>
+      </c>
+      <c r="X143">
+        <v>6</v>
+      </c>
+      <c r="Y143">
+        <v>1.16</v>
+      </c>
+      <c r="Z143">
+        <v>1.32</v>
+      </c>
+      <c r="AA143">
+        <v>5.2</v>
+      </c>
+      <c r="AB143">
+        <v>8.75</v>
+      </c>
+      <c r="AC143">
+        <v>1.03</v>
+      </c>
+      <c r="AD143">
+        <v>17</v>
+      </c>
+      <c r="AE143">
+        <v>1.17</v>
+      </c>
+      <c r="AF143">
+        <v>4.75</v>
+      </c>
+      <c r="AG143">
+        <v>1.58</v>
+      </c>
+      <c r="AH143">
+        <v>2.32</v>
+      </c>
+      <c r="AI143">
+        <v>1.9</v>
+      </c>
+      <c r="AJ143">
+        <v>1.87</v>
+      </c>
+      <c r="AK143">
+        <v>1.09</v>
+      </c>
+      <c r="AL143">
+        <v>1.18</v>
+      </c>
+      <c r="AM143">
+        <v>3.5</v>
+      </c>
+      <c r="AN143">
+        <v>2.5</v>
+      </c>
+      <c r="AO143">
+        <v>1</v>
+      </c>
+      <c r="AP143">
+        <v>2.57</v>
+      </c>
+      <c r="AQ143">
+        <v>0.88</v>
+      </c>
+      <c r="AR143">
+        <v>1.95</v>
+      </c>
+      <c r="AS143">
+        <v>1.39</v>
+      </c>
+      <c r="AT143">
+        <v>3.34</v>
+      </c>
+      <c r="AU143">
+        <v>8</v>
+      </c>
+      <c r="AV143">
+        <v>2</v>
+      </c>
+      <c r="AW143">
+        <v>9</v>
+      </c>
+      <c r="AX143">
+        <v>2</v>
+      </c>
+      <c r="AY143">
+        <v>23</v>
+      </c>
+      <c r="AZ143">
+        <v>4</v>
+      </c>
+      <c r="BA143">
+        <v>14</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
+      <c r="BC143">
+        <v>14</v>
+      </c>
+      <c r="BD143">
+        <v>1.26</v>
+      </c>
+      <c r="BE143">
+        <v>7.5</v>
+      </c>
+      <c r="BF143">
+        <v>4.3</v>
+      </c>
+      <c r="BG143">
+        <v>1.43</v>
+      </c>
+      <c r="BH143">
+        <v>2.6</v>
+      </c>
+      <c r="BI143">
+        <v>1.72</v>
+      </c>
+      <c r="BJ143">
+        <v>1.98</v>
+      </c>
+      <c r="BK143">
+        <v>2.12</v>
+      </c>
+      <c r="BL143">
+        <v>1.63</v>
+      </c>
+      <c r="BM143">
+        <v>2.7</v>
+      </c>
+      <c r="BN143">
+        <v>1.4</v>
+      </c>
+      <c r="BO143">
+        <v>3.55</v>
+      </c>
+      <c r="BP143">
         <v>1.24</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -604,6 +604,12 @@
     <t>['41', '74', '90']</t>
   </si>
   <si>
+    <t>['8', '29', '63', '90+8']</t>
+  </si>
+  <si>
+    <t>['31', '39']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -833,6 +839,12 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['17', '51', '55']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1531,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ2">
         <v>0.29</v>
@@ -1659,7 +1671,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2358,7 +2370,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2483,7 +2495,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2689,7 +2701,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2770,7 +2782,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2895,7 +2907,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3101,7 +3113,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3307,7 +3319,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3513,7 +3525,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3719,7 +3731,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3925,7 +3937,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4003,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AQ14">
         <v>1.29</v>
@@ -4131,7 +4143,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4337,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4543,7 +4555,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4749,7 +4761,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5367,7 +5379,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5573,7 +5585,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5779,7 +5791,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5985,7 +5997,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6191,7 +6203,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6603,7 +6615,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7221,7 +7233,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7299,7 +7311,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AQ30">
         <v>3</v>
@@ -7508,7 +7520,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ31">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>1.56</v>
@@ -7633,7 +7645,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7839,7 +7851,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8251,7 +8263,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8457,7 +8469,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8663,7 +8675,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8947,7 +8959,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ38">
         <v>1.29</v>
@@ -9075,7 +9087,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9281,7 +9293,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9487,7 +9499,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9568,7 +9580,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ41">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR41">
         <v>0</v>
@@ -9899,7 +9911,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10105,7 +10117,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10183,7 +10195,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10517,7 +10529,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11135,7 +11147,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11341,7 +11353,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11753,7 +11765,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11831,7 +11843,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AQ52">
         <v>0.71</v>
@@ -11959,7 +11971,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12246,7 +12258,7 @@
         <v>2</v>
       </c>
       <c r="AQ54">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12577,7 +12589,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12783,7 +12795,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13195,7 +13207,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13273,7 +13285,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ59">
         <v>1.86</v>
@@ -13401,7 +13413,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13607,7 +13619,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13813,7 +13825,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14019,7 +14031,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14225,7 +14237,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14306,7 +14318,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ64">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
         <v>1.79</v>
@@ -14431,7 +14443,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14843,7 +14855,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15049,7 +15061,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15336,7 +15348,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ69">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR69">
         <v>0.8</v>
@@ -15461,7 +15473,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15667,7 +15679,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -15745,7 +15757,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AQ71">
         <v>2.14</v>
@@ -15954,7 +15966,7 @@
         <v>2</v>
       </c>
       <c r="AQ72">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR72">
         <v>1.52</v>
@@ -16157,7 +16169,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ73">
         <v>0.71</v>
@@ -16285,7 +16297,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16903,7 +16915,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17109,7 +17121,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17521,7 +17533,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17727,7 +17739,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17933,7 +17945,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18139,7 +18151,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18217,7 +18229,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AQ83">
         <v>0.88</v>
@@ -18551,7 +18563,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18757,7 +18769,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18838,7 +18850,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ86">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -18963,7 +18975,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19169,7 +19181,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19787,7 +19799,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19865,10 +19877,10 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ91">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -19993,7 +20005,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20199,7 +20211,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20611,7 +20623,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20817,7 +20829,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21435,7 +21447,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21847,7 +21859,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22053,7 +22065,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22259,7 +22271,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22465,7 +22477,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22546,7 +22558,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22671,7 +22683,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22749,7 +22761,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AQ105">
         <v>1.11</v>
@@ -23083,7 +23095,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23161,7 +23173,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ107">
         <v>2.14</v>
@@ -23370,7 +23382,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ108">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23701,7 +23713,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24113,7 +24125,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24319,7 +24331,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24731,7 +24743,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24937,7 +24949,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25143,7 +25155,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25555,7 +25567,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25967,7 +25979,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26045,7 +26057,7 @@
         <v>0.86</v>
       </c>
       <c r="AP121">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AQ121">
         <v>1.11</v>
@@ -26173,7 +26185,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26379,7 +26391,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26460,7 +26472,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR123">
         <v>1.28</v>
@@ -26791,7 +26803,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -26869,7 +26881,7 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="AQ125">
         <v>1.11</v>
@@ -26997,7 +27009,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>1.67</v>
@@ -27203,7 +27215,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27284,7 +27296,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ127">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR127">
         <v>1.08</v>
@@ -27409,7 +27421,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27821,7 +27833,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28439,7 +28451,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -30087,7 +30099,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30656,6 +30668,418 @@
       </c>
       <c r="BP143">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7516427</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45641.875</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>70</v>
+      </c>
+      <c r="H144" t="s">
+        <v>88</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>3</v>
+      </c>
+      <c r="L144">
+        <v>4</v>
+      </c>
+      <c r="M144">
+        <v>3</v>
+      </c>
+      <c r="N144">
+        <v>7</v>
+      </c>
+      <c r="O144" t="s">
+        <v>196</v>
+      </c>
+      <c r="P144" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q144">
+        <v>1.73</v>
+      </c>
+      <c r="R144">
+        <v>3</v>
+      </c>
+      <c r="S144">
+        <v>6.5</v>
+      </c>
+      <c r="T144">
+        <v>1.18</v>
+      </c>
+      <c r="U144">
+        <v>4.5</v>
+      </c>
+      <c r="V144">
+        <v>1.83</v>
+      </c>
+      <c r="W144">
+        <v>1.83</v>
+      </c>
+      <c r="X144">
+        <v>3.75</v>
+      </c>
+      <c r="Y144">
+        <v>1.25</v>
+      </c>
+      <c r="Z144">
+        <v>1.33</v>
+      </c>
+      <c r="AA144">
+        <v>5.84</v>
+      </c>
+      <c r="AB144">
+        <v>7.48</v>
+      </c>
+      <c r="AC144">
+        <v>1.01</v>
+      </c>
+      <c r="AD144">
+        <v>28</v>
+      </c>
+      <c r="AE144">
+        <v>1.06</v>
+      </c>
+      <c r="AF144">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AG144">
+        <v>1.3</v>
+      </c>
+      <c r="AH144">
+        <v>3.5</v>
+      </c>
+      <c r="AI144">
+        <v>1.53</v>
+      </c>
+      <c r="AJ144">
+        <v>2.38</v>
+      </c>
+      <c r="AK144">
+        <v>1.1</v>
+      </c>
+      <c r="AL144">
+        <v>1.16</v>
+      </c>
+      <c r="AM144">
+        <v>3.5</v>
+      </c>
+      <c r="AN144">
+        <v>2.5</v>
+      </c>
+      <c r="AO144">
+        <v>0.57</v>
+      </c>
+      <c r="AP144">
+        <v>2.56</v>
+      </c>
+      <c r="AQ144">
+        <v>0.5</v>
+      </c>
+      <c r="AR144">
+        <v>2.07</v>
+      </c>
+      <c r="AS144">
+        <v>1.28</v>
+      </c>
+      <c r="AT144">
+        <v>3.35</v>
+      </c>
+      <c r="AU144">
+        <v>13</v>
+      </c>
+      <c r="AV144">
+        <v>7</v>
+      </c>
+      <c r="AW144">
+        <v>3</v>
+      </c>
+      <c r="AX144">
+        <v>5</v>
+      </c>
+      <c r="AY144">
+        <v>24</v>
+      </c>
+      <c r="AZ144">
+        <v>17</v>
+      </c>
+      <c r="BA144">
+        <v>10</v>
+      </c>
+      <c r="BB144">
+        <v>6</v>
+      </c>
+      <c r="BC144">
+        <v>16</v>
+      </c>
+      <c r="BD144">
+        <v>1.26</v>
+      </c>
+      <c r="BE144">
+        <v>7.5</v>
+      </c>
+      <c r="BF144">
+        <v>4.1</v>
+      </c>
+      <c r="BG144">
+        <v>1.26</v>
+      </c>
+      <c r="BH144">
+        <v>3.4</v>
+      </c>
+      <c r="BI144">
+        <v>1.46</v>
+      </c>
+      <c r="BJ144">
+        <v>2.5</v>
+      </c>
+      <c r="BK144">
+        <v>1.7</v>
+      </c>
+      <c r="BL144">
+        <v>2.05</v>
+      </c>
+      <c r="BM144">
+        <v>2.12</v>
+      </c>
+      <c r="BN144">
+        <v>1.63</v>
+      </c>
+      <c r="BO144">
+        <v>2.7</v>
+      </c>
+      <c r="BP144">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7516428</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45642.54166666666</v>
+      </c>
+      <c r="F145">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>82</v>
+      </c>
+      <c r="H145" t="s">
+        <v>84</v>
+      </c>
+      <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>197</v>
+      </c>
+      <c r="P145" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q145">
+        <v>6.5</v>
+      </c>
+      <c r="R145">
+        <v>2.63</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
+        <v>1.25</v>
+      </c>
+      <c r="U145">
+        <v>3.75</v>
+      </c>
+      <c r="V145">
+        <v>2.2</v>
+      </c>
+      <c r="W145">
+        <v>1.62</v>
+      </c>
+      <c r="X145">
+        <v>5</v>
+      </c>
+      <c r="Y145">
+        <v>1.17</v>
+      </c>
+      <c r="Z145">
+        <v>7.57</v>
+      </c>
+      <c r="AA145">
+        <v>5.19</v>
+      </c>
+      <c r="AB145">
+        <v>1.34</v>
+      </c>
+      <c r="AC145">
+        <v>1.02</v>
+      </c>
+      <c r="AD145">
+        <v>21</v>
+      </c>
+      <c r="AE145">
+        <v>1.13</v>
+      </c>
+      <c r="AF145">
+        <v>5.61</v>
+      </c>
+      <c r="AG145">
+        <v>1.5</v>
+      </c>
+      <c r="AH145">
+        <v>2.5</v>
+      </c>
+      <c r="AI145">
+        <v>1.73</v>
+      </c>
+      <c r="AJ145">
+        <v>2</v>
+      </c>
+      <c r="AK145">
+        <v>3.4</v>
+      </c>
+      <c r="AL145">
+        <v>1.18</v>
+      </c>
+      <c r="AM145">
+        <v>1.1</v>
+      </c>
+      <c r="AN145">
+        <v>0</v>
+      </c>
+      <c r="AO145">
+        <v>1.43</v>
+      </c>
+      <c r="AP145">
+        <v>0.38</v>
+      </c>
+      <c r="AQ145">
+        <v>1.25</v>
+      </c>
+      <c r="AR145">
+        <v>1.34</v>
+      </c>
+      <c r="AS145">
+        <v>1.3</v>
+      </c>
+      <c r="AT145">
+        <v>2.64</v>
+      </c>
+      <c r="AU145">
+        <v>8</v>
+      </c>
+      <c r="AV145">
+        <v>11</v>
+      </c>
+      <c r="AW145">
+        <v>1</v>
+      </c>
+      <c r="AX145">
+        <v>4</v>
+      </c>
+      <c r="AY145">
+        <v>15</v>
+      </c>
+      <c r="AZ145">
+        <v>19</v>
+      </c>
+      <c r="BA145">
+        <v>2</v>
+      </c>
+      <c r="BB145">
+        <v>14</v>
+      </c>
+      <c r="BC145">
+        <v>16</v>
+      </c>
+      <c r="BD145">
+        <v>3.55</v>
+      </c>
+      <c r="BE145">
+        <v>7.5</v>
+      </c>
+      <c r="BF145">
+        <v>1.34</v>
+      </c>
+      <c r="BG145">
+        <v>1.24</v>
+      </c>
+      <c r="BH145">
+        <v>3.55</v>
+      </c>
+      <c r="BI145">
+        <v>1.43</v>
+      </c>
+      <c r="BJ145">
+        <v>2.6</v>
+      </c>
+      <c r="BK145">
+        <v>1.77</v>
+      </c>
+      <c r="BL145">
+        <v>1.95</v>
+      </c>
+      <c r="BM145">
+        <v>2.05</v>
+      </c>
+      <c r="BN145">
+        <v>1.7</v>
+      </c>
+      <c r="BO145">
+        <v>2.65</v>
+      </c>
+      <c r="BP145">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -604,10 +604,10 @@
     <t>['41', '74', '90']</t>
   </si>
   <si>
-    <t>['8', '29', '63', '90+8']</t>
+    <t>['31', '39']</t>
   </si>
   <si>
-    <t>['31', '39']</t>
+    <t>['8', '29', '63', '90+8']</t>
   </si>
   <si>
     <t>['7', '81', '89']</t>
@@ -841,10 +841,10 @@
     <t>['12']</t>
   </si>
   <si>
-    <t>['17', '51', '55']</t>
+    <t>['72']</t>
   </si>
   <si>
-    <t>['72']</t>
+    <t>['17', '51', '55']</t>
   </si>
 </sst>
 </file>
@@ -30204,7 +30204,7 @@
         <v>7</v>
       </c>
       <c r="AY141">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ141">
         <v>17</v>
@@ -30675,7 +30675,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7516427</v>
+        <v>7516428</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30684,34 +30684,34 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45641.875</v>
+        <v>45642.54166666666</v>
       </c>
       <c r="F144">
         <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H144" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I144">
         <v>2</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144">
+        <v>2</v>
+      </c>
+      <c r="L144">
+        <v>2</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
         <v>3</v>
-      </c>
-      <c r="L144">
-        <v>4</v>
-      </c>
-      <c r="M144">
-        <v>3</v>
-      </c>
-      <c r="N144">
-        <v>7</v>
       </c>
       <c r="O144" t="s">
         <v>196</v>
@@ -30720,160 +30720,160 @@
         <v>275</v>
       </c>
       <c r="Q144">
+        <v>6.5</v>
+      </c>
+      <c r="R144">
+        <v>2.63</v>
+      </c>
+      <c r="S144">
+        <v>1.8</v>
+      </c>
+      <c r="T144">
+        <v>1.25</v>
+      </c>
+      <c r="U144">
+        <v>3.75</v>
+      </c>
+      <c r="V144">
+        <v>2.2</v>
+      </c>
+      <c r="W144">
+        <v>1.62</v>
+      </c>
+      <c r="X144">
+        <v>5</v>
+      </c>
+      <c r="Y144">
+        <v>1.17</v>
+      </c>
+      <c r="Z144">
+        <v>7.57</v>
+      </c>
+      <c r="AA144">
+        <v>5.19</v>
+      </c>
+      <c r="AB144">
+        <v>1.34</v>
+      </c>
+      <c r="AC144">
+        <v>1.02</v>
+      </c>
+      <c r="AD144">
+        <v>21</v>
+      </c>
+      <c r="AE144">
+        <v>1.13</v>
+      </c>
+      <c r="AF144">
+        <v>5.61</v>
+      </c>
+      <c r="AG144">
+        <v>1.5</v>
+      </c>
+      <c r="AH144">
+        <v>2.5</v>
+      </c>
+      <c r="AI144">
         <v>1.73</v>
       </c>
-      <c r="R144">
-        <v>3</v>
-      </c>
-      <c r="S144">
-        <v>6.5</v>
-      </c>
-      <c r="T144">
+      <c r="AJ144">
+        <v>2</v>
+      </c>
+      <c r="AK144">
+        <v>3.4</v>
+      </c>
+      <c r="AL144">
         <v>1.18</v>
       </c>
-      <c r="U144">
-        <v>4.5</v>
-      </c>
-      <c r="V144">
-        <v>1.83</v>
-      </c>
-      <c r="W144">
-        <v>1.83</v>
-      </c>
-      <c r="X144">
-        <v>3.75</v>
-      </c>
-      <c r="Y144">
+      <c r="AM144">
+        <v>1.1</v>
+      </c>
+      <c r="AN144">
+        <v>0</v>
+      </c>
+      <c r="AO144">
+        <v>1.43</v>
+      </c>
+      <c r="AP144">
+        <v>0.38</v>
+      </c>
+      <c r="AQ144">
         <v>1.25</v>
       </c>
-      <c r="Z144">
-        <v>1.33</v>
-      </c>
-      <c r="AA144">
-        <v>5.84</v>
-      </c>
-      <c r="AB144">
-        <v>7.48</v>
-      </c>
-      <c r="AC144">
-        <v>1.01</v>
-      </c>
-      <c r="AD144">
-        <v>28</v>
-      </c>
-      <c r="AE144">
-        <v>1.06</v>
-      </c>
-      <c r="AF144">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="AG144">
+      <c r="AR144">
+        <v>1.34</v>
+      </c>
+      <c r="AS144">
         <v>1.3</v>
       </c>
-      <c r="AH144">
-        <v>3.5</v>
-      </c>
-      <c r="AI144">
-        <v>1.53</v>
-      </c>
-      <c r="AJ144">
-        <v>2.38</v>
-      </c>
-      <c r="AK144">
-        <v>1.1</v>
-      </c>
-      <c r="AL144">
-        <v>1.16</v>
-      </c>
-      <c r="AM144">
-        <v>3.5</v>
-      </c>
-      <c r="AN144">
-        <v>2.5</v>
-      </c>
-      <c r="AO144">
-        <v>0.57</v>
-      </c>
-      <c r="AP144">
-        <v>2.56</v>
-      </c>
-      <c r="AQ144">
-        <v>0.5</v>
-      </c>
-      <c r="AR144">
-        <v>2.07</v>
-      </c>
-      <c r="AS144">
-        <v>1.28</v>
-      </c>
       <c r="AT144">
-        <v>3.35</v>
+        <v>2.64</v>
       </c>
       <c r="AU144">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AV144">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AW144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AX144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY144">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AZ144">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA144">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB144">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BC144">
         <v>16</v>
       </c>
       <c r="BD144">
-        <v>1.26</v>
+        <v>3.55</v>
       </c>
       <c r="BE144">
         <v>7.5</v>
       </c>
       <c r="BF144">
-        <v>4.1</v>
+        <v>1.34</v>
       </c>
       <c r="BG144">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="BH144">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="BI144">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BJ144">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="BK144">
+        <v>1.77</v>
+      </c>
+      <c r="BL144">
+        <v>1.95</v>
+      </c>
+      <c r="BM144">
+        <v>2.05</v>
+      </c>
+      <c r="BN144">
         <v>1.7</v>
       </c>
-      <c r="BL144">
-        <v>2.05</v>
-      </c>
-      <c r="BM144">
-        <v>2.12</v>
-      </c>
-      <c r="BN144">
-        <v>1.63</v>
-      </c>
       <c r="BO144">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="BP144">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30881,7 +30881,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7516428</v>
+        <v>7516427</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30890,34 +30890,34 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45642.54166666666</v>
+        <v>45642.625</v>
       </c>
       <c r="F145">
         <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H145" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="I145">
         <v>2</v>
       </c>
       <c r="J145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M145">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N145">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O145" t="s">
         <v>197</v>
@@ -30926,160 +30926,160 @@
         <v>276</v>
       </c>
       <c r="Q145">
+        <v>1.73</v>
+      </c>
+      <c r="R145">
+        <v>3</v>
+      </c>
+      <c r="S145">
         <v>6.5</v>
       </c>
-      <c r="R145">
-        <v>2.63</v>
-      </c>
-      <c r="S145">
-        <v>1.8</v>
-      </c>
       <c r="T145">
+        <v>1.18</v>
+      </c>
+      <c r="U145">
+        <v>4.5</v>
+      </c>
+      <c r="V145">
+        <v>1.83</v>
+      </c>
+      <c r="W145">
+        <v>1.83</v>
+      </c>
+      <c r="X145">
+        <v>3.75</v>
+      </c>
+      <c r="Y145">
         <v>1.25</v>
       </c>
-      <c r="U145">
-        <v>3.75</v>
-      </c>
-      <c r="V145">
-        <v>2.2</v>
-      </c>
-      <c r="W145">
-        <v>1.62</v>
-      </c>
-      <c r="X145">
+      <c r="Z145">
+        <v>1.33</v>
+      </c>
+      <c r="AA145">
+        <v>5.84</v>
+      </c>
+      <c r="AB145">
+        <v>7.48</v>
+      </c>
+      <c r="AC145">
+        <v>1.01</v>
+      </c>
+      <c r="AD145">
+        <v>28</v>
+      </c>
+      <c r="AE145">
+        <v>1.06</v>
+      </c>
+      <c r="AF145">
+        <v>8.220000000000001</v>
+      </c>
+      <c r="AG145">
+        <v>1.3</v>
+      </c>
+      <c r="AH145">
+        <v>3.5</v>
+      </c>
+      <c r="AI145">
+        <v>1.53</v>
+      </c>
+      <c r="AJ145">
+        <v>2.38</v>
+      </c>
+      <c r="AK145">
+        <v>1.1</v>
+      </c>
+      <c r="AL145">
+        <v>1.16</v>
+      </c>
+      <c r="AM145">
+        <v>3.5</v>
+      </c>
+      <c r="AN145">
+        <v>2.5</v>
+      </c>
+      <c r="AO145">
+        <v>0.57</v>
+      </c>
+      <c r="AP145">
+        <v>2.56</v>
+      </c>
+      <c r="AQ145">
+        <v>0.5</v>
+      </c>
+      <c r="AR145">
+        <v>2.07</v>
+      </c>
+      <c r="AS145">
+        <v>1.28</v>
+      </c>
+      <c r="AT145">
+        <v>3.35</v>
+      </c>
+      <c r="AU145">
+        <v>13</v>
+      </c>
+      <c r="AV145">
+        <v>7</v>
+      </c>
+      <c r="AW145">
+        <v>3</v>
+      </c>
+      <c r="AX145">
         <v>5</v>
       </c>
-      <c r="Y145">
-        <v>1.17</v>
-      </c>
-      <c r="Z145">
-        <v>7.57</v>
-      </c>
-      <c r="AA145">
-        <v>5.19</v>
-      </c>
-      <c r="AB145">
-        <v>1.34</v>
-      </c>
-      <c r="AC145">
-        <v>1.02</v>
-      </c>
-      <c r="AD145">
-        <v>21</v>
-      </c>
-      <c r="AE145">
-        <v>1.13</v>
-      </c>
-      <c r="AF145">
-        <v>5.61</v>
-      </c>
-      <c r="AG145">
-        <v>1.5</v>
-      </c>
-      <c r="AH145">
-        <v>2.5</v>
-      </c>
-      <c r="AI145">
-        <v>1.73</v>
-      </c>
-      <c r="AJ145">
-        <v>2</v>
-      </c>
-      <c r="AK145">
-        <v>3.4</v>
-      </c>
-      <c r="AL145">
-        <v>1.18</v>
-      </c>
-      <c r="AM145">
-        <v>1.1</v>
-      </c>
-      <c r="AN145">
-        <v>0</v>
-      </c>
-      <c r="AO145">
-        <v>1.43</v>
-      </c>
-      <c r="AP145">
-        <v>0.38</v>
-      </c>
-      <c r="AQ145">
-        <v>1.25</v>
-      </c>
-      <c r="AR145">
-        <v>1.34</v>
-      </c>
-      <c r="AS145">
-        <v>1.3</v>
-      </c>
-      <c r="AT145">
-        <v>2.64</v>
-      </c>
-      <c r="AU145">
-        <v>8</v>
-      </c>
-      <c r="AV145">
-        <v>11</v>
-      </c>
-      <c r="AW145">
-        <v>1</v>
-      </c>
-      <c r="AX145">
-        <v>4</v>
-      </c>
       <c r="AY145">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ145">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA145">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BB145">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BC145">
         <v>16</v>
       </c>
       <c r="BD145">
-        <v>3.55</v>
+        <v>1.26</v>
       </c>
       <c r="BE145">
         <v>7.5</v>
       </c>
       <c r="BF145">
-        <v>1.34</v>
+        <v>4.1</v>
       </c>
       <c r="BG145">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BH145">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="BI145">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BJ145">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="BK145">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BL145">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BM145">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="BN145">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="BO145">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BP145">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>['8', '29', '63', '90+8']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
   <si>
     <t>['7', '81', '89']</t>
@@ -1206,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1671,7 +1674,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2495,7 +2498,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2701,7 +2704,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2907,7 +2910,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3113,7 +3116,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3319,7 +3322,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3525,7 +3528,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3731,7 +3734,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3812,7 +3815,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ13">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3937,7 +3940,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4143,7 +4146,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4349,7 +4352,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4555,7 +4558,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4761,7 +4764,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -4839,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ18">
         <v>0.57</v>
@@ -5379,7 +5382,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5585,7 +5588,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5791,7 +5794,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5997,7 +6000,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6078,7 +6081,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.86</v>
@@ -6203,7 +6206,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6615,7 +6618,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7233,7 +7236,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7517,7 +7520,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ31">
         <v>0.5</v>
@@ -7645,7 +7648,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7851,7 +7854,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8263,7 +8266,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8469,7 +8472,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8675,7 +8678,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9087,7 +9090,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9293,7 +9296,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9374,7 +9377,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR40">
         <v>1.4</v>
@@ -9499,7 +9502,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9911,7 +9914,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10117,7 +10120,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10529,7 +10532,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11147,7 +11150,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11353,7 +11356,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11765,7 +11768,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11971,7 +11974,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12589,7 +12592,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12795,7 +12798,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13207,7 +13210,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13413,7 +13416,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13491,7 +13494,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ60">
         <v>0.5</v>
@@ -13619,7 +13622,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13825,7 +13828,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14031,7 +14034,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14112,7 +14115,7 @@
         <v>2</v>
       </c>
       <c r="AQ63">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.38</v>
@@ -14237,7 +14240,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14443,7 +14446,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14855,7 +14858,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15061,7 +15064,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15473,7 +15476,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15679,7 +15682,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16297,7 +16300,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16787,7 +16790,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ76">
         <v>0.75</v>
@@ -16915,7 +16918,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17121,7 +17124,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17533,7 +17536,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17739,7 +17742,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17820,7 +17823,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ81">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17945,7 +17948,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18151,7 +18154,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18563,7 +18566,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18769,7 +18772,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18975,7 +18978,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19181,7 +19184,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19799,7 +19802,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -20005,7 +20008,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20211,7 +20214,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20623,7 +20626,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20829,7 +20832,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21113,7 +21116,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ97">
         <v>0.29</v>
@@ -21447,7 +21450,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21528,7 +21531,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ99">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR99">
         <v>1.5</v>
@@ -21859,7 +21862,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22065,7 +22068,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22271,7 +22274,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22477,7 +22480,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22683,7 +22686,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -23095,7 +23098,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23713,7 +23716,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23791,7 +23794,7 @@
         <v>1.2</v>
       </c>
       <c r="AP110">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ110">
         <v>1.29</v>
@@ -24125,7 +24128,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24206,7 +24209,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ112">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR112">
         <v>1.64</v>
@@ -24331,7 +24334,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24743,7 +24746,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24949,7 +24952,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25155,7 +25158,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25567,7 +25570,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25979,7 +25982,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26185,7 +26188,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26391,7 +26394,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26803,7 +26806,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27009,7 +27012,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q126">
         <v>1.67</v>
@@ -27215,7 +27218,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27421,7 +27424,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27833,7 +27836,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28120,7 +28123,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ131">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AR131">
         <v>1.61</v>
@@ -28323,7 +28326,7 @@
         <v>2.5</v>
       </c>
       <c r="AP132">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AQ132">
         <v>2.14</v>
@@ -28451,7 +28454,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -30099,7 +30102,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30717,7 +30720,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30923,7 +30926,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31080,6 +31083,212 @@
       </c>
       <c r="BP145">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7516439</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45646.58333333334</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>86</v>
+      </c>
+      <c r="H146" t="s">
+        <v>73</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>198</v>
+      </c>
+      <c r="P146" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q146">
+        <v>5</v>
+      </c>
+      <c r="R146">
+        <v>2.3</v>
+      </c>
+      <c r="S146">
+        <v>2.05</v>
+      </c>
+      <c r="T146">
+        <v>1.3</v>
+      </c>
+      <c r="U146">
+        <v>3.2</v>
+      </c>
+      <c r="V146">
+        <v>2.38</v>
+      </c>
+      <c r="W146">
+        <v>1.53</v>
+      </c>
+      <c r="X146">
+        <v>5.25</v>
+      </c>
+      <c r="Y146">
+        <v>1.12</v>
+      </c>
+      <c r="Z146">
+        <v>5.16</v>
+      </c>
+      <c r="AA146">
+        <v>4.48</v>
+      </c>
+      <c r="AB146">
+        <v>1.55</v>
+      </c>
+      <c r="AC146">
+        <v>1.03</v>
+      </c>
+      <c r="AD146">
+        <v>17</v>
+      </c>
+      <c r="AE146">
+        <v>1.19</v>
+      </c>
+      <c r="AF146">
+        <v>4.5</v>
+      </c>
+      <c r="AG146">
+        <v>1.61</v>
+      </c>
+      <c r="AH146">
+        <v>2.26</v>
+      </c>
+      <c r="AI146">
+        <v>1.65</v>
+      </c>
+      <c r="AJ146">
+        <v>2.1</v>
+      </c>
+      <c r="AK146">
+        <v>2.3</v>
+      </c>
+      <c r="AL146">
+        <v>1.18</v>
+      </c>
+      <c r="AM146">
+        <v>1.15</v>
+      </c>
+      <c r="AN146">
+        <v>2.29</v>
+      </c>
+      <c r="AO146">
+        <v>2.13</v>
+      </c>
+      <c r="AP146">
+        <v>2.13</v>
+      </c>
+      <c r="AQ146">
+        <v>2</v>
+      </c>
+      <c r="AR146">
+        <v>1.41</v>
+      </c>
+      <c r="AS146">
+        <v>1.52</v>
+      </c>
+      <c r="AT146">
+        <v>2.93</v>
+      </c>
+      <c r="AU146">
+        <v>4</v>
+      </c>
+      <c r="AV146">
+        <v>10</v>
+      </c>
+      <c r="AW146">
+        <v>5</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>14</v>
+      </c>
+      <c r="AZ146">
+        <v>15</v>
+      </c>
+      <c r="BA146">
+        <v>3</v>
+      </c>
+      <c r="BB146">
+        <v>9</v>
+      </c>
+      <c r="BC146">
+        <v>12</v>
+      </c>
+      <c r="BD146">
+        <v>2.8</v>
+      </c>
+      <c r="BE146">
+        <v>6.5</v>
+      </c>
+      <c r="BF146">
+        <v>1.52</v>
+      </c>
+      <c r="BG146">
+        <v>1.41</v>
+      </c>
+      <c r="BH146">
+        <v>2.65</v>
+      </c>
+      <c r="BI146">
+        <v>1.68</v>
+      </c>
+      <c r="BJ146">
+        <v>2.04</v>
+      </c>
+      <c r="BK146">
+        <v>2.08</v>
+      </c>
+      <c r="BL146">
+        <v>1.65</v>
+      </c>
+      <c r="BM146">
+        <v>2.65</v>
+      </c>
+      <c r="BN146">
+        <v>1.4</v>
+      </c>
+      <c r="BO146">
+        <v>3.55</v>
+      </c>
+      <c r="BP146">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1209,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>0.5</v>
@@ -4227,7 +4227,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ15">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4430,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.71</v>
@@ -4639,7 +4639,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
         <v>1.11</v>
@@ -6493,7 +6493,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ26">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR26">
         <v>1.44</v>
@@ -7935,7 +7935,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ33">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>0.72</v>
@@ -8138,7 +8138,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>0.88</v>
@@ -8344,7 +8344,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>0.5</v>
@@ -11437,7 +11437,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ50">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>1.43</v>
@@ -11849,7 +11849,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ52">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.43</v>
@@ -12052,7 +12052,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>1.11</v>
@@ -12670,7 +12670,7 @@
         <v>1.33</v>
       </c>
       <c r="AP56">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ56">
         <v>0.88</v>
@@ -15763,7 +15763,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ71">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR71">
         <v>1.33</v>
@@ -16175,7 +16175,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ73">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR73">
         <v>1.95</v>
@@ -17202,7 +17202,7 @@
         <v>0.33</v>
       </c>
       <c r="AP78">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
         <v>0.29</v>
@@ -17408,7 +17408,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ79">
         <v>1.11</v>
@@ -18647,7 +18647,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ85">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.46</v>
@@ -20292,7 +20292,7 @@
         <v>1.5</v>
       </c>
       <c r="AP93">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ93">
         <v>1.29</v>
@@ -20704,7 +20704,7 @@
         <v>2</v>
       </c>
       <c r="AP95">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ95">
         <v>1.86</v>
@@ -21325,7 +21325,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ98">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR98">
         <v>1.44</v>
@@ -23179,7 +23179,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ107">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR107">
         <v>1.87</v>
@@ -24618,7 +24618,7 @@
         <v>2.2</v>
       </c>
       <c r="AP114">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ114">
         <v>1.86</v>
@@ -24827,7 +24827,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ115">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR115">
         <v>1.6</v>
@@ -25236,7 +25236,7 @@
         <v>0.4</v>
       </c>
       <c r="AP117">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>0.75</v>
@@ -28120,7 +28120,7 @@
         <v>2.43</v>
       </c>
       <c r="AP131">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ131">
         <v>2</v>
@@ -28329,7 +28329,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ132">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AR132">
         <v>1.36</v>
@@ -28532,7 +28532,7 @@
         <v>3</v>
       </c>
       <c r="AP133">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ133">
         <v>3</v>
@@ -28741,7 +28741,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ134">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR134">
         <v>1.67</v>
@@ -31289,6 +31289,418 @@
       </c>
       <c r="BP146">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7516436</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45647.41666666666</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>74</v>
+      </c>
+      <c r="H147" t="s">
+        <v>76</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147" t="s">
+        <v>91</v>
+      </c>
+      <c r="P147" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q147">
+        <v>3.95</v>
+      </c>
+      <c r="R147">
+        <v>2.1</v>
+      </c>
+      <c r="S147">
+        <v>2.6</v>
+      </c>
+      <c r="T147">
+        <v>1.38</v>
+      </c>
+      <c r="U147">
+        <v>2.8</v>
+      </c>
+      <c r="V147">
+        <v>2.75</v>
+      </c>
+      <c r="W147">
+        <v>1.4</v>
+      </c>
+      <c r="X147">
+        <v>6.5</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>3.44</v>
+      </c>
+      <c r="AA147">
+        <v>3.44</v>
+      </c>
+      <c r="AB147">
+        <v>2.07</v>
+      </c>
+      <c r="AC147">
+        <v>1.04</v>
+      </c>
+      <c r="AD147">
+        <v>10.06</v>
+      </c>
+      <c r="AE147">
+        <v>1.29</v>
+      </c>
+      <c r="AF147">
+        <v>3.44</v>
+      </c>
+      <c r="AG147">
+        <v>1.88</v>
+      </c>
+      <c r="AH147">
+        <v>1.88</v>
+      </c>
+      <c r="AI147">
+        <v>1.73</v>
+      </c>
+      <c r="AJ147">
+        <v>2</v>
+      </c>
+      <c r="AK147">
+        <v>1.73</v>
+      </c>
+      <c r="AL147">
+        <v>1.25</v>
+      </c>
+      <c r="AM147">
+        <v>1.28</v>
+      </c>
+      <c r="AN147">
+        <v>1.38</v>
+      </c>
+      <c r="AO147">
+        <v>2.14</v>
+      </c>
+      <c r="AP147">
+        <v>1.33</v>
+      </c>
+      <c r="AQ147">
+        <v>2</v>
+      </c>
+      <c r="AR147">
+        <v>1.24</v>
+      </c>
+      <c r="AS147">
+        <v>1.21</v>
+      </c>
+      <c r="AT147">
+        <v>2.45</v>
+      </c>
+      <c r="AU147">
+        <v>3</v>
+      </c>
+      <c r="AV147">
+        <v>8</v>
+      </c>
+      <c r="AW147">
+        <v>5</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>11</v>
+      </c>
+      <c r="AZ147">
+        <v>19</v>
+      </c>
+      <c r="BA147">
+        <v>2</v>
+      </c>
+      <c r="BB147">
+        <v>10</v>
+      </c>
+      <c r="BC147">
+        <v>12</v>
+      </c>
+      <c r="BD147">
+        <v>2.5</v>
+      </c>
+      <c r="BE147">
+        <v>6.5</v>
+      </c>
+      <c r="BF147">
+        <v>1.65</v>
+      </c>
+      <c r="BG147">
+        <v>1.38</v>
+      </c>
+      <c r="BH147">
+        <v>2.7</v>
+      </c>
+      <c r="BI147">
+        <v>1.65</v>
+      </c>
+      <c r="BJ147">
+        <v>2.08</v>
+      </c>
+      <c r="BK147">
+        <v>2.02</v>
+      </c>
+      <c r="BL147">
+        <v>1.68</v>
+      </c>
+      <c r="BM147">
+        <v>2.55</v>
+      </c>
+      <c r="BN147">
+        <v>1.43</v>
+      </c>
+      <c r="BO147">
+        <v>3.4</v>
+      </c>
+      <c r="BP147">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7516434</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45647.54166666666</v>
+      </c>
+      <c r="F148">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>84</v>
+      </c>
+      <c r="H148" t="s">
+        <v>75</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>134</v>
+      </c>
+      <c r="P148" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q148">
+        <v>2.13</v>
+      </c>
+      <c r="R148">
+        <v>2.49</v>
+      </c>
+      <c r="S148">
+        <v>5.36</v>
+      </c>
+      <c r="T148">
+        <v>1.3</v>
+      </c>
+      <c r="U148">
+        <v>3.2</v>
+      </c>
+      <c r="V148">
+        <v>2.53</v>
+      </c>
+      <c r="W148">
+        <v>1.52</v>
+      </c>
+      <c r="X148">
+        <v>5.65</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>1.59</v>
+      </c>
+      <c r="AA148">
+        <v>4.11</v>
+      </c>
+      <c r="AB148">
+        <v>5.17</v>
+      </c>
+      <c r="AC148">
+        <v>1.04</v>
+      </c>
+      <c r="AD148">
+        <v>15</v>
+      </c>
+      <c r="AE148">
+        <v>1.19</v>
+      </c>
+      <c r="AF148">
+        <v>4.5</v>
+      </c>
+      <c r="AG148">
+        <v>1.65</v>
+      </c>
+      <c r="AH148">
+        <v>2.18</v>
+      </c>
+      <c r="AI148">
+        <v>1.7</v>
+      </c>
+      <c r="AJ148">
+        <v>2.05</v>
+      </c>
+      <c r="AK148">
+        <v>1.15</v>
+      </c>
+      <c r="AL148">
+        <v>1.18</v>
+      </c>
+      <c r="AM148">
+        <v>2.25</v>
+      </c>
+      <c r="AN148">
+        <v>2.14</v>
+      </c>
+      <c r="AO148">
+        <v>0.71</v>
+      </c>
+      <c r="AP148">
+        <v>2</v>
+      </c>
+      <c r="AQ148">
+        <v>0.75</v>
+      </c>
+      <c r="AR148">
+        <v>1.58</v>
+      </c>
+      <c r="AS148">
+        <v>1.11</v>
+      </c>
+      <c r="AT148">
+        <v>2.69</v>
+      </c>
+      <c r="AU148">
+        <v>6</v>
+      </c>
+      <c r="AV148">
+        <v>3</v>
+      </c>
+      <c r="AW148">
+        <v>2</v>
+      </c>
+      <c r="AX148">
+        <v>4</v>
+      </c>
+      <c r="AY148">
+        <v>13</v>
+      </c>
+      <c r="AZ148">
+        <v>11</v>
+      </c>
+      <c r="BA148">
+        <v>6</v>
+      </c>
+      <c r="BB148">
+        <v>7</v>
+      </c>
+      <c r="BC148">
+        <v>13</v>
+      </c>
+      <c r="BD148">
+        <v>1.46</v>
+      </c>
+      <c r="BE148">
+        <v>7</v>
+      </c>
+      <c r="BF148">
+        <v>3.05</v>
+      </c>
+      <c r="BG148">
+        <v>1.33</v>
+      </c>
+      <c r="BH148">
+        <v>2.95</v>
+      </c>
+      <c r="BI148">
+        <v>1.56</v>
+      </c>
+      <c r="BJ148">
+        <v>2.23</v>
+      </c>
+      <c r="BK148">
+        <v>1.91</v>
+      </c>
+      <c r="BL148">
+        <v>1.77</v>
+      </c>
+      <c r="BM148">
+        <v>2.4</v>
+      </c>
+      <c r="BN148">
+        <v>1.49</v>
+      </c>
+      <c r="BO148">
+        <v>3.15</v>
+      </c>
+      <c r="BP148">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,15 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['42', '66']</t>
+  </si>
+  <si>
+    <t>['25', '71', '78']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -848,6 +857,9 @@
   </si>
   <si>
     <t>['17', '51', '55']</t>
+  </si>
+  <si>
+    <t>['4', '29', '51', '71', '87']</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP148"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1674,7 +1686,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2498,7 +2510,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2704,7 +2716,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2910,7 +2922,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3116,7 +3128,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3322,7 +3334,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3528,7 +3540,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3606,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ12">
         <v>0.88</v>
@@ -3734,7 +3746,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3812,7 +3824,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -3940,7 +3952,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4021,7 +4033,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ14">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4146,7 +4158,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4352,7 +4364,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4433,7 +4445,7 @@
         <v>2</v>
       </c>
       <c r="AQ16">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4558,7 +4570,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4636,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4764,7 +4776,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -4845,7 +4857,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ18">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5382,7 +5394,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5588,7 +5600,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5794,7 +5806,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6000,7 +6012,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6206,7 +6218,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6618,7 +6630,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -7108,10 +7120,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ29">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>1.71</v>
@@ -7236,7 +7248,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7648,7 +7660,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7729,7 +7741,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ32">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR32">
         <v>1.45</v>
@@ -7854,7 +7866,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -8266,7 +8278,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8472,7 +8484,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8678,7 +8690,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8965,7 +8977,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ38">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
         <v>2.66</v>
@@ -9090,7 +9102,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9168,7 +9180,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ39">
         <v>1.11</v>
@@ -9296,7 +9308,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9502,7 +9514,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9580,7 +9592,7 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ41">
         <v>1.25</v>
@@ -9914,7 +9926,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10120,7 +10132,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10532,7 +10544,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10610,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ46">
         <v>1.13</v>
@@ -10819,7 +10831,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ47">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>0.7</v>
@@ -11150,7 +11162,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11356,7 +11368,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11643,7 +11655,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ51">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR51">
         <v>1.45</v>
@@ -11768,7 +11780,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11974,7 +11986,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12258,7 +12270,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ54">
         <v>0.5</v>
@@ -12464,7 +12476,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -12592,7 +12604,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12798,7 +12810,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13085,7 +13097,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR58">
         <v>1.42</v>
@@ -13210,7 +13222,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13416,7 +13428,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13622,7 +13634,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13700,7 +13712,7 @@
         <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ61">
         <v>1.11</v>
@@ -13828,7 +13840,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14034,7 +14046,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14240,7 +14252,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14318,7 +14330,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ64">
         <v>1.25</v>
@@ -14446,7 +14458,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14527,7 +14539,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR65">
         <v>1.41</v>
@@ -14733,7 +14745,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ66">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.46</v>
@@ -14858,7 +14870,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14936,7 +14948,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ67">
         <v>0.88</v>
@@ -15064,7 +15076,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15476,7 +15488,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15682,7 +15694,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -15966,7 +15978,7 @@
         <v>2.33</v>
       </c>
       <c r="AP72">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ72">
         <v>1.25</v>
@@ -16300,7 +16312,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16378,7 +16390,7 @@
         <v>0.75</v>
       </c>
       <c r="AP74">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ74">
         <v>0.5</v>
@@ -16584,7 +16596,7 @@
         <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ75">
         <v>0.88</v>
@@ -16918,7 +16930,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17124,7 +17136,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17536,7 +17548,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17742,7 +17754,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17948,7 +17960,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18029,7 +18041,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ82">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR82">
         <v>1.45</v>
@@ -18154,7 +18166,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18566,7 +18578,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18772,7 +18784,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18850,7 +18862,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ86">
         <v>0.5</v>
@@ -18978,7 +18990,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19056,7 +19068,7 @@
         <v>1.2</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ87">
         <v>1.11</v>
@@ -19184,7 +19196,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19265,7 +19277,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR88">
         <v>1.28</v>
@@ -19471,7 +19483,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ89">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.9</v>
@@ -19802,7 +19814,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -20008,7 +20020,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20086,7 +20098,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ92">
         <v>0.75</v>
@@ -20214,7 +20226,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20295,7 +20307,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR93">
         <v>1.31</v>
@@ -20498,7 +20510,7 @@
         <v>0.25</v>
       </c>
       <c r="AP94">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ94">
         <v>0.29</v>
@@ -20626,7 +20638,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20832,7 +20844,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21450,7 +21462,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21528,7 +21540,7 @@
         <v>2.2</v>
       </c>
       <c r="AP99">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ99">
         <v>2</v>
@@ -21737,7 +21749,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ100">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR100">
         <v>1.54</v>
@@ -21862,7 +21874,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22068,7 +22080,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22149,7 +22161,7 @@
         <v>2</v>
       </c>
       <c r="AQ102">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
         <v>1.28</v>
@@ -22274,7 +22286,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22480,7 +22492,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22686,7 +22698,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22970,7 +22982,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ106">
         <v>1.11</v>
@@ -23098,7 +23110,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23716,7 +23728,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23797,7 +23809,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ110">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR110">
         <v>1.36</v>
@@ -24000,7 +24012,7 @@
         <v>1.17</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ111">
         <v>0.88</v>
@@ -24128,7 +24140,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24206,7 +24218,7 @@
         <v>2.33</v>
       </c>
       <c r="AP112">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ112">
         <v>2</v>
@@ -24334,7 +24346,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24746,7 +24758,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24952,7 +24964,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25158,7 +25170,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25442,7 +25454,7 @@
         <v>0.4</v>
       </c>
       <c r="AP118">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ118">
         <v>0.29</v>
@@ -25570,7 +25582,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25857,7 +25869,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ120">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR120">
         <v>1.52</v>
@@ -25982,7 +25994,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26188,7 +26200,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26394,7 +26406,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26806,7 +26818,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27012,7 +27024,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>1.67</v>
@@ -27218,7 +27230,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27424,7 +27436,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27502,7 +27514,7 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ128">
         <v>1.86</v>
@@ -27711,7 +27723,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ129">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR129">
         <v>1.29</v>
@@ -27836,7 +27848,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -27914,7 +27926,7 @@
         <v>0.33</v>
       </c>
       <c r="AP130">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ130">
         <v>0.29</v>
@@ -28454,7 +28466,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -28738,7 +28750,7 @@
         <v>0.83</v>
       </c>
       <c r="AP134">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ134">
         <v>0.75</v>
@@ -29150,10 +29162,10 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ136">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR136">
         <v>1.55</v>
@@ -30102,7 +30114,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30720,7 +30732,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30926,7 +30938,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31132,7 +31144,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31544,7 +31556,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -31701,6 +31713,830 @@
       </c>
       <c r="BP148">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7516441</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45647.875</v>
+      </c>
+      <c r="F149">
+        <v>17</v>
+      </c>
+      <c r="G149" t="s">
+        <v>85</v>
+      </c>
+      <c r="H149" t="s">
+        <v>72</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>199</v>
+      </c>
+      <c r="P149" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q149">
+        <v>2.7</v>
+      </c>
+      <c r="R149">
+        <v>2.2</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>1.42</v>
+      </c>
+      <c r="U149">
+        <v>3.1</v>
+      </c>
+      <c r="V149">
+        <v>2.85</v>
+      </c>
+      <c r="W149">
+        <v>1.47</v>
+      </c>
+      <c r="X149">
+        <v>7.5</v>
+      </c>
+      <c r="Y149">
+        <v>1.12</v>
+      </c>
+      <c r="Z149">
+        <v>2.03</v>
+      </c>
+      <c r="AA149">
+        <v>3.44</v>
+      </c>
+      <c r="AB149">
+        <v>3.58</v>
+      </c>
+      <c r="AC149">
+        <v>1.03</v>
+      </c>
+      <c r="AD149">
+        <v>10.65</v>
+      </c>
+      <c r="AE149">
+        <v>1.27</v>
+      </c>
+      <c r="AF149">
+        <v>3.61</v>
+      </c>
+      <c r="AG149">
+        <v>1.83</v>
+      </c>
+      <c r="AH149">
+        <v>1.93</v>
+      </c>
+      <c r="AI149">
+        <v>1.7</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.33</v>
+      </c>
+      <c r="AL149">
+        <v>1.33</v>
+      </c>
+      <c r="AM149">
+        <v>1.83</v>
+      </c>
+      <c r="AN149">
+        <v>2</v>
+      </c>
+      <c r="AO149">
+        <v>0.71</v>
+      </c>
+      <c r="AP149">
+        <v>2.13</v>
+      </c>
+      <c r="AQ149">
+        <v>0.63</v>
+      </c>
+      <c r="AR149">
+        <v>1.44</v>
+      </c>
+      <c r="AS149">
+        <v>1.05</v>
+      </c>
+      <c r="AT149">
+        <v>2.49</v>
+      </c>
+      <c r="AU149">
+        <v>8</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+      <c r="AW149">
+        <v>6</v>
+      </c>
+      <c r="AX149">
+        <v>6</v>
+      </c>
+      <c r="AY149">
+        <v>21</v>
+      </c>
+      <c r="AZ149">
+        <v>9</v>
+      </c>
+      <c r="BA149">
+        <v>4</v>
+      </c>
+      <c r="BB149">
+        <v>3</v>
+      </c>
+      <c r="BC149">
+        <v>7</v>
+      </c>
+      <c r="BD149">
+        <v>1.72</v>
+      </c>
+      <c r="BE149">
+        <v>6.4</v>
+      </c>
+      <c r="BF149">
+        <v>2.38</v>
+      </c>
+      <c r="BG149">
+        <v>1.4</v>
+      </c>
+      <c r="BH149">
+        <v>2.65</v>
+      </c>
+      <c r="BI149">
+        <v>1.67</v>
+      </c>
+      <c r="BJ149">
+        <v>2.04</v>
+      </c>
+      <c r="BK149">
+        <v>2.08</v>
+      </c>
+      <c r="BL149">
+        <v>1.65</v>
+      </c>
+      <c r="BM149">
+        <v>2.65</v>
+      </c>
+      <c r="BN149">
+        <v>1.41</v>
+      </c>
+      <c r="BO149">
+        <v>3.55</v>
+      </c>
+      <c r="BP149">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7516437</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45648.41666666666</v>
+      </c>
+      <c r="F150">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>80</v>
+      </c>
+      <c r="H150" t="s">
+        <v>70</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>2</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
+        <v>6</v>
+      </c>
+      <c r="O150" t="s">
+        <v>96</v>
+      </c>
+      <c r="P150" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q150">
+        <v>6.77</v>
+      </c>
+      <c r="R150">
+        <v>3.03</v>
+      </c>
+      <c r="S150">
+        <v>1.71</v>
+      </c>
+      <c r="T150">
+        <v>1.17</v>
+      </c>
+      <c r="U150">
+        <v>4.45</v>
+      </c>
+      <c r="V150">
+        <v>1.99</v>
+      </c>
+      <c r="W150">
+        <v>1.84</v>
+      </c>
+      <c r="X150">
+        <v>4.05</v>
+      </c>
+      <c r="Y150">
+        <v>1.2</v>
+      </c>
+      <c r="Z150">
+        <v>7.03</v>
+      </c>
+      <c r="AA150">
+        <v>5.67</v>
+      </c>
+      <c r="AB150">
+        <v>1.34</v>
+      </c>
+      <c r="AC150">
+        <v>1.01</v>
+      </c>
+      <c r="AD150">
+        <v>29</v>
+      </c>
+      <c r="AE150">
+        <v>1.08</v>
+      </c>
+      <c r="AF150">
+        <v>7.32</v>
+      </c>
+      <c r="AG150">
+        <v>1.32</v>
+      </c>
+      <c r="AH150">
+        <v>3.25</v>
+      </c>
+      <c r="AI150">
+        <v>1.55</v>
+      </c>
+      <c r="AJ150">
+        <v>2.29</v>
+      </c>
+      <c r="AK150">
+        <v>3.1</v>
+      </c>
+      <c r="AL150">
+        <v>1.11</v>
+      </c>
+      <c r="AM150">
+        <v>1.08</v>
+      </c>
+      <c r="AN150">
+        <v>0.86</v>
+      </c>
+      <c r="AO150">
+        <v>3</v>
+      </c>
+      <c r="AP150">
+        <v>0.75</v>
+      </c>
+      <c r="AQ150">
+        <v>3</v>
+      </c>
+      <c r="AR150">
+        <v>1.61</v>
+      </c>
+      <c r="AS150">
+        <v>1.9</v>
+      </c>
+      <c r="AT150">
+        <v>3.51</v>
+      </c>
+      <c r="AU150">
+        <v>7</v>
+      </c>
+      <c r="AV150">
+        <v>12</v>
+      </c>
+      <c r="AW150">
+        <v>5</v>
+      </c>
+      <c r="AX150">
+        <v>5</v>
+      </c>
+      <c r="AY150">
+        <v>16</v>
+      </c>
+      <c r="AZ150">
+        <v>21</v>
+      </c>
+      <c r="BA150">
+        <v>7</v>
+      </c>
+      <c r="BB150">
+        <v>7</v>
+      </c>
+      <c r="BC150">
+        <v>14</v>
+      </c>
+      <c r="BD150">
+        <v>4.6</v>
+      </c>
+      <c r="BE150">
+        <v>8</v>
+      </c>
+      <c r="BF150">
+        <v>1.23</v>
+      </c>
+      <c r="BG150">
+        <v>1.2</v>
+      </c>
+      <c r="BH150">
+        <v>3.95</v>
+      </c>
+      <c r="BI150">
+        <v>1.35</v>
+      </c>
+      <c r="BJ150">
+        <v>2.9</v>
+      </c>
+      <c r="BK150">
+        <v>1.58</v>
+      </c>
+      <c r="BL150">
+        <v>2.2</v>
+      </c>
+      <c r="BM150">
+        <v>1.9</v>
+      </c>
+      <c r="BN150">
+        <v>1.78</v>
+      </c>
+      <c r="BO150">
+        <v>2.35</v>
+      </c>
+      <c r="BP150">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7516442</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45648.41666666666</v>
+      </c>
+      <c r="F151">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>81</v>
+      </c>
+      <c r="H151" t="s">
+        <v>77</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>200</v>
+      </c>
+      <c r="P151" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q151">
+        <v>2.8</v>
+      </c>
+      <c r="R151">
+        <v>2.2</v>
+      </c>
+      <c r="S151">
+        <v>3.75</v>
+      </c>
+      <c r="T151">
+        <v>1.42</v>
+      </c>
+      <c r="U151">
+        <v>3.1</v>
+      </c>
+      <c r="V151">
+        <v>2.95</v>
+      </c>
+      <c r="W151">
+        <v>1.45</v>
+      </c>
+      <c r="X151">
+        <v>8</v>
+      </c>
+      <c r="Y151">
+        <v>1.11</v>
+      </c>
+      <c r="Z151">
+        <v>2.08</v>
+      </c>
+      <c r="AA151">
+        <v>3.6</v>
+      </c>
+      <c r="AB151">
+        <v>3.27</v>
+      </c>
+      <c r="AC151">
+        <v>1.03</v>
+      </c>
+      <c r="AD151">
+        <v>10.65</v>
+      </c>
+      <c r="AE151">
+        <v>1.27</v>
+      </c>
+      <c r="AF151">
+        <v>3.61</v>
+      </c>
+      <c r="AG151">
+        <v>1.88</v>
+      </c>
+      <c r="AH151">
+        <v>1.88</v>
+      </c>
+      <c r="AI151">
+        <v>1.72</v>
+      </c>
+      <c r="AJ151">
+        <v>2.1</v>
+      </c>
+      <c r="AK151">
+        <v>1.36</v>
+      </c>
+      <c r="AL151">
+        <v>1.33</v>
+      </c>
+      <c r="AM151">
+        <v>1.78</v>
+      </c>
+      <c r="AN151">
+        <v>2.71</v>
+      </c>
+      <c r="AO151">
+        <v>1.29</v>
+      </c>
+      <c r="AP151">
+        <v>2.75</v>
+      </c>
+      <c r="AQ151">
+        <v>1.13</v>
+      </c>
+      <c r="AR151">
+        <v>1.84</v>
+      </c>
+      <c r="AS151">
+        <v>1.12</v>
+      </c>
+      <c r="AT151">
+        <v>2.96</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>11</v>
+      </c>
+      <c r="AX151">
+        <v>4</v>
+      </c>
+      <c r="AY151">
+        <v>17</v>
+      </c>
+      <c r="AZ151">
+        <v>12</v>
+      </c>
+      <c r="BA151">
+        <v>3</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
+        <v>8</v>
+      </c>
+      <c r="BD151">
+        <v>1.74</v>
+      </c>
+      <c r="BE151">
+        <v>6.4</v>
+      </c>
+      <c r="BF151">
+        <v>2.33</v>
+      </c>
+      <c r="BG151">
+        <v>1.4</v>
+      </c>
+      <c r="BH151">
+        <v>2.65</v>
+      </c>
+      <c r="BI151">
+        <v>1.67</v>
+      </c>
+      <c r="BJ151">
+        <v>2.04</v>
+      </c>
+      <c r="BK151">
+        <v>2.08</v>
+      </c>
+      <c r="BL151">
+        <v>1.65</v>
+      </c>
+      <c r="BM151">
+        <v>2.65</v>
+      </c>
+      <c r="BN151">
+        <v>1.41</v>
+      </c>
+      <c r="BO151">
+        <v>3.55</v>
+      </c>
+      <c r="BP151">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7516438</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45648.54166666666</v>
+      </c>
+      <c r="F152">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>88</v>
+      </c>
+      <c r="H152" t="s">
+        <v>78</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>201</v>
+      </c>
+      <c r="P152" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q152">
+        <v>2.1</v>
+      </c>
+      <c r="R152">
+        <v>2.2</v>
+      </c>
+      <c r="S152">
+        <v>5.25</v>
+      </c>
+      <c r="T152">
+        <v>1.36</v>
+      </c>
+      <c r="U152">
+        <v>2.88</v>
+      </c>
+      <c r="V152">
+        <v>2.65</v>
+      </c>
+      <c r="W152">
+        <v>1.42</v>
+      </c>
+      <c r="X152">
+        <v>6.25</v>
+      </c>
+      <c r="Y152">
+        <v>1.08</v>
+      </c>
+      <c r="Z152">
+        <v>1.59</v>
+      </c>
+      <c r="AA152">
+        <v>4.11</v>
+      </c>
+      <c r="AB152">
+        <v>5.17</v>
+      </c>
+      <c r="AC152">
+        <v>1.05</v>
+      </c>
+      <c r="AD152">
+        <v>13</v>
+      </c>
+      <c r="AE152">
+        <v>1.25</v>
+      </c>
+      <c r="AF152">
+        <v>3.82</v>
+      </c>
+      <c r="AG152">
+        <v>1.82</v>
+      </c>
+      <c r="AH152">
+        <v>1.94</v>
+      </c>
+      <c r="AI152">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152">
+        <v>1.9</v>
+      </c>
+      <c r="AK152">
+        <v>1.14</v>
+      </c>
+      <c r="AL152">
+        <v>1.2</v>
+      </c>
+      <c r="AM152">
+        <v>2.25</v>
+      </c>
+      <c r="AN152">
+        <v>1.71</v>
+      </c>
+      <c r="AO152">
+        <v>0.57</v>
+      </c>
+      <c r="AP152">
+        <v>1.88</v>
+      </c>
+      <c r="AQ152">
+        <v>0.5</v>
+      </c>
+      <c r="AR152">
+        <v>1.63</v>
+      </c>
+      <c r="AS152">
+        <v>1.06</v>
+      </c>
+      <c r="AT152">
+        <v>2.69</v>
+      </c>
+      <c r="AU152">
+        <v>6</v>
+      </c>
+      <c r="AV152">
+        <v>6</v>
+      </c>
+      <c r="AW152">
+        <v>6</v>
+      </c>
+      <c r="AX152">
+        <v>3</v>
+      </c>
+      <c r="AY152">
+        <v>15</v>
+      </c>
+      <c r="AZ152">
+        <v>13</v>
+      </c>
+      <c r="BA152">
+        <v>8</v>
+      </c>
+      <c r="BB152">
+        <v>4</v>
+      </c>
+      <c r="BC152">
+        <v>12</v>
+      </c>
+      <c r="BD152">
+        <v>1.44</v>
+      </c>
+      <c r="BE152">
+        <v>8.5</v>
+      </c>
+      <c r="BF152">
+        <v>3.2</v>
+      </c>
+      <c r="BG152">
+        <v>1.29</v>
+      </c>
+      <c r="BH152">
+        <v>3.35</v>
+      </c>
+      <c r="BI152">
+        <v>1.53</v>
+      </c>
+      <c r="BJ152">
+        <v>2.41</v>
+      </c>
+      <c r="BK152">
+        <v>1.85</v>
+      </c>
+      <c r="BL152">
+        <v>1.85</v>
+      </c>
+      <c r="BM152">
+        <v>2.38</v>
+      </c>
+      <c r="BN152">
+        <v>1.54</v>
+      </c>
+      <c r="BO152">
+        <v>3.2</v>
+      </c>
+      <c r="BP152">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,13 +613,16 @@
     <t>['26']</t>
   </si>
   <si>
+    <t>['25', '71', '78']</t>
+  </si>
+  <si>
     <t>['42', '66']</t>
   </si>
   <si>
-    <t>['25', '71', '78']</t>
+    <t>['86']</t>
   </si>
   <si>
-    <t>['86']</t>
+    <t>['9', '42']</t>
   </si>
   <si>
     <t>['7', '81', '89']</t>
@@ -860,6 +863,12 @@
   </si>
   <si>
     <t>['4', '29', '51', '71', '87']</t>
+  </si>
+  <si>
+    <t>['61', '70', '75']</t>
+  </si>
+  <si>
+    <t>['3', '68']</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1686,7 +1695,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2179,7 +2188,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ5">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2510,7 +2519,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2716,7 +2725,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2922,7 +2931,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3128,7 +3137,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3334,7 +3343,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3540,7 +3549,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3746,7 +3755,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3952,7 +3961,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4158,7 +4167,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4236,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
         <v>0.75</v>
@@ -4364,7 +4373,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4570,7 +4579,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4776,7 +4785,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5060,10 +5069,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ19">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5394,7 +5403,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5600,7 +5609,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5806,7 +5815,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5887,7 +5896,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ23">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR23">
         <v>0.96</v>
@@ -6012,7 +6021,7 @@
         <v>91</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q24">
         <v>5.44</v>
@@ -6218,7 +6227,7 @@
         <v>106</v>
       </c>
       <c r="P25" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q25">
         <v>2.82</v>
@@ -6630,7 +6639,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6711,7 +6720,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR27">
         <v>1.49</v>
@@ -7248,7 +7257,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7660,7 +7669,7 @@
         <v>110</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q32">
         <v>2.4</v>
@@ -7738,7 +7747,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0.63</v>
@@ -7866,7 +7875,7 @@
         <v>91</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>3.3</v>
@@ -7944,7 +7953,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ33">
         <v>2</v>
@@ -8278,7 +8287,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8484,7 +8493,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8690,7 +8699,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -9102,7 +9111,7 @@
         <v>114</v>
       </c>
       <c r="P39" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q39">
         <v>3.25</v>
@@ -9308,7 +9317,7 @@
         <v>91</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q40">
         <v>5.55</v>
@@ -9514,7 +9523,7 @@
         <v>115</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>3.7</v>
@@ -9926,7 +9935,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10007,7 +10016,7 @@
         <v>2</v>
       </c>
       <c r="AQ43">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR43">
         <v>1.43</v>
@@ -10132,7 +10141,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10544,7 +10553,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10828,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ47">
         <v>0.5</v>
@@ -11162,7 +11171,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11368,7 +11377,7 @@
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>3.1</v>
@@ -11780,7 +11789,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11986,7 +11995,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12604,7 +12613,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12810,7 +12819,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13222,7 +13231,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13303,7 +13312,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ59">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>2.34</v>
@@ -13428,7 +13437,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13634,7 +13643,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13840,7 +13849,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13921,7 +13930,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ62">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR62">
         <v>1.38</v>
@@ -14046,7 +14055,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14252,7 +14261,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14458,7 +14467,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14870,7 +14879,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15076,7 +15085,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q68">
         <v>2.12</v>
@@ -15154,7 +15163,7 @@
         <v>0.67</v>
       </c>
       <c r="AP68">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.13</v>
@@ -15360,7 +15369,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ69">
         <v>0.5</v>
@@ -15488,7 +15497,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15694,7 +15703,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16312,7 +16321,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16930,7 +16939,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17136,7 +17145,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17548,7 +17557,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17629,7 +17638,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ80">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR80">
         <v>1.32</v>
@@ -17754,7 +17763,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17960,7 +17969,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18166,7 +18175,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18450,7 +18459,7 @@
         <v>0.75</v>
       </c>
       <c r="AP84">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ84">
         <v>1.13</v>
@@ -18578,7 +18587,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18784,7 +18793,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18990,7 +18999,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19196,7 +19205,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19686,7 +19695,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.11</v>
@@ -19814,7 +19823,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -20020,7 +20029,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20226,7 +20235,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20513,7 +20522,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ94">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR94">
         <v>1.6</v>
@@ -20638,7 +20647,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20719,7 +20728,7 @@
         <v>2</v>
       </c>
       <c r="AQ95">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR95">
         <v>1.8</v>
@@ -20844,7 +20853,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21462,7 +21471,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21874,7 +21883,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22080,7 +22089,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22286,7 +22295,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22364,7 +22373,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ103">
         <v>0.5</v>
@@ -22492,7 +22501,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22698,7 +22707,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -23110,7 +23119,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23394,7 +23403,7 @@
         <v>1.6</v>
       </c>
       <c r="AP108">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ108">
         <v>1.25</v>
@@ -23728,7 +23737,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -24140,7 +24149,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q112">
         <v>6</v>
@@ -24346,7 +24355,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24633,7 +24642,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ114">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR114">
         <v>1.24</v>
@@ -24758,7 +24767,7 @@
         <v>169</v>
       </c>
       <c r="P115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>2.38</v>
@@ -24964,7 +24973,7 @@
         <v>115</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q116">
         <v>2.6</v>
@@ -25170,7 +25179,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25457,7 +25466,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ118">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR118">
         <v>1.48</v>
@@ -25582,7 +25591,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25994,7 +26003,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26200,7 +26209,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26278,7 +26287,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
         <v>0.75</v>
@@ -26406,7 +26415,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26818,7 +26827,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27024,7 +27033,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q126">
         <v>1.67</v>
@@ -27230,7 +27239,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q127">
         <v>4.33</v>
@@ -27308,7 +27317,7 @@
         <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ127">
         <v>1.25</v>
@@ -27436,7 +27445,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27517,7 +27526,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ128">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR128">
         <v>1.57</v>
@@ -27848,7 +27857,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -27929,7 +27938,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ130">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AR130">
         <v>1.76</v>
@@ -28466,7 +28475,7 @@
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q133">
         <v>6</v>
@@ -28956,7 +28965,7 @@
         <v>0.33</v>
       </c>
       <c r="AP135">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="AQ135">
         <v>0.29</v>
@@ -30114,7 +30123,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30192,7 +30201,7 @@
         <v>0.71</v>
       </c>
       <c r="AP141">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ141">
         <v>0.75</v>
@@ -30732,7 +30741,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30938,7 +30947,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31144,7 +31153,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31556,7 +31565,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -31720,7 +31729,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7516441</v>
+        <v>7516437</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31735,190 +31744,190 @@
         <v>17</v>
       </c>
       <c r="G149" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H149" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N149">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O149" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="P149" t="s">
-        <v>91</v>
+        <v>282</v>
       </c>
       <c r="Q149">
-        <v>2.7</v>
+        <v>6.77</v>
       </c>
       <c r="R149">
+        <v>3.03</v>
+      </c>
+      <c r="S149">
+        <v>1.71</v>
+      </c>
+      <c r="T149">
+        <v>1.17</v>
+      </c>
+      <c r="U149">
+        <v>4.45</v>
+      </c>
+      <c r="V149">
+        <v>1.99</v>
+      </c>
+      <c r="W149">
+        <v>1.84</v>
+      </c>
+      <c r="X149">
+        <v>4.05</v>
+      </c>
+      <c r="Y149">
+        <v>1.2</v>
+      </c>
+      <c r="Z149">
+        <v>7.03</v>
+      </c>
+      <c r="AA149">
+        <v>5.67</v>
+      </c>
+      <c r="AB149">
+        <v>1.34</v>
+      </c>
+      <c r="AC149">
+        <v>1.01</v>
+      </c>
+      <c r="AD149">
+        <v>29</v>
+      </c>
+      <c r="AE149">
+        <v>1.08</v>
+      </c>
+      <c r="AF149">
+        <v>7.32</v>
+      </c>
+      <c r="AG149">
+        <v>1.32</v>
+      </c>
+      <c r="AH149">
+        <v>3.25</v>
+      </c>
+      <c r="AI149">
+        <v>1.55</v>
+      </c>
+      <c r="AJ149">
+        <v>2.29</v>
+      </c>
+      <c r="AK149">
+        <v>3.1</v>
+      </c>
+      <c r="AL149">
+        <v>1.11</v>
+      </c>
+      <c r="AM149">
+        <v>1.08</v>
+      </c>
+      <c r="AN149">
+        <v>0.86</v>
+      </c>
+      <c r="AO149">
+        <v>3</v>
+      </c>
+      <c r="AP149">
+        <v>0.75</v>
+      </c>
+      <c r="AQ149">
+        <v>3</v>
+      </c>
+      <c r="AR149">
+        <v>1.61</v>
+      </c>
+      <c r="AS149">
+        <v>1.9</v>
+      </c>
+      <c r="AT149">
+        <v>3.51</v>
+      </c>
+      <c r="AU149">
+        <v>7</v>
+      </c>
+      <c r="AV149">
+        <v>12</v>
+      </c>
+      <c r="AW149">
+        <v>5</v>
+      </c>
+      <c r="AX149">
+        <v>5</v>
+      </c>
+      <c r="AY149">
+        <v>16</v>
+      </c>
+      <c r="AZ149">
+        <v>21</v>
+      </c>
+      <c r="BA149">
+        <v>7</v>
+      </c>
+      <c r="BB149">
+        <v>7</v>
+      </c>
+      <c r="BC149">
+        <v>14</v>
+      </c>
+      <c r="BD149">
+        <v>4.6</v>
+      </c>
+      <c r="BE149">
+        <v>8</v>
+      </c>
+      <c r="BF149">
+        <v>1.23</v>
+      </c>
+      <c r="BG149">
+        <v>1.2</v>
+      </c>
+      <c r="BH149">
+        <v>3.95</v>
+      </c>
+      <c r="BI149">
+        <v>1.35</v>
+      </c>
+      <c r="BJ149">
+        <v>2.9</v>
+      </c>
+      <c r="BK149">
+        <v>1.58</v>
+      </c>
+      <c r="BL149">
         <v>2.2</v>
       </c>
-      <c r="S149">
-        <v>4</v>
-      </c>
-      <c r="T149">
-        <v>1.42</v>
-      </c>
-      <c r="U149">
-        <v>3.1</v>
-      </c>
-      <c r="V149">
-        <v>2.85</v>
-      </c>
-      <c r="W149">
-        <v>1.47</v>
-      </c>
-      <c r="X149">
-        <v>7.5</v>
-      </c>
-      <c r="Y149">
-        <v>1.12</v>
-      </c>
-      <c r="Z149">
-        <v>2.03</v>
-      </c>
-      <c r="AA149">
-        <v>3.44</v>
-      </c>
-      <c r="AB149">
-        <v>3.58</v>
-      </c>
-      <c r="AC149">
-        <v>1.03</v>
-      </c>
-      <c r="AD149">
-        <v>10.65</v>
-      </c>
-      <c r="AE149">
-        <v>1.27</v>
-      </c>
-      <c r="AF149">
-        <v>3.61</v>
-      </c>
-      <c r="AG149">
-        <v>1.83</v>
-      </c>
-      <c r="AH149">
-        <v>1.93</v>
-      </c>
-      <c r="AI149">
-        <v>1.7</v>
-      </c>
-      <c r="AJ149">
-        <v>2.1</v>
-      </c>
-      <c r="AK149">
-        <v>1.33</v>
-      </c>
-      <c r="AL149">
-        <v>1.33</v>
-      </c>
-      <c r="AM149">
-        <v>1.83</v>
-      </c>
-      <c r="AN149">
-        <v>2</v>
-      </c>
-      <c r="AO149">
-        <v>0.71</v>
-      </c>
-      <c r="AP149">
-        <v>2.13</v>
-      </c>
-      <c r="AQ149">
-        <v>0.63</v>
-      </c>
-      <c r="AR149">
-        <v>1.44</v>
-      </c>
-      <c r="AS149">
-        <v>1.05</v>
-      </c>
-      <c r="AT149">
-        <v>2.49</v>
-      </c>
-      <c r="AU149">
-        <v>8</v>
-      </c>
-      <c r="AV149">
-        <v>2</v>
-      </c>
-      <c r="AW149">
-        <v>6</v>
-      </c>
-      <c r="AX149">
-        <v>6</v>
-      </c>
-      <c r="AY149">
-        <v>21</v>
-      </c>
-      <c r="AZ149">
-        <v>9</v>
-      </c>
-      <c r="BA149">
-        <v>4</v>
-      </c>
-      <c r="BB149">
-        <v>3</v>
-      </c>
-      <c r="BC149">
-        <v>7</v>
-      </c>
-      <c r="BD149">
-        <v>1.72</v>
-      </c>
-      <c r="BE149">
-        <v>6.4</v>
-      </c>
-      <c r="BF149">
-        <v>2.38</v>
-      </c>
-      <c r="BG149">
-        <v>1.4</v>
-      </c>
-      <c r="BH149">
-        <v>2.65</v>
-      </c>
-      <c r="BI149">
-        <v>1.67</v>
-      </c>
-      <c r="BJ149">
-        <v>2.04</v>
-      </c>
-      <c r="BK149">
-        <v>2.08</v>
-      </c>
-      <c r="BL149">
-        <v>1.65</v>
-      </c>
       <c r="BM149">
-        <v>2.65</v>
+        <v>1.9</v>
       </c>
       <c r="BN149">
-        <v>1.41</v>
+        <v>1.78</v>
       </c>
       <c r="BO149">
-        <v>3.55</v>
+        <v>2.35</v>
       </c>
       <c r="BP149">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31926,7 +31935,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7516437</v>
+        <v>7516442</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31935,196 +31944,196 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45648.41666666666</v>
+        <v>45647.875</v>
       </c>
       <c r="F150">
         <v>17</v>
       </c>
       <c r="G150" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H150" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
         <v>3</v>
       </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
       <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>199</v>
+      </c>
+      <c r="P150" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q150">
+        <v>2.8</v>
+      </c>
+      <c r="R150">
+        <v>2.2</v>
+      </c>
+      <c r="S150">
+        <v>3.75</v>
+      </c>
+      <c r="T150">
+        <v>1.42</v>
+      </c>
+      <c r="U150">
+        <v>3.1</v>
+      </c>
+      <c r="V150">
+        <v>2.95</v>
+      </c>
+      <c r="W150">
+        <v>1.45</v>
+      </c>
+      <c r="X150">
+        <v>8</v>
+      </c>
+      <c r="Y150">
+        <v>1.11</v>
+      </c>
+      <c r="Z150">
+        <v>2.08</v>
+      </c>
+      <c r="AA150">
+        <v>3.6</v>
+      </c>
+      <c r="AB150">
+        <v>3.27</v>
+      </c>
+      <c r="AC150">
+        <v>1.03</v>
+      </c>
+      <c r="AD150">
+        <v>10.65</v>
+      </c>
+      <c r="AE150">
+        <v>1.27</v>
+      </c>
+      <c r="AF150">
+        <v>3.61</v>
+      </c>
+      <c r="AG150">
+        <v>1.88</v>
+      </c>
+      <c r="AH150">
+        <v>1.88</v>
+      </c>
+      <c r="AI150">
+        <v>1.72</v>
+      </c>
+      <c r="AJ150">
+        <v>2.1</v>
+      </c>
+      <c r="AK150">
+        <v>1.36</v>
+      </c>
+      <c r="AL150">
+        <v>1.33</v>
+      </c>
+      <c r="AM150">
+        <v>1.78</v>
+      </c>
+      <c r="AN150">
+        <v>2.71</v>
+      </c>
+      <c r="AO150">
+        <v>1.29</v>
+      </c>
+      <c r="AP150">
+        <v>2.75</v>
+      </c>
+      <c r="AQ150">
+        <v>1.13</v>
+      </c>
+      <c r="AR150">
+        <v>1.84</v>
+      </c>
+      <c r="AS150">
+        <v>1.12</v>
+      </c>
+      <c r="AT150">
+        <v>2.96</v>
+      </c>
+      <c r="AU150">
+        <v>6</v>
+      </c>
+      <c r="AV150">
+        <v>3</v>
+      </c>
+      <c r="AW150">
+        <v>11</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>17</v>
+      </c>
+      <c r="AZ150">
+        <v>12</v>
+      </c>
+      <c r="BA150">
+        <v>3</v>
+      </c>
+      <c r="BB150">
         <v>5</v>
       </c>
-      <c r="N150">
-        <v>6</v>
-      </c>
-      <c r="O150" t="s">
-        <v>96</v>
-      </c>
-      <c r="P150" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q150">
-        <v>6.77</v>
-      </c>
-      <c r="R150">
-        <v>3.03</v>
-      </c>
-      <c r="S150">
-        <v>1.71</v>
-      </c>
-      <c r="T150">
-        <v>1.17</v>
-      </c>
-      <c r="U150">
-        <v>4.45</v>
-      </c>
-      <c r="V150">
-        <v>1.99</v>
-      </c>
-      <c r="W150">
-        <v>1.84</v>
-      </c>
-      <c r="X150">
-        <v>4.05</v>
-      </c>
-      <c r="Y150">
-        <v>1.2</v>
-      </c>
-      <c r="Z150">
-        <v>7.03</v>
-      </c>
-      <c r="AA150">
-        <v>5.67</v>
-      </c>
-      <c r="AB150">
-        <v>1.34</v>
-      </c>
-      <c r="AC150">
-        <v>1.01</v>
-      </c>
-      <c r="AD150">
-        <v>29</v>
-      </c>
-      <c r="AE150">
-        <v>1.08</v>
-      </c>
-      <c r="AF150">
-        <v>7.32</v>
-      </c>
-      <c r="AG150">
-        <v>1.32</v>
-      </c>
-      <c r="AH150">
-        <v>3.25</v>
-      </c>
-      <c r="AI150">
-        <v>1.55</v>
-      </c>
-      <c r="AJ150">
-        <v>2.29</v>
-      </c>
-      <c r="AK150">
-        <v>3.1</v>
-      </c>
-      <c r="AL150">
-        <v>1.11</v>
-      </c>
-      <c r="AM150">
-        <v>1.08</v>
-      </c>
-      <c r="AN150">
-        <v>0.86</v>
-      </c>
-      <c r="AO150">
-        <v>3</v>
-      </c>
-      <c r="AP150">
-        <v>0.75</v>
-      </c>
-      <c r="AQ150">
-        <v>3</v>
-      </c>
-      <c r="AR150">
-        <v>1.61</v>
-      </c>
-      <c r="AS150">
-        <v>1.9</v>
-      </c>
-      <c r="AT150">
-        <v>3.51</v>
-      </c>
-      <c r="AU150">
-        <v>7</v>
-      </c>
-      <c r="AV150">
-        <v>12</v>
-      </c>
-      <c r="AW150">
-        <v>5</v>
-      </c>
-      <c r="AX150">
-        <v>5</v>
-      </c>
-      <c r="AY150">
-        <v>16</v>
-      </c>
-      <c r="AZ150">
-        <v>21</v>
-      </c>
-      <c r="BA150">
-        <v>7</v>
-      </c>
-      <c r="BB150">
-        <v>7</v>
-      </c>
       <c r="BC150">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BD150">
-        <v>4.6</v>
+        <v>1.74</v>
       </c>
       <c r="BE150">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF150">
-        <v>1.23</v>
+        <v>2.33</v>
       </c>
       <c r="BG150">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="BH150">
-        <v>3.95</v>
+        <v>2.65</v>
       </c>
       <c r="BI150">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="BJ150">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="BK150">
-        <v>1.58</v>
+        <v>2.08</v>
       </c>
       <c r="BL150">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="BM150">
-        <v>1.9</v>
+        <v>2.65</v>
       </c>
       <c r="BN150">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="BO150">
-        <v>2.35</v>
+        <v>3.55</v>
       </c>
       <c r="BP150">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -32132,7 +32141,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7516442</v>
+        <v>7516441</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32141,16 +32150,16 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45648.41666666666</v>
+        <v>45647.875</v>
       </c>
       <c r="F151">
         <v>17</v>
       </c>
       <c r="G151" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H151" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -32162,13 +32171,13 @@
         <v>1</v>
       </c>
       <c r="L151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M151">
         <v>0</v>
       </c>
       <c r="N151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O151" t="s">
         <v>200</v>
@@ -32177,13 +32186,13 @@
         <v>91</v>
       </c>
       <c r="Q151">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="R151">
         <v>2.2</v>
       </c>
       <c r="S151">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T151">
         <v>1.42</v>
@@ -32192,25 +32201,25 @@
         <v>3.1</v>
       </c>
       <c r="V151">
-        <v>2.95</v>
+        <v>2.85</v>
       </c>
       <c r="W151">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X151">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y151">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="Z151">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="AA151">
-        <v>3.6</v>
+        <v>3.44</v>
       </c>
       <c r="AB151">
-        <v>3.27</v>
+        <v>3.58</v>
       </c>
       <c r="AC151">
         <v>1.03</v>
@@ -32225,82 +32234,82 @@
         <v>3.61</v>
       </c>
       <c r="AG151">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AH151">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AI151">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AJ151">
         <v>2.1</v>
       </c>
       <c r="AK151">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AL151">
         <v>1.33</v>
       </c>
       <c r="AM151">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="AN151">
-        <v>2.71</v>
+        <v>2</v>
       </c>
       <c r="AO151">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AP151">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ151">
-        <v>1.13</v>
+        <v>0.63</v>
       </c>
       <c r="AR151">
-        <v>1.84</v>
+        <v>1.44</v>
       </c>
       <c r="AS151">
-        <v>1.12</v>
+        <v>1.05</v>
       </c>
       <c r="AT151">
-        <v>2.96</v>
+        <v>2.49</v>
       </c>
       <c r="AU151">
+        <v>8</v>
+      </c>
+      <c r="AV151">
+        <v>2</v>
+      </c>
+      <c r="AW151">
         <v>6</v>
       </c>
-      <c r="AV151">
+      <c r="AX151">
+        <v>6</v>
+      </c>
+      <c r="AY151">
+        <v>21</v>
+      </c>
+      <c r="AZ151">
+        <v>9</v>
+      </c>
+      <c r="BA151">
+        <v>4</v>
+      </c>
+      <c r="BB151">
         <v>3</v>
       </c>
-      <c r="AW151">
-        <v>11</v>
-      </c>
-      <c r="AX151">
-        <v>4</v>
-      </c>
-      <c r="AY151">
-        <v>17</v>
-      </c>
-      <c r="AZ151">
-        <v>12</v>
-      </c>
-      <c r="BA151">
-        <v>3</v>
-      </c>
-      <c r="BB151">
-        <v>5</v>
-      </c>
       <c r="BC151">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD151">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="BE151">
         <v>6.4</v>
       </c>
       <c r="BF151">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="BG151">
         <v>1.4</v>
@@ -32476,7 +32485,7 @@
         <v>6</v>
       </c>
       <c r="AV152">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW152">
         <v>6</v>
@@ -32488,7 +32497,7 @@
         <v>15</v>
       </c>
       <c r="AZ152">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA152">
         <v>8</v>
@@ -32537,6 +32546,418 @@
       </c>
       <c r="BP152">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7516435</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45649.58333333334</v>
+      </c>
+      <c r="F153">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>87</v>
+      </c>
+      <c r="H153" t="s">
+        <v>82</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>3</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>148</v>
+      </c>
+      <c r="P153" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q153">
+        <v>2.2</v>
+      </c>
+      <c r="R153">
+        <v>2.35</v>
+      </c>
+      <c r="S153">
+        <v>5</v>
+      </c>
+      <c r="T153">
+        <v>1.38</v>
+      </c>
+      <c r="U153">
+        <v>3.3</v>
+      </c>
+      <c r="V153">
+        <v>2.65</v>
+      </c>
+      <c r="W153">
+        <v>1.53</v>
+      </c>
+      <c r="X153">
+        <v>7</v>
+      </c>
+      <c r="Y153">
+        <v>1.12</v>
+      </c>
+      <c r="Z153">
+        <v>1.63</v>
+      </c>
+      <c r="AA153">
+        <v>4.14</v>
+      </c>
+      <c r="AB153">
+        <v>4.76</v>
+      </c>
+      <c r="AC153">
+        <v>1.04</v>
+      </c>
+      <c r="AD153">
+        <v>15</v>
+      </c>
+      <c r="AE153">
+        <v>1.22</v>
+      </c>
+      <c r="AF153">
+        <v>4.12</v>
+      </c>
+      <c r="AG153">
+        <v>1.72</v>
+      </c>
+      <c r="AH153">
+        <v>2.07</v>
+      </c>
+      <c r="AI153">
+        <v>1.75</v>
+      </c>
+      <c r="AJ153">
+        <v>2.05</v>
+      </c>
+      <c r="AK153">
+        <v>1.2</v>
+      </c>
+      <c r="AL153">
+        <v>1.25</v>
+      </c>
+      <c r="AM153">
+        <v>2.35</v>
+      </c>
+      <c r="AN153">
+        <v>0.88</v>
+      </c>
+      <c r="AO153">
+        <v>0.29</v>
+      </c>
+      <c r="AP153">
+        <v>0.78</v>
+      </c>
+      <c r="AQ153">
+        <v>0.63</v>
+      </c>
+      <c r="AR153">
+        <v>1.16</v>
+      </c>
+      <c r="AS153">
+        <v>1.2</v>
+      </c>
+      <c r="AT153">
+        <v>2.36</v>
+      </c>
+      <c r="AU153">
+        <v>8</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>5</v>
+      </c>
+      <c r="AX153">
+        <v>4</v>
+      </c>
+      <c r="AY153">
+        <v>17</v>
+      </c>
+      <c r="AZ153">
+        <v>13</v>
+      </c>
+      <c r="BA153">
+        <v>4</v>
+      </c>
+      <c r="BB153">
+        <v>6</v>
+      </c>
+      <c r="BC153">
+        <v>10</v>
+      </c>
+      <c r="BD153">
+        <v>1.47</v>
+      </c>
+      <c r="BE153">
+        <v>6.75</v>
+      </c>
+      <c r="BF153">
+        <v>3.05</v>
+      </c>
+      <c r="BG153">
+        <v>1.34</v>
+      </c>
+      <c r="BH153">
+        <v>2.9</v>
+      </c>
+      <c r="BI153">
+        <v>1.58</v>
+      </c>
+      <c r="BJ153">
+        <v>2.18</v>
+      </c>
+      <c r="BK153">
+        <v>1.96</v>
+      </c>
+      <c r="BL153">
+        <v>1.74</v>
+      </c>
+      <c r="BM153">
+        <v>2.45</v>
+      </c>
+      <c r="BN153">
+        <v>1.48</v>
+      </c>
+      <c r="BO153">
+        <v>3.15</v>
+      </c>
+      <c r="BP153">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7516440</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45649.58333333334</v>
+      </c>
+      <c r="F154">
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
+        <v>83</v>
+      </c>
+      <c r="H154" t="s">
+        <v>71</v>
+      </c>
+      <c r="I154">
+        <v>2</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>3</v>
+      </c>
+      <c r="L154">
+        <v>2</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>4</v>
+      </c>
+      <c r="O154" t="s">
+        <v>202</v>
+      </c>
+      <c r="P154" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q154">
+        <v>2.75</v>
+      </c>
+      <c r="R154">
+        <v>2.2</v>
+      </c>
+      <c r="S154">
+        <v>3.75</v>
+      </c>
+      <c r="T154">
+        <v>1.42</v>
+      </c>
+      <c r="U154">
+        <v>3.1</v>
+      </c>
+      <c r="V154">
+        <v>2.85</v>
+      </c>
+      <c r="W154">
+        <v>1.47</v>
+      </c>
+      <c r="X154">
+        <v>7.5</v>
+      </c>
+      <c r="Y154">
+        <v>1.12</v>
+      </c>
+      <c r="Z154">
+        <v>2.07</v>
+      </c>
+      <c r="AA154">
+        <v>3.57</v>
+      </c>
+      <c r="AB154">
+        <v>3.33</v>
+      </c>
+      <c r="AC154">
+        <v>1.03</v>
+      </c>
+      <c r="AD154">
+        <v>10.65</v>
+      </c>
+      <c r="AE154">
+        <v>1.27</v>
+      </c>
+      <c r="AF154">
+        <v>3.61</v>
+      </c>
+      <c r="AG154">
+        <v>1.83</v>
+      </c>
+      <c r="AH154">
+        <v>1.93</v>
+      </c>
+      <c r="AI154">
+        <v>1.7</v>
+      </c>
+      <c r="AJ154">
+        <v>2.1</v>
+      </c>
+      <c r="AK154">
+        <v>1.35</v>
+      </c>
+      <c r="AL154">
+        <v>1.33</v>
+      </c>
+      <c r="AM154">
+        <v>1.8</v>
+      </c>
+      <c r="AN154">
+        <v>2.14</v>
+      </c>
+      <c r="AO154">
+        <v>1.86</v>
+      </c>
+      <c r="AP154">
+        <v>2</v>
+      </c>
+      <c r="AQ154">
+        <v>1.75</v>
+      </c>
+      <c r="AR154">
+        <v>1.53</v>
+      </c>
+      <c r="AS154">
+        <v>1.3</v>
+      </c>
+      <c r="AT154">
+        <v>2.83</v>
+      </c>
+      <c r="AU154">
+        <v>10</v>
+      </c>
+      <c r="AV154">
+        <v>5</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>5</v>
+      </c>
+      <c r="AY154">
+        <v>21</v>
+      </c>
+      <c r="AZ154">
+        <v>14</v>
+      </c>
+      <c r="BA154">
+        <v>4</v>
+      </c>
+      <c r="BB154">
+        <v>4</v>
+      </c>
+      <c r="BC154">
+        <v>8</v>
+      </c>
+      <c r="BD154">
+        <v>1.91</v>
+      </c>
+      <c r="BE154">
+        <v>8</v>
+      </c>
+      <c r="BF154">
+        <v>2.2</v>
+      </c>
+      <c r="BG154">
+        <v>1.36</v>
+      </c>
+      <c r="BH154">
+        <v>2.98</v>
+      </c>
+      <c r="BI154">
+        <v>1.62</v>
+      </c>
+      <c r="BJ154">
+        <v>2.22</v>
+      </c>
+      <c r="BK154">
+        <v>1.95</v>
+      </c>
+      <c r="BL154">
+        <v>1.77</v>
+      </c>
+      <c r="BM154">
+        <v>2.6</v>
+      </c>
+      <c r="BN154">
+        <v>1.46</v>
+      </c>
+      <c r="BO154">
+        <v>3.58</v>
+      </c>
+      <c r="BP154">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -613,10 +613,10 @@
     <t>['26']</t>
   </si>
   <si>
-    <t>['25', '71', '78']</t>
+    <t>['42', '66']</t>
   </si>
   <si>
-    <t>['42', '66']</t>
+    <t>['25', '71', '78']</t>
   </si>
   <si>
     <t>['86']</t>
@@ -31729,7 +31729,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7516437</v>
+        <v>7516441</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31738,196 +31738,196 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45647.875</v>
+        <v>45648.3125</v>
       </c>
       <c r="F149">
         <v>17</v>
       </c>
       <c r="G149" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H149" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I149">
         <v>1</v>
       </c>
       <c r="J149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>199</v>
+      </c>
+      <c r="P149" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q149">
+        <v>2.7</v>
+      </c>
+      <c r="R149">
+        <v>2.2</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>1.42</v>
+      </c>
+      <c r="U149">
+        <v>3.1</v>
+      </c>
+      <c r="V149">
+        <v>2.85</v>
+      </c>
+      <c r="W149">
+        <v>1.47</v>
+      </c>
+      <c r="X149">
+        <v>7.5</v>
+      </c>
+      <c r="Y149">
+        <v>1.12</v>
+      </c>
+      <c r="Z149">
+        <v>2.03</v>
+      </c>
+      <c r="AA149">
+        <v>3.44</v>
+      </c>
+      <c r="AB149">
+        <v>3.58</v>
+      </c>
+      <c r="AC149">
+        <v>1.03</v>
+      </c>
+      <c r="AD149">
+        <v>10.65</v>
+      </c>
+      <c r="AE149">
+        <v>1.27</v>
+      </c>
+      <c r="AF149">
+        <v>3.61</v>
+      </c>
+      <c r="AG149">
+        <v>1.83</v>
+      </c>
+      <c r="AH149">
+        <v>1.93</v>
+      </c>
+      <c r="AI149">
+        <v>1.7</v>
+      </c>
+      <c r="AJ149">
+        <v>2.1</v>
+      </c>
+      <c r="AK149">
+        <v>1.33</v>
+      </c>
+      <c r="AL149">
+        <v>1.33</v>
+      </c>
+      <c r="AM149">
+        <v>1.83</v>
+      </c>
+      <c r="AN149">
+        <v>2</v>
+      </c>
+      <c r="AO149">
+        <v>0.71</v>
+      </c>
+      <c r="AP149">
+        <v>2.13</v>
+      </c>
+      <c r="AQ149">
+        <v>0.63</v>
+      </c>
+      <c r="AR149">
+        <v>1.44</v>
+      </c>
+      <c r="AS149">
+        <v>1.05</v>
+      </c>
+      <c r="AT149">
+        <v>2.49</v>
+      </c>
+      <c r="AU149">
+        <v>8</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+      <c r="AW149">
+        <v>6</v>
+      </c>
+      <c r="AX149">
+        <v>6</v>
+      </c>
+      <c r="AY149">
+        <v>21</v>
+      </c>
+      <c r="AZ149">
+        <v>9</v>
+      </c>
+      <c r="BA149">
+        <v>4</v>
+      </c>
+      <c r="BB149">
         <v>3</v>
       </c>
-      <c r="L149">
-        <v>1</v>
-      </c>
-      <c r="M149">
-        <v>5</v>
-      </c>
-      <c r="N149">
-        <v>6</v>
-      </c>
-      <c r="O149" t="s">
-        <v>96</v>
-      </c>
-      <c r="P149" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q149">
-        <v>6.77</v>
-      </c>
-      <c r="R149">
-        <v>3.03</v>
-      </c>
-      <c r="S149">
-        <v>1.71</v>
-      </c>
-      <c r="T149">
-        <v>1.17</v>
-      </c>
-      <c r="U149">
-        <v>4.45</v>
-      </c>
-      <c r="V149">
-        <v>1.99</v>
-      </c>
-      <c r="W149">
-        <v>1.84</v>
-      </c>
-      <c r="X149">
-        <v>4.05</v>
-      </c>
-      <c r="Y149">
-        <v>1.2</v>
-      </c>
-      <c r="Z149">
-        <v>7.03</v>
-      </c>
-      <c r="AA149">
-        <v>5.67</v>
-      </c>
-      <c r="AB149">
-        <v>1.34</v>
-      </c>
-      <c r="AC149">
-        <v>1.01</v>
-      </c>
-      <c r="AD149">
-        <v>29</v>
-      </c>
-      <c r="AE149">
-        <v>1.08</v>
-      </c>
-      <c r="AF149">
-        <v>7.32</v>
-      </c>
-      <c r="AG149">
-        <v>1.32</v>
-      </c>
-      <c r="AH149">
-        <v>3.25</v>
-      </c>
-      <c r="AI149">
-        <v>1.55</v>
-      </c>
-      <c r="AJ149">
-        <v>2.29</v>
-      </c>
-      <c r="AK149">
-        <v>3.1</v>
-      </c>
-      <c r="AL149">
-        <v>1.11</v>
-      </c>
-      <c r="AM149">
-        <v>1.08</v>
-      </c>
-      <c r="AN149">
-        <v>0.86</v>
-      </c>
-      <c r="AO149">
-        <v>3</v>
-      </c>
-      <c r="AP149">
-        <v>0.75</v>
-      </c>
-      <c r="AQ149">
-        <v>3</v>
-      </c>
-      <c r="AR149">
-        <v>1.61</v>
-      </c>
-      <c r="AS149">
-        <v>1.9</v>
-      </c>
-      <c r="AT149">
-        <v>3.51</v>
-      </c>
-      <c r="AU149">
+      <c r="BC149">
         <v>7</v>
       </c>
-      <c r="AV149">
-        <v>12</v>
-      </c>
-      <c r="AW149">
-        <v>5</v>
-      </c>
-      <c r="AX149">
-        <v>5</v>
-      </c>
-      <c r="AY149">
-        <v>16</v>
-      </c>
-      <c r="AZ149">
-        <v>21</v>
-      </c>
-      <c r="BA149">
-        <v>7</v>
-      </c>
-      <c r="BB149">
-        <v>7</v>
-      </c>
-      <c r="BC149">
-        <v>14</v>
-      </c>
       <c r="BD149">
-        <v>4.6</v>
+        <v>1.72</v>
       </c>
       <c r="BE149">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF149">
-        <v>1.23</v>
+        <v>2.38</v>
       </c>
       <c r="BG149">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="BH149">
-        <v>3.95</v>
+        <v>2.65</v>
       </c>
       <c r="BI149">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="BJ149">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="BK149">
-        <v>1.58</v>
+        <v>2.08</v>
       </c>
       <c r="BL149">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="BM149">
-        <v>1.9</v>
+        <v>2.65</v>
       </c>
       <c r="BN149">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="BO149">
-        <v>2.35</v>
+        <v>3.55</v>
       </c>
       <c r="BP149">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31935,7 +31935,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7516442</v>
+        <v>7516437</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31944,196 +31944,196 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45647.875</v>
+        <v>45648.41666666666</v>
       </c>
       <c r="F150">
         <v>17</v>
       </c>
       <c r="G150" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H150" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>5</v>
+      </c>
+      <c r="N150">
+        <v>6</v>
+      </c>
+      <c r="O150" t="s">
+        <v>96</v>
+      </c>
+      <c r="P150" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q150">
+        <v>6.77</v>
+      </c>
+      <c r="R150">
+        <v>3.03</v>
+      </c>
+      <c r="S150">
+        <v>1.71</v>
+      </c>
+      <c r="T150">
+        <v>1.17</v>
+      </c>
+      <c r="U150">
+        <v>4.45</v>
+      </c>
+      <c r="V150">
+        <v>1.99</v>
+      </c>
+      <c r="W150">
+        <v>1.84</v>
+      </c>
+      <c r="X150">
+        <v>4.05</v>
+      </c>
+      <c r="Y150">
+        <v>1.2</v>
+      </c>
+      <c r="Z150">
+        <v>7.03</v>
+      </c>
+      <c r="AA150">
+        <v>5.67</v>
+      </c>
+      <c r="AB150">
+        <v>1.34</v>
+      </c>
+      <c r="AC150">
+        <v>1.01</v>
+      </c>
+      <c r="AD150">
+        <v>29</v>
+      </c>
+      <c r="AE150">
+        <v>1.08</v>
+      </c>
+      <c r="AF150">
+        <v>7.32</v>
+      </c>
+      <c r="AG150">
+        <v>1.32</v>
+      </c>
+      <c r="AH150">
+        <v>3.25</v>
+      </c>
+      <c r="AI150">
+        <v>1.55</v>
+      </c>
+      <c r="AJ150">
+        <v>2.29</v>
+      </c>
+      <c r="AK150">
+        <v>3.1</v>
+      </c>
+      <c r="AL150">
+        <v>1.11</v>
+      </c>
+      <c r="AM150">
+        <v>1.08</v>
+      </c>
+      <c r="AN150">
+        <v>0.86</v>
+      </c>
+      <c r="AO150">
         <v>3</v>
       </c>
-      <c r="M150">
-        <v>0</v>
-      </c>
-      <c r="N150">
+      <c r="AP150">
+        <v>0.75</v>
+      </c>
+      <c r="AQ150">
         <v>3</v>
       </c>
-      <c r="O150" t="s">
-        <v>199</v>
-      </c>
-      <c r="P150" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q150">
-        <v>2.8</v>
-      </c>
-      <c r="R150">
+      <c r="AR150">
+        <v>1.61</v>
+      </c>
+      <c r="AS150">
+        <v>1.9</v>
+      </c>
+      <c r="AT150">
+        <v>3.51</v>
+      </c>
+      <c r="AU150">
+        <v>7</v>
+      </c>
+      <c r="AV150">
+        <v>12</v>
+      </c>
+      <c r="AW150">
+        <v>5</v>
+      </c>
+      <c r="AX150">
+        <v>5</v>
+      </c>
+      <c r="AY150">
+        <v>16</v>
+      </c>
+      <c r="AZ150">
+        <v>21</v>
+      </c>
+      <c r="BA150">
+        <v>7</v>
+      </c>
+      <c r="BB150">
+        <v>7</v>
+      </c>
+      <c r="BC150">
+        <v>14</v>
+      </c>
+      <c r="BD150">
+        <v>4.6</v>
+      </c>
+      <c r="BE150">
+        <v>8</v>
+      </c>
+      <c r="BF150">
+        <v>1.23</v>
+      </c>
+      <c r="BG150">
+        <v>1.2</v>
+      </c>
+      <c r="BH150">
+        <v>3.95</v>
+      </c>
+      <c r="BI150">
+        <v>1.35</v>
+      </c>
+      <c r="BJ150">
+        <v>2.9</v>
+      </c>
+      <c r="BK150">
+        <v>1.58</v>
+      </c>
+      <c r="BL150">
         <v>2.2</v>
       </c>
-      <c r="S150">
-        <v>3.75</v>
-      </c>
-      <c r="T150">
-        <v>1.42</v>
-      </c>
-      <c r="U150">
-        <v>3.1</v>
-      </c>
-      <c r="V150">
-        <v>2.95</v>
-      </c>
-      <c r="W150">
-        <v>1.45</v>
-      </c>
-      <c r="X150">
-        <v>8</v>
-      </c>
-      <c r="Y150">
-        <v>1.11</v>
-      </c>
-      <c r="Z150">
-        <v>2.08</v>
-      </c>
-      <c r="AA150">
-        <v>3.6</v>
-      </c>
-      <c r="AB150">
-        <v>3.27</v>
-      </c>
-      <c r="AC150">
-        <v>1.03</v>
-      </c>
-      <c r="AD150">
-        <v>10.65</v>
-      </c>
-      <c r="AE150">
-        <v>1.27</v>
-      </c>
-      <c r="AF150">
-        <v>3.61</v>
-      </c>
-      <c r="AG150">
-        <v>1.88</v>
-      </c>
-      <c r="AH150">
-        <v>1.88</v>
-      </c>
-      <c r="AI150">
-        <v>1.72</v>
-      </c>
-      <c r="AJ150">
-        <v>2.1</v>
-      </c>
-      <c r="AK150">
-        <v>1.36</v>
-      </c>
-      <c r="AL150">
-        <v>1.33</v>
-      </c>
-      <c r="AM150">
+      <c r="BM150">
+        <v>1.9</v>
+      </c>
+      <c r="BN150">
         <v>1.78</v>
       </c>
-      <c r="AN150">
-        <v>2.71</v>
-      </c>
-      <c r="AO150">
-        <v>1.29</v>
-      </c>
-      <c r="AP150">
-        <v>2.75</v>
-      </c>
-      <c r="AQ150">
-        <v>1.13</v>
-      </c>
-      <c r="AR150">
-        <v>1.84</v>
-      </c>
-      <c r="AS150">
-        <v>1.12</v>
-      </c>
-      <c r="AT150">
-        <v>2.96</v>
-      </c>
-      <c r="AU150">
-        <v>6</v>
-      </c>
-      <c r="AV150">
-        <v>3</v>
-      </c>
-      <c r="AW150">
-        <v>11</v>
-      </c>
-      <c r="AX150">
-        <v>4</v>
-      </c>
-      <c r="AY150">
-        <v>17</v>
-      </c>
-      <c r="AZ150">
-        <v>12</v>
-      </c>
-      <c r="BA150">
-        <v>3</v>
-      </c>
-      <c r="BB150">
-        <v>5</v>
-      </c>
-      <c r="BC150">
-        <v>8</v>
-      </c>
-      <c r="BD150">
-        <v>1.74</v>
-      </c>
-      <c r="BE150">
-        <v>6.4</v>
-      </c>
-      <c r="BF150">
-        <v>2.33</v>
-      </c>
-      <c r="BG150">
-        <v>1.4</v>
-      </c>
-      <c r="BH150">
-        <v>2.65</v>
-      </c>
-      <c r="BI150">
-        <v>1.67</v>
-      </c>
-      <c r="BJ150">
-        <v>2.04</v>
-      </c>
-      <c r="BK150">
-        <v>2.08</v>
-      </c>
-      <c r="BL150">
-        <v>1.65</v>
-      </c>
-      <c r="BM150">
-        <v>2.65</v>
-      </c>
-      <c r="BN150">
-        <v>1.41</v>
-      </c>
       <c r="BO150">
-        <v>3.55</v>
+        <v>2.35</v>
       </c>
       <c r="BP150">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -32141,7 +32141,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7516441</v>
+        <v>7516442</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32150,16 +32150,16 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45647.875</v>
+        <v>45648.41666666666</v>
       </c>
       <c r="F151">
         <v>17</v>
       </c>
       <c r="G151" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H151" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I151">
         <v>1</v>
@@ -32171,13 +32171,13 @@
         <v>1</v>
       </c>
       <c r="L151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M151">
         <v>0</v>
       </c>
       <c r="N151">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O151" t="s">
         <v>200</v>
@@ -32186,13 +32186,13 @@
         <v>91</v>
       </c>
       <c r="Q151">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="R151">
         <v>2.2</v>
       </c>
       <c r="S151">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T151">
         <v>1.42</v>
@@ -32201,25 +32201,25 @@
         <v>3.1</v>
       </c>
       <c r="V151">
-        <v>2.85</v>
+        <v>2.95</v>
       </c>
       <c r="W151">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X151">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y151">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="Z151">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="AA151">
-        <v>3.44</v>
+        <v>3.6</v>
       </c>
       <c r="AB151">
-        <v>3.58</v>
+        <v>3.27</v>
       </c>
       <c r="AC151">
         <v>1.03</v>
@@ -32234,82 +32234,82 @@
         <v>3.61</v>
       </c>
       <c r="AG151">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AH151">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AI151">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AJ151">
         <v>2.1</v>
       </c>
       <c r="AK151">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AL151">
         <v>1.33</v>
       </c>
       <c r="AM151">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AN151">
-        <v>2</v>
+        <v>2.71</v>
       </c>
       <c r="AO151">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AP151">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AQ151">
-        <v>0.63</v>
+        <v>1.13</v>
       </c>
       <c r="AR151">
-        <v>1.44</v>
+        <v>1.84</v>
       </c>
       <c r="AS151">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="AT151">
-        <v>2.49</v>
+        <v>2.96</v>
       </c>
       <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>11</v>
+      </c>
+      <c r="AX151">
+        <v>4</v>
+      </c>
+      <c r="AY151">
+        <v>17</v>
+      </c>
+      <c r="AZ151">
+        <v>12</v>
+      </c>
+      <c r="BA151">
+        <v>3</v>
+      </c>
+      <c r="BB151">
+        <v>5</v>
+      </c>
+      <c r="BC151">
         <v>8</v>
       </c>
-      <c r="AV151">
-        <v>2</v>
-      </c>
-      <c r="AW151">
-        <v>6</v>
-      </c>
-      <c r="AX151">
-        <v>6</v>
-      </c>
-      <c r="AY151">
-        <v>21</v>
-      </c>
-      <c r="AZ151">
-        <v>9</v>
-      </c>
-      <c r="BA151">
-        <v>4</v>
-      </c>
-      <c r="BB151">
-        <v>3</v>
-      </c>
-      <c r="BC151">
-        <v>7</v>
-      </c>
       <c r="BD151">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="BE151">
         <v>6.4</v>
       </c>
       <c r="BF151">
-        <v>2.38</v>
+        <v>2.33</v>
       </c>
       <c r="BG151">
         <v>1.4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -421,10 +421,10 @@
     <t>['7']</t>
   </si>
   <si>
-    <t>['90+5']</t>
+    <t>['28']</t>
   </si>
   <si>
-    <t>['28']</t>
+    <t>['90+5']</t>
   </si>
   <si>
     <t>['24', '57']</t>
@@ -517,10 +517,10 @@
     <t>['27']</t>
   </si>
   <si>
-    <t>['28', '45+3', '75']</t>
+    <t>['43', '56']</t>
   </si>
   <si>
-    <t>['43', '56']</t>
+    <t>['28', '45+3', '75']</t>
   </si>
   <si>
     <t>['35']</t>
@@ -550,10 +550,10 @@
     <t>['45+5', '47']</t>
   </si>
   <si>
-    <t>['3', '78', '89']</t>
+    <t>['29']</t>
   </si>
   <si>
-    <t>['29']</t>
+    <t>['3', '78', '89']</t>
   </si>
   <si>
     <t>['79', '81']</t>
@@ -571,10 +571,10 @@
     <t>['54', '64', '69']</t>
   </si>
   <si>
-    <t>['25', '90+1']</t>
+    <t>['51', '66']</t>
   </si>
   <si>
-    <t>['51', '66']</t>
+    <t>['25', '90+1']</t>
   </si>
   <si>
     <t>['56', '83', '90+4']</t>
@@ -673,10 +673,10 @@
     <t>['65', '90+3']</t>
   </si>
   <si>
-    <t>['15', '53', '60', '64', '66']</t>
+    <t>['26', '32']</t>
   </si>
   <si>
-    <t>['26', '32']</t>
+    <t>['15', '53', '60', '64', '66']</t>
   </si>
   <si>
     <t>['6']</t>
@@ -697,10 +697,10 @@
     <t>['90']</t>
   </si>
   <si>
-    <t>['21', '36']</t>
+    <t>['22', '39']</t>
   </si>
   <si>
-    <t>['22', '39']</t>
+    <t>['21', '36']</t>
   </si>
   <si>
     <t>['84']</t>
@@ -865,10 +865,10 @@
     <t>['4', '29', '51', '71', '87']</t>
   </si>
   <si>
-    <t>['61', '70', '75']</t>
+    <t>['3', '68']</t>
   </si>
   <si>
-    <t>['3', '68']</t>
+    <t>['61', '70', '75']</t>
   </si>
 </sst>
 </file>
@@ -5979,7 +5979,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7516315</v>
+        <v>7516308</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5994,178 +5994,178 @@
         <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24">
         <v>5</v>
       </c>
       <c r="O24" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="P24" t="s">
         <v>219</v>
       </c>
       <c r="Q24">
-        <v>5.44</v>
+        <v>2.82</v>
       </c>
       <c r="R24">
-        <v>2.45</v>
+        <v>2.24</v>
       </c>
       <c r="S24">
-        <v>2.15</v>
+        <v>3.93</v>
       </c>
       <c r="T24">
-        <v>1.32</v>
+        <v>1.39</v>
       </c>
       <c r="U24">
-        <v>3.29</v>
+        <v>3.02</v>
       </c>
       <c r="V24">
-        <v>2.6</v>
+        <v>2.93</v>
       </c>
       <c r="W24">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="X24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y24">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="Z24">
-        <v>4.6</v>
+        <v>2.25</v>
       </c>
       <c r="AA24">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB24">
-        <v>1.63</v>
+        <v>2.95</v>
       </c>
       <c r="AC24">
         <v>1.04</v>
       </c>
       <c r="AD24">
-        <v>15</v>
+        <v>10.06</v>
       </c>
       <c r="AE24">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AF24">
-        <v>4.22</v>
+        <v>3.44</v>
       </c>
       <c r="AG24">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AH24">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AI24">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AJ24">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK24">
-        <v>2.2</v>
+        <v>1.38</v>
       </c>
       <c r="AL24">
-        <v>1.18</v>
+        <v>1.32</v>
       </c>
       <c r="AM24">
-        <v>1.18</v>
+        <v>1.62</v>
       </c>
       <c r="AN24">
         <v>1</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>0.29</v>
       </c>
       <c r="AR24">
-        <v>1.86</v>
+        <v>1.29</v>
       </c>
       <c r="AS24">
-        <v>1.43</v>
+        <v>1.13</v>
       </c>
       <c r="AT24">
-        <v>3.29</v>
+        <v>2.42</v>
       </c>
       <c r="AU24">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AW24">
         <v>4</v>
       </c>
       <c r="AX24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AY24">
+        <v>12</v>
+      </c>
+      <c r="AZ24">
+        <v>11</v>
+      </c>
+      <c r="BA24">
         <v>10</v>
       </c>
-      <c r="AZ24">
-        <v>20</v>
-      </c>
-      <c r="BA24">
-        <v>1</v>
-      </c>
       <c r="BB24">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BC24">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD24">
-        <v>2.88</v>
+        <v>1.62</v>
       </c>
       <c r="BE24">
         <v>8</v>
       </c>
       <c r="BF24">
-        <v>1.53</v>
+        <v>2.75</v>
       </c>
       <c r="BG24">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BH24">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="BI24">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="BJ24">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BK24">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="BL24">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="BM24">
         <v>2.5</v>
@@ -6174,10 +6174,10 @@
         <v>1.47</v>
       </c>
       <c r="BO24">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP24">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -6185,7 +6185,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>7516308</v>
+        <v>7516315</v>
       </c>
       <c r="C25" t="s">
         <v>68</v>
@@ -6200,178 +6200,178 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N25">
         <v>5</v>
       </c>
       <c r="O25" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="P25" t="s">
         <v>220</v>
       </c>
       <c r="Q25">
-        <v>2.82</v>
+        <v>5.44</v>
       </c>
       <c r="R25">
-        <v>2.24</v>
+        <v>2.45</v>
       </c>
       <c r="S25">
-        <v>3.93</v>
+        <v>2.15</v>
       </c>
       <c r="T25">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="U25">
-        <v>3.02</v>
+        <v>3.29</v>
       </c>
       <c r="V25">
-        <v>2.93</v>
+        <v>2.6</v>
       </c>
       <c r="W25">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="X25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y25">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="Z25">
-        <v>2.25</v>
+        <v>4.6</v>
       </c>
       <c r="AA25">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="AB25">
-        <v>2.95</v>
+        <v>1.63</v>
       </c>
       <c r="AC25">
         <v>1.04</v>
       </c>
       <c r="AD25">
-        <v>10.06</v>
+        <v>15</v>
       </c>
       <c r="AE25">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AF25">
-        <v>3.44</v>
+        <v>4.22</v>
       </c>
       <c r="AG25">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="AH25">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AI25">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AJ25">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK25">
+        <v>2.2</v>
+      </c>
+      <c r="AL25">
+        <v>1.18</v>
+      </c>
+      <c r="AM25">
+        <v>1.18</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
         <v>1.38</v>
       </c>
-      <c r="AL25">
-        <v>1.32</v>
-      </c>
-      <c r="AM25">
-        <v>1.62</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>2</v>
-      </c>
       <c r="AQ25">
-        <v>0.29</v>
+        <v>2</v>
       </c>
       <c r="AR25">
-        <v>1.29</v>
+        <v>1.86</v>
       </c>
       <c r="AS25">
-        <v>1.13</v>
+        <v>1.43</v>
       </c>
       <c r="AT25">
-        <v>2.42</v>
+        <v>3.29</v>
       </c>
       <c r="AU25">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV25">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW25">
         <v>4</v>
       </c>
       <c r="AX25">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AY25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ25">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="BA25">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BB25">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BC25">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD25">
-        <v>1.62</v>
+        <v>2.88</v>
       </c>
       <c r="BE25">
         <v>8</v>
       </c>
       <c r="BF25">
-        <v>2.75</v>
+        <v>1.53</v>
       </c>
       <c r="BG25">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="BH25">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="BI25">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BJ25">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BK25">
-        <v>1.77</v>
+        <v>1.97</v>
       </c>
       <c r="BL25">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="BM25">
         <v>2.5</v>
@@ -6380,10 +6380,10 @@
         <v>1.47</v>
       </c>
       <c r="BO25">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BP25">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -7421,7 +7421,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7516320</v>
+        <v>7516318</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7436,70 +7436,70 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H31" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O31" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>91</v>
+        <v>223</v>
       </c>
       <c r="Q31">
+        <v>2.4</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>4.75</v>
+      </c>
+      <c r="T31">
+        <v>1.44</v>
+      </c>
+      <c r="U31">
         <v>3</v>
       </c>
-      <c r="R31">
-        <v>2.1</v>
-      </c>
-      <c r="S31">
-        <v>3.25</v>
-      </c>
-      <c r="T31">
-        <v>1.36</v>
-      </c>
-      <c r="U31">
-        <v>2.85</v>
-      </c>
       <c r="V31">
-        <v>2.65</v>
+        <v>2.95</v>
       </c>
       <c r="W31">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X31">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="Y31">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z31">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="AA31">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AB31">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="AC31">
         <v>1.03</v>
@@ -7508,10 +7508,10 @@
         <v>10.65</v>
       </c>
       <c r="AE31">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AF31">
-        <v>3.61</v>
+        <v>3.44</v>
       </c>
       <c r="AG31">
         <v>1.85</v>
@@ -7520,106 +7520,106 @@
         <v>1.85</v>
       </c>
       <c r="AI31">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="AJ31">
+        <v>1.95</v>
+      </c>
+      <c r="AK31">
+        <v>1.25</v>
+      </c>
+      <c r="AL31">
+        <v>1.3</v>
+      </c>
+      <c r="AM31">
         <v>2.1</v>
-      </c>
-      <c r="AK31">
-        <v>1.42</v>
-      </c>
-      <c r="AL31">
-        <v>1.33</v>
-      </c>
-      <c r="AM31">
-        <v>1.45</v>
       </c>
       <c r="AN31">
         <v>3</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR31">
-        <v>1.56</v>
+        <v>1.45</v>
       </c>
       <c r="AS31">
-        <v>1.46</v>
+        <v>0.88</v>
       </c>
       <c r="AT31">
-        <v>3.02</v>
+        <v>2.33</v>
       </c>
       <c r="AU31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW31">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX31">
         <v>3</v>
       </c>
       <c r="AY31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ31">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA31">
         <v>3</v>
       </c>
       <c r="BB31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC31">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD31">
-        <v>1.73</v>
+        <v>1.43</v>
       </c>
       <c r="BE31">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF31">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="BG31">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BH31">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BI31">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="BJ31">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="BK31">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BL31">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="BM31">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="BN31">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="BO31">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="BP31">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7627,7 +7627,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7516318</v>
+        <v>7516320</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7642,70 +7642,70 @@
         <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>91</v>
+      </c>
+      <c r="P32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q32">
         <v>3</v>
       </c>
-      <c r="L32">
-        <v>5</v>
-      </c>
-      <c r="M32">
-        <v>2</v>
-      </c>
-      <c r="N32">
-        <v>7</v>
-      </c>
-      <c r="O32" t="s">
-        <v>110</v>
-      </c>
-      <c r="P32" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q32">
-        <v>2.4</v>
-      </c>
       <c r="R32">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S32">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="T32">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="U32">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="V32">
-        <v>2.95</v>
+        <v>2.65</v>
       </c>
       <c r="W32">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="X32">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="Y32">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z32">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="AA32">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AB32">
-        <v>5</v>
+        <v>2.8</v>
       </c>
       <c r="AC32">
         <v>1.03</v>
@@ -7714,10 +7714,10 @@
         <v>10.65</v>
       </c>
       <c r="AE32">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AF32">
-        <v>3.44</v>
+        <v>3.61</v>
       </c>
       <c r="AG32">
         <v>1.85</v>
@@ -7726,106 +7726,106 @@
         <v>1.85</v>
       </c>
       <c r="AI32">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AJ32">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AK32">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AL32">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM32">
-        <v>2.1</v>
+        <v>1.45</v>
       </c>
       <c r="AN32">
         <v>3</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ32">
-        <v>0.63</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="AS32">
-        <v>0.88</v>
+        <v>1.46</v>
       </c>
       <c r="AT32">
-        <v>2.33</v>
+        <v>3.02</v>
       </c>
       <c r="AU32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV32">
+        <v>5</v>
+      </c>
+      <c r="AW32">
         <v>4</v>
-      </c>
-      <c r="AW32">
-        <v>2</v>
       </c>
       <c r="AX32">
         <v>3</v>
       </c>
       <c r="AY32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ32">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA32">
         <v>3</v>
       </c>
       <c r="BB32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC32">
+        <v>7</v>
+      </c>
+      <c r="BD32">
+        <v>1.73</v>
+      </c>
+      <c r="BE32">
         <v>8</v>
       </c>
-      <c r="BD32">
-        <v>1.43</v>
-      </c>
-      <c r="BE32">
-        <v>6.4</v>
-      </c>
       <c r="BF32">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="BG32">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="BH32">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BI32">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="BJ32">
-        <v>2.23</v>
+        <v>2.2</v>
       </c>
       <c r="BK32">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BL32">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="BM32">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="BN32">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BO32">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BP32">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7833,7 +7833,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7516323</v>
+        <v>7516324</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7848,88 +7848,88 @@
         <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O33" t="s">
+        <v>111</v>
+      </c>
+      <c r="P33" t="s">
         <v>91</v>
       </c>
-      <c r="P33" t="s">
-        <v>224</v>
-      </c>
       <c r="Q33">
-        <v>3.3</v>
+        <v>1.91</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="S33">
+        <v>5.75</v>
+      </c>
+      <c r="T33">
+        <v>1.3</v>
+      </c>
+      <c r="U33">
         <v>3.2</v>
       </c>
-      <c r="T33">
-        <v>1.45</v>
-      </c>
-      <c r="U33">
-        <v>2.55</v>
-      </c>
       <c r="V33">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="W33">
-        <v>1.33</v>
+        <v>1.48</v>
       </c>
       <c r="X33">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y33">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="Z33">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="AA33">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="AB33">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="AC33">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD33">
-        <v>8.699999999999999</v>
+        <v>15</v>
       </c>
       <c r="AE33">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="AF33">
-        <v>3.12</v>
+        <v>4.22</v>
       </c>
       <c r="AG33">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AH33">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AI33">
         <v>1.8</v>
@@ -7938,100 +7938,100 @@
         <v>1.9</v>
       </c>
       <c r="AK33">
-        <v>1.48</v>
+        <v>1.11</v>
       </c>
       <c r="AL33">
-        <v>1.28</v>
+        <v>1.15</v>
       </c>
       <c r="AM33">
-        <v>1.44</v>
+        <v>2.65</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO33">
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>0.78</v>
+        <v>2</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>0.88</v>
       </c>
       <c r="AR33">
-        <v>0.72</v>
+        <v>1.63</v>
       </c>
       <c r="AS33">
-        <v>1.45</v>
+        <v>1.02</v>
       </c>
       <c r="AT33">
-        <v>2.17</v>
+        <v>2.65</v>
       </c>
       <c r="AU33">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV33">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX33">
+        <v>3</v>
+      </c>
+      <c r="AY33">
+        <v>13</v>
+      </c>
+      <c r="AZ33">
+        <v>8</v>
+      </c>
+      <c r="BA33">
         <v>5</v>
       </c>
-      <c r="AY33">
-        <v>6</v>
-      </c>
-      <c r="AZ33">
-        <v>15</v>
-      </c>
-      <c r="BA33">
-        <v>2</v>
-      </c>
       <c r="BB33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC33">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD33">
+        <v>1.25</v>
+      </c>
+      <c r="BE33">
+        <v>10</v>
+      </c>
+      <c r="BF33">
+        <v>4.5</v>
+      </c>
+      <c r="BG33">
+        <v>1.33</v>
+      </c>
+      <c r="BH33">
+        <v>2.95</v>
+      </c>
+      <c r="BI33">
+        <v>1.56</v>
+      </c>
+      <c r="BJ33">
+        <v>2.23</v>
+      </c>
+      <c r="BK33">
+        <v>2</v>
+      </c>
+      <c r="BL33">
+        <v>1.8</v>
+      </c>
+      <c r="BM33">
         <v>2.4</v>
       </c>
-      <c r="BE33">
-        <v>7.5</v>
-      </c>
-      <c r="BF33">
-        <v>1.8</v>
-      </c>
-      <c r="BG33">
-        <v>1.38</v>
-      </c>
-      <c r="BH33">
-        <v>2.75</v>
-      </c>
-      <c r="BI33">
-        <v>1.7</v>
-      </c>
-      <c r="BJ33">
-        <v>2.05</v>
-      </c>
-      <c r="BK33">
-        <v>2.02</v>
-      </c>
-      <c r="BL33">
-        <v>1.7</v>
-      </c>
-      <c r="BM33">
-        <v>2.55</v>
-      </c>
       <c r="BN33">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="BO33">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BP33">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="34" spans="1:68">
@@ -8039,7 +8039,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>7516324</v>
+        <v>7516323</v>
       </c>
       <c r="C34" t="s">
         <v>68</v>
@@ -8054,88 +8054,88 @@
         <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O34" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="Q34">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="R34">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="T34">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="U34">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="V34">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="W34">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="X34">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y34">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z34">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="AA34">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB34">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="AC34">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD34">
-        <v>15</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AE34">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="AF34">
-        <v>4.22</v>
+        <v>3.12</v>
       </c>
       <c r="AG34">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AH34">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AI34">
         <v>1.8</v>
@@ -8144,100 +8144,100 @@
         <v>1.9</v>
       </c>
       <c r="AK34">
-        <v>1.11</v>
+        <v>1.48</v>
       </c>
       <c r="AL34">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="AM34">
-        <v>2.65</v>
+        <v>1.44</v>
       </c>
       <c r="AN34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO34">
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>0.78</v>
       </c>
       <c r="AQ34">
-        <v>0.88</v>
+        <v>2</v>
       </c>
       <c r="AR34">
-        <v>1.63</v>
+        <v>0.72</v>
       </c>
       <c r="AS34">
-        <v>1.02</v>
+        <v>1.45</v>
       </c>
       <c r="AT34">
-        <v>2.65</v>
+        <v>2.17</v>
       </c>
       <c r="AU34">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV34">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AW34">
+        <v>2</v>
+      </c>
+      <c r="AX34">
+        <v>5</v>
+      </c>
+      <c r="AY34">
+        <v>6</v>
+      </c>
+      <c r="AZ34">
+        <v>15</v>
+      </c>
+      <c r="BA34">
+        <v>2</v>
+      </c>
+      <c r="BB34">
         <v>4</v>
       </c>
-      <c r="AX34">
-        <v>3</v>
-      </c>
-      <c r="AY34">
-        <v>13</v>
-      </c>
-      <c r="AZ34">
-        <v>8</v>
-      </c>
-      <c r="BA34">
-        <v>5</v>
-      </c>
-      <c r="BB34">
-        <v>5</v>
-      </c>
       <c r="BC34">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD34">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="BE34">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="BF34">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="BG34">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BH34">
-        <v>2.95</v>
+        <v>2.75</v>
       </c>
       <c r="BI34">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="BJ34">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="BK34">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="BL34">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="BM34">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="BN34">
-        <v>1.49</v>
+        <v>1.44</v>
       </c>
       <c r="BO34">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BP34">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -9069,7 +9069,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7516330</v>
+        <v>7516328</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -9084,10 +9084,10 @@
         <v>5</v>
       </c>
       <c r="G39" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -9099,91 +9099,91 @@
         <v>2</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>2</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O39" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="P39" t="s">
         <v>227</v>
       </c>
       <c r="Q39">
-        <v>3.25</v>
+        <v>5.55</v>
       </c>
       <c r="R39">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="S39">
-        <v>3.25</v>
+        <v>1.92</v>
       </c>
       <c r="T39">
-        <v>1.44</v>
+        <v>1.28</v>
       </c>
       <c r="U39">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V39">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="W39">
-        <v>1.44</v>
+        <v>1.68</v>
       </c>
       <c r="X39">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y39">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="Z39">
-        <v>2.56</v>
+        <v>5.5</v>
       </c>
       <c r="AA39">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="AB39">
-        <v>2.58</v>
+        <v>1.5</v>
       </c>
       <c r="AC39">
         <v>1.02</v>
       </c>
       <c r="AD39">
-        <v>9.1</v>
+        <v>20</v>
       </c>
       <c r="AE39">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AF39">
-        <v>3.65</v>
+        <v>5.26</v>
       </c>
       <c r="AG39">
-        <v>1.96</v>
+        <v>1.47</v>
       </c>
       <c r="AH39">
-        <v>1.88</v>
+        <v>2.48</v>
       </c>
       <c r="AI39">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AJ39">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AK39">
-        <v>1.53</v>
+        <v>2.8</v>
       </c>
       <c r="AL39">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AM39">
-        <v>1.53</v>
+        <v>1.15</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO39">
         <v>2</v>
@@ -9192,25 +9192,25 @@
         <v>0.75</v>
       </c>
       <c r="AQ39">
-        <v>1.11</v>
+        <v>2</v>
       </c>
       <c r="AR39">
-        <v>2.02</v>
+        <v>1.4</v>
       </c>
       <c r="AS39">
-        <v>1.03</v>
+        <v>1.78</v>
       </c>
       <c r="AT39">
-        <v>3.05</v>
+        <v>3.18</v>
       </c>
       <c r="AU39">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV39">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AW39">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX39">
         <v>4</v>
@@ -9219,55 +9219,55 @@
         <v>16</v>
       </c>
       <c r="AZ39">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BA39">
         <v>6</v>
       </c>
       <c r="BB39">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BC39">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BD39">
-        <v>1.97</v>
+        <v>3.15</v>
       </c>
       <c r="BE39">
-        <v>5.8</v>
+        <v>6.75</v>
       </c>
       <c r="BF39">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="BG39">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="BH39">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="BI39">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="BJ39">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="BK39">
-        <v>2.12</v>
+        <v>1.88</v>
       </c>
       <c r="BL39">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="BM39">
-        <v>2.7</v>
+        <v>2.38</v>
       </c>
       <c r="BN39">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BO39">
-        <v>3.65</v>
+        <v>3.05</v>
       </c>
       <c r="BP39">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -9275,7 +9275,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7516328</v>
+        <v>7516330</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -9290,10 +9290,10 @@
         <v>5</v>
       </c>
       <c r="G40" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -9305,91 +9305,91 @@
         <v>2</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40">
         <v>2</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O40" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="P40" t="s">
         <v>228</v>
       </c>
       <c r="Q40">
-        <v>5.55</v>
+        <v>3.25</v>
       </c>
       <c r="R40">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="S40">
-        <v>1.92</v>
+        <v>3.25</v>
       </c>
       <c r="T40">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="U40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V40">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="W40">
-        <v>1.68</v>
+        <v>1.44</v>
       </c>
       <c r="X40">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y40">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="Z40">
-        <v>5.5</v>
+        <v>2.56</v>
       </c>
       <c r="AA40">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="AB40">
-        <v>1.5</v>
+        <v>2.58</v>
       </c>
       <c r="AC40">
         <v>1.02</v>
       </c>
       <c r="AD40">
-        <v>20</v>
+        <v>9.1</v>
       </c>
       <c r="AE40">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AF40">
-        <v>5.26</v>
+        <v>3.65</v>
       </c>
       <c r="AG40">
-        <v>1.47</v>
+        <v>1.96</v>
       </c>
       <c r="AH40">
-        <v>2.48</v>
+        <v>1.88</v>
       </c>
       <c r="AI40">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AJ40">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="AK40">
-        <v>2.8</v>
+        <v>1.53</v>
       </c>
       <c r="AL40">
-        <v>1.2</v>
+        <v>1.35</v>
       </c>
       <c r="AM40">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="AN40">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO40">
         <v>2</v>
@@ -9398,25 +9398,25 @@
         <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>2</v>
+        <v>1.11</v>
       </c>
       <c r="AR40">
-        <v>1.4</v>
+        <v>2.02</v>
       </c>
       <c r="AS40">
-        <v>1.78</v>
+        <v>1.03</v>
       </c>
       <c r="AT40">
-        <v>3.18</v>
+        <v>3.05</v>
       </c>
       <c r="AU40">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV40">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AW40">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX40">
         <v>4</v>
@@ -9425,55 +9425,55 @@
         <v>16</v>
       </c>
       <c r="AZ40">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BA40">
         <v>6</v>
       </c>
       <c r="BB40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC40">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD40">
-        <v>3.15</v>
+        <v>1.97</v>
       </c>
       <c r="BE40">
-        <v>6.75</v>
+        <v>5.8</v>
       </c>
       <c r="BF40">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="BG40">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="BH40">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="BI40">
-        <v>1.55</v>
+        <v>1.72</v>
       </c>
       <c r="BJ40">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="BK40">
-        <v>1.88</v>
+        <v>2.12</v>
       </c>
       <c r="BL40">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="BM40">
-        <v>2.38</v>
+        <v>2.7</v>
       </c>
       <c r="BN40">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="BO40">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="BP40">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9481,7 +9481,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7516332</v>
+        <v>7516327</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9496,190 +9496,190 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O41" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>91</v>
       </c>
       <c r="Q41">
-        <v>3.7</v>
+        <v>2.4</v>
       </c>
       <c r="R41">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S41">
-        <v>2.62</v>
+        <v>4.75</v>
       </c>
       <c r="T41">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
         <v>2.95</v>
       </c>
-      <c r="V41">
+      <c r="W41">
+        <v>1.45</v>
+      </c>
+      <c r="X41">
+        <v>8</v>
+      </c>
+      <c r="Y41">
+        <v>1.1</v>
+      </c>
+      <c r="Z41">
+        <v>1.76</v>
+      </c>
+      <c r="AA41">
+        <v>3.75</v>
+      </c>
+      <c r="AB41">
+        <v>4.34</v>
+      </c>
+      <c r="AC41">
+        <v>1.03</v>
+      </c>
+      <c r="AD41">
+        <v>10.65</v>
+      </c>
+      <c r="AE41">
+        <v>1.29</v>
+      </c>
+      <c r="AF41">
+        <v>3.44</v>
+      </c>
+      <c r="AG41">
+        <v>1.83</v>
+      </c>
+      <c r="AH41">
+        <v>1.87</v>
+      </c>
+      <c r="AI41">
+        <v>1.83</v>
+      </c>
+      <c r="AJ41">
+        <v>1.95</v>
+      </c>
+      <c r="AK41">
+        <v>1.22</v>
+      </c>
+      <c r="AL41">
+        <v>1.3</v>
+      </c>
+      <c r="AM41">
+        <v>2.1</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>1.5</v>
+      </c>
+      <c r="AQ41">
+        <v>0.29</v>
+      </c>
+      <c r="AR41">
+        <v>1.49</v>
+      </c>
+      <c r="AS41">
+        <v>1.11</v>
+      </c>
+      <c r="AT41">
         <v>2.6</v>
       </c>
-      <c r="W41">
-        <v>1.44</v>
-      </c>
-      <c r="X41">
-        <v>6</v>
-      </c>
-      <c r="Y41">
-        <v>1.09</v>
-      </c>
-      <c r="Z41">
-        <v>3.34</v>
-      </c>
-      <c r="AA41">
-        <v>3.45</v>
-      </c>
-      <c r="AB41">
-        <v>2.1</v>
-      </c>
-      <c r="AC41">
-        <v>1.05</v>
-      </c>
-      <c r="AD41">
-        <v>9.5</v>
-      </c>
-      <c r="AE41">
-        <v>1.25</v>
-      </c>
-      <c r="AF41">
-        <v>3.75</v>
-      </c>
-      <c r="AG41">
-        <v>1.72</v>
-      </c>
-      <c r="AH41">
-        <v>2</v>
-      </c>
-      <c r="AI41">
-        <v>1.62</v>
-      </c>
-      <c r="AJ41">
-        <v>2.15</v>
-      </c>
-      <c r="AK41">
-        <v>1.7</v>
-      </c>
-      <c r="AL41">
-        <v>1.25</v>
-      </c>
-      <c r="AM41">
-        <v>1.33</v>
-      </c>
-      <c r="AN41">
-        <v>0</v>
-      </c>
-      <c r="AO41">
+      <c r="AU41">
+        <v>5</v>
+      </c>
+      <c r="AV41">
+        <v>2</v>
+      </c>
+      <c r="AW41">
+        <v>5</v>
+      </c>
+      <c r="AX41">
         <v>3</v>
       </c>
-      <c r="AP41">
-        <v>1.88</v>
-      </c>
-      <c r="AQ41">
-        <v>1.25</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>0.86</v>
-      </c>
-      <c r="AT41">
-        <v>0.86</v>
-      </c>
-      <c r="AU41">
-        <v>2</v>
-      </c>
-      <c r="AV41">
+      <c r="AY41">
+        <v>14</v>
+      </c>
+      <c r="AZ41">
         <v>8</v>
       </c>
-      <c r="AW41">
-        <v>2</v>
-      </c>
-      <c r="AX41">
-        <v>10</v>
-      </c>
-      <c r="AY41">
-        <v>6</v>
-      </c>
-      <c r="AZ41">
-        <v>23</v>
-      </c>
       <c r="BA41">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB41">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BC41">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BD41">
-        <v>2.02</v>
+        <v>1.43</v>
       </c>
       <c r="BE41">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF41">
-        <v>1.86</v>
+        <v>2.95</v>
       </c>
       <c r="BG41">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BH41">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="BI41">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="BJ41">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BK41">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="BL41">
-        <v>1.92</v>
+        <v>1.65</v>
       </c>
       <c r="BM41">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="BN41">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="BO41">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="BP41">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9687,7 +9687,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7516327</v>
+        <v>7516332</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9702,190 +9702,190 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O42" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>91</v>
+        <v>206</v>
       </c>
       <c r="Q42">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="R42">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S42">
-        <v>4.75</v>
+        <v>2.62</v>
       </c>
       <c r="T42">
+        <v>1.35</v>
+      </c>
+      <c r="U42">
+        <v>2.95</v>
+      </c>
+      <c r="V42">
+        <v>2.6</v>
+      </c>
+      <c r="W42">
         <v>1.44</v>
       </c>
-      <c r="U42">
+      <c r="X42">
+        <v>6</v>
+      </c>
+      <c r="Y42">
+        <v>1.09</v>
+      </c>
+      <c r="Z42">
+        <v>3.34</v>
+      </c>
+      <c r="AA42">
+        <v>3.45</v>
+      </c>
+      <c r="AB42">
+        <v>2.1</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>9.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.25</v>
+      </c>
+      <c r="AF42">
+        <v>3.75</v>
+      </c>
+      <c r="AG42">
+        <v>1.72</v>
+      </c>
+      <c r="AH42">
+        <v>2</v>
+      </c>
+      <c r="AI42">
+        <v>1.62</v>
+      </c>
+      <c r="AJ42">
+        <v>2.15</v>
+      </c>
+      <c r="AK42">
+        <v>1.7</v>
+      </c>
+      <c r="AL42">
+        <v>1.25</v>
+      </c>
+      <c r="AM42">
+        <v>1.33</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
         <v>3</v>
       </c>
-      <c r="V42">
-        <v>2.95</v>
-      </c>
-      <c r="W42">
-        <v>1.45</v>
-      </c>
-      <c r="X42">
+      <c r="AP42">
+        <v>1.88</v>
+      </c>
+      <c r="AQ42">
+        <v>1.25</v>
+      </c>
+      <c r="AR42">
+        <v>0</v>
+      </c>
+      <c r="AS42">
+        <v>0.86</v>
+      </c>
+      <c r="AT42">
+        <v>0.86</v>
+      </c>
+      <c r="AU42">
+        <v>2</v>
+      </c>
+      <c r="AV42">
         <v>8</v>
       </c>
-      <c r="Y42">
-        <v>1.1</v>
-      </c>
-      <c r="Z42">
-        <v>1.76</v>
-      </c>
-      <c r="AA42">
-        <v>3.75</v>
-      </c>
-      <c r="AB42">
-        <v>4.34</v>
-      </c>
-      <c r="AC42">
-        <v>1.03</v>
-      </c>
-      <c r="AD42">
-        <v>10.65</v>
-      </c>
-      <c r="AE42">
-        <v>1.29</v>
-      </c>
-      <c r="AF42">
-        <v>3.44</v>
-      </c>
-      <c r="AG42">
-        <v>1.83</v>
-      </c>
-      <c r="AH42">
-        <v>1.87</v>
-      </c>
-      <c r="AI42">
-        <v>1.83</v>
-      </c>
-      <c r="AJ42">
-        <v>1.95</v>
-      </c>
-      <c r="AK42">
-        <v>1.22</v>
-      </c>
-      <c r="AL42">
+      <c r="AW42">
+        <v>2</v>
+      </c>
+      <c r="AX42">
+        <v>10</v>
+      </c>
+      <c r="AY42">
+        <v>6</v>
+      </c>
+      <c r="AZ42">
+        <v>23</v>
+      </c>
+      <c r="BA42">
+        <v>1</v>
+      </c>
+      <c r="BB42">
+        <v>13</v>
+      </c>
+      <c r="BC42">
+        <v>14</v>
+      </c>
+      <c r="BD42">
+        <v>2.02</v>
+      </c>
+      <c r="BE42">
+        <v>6.25</v>
+      </c>
+      <c r="BF42">
+        <v>1.86</v>
+      </c>
+      <c r="BG42">
         <v>1.3</v>
       </c>
-      <c r="AM42">
-        <v>2.1</v>
-      </c>
-      <c r="AN42">
-        <v>1</v>
-      </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
+      <c r="BH42">
+        <v>3.05</v>
+      </c>
+      <c r="BI42">
+        <v>1.54</v>
+      </c>
+      <c r="BJ42">
+        <v>2.3</v>
+      </c>
+      <c r="BK42">
+        <v>1.88</v>
+      </c>
+      <c r="BL42">
+        <v>1.92</v>
+      </c>
+      <c r="BM42">
+        <v>2.33</v>
+      </c>
+      <c r="BN42">
         <v>1.5</v>
       </c>
-      <c r="AQ42">
-        <v>0.29</v>
-      </c>
-      <c r="AR42">
-        <v>1.49</v>
-      </c>
-      <c r="AS42">
-        <v>1.11</v>
-      </c>
-      <c r="AT42">
-        <v>2.6</v>
-      </c>
-      <c r="AU42">
-        <v>5</v>
-      </c>
-      <c r="AV42">
-        <v>2</v>
-      </c>
-      <c r="AW42">
-        <v>5</v>
-      </c>
-      <c r="AX42">
-        <v>3</v>
-      </c>
-      <c r="AY42">
-        <v>14</v>
-      </c>
-      <c r="AZ42">
-        <v>8</v>
-      </c>
-      <c r="BA42">
-        <v>5</v>
-      </c>
-      <c r="BB42">
-        <v>4</v>
-      </c>
-      <c r="BC42">
-        <v>9</v>
-      </c>
-      <c r="BD42">
-        <v>1.43</v>
-      </c>
-      <c r="BE42">
-        <v>6.4</v>
-      </c>
-      <c r="BF42">
-        <v>2.95</v>
-      </c>
-      <c r="BG42">
-        <v>1.4</v>
-      </c>
-      <c r="BH42">
-        <v>2.7</v>
-      </c>
-      <c r="BI42">
-        <v>1.67</v>
-      </c>
-      <c r="BJ42">
-        <v>2.05</v>
-      </c>
-      <c r="BK42">
-        <v>2.08</v>
-      </c>
-      <c r="BL42">
-        <v>1.65</v>
-      </c>
-      <c r="BM42">
-        <v>2.65</v>
-      </c>
-      <c r="BN42">
-        <v>1.41</v>
-      </c>
       <c r="BO42">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="BP42">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -11335,7 +11335,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7516337</v>
+        <v>7516341</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11347,13 +11347,13 @@
         <v>45557.45833333334</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -11368,172 +11368,172 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O50" t="s">
         <v>91</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>91</v>
       </c>
       <c r="Q50">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="R50">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S50">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="T50">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U50">
-        <v>3</v>
+        <v>3.34</v>
       </c>
       <c r="V50">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="W50">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X50">
-        <v>7</v>
+        <v>5.55</v>
       </c>
       <c r="Y50">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z50">
-        <v>2.4</v>
+        <v>1.68</v>
       </c>
       <c r="AA50">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AB50">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="AC50">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>16.75</v>
       </c>
       <c r="AE50">
         <v>1.2</v>
       </c>
       <c r="AF50">
-        <v>4</v>
+        <v>4.65</v>
       </c>
       <c r="AG50">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="AH50">
-        <v>2</v>
+        <v>2.34</v>
       </c>
       <c r="AI50">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AJ50">
+        <v>2.25</v>
+      </c>
+      <c r="AK50">
+        <v>1.28</v>
+      </c>
+      <c r="AL50">
+        <v>1.28</v>
+      </c>
+      <c r="AM50">
         <v>2.1</v>
-      </c>
-      <c r="AK50">
-        <v>1.42</v>
-      </c>
-      <c r="AL50">
-        <v>1.25</v>
-      </c>
-      <c r="AM50">
-        <v>1.55</v>
       </c>
       <c r="AN50">
         <v>0.33</v>
       </c>
       <c r="AO50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP50">
-        <v>1.38</v>
+        <v>0.75</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>0.63</v>
       </c>
       <c r="AR50">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="AS50">
-        <v>1.49</v>
+        <v>0.92</v>
       </c>
       <c r="AT50">
-        <v>2.92</v>
+        <v>2.37</v>
       </c>
       <c r="AU50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV50">
         <v>3</v>
       </c>
       <c r="AW50">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AY50">
         <v>14</v>
       </c>
       <c r="AZ50">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA50">
         <v>3</v>
       </c>
       <c r="BB50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD50">
-        <v>1.79</v>
+        <v>1.62</v>
       </c>
       <c r="BE50">
-        <v>6.25</v>
+        <v>8</v>
       </c>
       <c r="BF50">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="BG50">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="BH50">
-        <v>3.3</v>
+        <v>2.95</v>
       </c>
       <c r="BI50">
+        <v>1.57</v>
+      </c>
+      <c r="BJ50">
+        <v>2.23</v>
+      </c>
+      <c r="BK50">
+        <v>1.85</v>
+      </c>
+      <c r="BL50">
+        <v>1.85</v>
+      </c>
+      <c r="BM50">
+        <v>2.43</v>
+      </c>
+      <c r="BN50">
         <v>1.48</v>
       </c>
-      <c r="BJ50">
-        <v>2.45</v>
-      </c>
-      <c r="BK50">
-        <v>1.77</v>
-      </c>
-      <c r="BL50">
-        <v>1.92</v>
-      </c>
-      <c r="BM50">
-        <v>2.18</v>
-      </c>
-      <c r="BN50">
-        <v>1.58</v>
-      </c>
       <c r="BO50">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BP50">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11541,7 +11541,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7516341</v>
+        <v>7516337</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11553,13 +11553,13 @@
         <v>45557.45833333334</v>
       </c>
       <c r="F51">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -11574,172 +11574,172 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="s">
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="Q51">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="R51">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S51">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="T51">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U51">
-        <v>3.34</v>
+        <v>3</v>
       </c>
       <c r="V51">
+        <v>2.63</v>
+      </c>
+      <c r="W51">
+        <v>1.44</v>
+      </c>
+      <c r="X51">
+        <v>7</v>
+      </c>
+      <c r="Y51">
+        <v>1.1</v>
+      </c>
+      <c r="Z51">
         <v>2.4</v>
       </c>
-      <c r="W51">
-        <v>1.53</v>
-      </c>
-      <c r="X51">
-        <v>5.55</v>
-      </c>
-      <c r="Y51">
-        <v>1.12</v>
-      </c>
-      <c r="Z51">
-        <v>1.68</v>
-      </c>
       <c r="AA51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AB51">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="AC51">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD51">
-        <v>16.75</v>
+        <v>10</v>
       </c>
       <c r="AE51">
         <v>1.2</v>
       </c>
       <c r="AF51">
-        <v>4.65</v>
+        <v>4</v>
       </c>
       <c r="AG51">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="AH51">
-        <v>2.34</v>
+        <v>2</v>
       </c>
       <c r="AI51">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AJ51">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AK51">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AL51">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM51">
-        <v>2.1</v>
+        <v>1.55</v>
       </c>
       <c r="AN51">
         <v>0.33</v>
       </c>
       <c r="AO51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP51">
-        <v>0.75</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>0.63</v>
+        <v>2</v>
       </c>
       <c r="AR51">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="AS51">
-        <v>0.92</v>
+        <v>1.49</v>
       </c>
       <c r="AT51">
-        <v>2.37</v>
+        <v>2.92</v>
       </c>
       <c r="AU51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV51">
         <v>3</v>
       </c>
       <c r="AW51">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX51">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY51">
         <v>14</v>
       </c>
       <c r="AZ51">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA51">
         <v>3</v>
       </c>
       <c r="BB51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD51">
-        <v>1.62</v>
+        <v>1.79</v>
       </c>
       <c r="BE51">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="BF51">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="BG51">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="BH51">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="BI51">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BJ51">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="BK51">
-        <v>1.85</v>
+        <v>1.77</v>
       </c>
       <c r="BL51">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="BM51">
-        <v>2.43</v>
+        <v>2.18</v>
       </c>
       <c r="BN51">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="BO51">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BP51">
-        <v>1.29</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -12159,7 +12159,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>7516335</v>
+        <v>7516336</v>
       </c>
       <c r="C54" t="s">
         <v>68</v>
@@ -12174,76 +12174,76 @@
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M54">
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O54" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="P54" t="s">
         <v>91</v>
       </c>
       <c r="Q54">
-        <v>3.97</v>
+        <v>2.3</v>
       </c>
       <c r="R54">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="S54">
-        <v>2.76</v>
+        <v>4.4</v>
       </c>
       <c r="T54">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="U54">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="V54">
-        <v>2.86</v>
+        <v>2.75</v>
       </c>
       <c r="W54">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="X54">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="Y54">
         <v>1.08</v>
       </c>
       <c r="Z54">
-        <v>3.05</v>
+        <v>1.9</v>
       </c>
       <c r="AA54">
         <v>3.5</v>
       </c>
       <c r="AB54">
-        <v>2.17</v>
+        <v>3.75</v>
       </c>
       <c r="AC54">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD54">
-        <v>9.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE54">
         <v>1.25</v>
@@ -12252,112 +12252,112 @@
         <v>3.6</v>
       </c>
       <c r="AG54">
+        <v>1.88</v>
+      </c>
+      <c r="AH54">
         <v>1.84</v>
       </c>
-      <c r="AH54">
-        <v>1.88</v>
-      </c>
       <c r="AI54">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="AJ54">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AK54">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="AL54">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AM54">
-        <v>1.25</v>
+        <v>1.9</v>
       </c>
       <c r="AN54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO54">
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>2.13</v>
+        <v>2.75</v>
       </c>
       <c r="AQ54">
-        <v>0.5</v>
+        <v>1.13</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
       </c>
       <c r="AS54">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AT54">
-        <v>2.88</v>
+        <v>2.72</v>
       </c>
       <c r="AU54">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV54">
         <v>4</v>
       </c>
       <c r="AW54">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AX54">
+        <v>3</v>
+      </c>
+      <c r="AY54">
+        <v>22</v>
+      </c>
+      <c r="AZ54">
+        <v>9</v>
+      </c>
+      <c r="BA54">
+        <v>6</v>
+      </c>
+      <c r="BB54">
         <v>4</v>
       </c>
-      <c r="AY54">
-        <v>13</v>
-      </c>
-      <c r="AZ54">
-        <v>13</v>
-      </c>
-      <c r="BA54">
-        <v>9</v>
-      </c>
-      <c r="BB54">
-        <v>2</v>
-      </c>
       <c r="BC54">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD54">
-        <v>2.05</v>
+        <v>1.49</v>
       </c>
       <c r="BE54">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF54">
-        <v>1.86</v>
+        <v>2.7</v>
       </c>
       <c r="BG54">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BH54">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BI54">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="BJ54">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="BK54">
-        <v>2.02</v>
+        <v>1.92</v>
       </c>
       <c r="BL54">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BM54">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="BN54">
-        <v>1.43</v>
+        <v>1.48</v>
       </c>
       <c r="BO54">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BP54">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -12365,7 +12365,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>7516336</v>
+        <v>7516335</v>
       </c>
       <c r="C55" t="s">
         <v>68</v>
@@ -12380,76 +12380,76 @@
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M55">
         <v>0</v>
       </c>
       <c r="N55">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O55" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="P55" t="s">
         <v>91</v>
       </c>
       <c r="Q55">
-        <v>2.3</v>
+        <v>3.97</v>
       </c>
       <c r="R55">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="S55">
-        <v>4.4</v>
+        <v>2.76</v>
       </c>
       <c r="T55">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="U55">
-        <v>2.8</v>
+        <v>3.08</v>
       </c>
       <c r="V55">
-        <v>2.75</v>
+        <v>2.86</v>
       </c>
       <c r="W55">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="X55">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="Y55">
         <v>1.08</v>
       </c>
       <c r="Z55">
-        <v>1.9</v>
+        <v>3.05</v>
       </c>
       <c r="AA55">
         <v>3.5</v>
       </c>
       <c r="AB55">
-        <v>3.75</v>
+        <v>2.17</v>
       </c>
       <c r="AC55">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD55">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE55">
         <v>1.25</v>
@@ -12458,112 +12458,112 @@
         <v>3.6</v>
       </c>
       <c r="AG55">
+        <v>1.84</v>
+      </c>
+      <c r="AH55">
         <v>1.88</v>
       </c>
-      <c r="AH55">
-        <v>1.84</v>
-      </c>
       <c r="AI55">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="AJ55">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AK55">
-        <v>1.18</v>
+        <v>1.7</v>
       </c>
       <c r="AL55">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AM55">
-        <v>1.9</v>
+        <v>1.25</v>
       </c>
       <c r="AN55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO55">
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ55">
-        <v>1.13</v>
+        <v>0.5</v>
       </c>
       <c r="AR55">
         <v>1.55</v>
       </c>
       <c r="AS55">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AT55">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="AU55">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV55">
         <v>4</v>
       </c>
       <c r="AW55">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AX55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY55">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AZ55">
+        <v>13</v>
+      </c>
+      <c r="BA55">
         <v>9</v>
       </c>
-      <c r="BA55">
-        <v>6</v>
-      </c>
       <c r="BB55">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC55">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD55">
-        <v>1.49</v>
+        <v>2.05</v>
       </c>
       <c r="BE55">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF55">
-        <v>2.7</v>
+        <v>1.86</v>
       </c>
       <c r="BG55">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="BH55">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BI55">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="BJ55">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="BK55">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="BL55">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BM55">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="BN55">
-        <v>1.48</v>
+        <v>1.43</v>
       </c>
       <c r="BO55">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BP55">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="56" spans="1:68">
@@ -15043,7 +15043,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7516356</v>
+        <v>7516361</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -15058,16 +15058,16 @@
         <v>8</v>
       </c>
       <c r="G68" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H68" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
         <v>1</v>
@@ -15082,166 +15082,166 @@
         <v>2</v>
       </c>
       <c r="O68" t="s">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>245</v>
+        <v>103</v>
       </c>
       <c r="Q68">
-        <v>2.12</v>
+        <v>3.75</v>
       </c>
       <c r="R68">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="S68">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="T68">
+        <v>1.42</v>
+      </c>
+      <c r="U68">
+        <v>2.62</v>
+      </c>
+      <c r="V68">
+        <v>2.95</v>
+      </c>
+      <c r="W68">
+        <v>1.35</v>
+      </c>
+      <c r="X68">
+        <v>7</v>
+      </c>
+      <c r="Y68">
+        <v>1.07</v>
+      </c>
+      <c r="Z68">
+        <v>3.42</v>
+      </c>
+      <c r="AA68">
+        <v>3.22</v>
+      </c>
+      <c r="AB68">
+        <v>2.19</v>
+      </c>
+      <c r="AC68">
+        <v>1.05</v>
+      </c>
+      <c r="AD68">
+        <v>8</v>
+      </c>
+      <c r="AE68">
         <v>1.32</v>
       </c>
-      <c r="U68">
-        <v>3.28</v>
-      </c>
-      <c r="V68">
-        <v>2.63</v>
-      </c>
-      <c r="W68">
-        <v>1.49</v>
-      </c>
-      <c r="X68">
+      <c r="AF68">
+        <v>3</v>
+      </c>
+      <c r="AG68">
+        <v>1.98</v>
+      </c>
+      <c r="AH68">
+        <v>1.74</v>
+      </c>
+      <c r="AI68">
+        <v>1.87</v>
+      </c>
+      <c r="AJ68">
+        <v>1.9</v>
+      </c>
+      <c r="AK68">
+        <v>1.7</v>
+      </c>
+      <c r="AL68">
+        <v>1.28</v>
+      </c>
+      <c r="AM68">
+        <v>1.3</v>
+      </c>
+      <c r="AN68">
+        <v>0.33</v>
+      </c>
+      <c r="AO68">
+        <v>1</v>
+      </c>
+      <c r="AP68">
+        <v>0.78</v>
+      </c>
+      <c r="AQ68">
+        <v>0.5</v>
+      </c>
+      <c r="AR68">
+        <v>0.8</v>
+      </c>
+      <c r="AS68">
+        <v>1.25</v>
+      </c>
+      <c r="AT68">
+        <v>2.05</v>
+      </c>
+      <c r="AU68">
+        <v>5</v>
+      </c>
+      <c r="AV68">
+        <v>5</v>
+      </c>
+      <c r="AW68">
+        <v>3</v>
+      </c>
+      <c r="AX68">
+        <v>6</v>
+      </c>
+      <c r="AY68">
+        <v>8</v>
+      </c>
+      <c r="AZ68">
+        <v>11</v>
+      </c>
+      <c r="BA68">
+        <v>4</v>
+      </c>
+      <c r="BB68">
+        <v>7</v>
+      </c>
+      <c r="BC68">
+        <v>11</v>
+      </c>
+      <c r="BD68">
+        <v>2.25</v>
+      </c>
+      <c r="BE68">
         <v>6.1</v>
       </c>
-      <c r="Y68">
-        <v>1.1</v>
-      </c>
-      <c r="Z68">
-        <v>1.63</v>
-      </c>
-      <c r="AA68">
-        <v>4.12</v>
-      </c>
-      <c r="AB68">
-        <v>4.88</v>
-      </c>
-      <c r="AC68">
-        <v>1.03</v>
-      </c>
-      <c r="AD68">
-        <v>13.8</v>
-      </c>
-      <c r="AE68">
-        <v>1.24</v>
-      </c>
-      <c r="AF68">
-        <v>4.1</v>
-      </c>
-      <c r="AG68">
-        <v>1.82</v>
-      </c>
-      <c r="AH68">
-        <v>1.99</v>
-      </c>
-      <c r="AI68">
+      <c r="BF68">
+        <v>1.71</v>
+      </c>
+      <c r="BG68">
+        <v>1.33</v>
+      </c>
+      <c r="BH68">
+        <v>2.95</v>
+      </c>
+      <c r="BI68">
+        <v>1.57</v>
+      </c>
+      <c r="BJ68">
+        <v>2.23</v>
+      </c>
+      <c r="BK68">
+        <v>1.92</v>
+      </c>
+      <c r="BL68">
         <v>1.77</v>
       </c>
-      <c r="AJ68">
-        <v>2</v>
-      </c>
-      <c r="AK68">
-        <v>1.14</v>
-      </c>
-      <c r="AL68">
-        <v>1.18</v>
-      </c>
-      <c r="AM68">
-        <v>2.35</v>
-      </c>
-      <c r="AN68">
-        <v>3</v>
-      </c>
-      <c r="AO68">
-        <v>0.67</v>
-      </c>
-      <c r="AP68">
-        <v>2</v>
-      </c>
-      <c r="AQ68">
-        <v>1.13</v>
-      </c>
-      <c r="AR68">
-        <v>1.48</v>
-      </c>
-      <c r="AS68">
-        <v>1.15</v>
-      </c>
-      <c r="AT68">
-        <v>2.63</v>
-      </c>
-      <c r="AU68">
-        <v>8</v>
-      </c>
-      <c r="AV68">
-        <v>4</v>
-      </c>
-      <c r="AW68">
-        <v>7</v>
-      </c>
-      <c r="AX68">
-        <v>5</v>
-      </c>
-      <c r="AY68">
-        <v>15</v>
-      </c>
-      <c r="AZ68">
-        <v>9</v>
-      </c>
-      <c r="BA68">
-        <v>3</v>
-      </c>
-      <c r="BB68">
-        <v>3</v>
-      </c>
-      <c r="BC68">
-        <v>6</v>
-      </c>
-      <c r="BD68">
-        <v>1.5</v>
-      </c>
-      <c r="BE68">
-        <v>8.5</v>
-      </c>
-      <c r="BF68">
-        <v>3</v>
-      </c>
-      <c r="BG68">
-        <v>1.36</v>
-      </c>
-      <c r="BH68">
-        <v>2.8</v>
-      </c>
-      <c r="BI68">
-        <v>1.62</v>
-      </c>
-      <c r="BJ68">
-        <v>2.14</v>
-      </c>
-      <c r="BK68">
-        <v>2.05</v>
-      </c>
-      <c r="BL68">
-        <v>1.7</v>
-      </c>
       <c r="BM68">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="BN68">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="BO68">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="BP68">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -15249,7 +15249,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7516361</v>
+        <v>7516356</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15264,16 +15264,16 @@
         <v>8</v>
       </c>
       <c r="G69" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>1</v>
@@ -15288,166 +15288,166 @@
         <v>2</v>
       </c>
       <c r="O69" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="Q69">
-        <v>3.75</v>
+        <v>2.12</v>
       </c>
       <c r="R69">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="S69">
-        <v>2.7</v>
+        <v>5.6</v>
       </c>
       <c r="T69">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="U69">
-        <v>2.62</v>
+        <v>3.28</v>
       </c>
       <c r="V69">
-        <v>2.95</v>
+        <v>2.63</v>
       </c>
       <c r="W69">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="X69">
+        <v>6.1</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>1.63</v>
+      </c>
+      <c r="AA69">
+        <v>4.12</v>
+      </c>
+      <c r="AB69">
+        <v>4.88</v>
+      </c>
+      <c r="AC69">
+        <v>1.03</v>
+      </c>
+      <c r="AD69">
+        <v>13.8</v>
+      </c>
+      <c r="AE69">
+        <v>1.24</v>
+      </c>
+      <c r="AF69">
+        <v>4.1</v>
+      </c>
+      <c r="AG69">
+        <v>1.82</v>
+      </c>
+      <c r="AH69">
+        <v>1.99</v>
+      </c>
+      <c r="AI69">
+        <v>1.77</v>
+      </c>
+      <c r="AJ69">
+        <v>2</v>
+      </c>
+      <c r="AK69">
+        <v>1.14</v>
+      </c>
+      <c r="AL69">
+        <v>1.18</v>
+      </c>
+      <c r="AM69">
+        <v>2.35</v>
+      </c>
+      <c r="AN69">
+        <v>3</v>
+      </c>
+      <c r="AO69">
+        <v>0.67</v>
+      </c>
+      <c r="AP69">
+        <v>2</v>
+      </c>
+      <c r="AQ69">
+        <v>1.13</v>
+      </c>
+      <c r="AR69">
+        <v>1.48</v>
+      </c>
+      <c r="AS69">
+        <v>1.15</v>
+      </c>
+      <c r="AT69">
+        <v>2.63</v>
+      </c>
+      <c r="AU69">
+        <v>8</v>
+      </c>
+      <c r="AV69">
+        <v>4</v>
+      </c>
+      <c r="AW69">
         <v>7</v>
       </c>
-      <c r="Y69">
-        <v>1.07</v>
-      </c>
-      <c r="Z69">
-        <v>3.42</v>
-      </c>
-      <c r="AA69">
-        <v>3.22</v>
-      </c>
-      <c r="AB69">
-        <v>2.19</v>
-      </c>
-      <c r="AC69">
-        <v>1.05</v>
-      </c>
-      <c r="AD69">
-        <v>8</v>
-      </c>
-      <c r="AE69">
-        <v>1.32</v>
-      </c>
-      <c r="AF69">
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>15</v>
+      </c>
+      <c r="AZ69">
+        <v>9</v>
+      </c>
+      <c r="BA69">
         <v>3</v>
       </c>
-      <c r="AG69">
-        <v>1.98</v>
-      </c>
-      <c r="AH69">
-        <v>1.74</v>
-      </c>
-      <c r="AI69">
-        <v>1.87</v>
-      </c>
-      <c r="AJ69">
-        <v>1.9</v>
-      </c>
-      <c r="AK69">
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>6</v>
+      </c>
+      <c r="BD69">
+        <v>1.5</v>
+      </c>
+      <c r="BE69">
+        <v>8.5</v>
+      </c>
+      <c r="BF69">
+        <v>3</v>
+      </c>
+      <c r="BG69">
+        <v>1.36</v>
+      </c>
+      <c r="BH69">
+        <v>2.8</v>
+      </c>
+      <c r="BI69">
+        <v>1.62</v>
+      </c>
+      <c r="BJ69">
+        <v>2.14</v>
+      </c>
+      <c r="BK69">
+        <v>2.05</v>
+      </c>
+      <c r="BL69">
         <v>1.7</v>
       </c>
-      <c r="AL69">
-        <v>1.28</v>
-      </c>
-      <c r="AM69">
-        <v>1.3</v>
-      </c>
-      <c r="AN69">
-        <v>0.33</v>
-      </c>
-      <c r="AO69">
-        <v>1</v>
-      </c>
-      <c r="AP69">
-        <v>0.78</v>
-      </c>
-      <c r="AQ69">
-        <v>0.5</v>
-      </c>
-      <c r="AR69">
-        <v>0.8</v>
-      </c>
-      <c r="AS69">
-        <v>1.25</v>
-      </c>
-      <c r="AT69">
-        <v>2.05</v>
-      </c>
-      <c r="AU69">
-        <v>5</v>
-      </c>
-      <c r="AV69">
-        <v>5</v>
-      </c>
-      <c r="AW69">
-        <v>3</v>
-      </c>
-      <c r="AX69">
-        <v>6</v>
-      </c>
-      <c r="AY69">
-        <v>8</v>
-      </c>
-      <c r="AZ69">
-        <v>11</v>
-      </c>
-      <c r="BA69">
-        <v>4</v>
-      </c>
-      <c r="BB69">
-        <v>7</v>
-      </c>
-      <c r="BC69">
-        <v>11</v>
-      </c>
-      <c r="BD69">
-        <v>2.25</v>
-      </c>
-      <c r="BE69">
-        <v>6.1</v>
-      </c>
-      <c r="BF69">
-        <v>1.71</v>
-      </c>
-      <c r="BG69">
-        <v>1.33</v>
-      </c>
-      <c r="BH69">
-        <v>2.95</v>
-      </c>
-      <c r="BI69">
-        <v>1.57</v>
-      </c>
-      <c r="BJ69">
-        <v>2.23</v>
-      </c>
-      <c r="BK69">
-        <v>1.92</v>
-      </c>
-      <c r="BL69">
-        <v>1.77</v>
-      </c>
       <c r="BM69">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="BN69">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="BO69">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="BP69">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15867,7 +15867,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7516354</v>
+        <v>7516355</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15879,19 +15879,19 @@
         <v>45571.54166666666</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="H72" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72">
         <v>1</v>
@@ -15900,154 +15900,154 @@
         <v>1</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O72" t="s">
         <v>135</v>
       </c>
       <c r="P72" t="s">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="Q72">
-        <v>5.29</v>
+        <v>1.73</v>
       </c>
       <c r="R72">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="S72">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="T72">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="U72">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="V72">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="W72">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="X72">
-        <v>5.75</v>
+        <v>4.33</v>
       </c>
       <c r="Y72">
+        <v>1.2</v>
+      </c>
+      <c r="Z72">
+        <v>1.32</v>
+      </c>
+      <c r="AA72">
+        <v>5.1</v>
+      </c>
+      <c r="AB72">
+        <v>7</v>
+      </c>
+      <c r="AC72">
+        <v>1.01</v>
+      </c>
+      <c r="AD72">
+        <v>23</v>
+      </c>
+      <c r="AE72">
+        <v>1.08</v>
+      </c>
+      <c r="AF72">
+        <v>5.35</v>
+      </c>
+      <c r="AG72">
+        <v>1.41</v>
+      </c>
+      <c r="AH72">
+        <v>2.78</v>
+      </c>
+      <c r="AI72">
+        <v>1.73</v>
+      </c>
+      <c r="AJ72">
+        <v>2</v>
+      </c>
+      <c r="AK72">
+        <v>1.07</v>
+      </c>
+      <c r="AL72">
         <v>1.1</v>
       </c>
-      <c r="Z72">
-        <v>4.6</v>
-      </c>
-      <c r="AA72">
-        <v>3.7</v>
-      </c>
-      <c r="AB72">
-        <v>1.64</v>
-      </c>
-      <c r="AC72">
-        <v>1.05</v>
-      </c>
-      <c r="AD72">
-        <v>9.5</v>
-      </c>
-      <c r="AE72">
-        <v>1.25</v>
-      </c>
-      <c r="AF72">
-        <v>3.85</v>
-      </c>
-      <c r="AG72">
-        <v>1.73</v>
-      </c>
-      <c r="AH72">
-        <v>2.02</v>
-      </c>
-      <c r="AI72">
-        <v>1.75</v>
-      </c>
-      <c r="AJ72">
+      <c r="AM72">
+        <v>3.2</v>
+      </c>
+      <c r="AN72">
+        <v>2.5</v>
+      </c>
+      <c r="AO72">
+        <v>1</v>
+      </c>
+      <c r="AP72">
+        <v>2.56</v>
+      </c>
+      <c r="AQ72">
+        <v>0.75</v>
+      </c>
+      <c r="AR72">
         <v>1.95</v>
       </c>
-      <c r="AK72">
-        <v>2.2</v>
-      </c>
-      <c r="AL72">
-        <v>1.2</v>
-      </c>
-      <c r="AM72">
-        <v>1.17</v>
-      </c>
-      <c r="AN72">
-        <v>0.5</v>
-      </c>
-      <c r="AO72">
-        <v>2.33</v>
-      </c>
-      <c r="AP72">
-        <v>2.13</v>
-      </c>
-      <c r="AQ72">
-        <v>1.25</v>
-      </c>
-      <c r="AR72">
-        <v>1.52</v>
-      </c>
       <c r="AS72">
-        <v>1.52</v>
+        <v>1.21</v>
       </c>
       <c r="AT72">
-        <v>3.04</v>
+        <v>3.16</v>
       </c>
       <c r="AU72">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV72">
+        <v>0</v>
+      </c>
+      <c r="AW72">
         <v>3</v>
       </c>
-      <c r="AW72">
-        <v>5</v>
-      </c>
       <c r="AX72">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY72">
         <v>10</v>
       </c>
       <c r="AZ72">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BA72">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BB72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC72">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BD72">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="BE72">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF72">
-        <v>1.53</v>
+        <v>4.5</v>
       </c>
       <c r="BG72">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="BH72">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BI72">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BJ72">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="BK72">
         <v>2</v>
@@ -16056,16 +16056,16 @@
         <v>1.8</v>
       </c>
       <c r="BM72">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="BN72">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="BO72">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="BP72">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -16073,7 +16073,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7516355</v>
+        <v>7516354</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -16085,19 +16085,19 @@
         <v>45571.54166666666</v>
       </c>
       <c r="F73">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H73" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
         <v>1</v>
@@ -16106,154 +16106,154 @@
         <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O73" t="s">
         <v>136</v>
       </c>
       <c r="P73" t="s">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="Q73">
+        <v>5.29</v>
+      </c>
+      <c r="R73">
+        <v>2.42</v>
+      </c>
+      <c r="S73">
+        <v>2.2</v>
+      </c>
+      <c r="T73">
+        <v>1.33</v>
+      </c>
+      <c r="U73">
+        <v>3.3</v>
+      </c>
+      <c r="V73">
+        <v>2.65</v>
+      </c>
+      <c r="W73">
+        <v>1.48</v>
+      </c>
+      <c r="X73">
+        <v>5.75</v>
+      </c>
+      <c r="Y73">
+        <v>1.1</v>
+      </c>
+      <c r="Z73">
+        <v>4.6</v>
+      </c>
+      <c r="AA73">
+        <v>3.7</v>
+      </c>
+      <c r="AB73">
+        <v>1.64</v>
+      </c>
+      <c r="AC73">
+        <v>1.05</v>
+      </c>
+      <c r="AD73">
+        <v>9.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.25</v>
+      </c>
+      <c r="AF73">
+        <v>3.85</v>
+      </c>
+      <c r="AG73">
         <v>1.73</v>
       </c>
-      <c r="R73">
-        <v>2.75</v>
-      </c>
-      <c r="S73">
-        <v>7</v>
-      </c>
-      <c r="T73">
-        <v>1.22</v>
-      </c>
-      <c r="U73">
-        <v>4</v>
-      </c>
-      <c r="V73">
-        <v>2.1</v>
-      </c>
-      <c r="W73">
-        <v>1.67</v>
-      </c>
-      <c r="X73">
-        <v>4.33</v>
-      </c>
-      <c r="Y73">
+      <c r="AH73">
+        <v>2.02</v>
+      </c>
+      <c r="AI73">
+        <v>1.75</v>
+      </c>
+      <c r="AJ73">
+        <v>1.95</v>
+      </c>
+      <c r="AK73">
+        <v>2.2</v>
+      </c>
+      <c r="AL73">
         <v>1.2</v>
       </c>
-      <c r="Z73">
-        <v>1.32</v>
-      </c>
-      <c r="AA73">
-        <v>5.1</v>
-      </c>
-      <c r="AB73">
-        <v>7</v>
-      </c>
-      <c r="AC73">
-        <v>1.01</v>
-      </c>
-      <c r="AD73">
-        <v>23</v>
-      </c>
-      <c r="AE73">
-        <v>1.08</v>
-      </c>
-      <c r="AF73">
-        <v>5.35</v>
-      </c>
-      <c r="AG73">
-        <v>1.41</v>
-      </c>
-      <c r="AH73">
-        <v>2.78</v>
-      </c>
-      <c r="AI73">
-        <v>1.73</v>
-      </c>
-      <c r="AJ73">
-        <v>2</v>
-      </c>
-      <c r="AK73">
-        <v>1.07</v>
-      </c>
-      <c r="AL73">
-        <v>1.1</v>
-      </c>
       <c r="AM73">
-        <v>3.2</v>
+        <v>1.17</v>
       </c>
       <c r="AN73">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="AP73">
-        <v>2.56</v>
+        <v>2.13</v>
       </c>
       <c r="AQ73">
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR73">
-        <v>1.95</v>
+        <v>1.52</v>
       </c>
       <c r="AS73">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="AT73">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="AU73">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY73">
         <v>10</v>
       </c>
       <c r="AZ73">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BA73">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BB73">
+        <v>4</v>
+      </c>
+      <c r="BC73">
+        <v>8</v>
+      </c>
+      <c r="BD73">
         <v>3</v>
       </c>
-      <c r="BC73">
-        <v>13</v>
-      </c>
-      <c r="BD73">
-        <v>1.25</v>
-      </c>
       <c r="BE73">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF73">
-        <v>4.5</v>
+        <v>1.53</v>
       </c>
       <c r="BG73">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="BH73">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BI73">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="BJ73">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="BK73">
         <v>2</v>
@@ -16262,16 +16262,16 @@
         <v>1.8</v>
       </c>
       <c r="BM73">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="BN73">
-        <v>1.58</v>
+        <v>1.49</v>
       </c>
       <c r="BO73">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BP73">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -19617,7 +19617,7 @@
         <v>150</v>
       </c>
       <c r="P90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q90">
         <v>2.75</v>
@@ -23283,7 +23283,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7516391</v>
+        <v>7516397</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23295,193 +23295,193 @@
         <v>45606.54166666666</v>
       </c>
       <c r="F108">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H108" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M108">
         <v>0</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O108" t="s">
-        <v>91</v>
+        <v>165</v>
       </c>
       <c r="P108" t="s">
         <v>91</v>
       </c>
       <c r="Q108">
-        <v>3.5</v>
+        <v>1.57</v>
       </c>
       <c r="R108">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="S108">
-        <v>2.75</v>
+        <v>8.5</v>
       </c>
       <c r="T108">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="U108">
+        <v>3.65</v>
+      </c>
+      <c r="V108">
+        <v>2.15</v>
+      </c>
+      <c r="W108">
+        <v>1.62</v>
+      </c>
+      <c r="X108">
+        <v>4.75</v>
+      </c>
+      <c r="Y108">
+        <v>1.15</v>
+      </c>
+      <c r="Z108">
+        <v>1.2</v>
+      </c>
+      <c r="AA108">
+        <v>7</v>
+      </c>
+      <c r="AB108">
+        <v>11</v>
+      </c>
+      <c r="AC108">
+        <v>1.01</v>
+      </c>
+      <c r="AD108">
+        <v>17</v>
+      </c>
+      <c r="AE108">
+        <v>1.14</v>
+      </c>
+      <c r="AF108">
+        <v>5.5</v>
+      </c>
+      <c r="AG108">
+        <v>1.46</v>
+      </c>
+      <c r="AH108">
+        <v>2.6</v>
+      </c>
+      <c r="AI108">
+        <v>2.05</v>
+      </c>
+      <c r="AJ108">
+        <v>1.7</v>
+      </c>
+      <c r="AK108">
+        <v>1.04</v>
+      </c>
+      <c r="AL108">
+        <v>1.1</v>
+      </c>
+      <c r="AM108">
+        <v>4.2</v>
+      </c>
+      <c r="AN108">
+        <v>2.25</v>
+      </c>
+      <c r="AO108">
+        <v>1.4</v>
+      </c>
+      <c r="AP108">
+        <v>2.57</v>
+      </c>
+      <c r="AQ108">
+        <v>0.88</v>
+      </c>
+      <c r="AR108">
+        <v>1.89</v>
+      </c>
+      <c r="AS108">
+        <v>1.11</v>
+      </c>
+      <c r="AT108">
+        <v>3</v>
+      </c>
+      <c r="AU108">
+        <v>9</v>
+      </c>
+      <c r="AV108">
+        <v>2</v>
+      </c>
+      <c r="AW108">
+        <v>12</v>
+      </c>
+      <c r="AX108">
+        <v>3</v>
+      </c>
+      <c r="AY108">
+        <v>25</v>
+      </c>
+      <c r="AZ108">
+        <v>7</v>
+      </c>
+      <c r="BA108">
+        <v>8</v>
+      </c>
+      <c r="BB108">
+        <v>5</v>
+      </c>
+      <c r="BC108">
+        <v>13</v>
+      </c>
+      <c r="BD108">
+        <v>1.11</v>
+      </c>
+      <c r="BE108">
+        <v>9</v>
+      </c>
+      <c r="BF108">
+        <v>6.4</v>
+      </c>
+      <c r="BG108">
+        <v>1.33</v>
+      </c>
+      <c r="BH108">
         <v>2.95</v>
       </c>
-      <c r="V108">
-        <v>2.55</v>
-      </c>
-      <c r="W108">
-        <v>1.45</v>
-      </c>
-      <c r="X108">
-        <v>5.75</v>
-      </c>
-      <c r="Y108">
-        <v>1.1</v>
-      </c>
-      <c r="Z108">
-        <v>3.1</v>
-      </c>
-      <c r="AA108">
-        <v>3.3</v>
-      </c>
-      <c r="AB108">
-        <v>2.3</v>
-      </c>
-      <c r="AC108">
-        <v>1.05</v>
-      </c>
-      <c r="AD108">
-        <v>9</v>
-      </c>
-      <c r="AE108">
-        <v>1.25</v>
-      </c>
-      <c r="AF108">
-        <v>3.75</v>
-      </c>
-      <c r="AG108">
-        <v>1.85</v>
-      </c>
-      <c r="AH108">
-        <v>2</v>
-      </c>
-      <c r="AI108">
-        <v>1.62</v>
-      </c>
-      <c r="AJ108">
-        <v>2.15</v>
-      </c>
-      <c r="AK108">
-        <v>1.62</v>
-      </c>
-      <c r="AL108">
-        <v>1.25</v>
-      </c>
-      <c r="AM108">
-        <v>1.35</v>
-      </c>
-      <c r="AN108">
-        <v>2</v>
-      </c>
-      <c r="AO108">
-        <v>1.6</v>
-      </c>
-      <c r="AP108">
-        <v>2</v>
-      </c>
-      <c r="AQ108">
-        <v>1.25</v>
-      </c>
-      <c r="AR108">
-        <v>1.59</v>
-      </c>
-      <c r="AS108">
-        <v>1.31</v>
-      </c>
-      <c r="AT108">
-        <v>2.9</v>
-      </c>
-      <c r="AU108">
-        <v>2</v>
-      </c>
-      <c r="AV108">
-        <v>2</v>
-      </c>
-      <c r="AW108">
-        <v>5</v>
-      </c>
-      <c r="AX108">
-        <v>8</v>
-      </c>
-      <c r="AY108">
-        <v>12</v>
-      </c>
-      <c r="AZ108">
-        <v>13</v>
-      </c>
-      <c r="BA108">
-        <v>6</v>
-      </c>
-      <c r="BB108">
-        <v>2</v>
-      </c>
-      <c r="BC108">
-        <v>8</v>
-      </c>
-      <c r="BD108">
+      <c r="BI108">
+        <v>1.56</v>
+      </c>
+      <c r="BJ108">
         <v>2.23</v>
       </c>
-      <c r="BE108">
-        <v>6.4</v>
-      </c>
-      <c r="BF108">
-        <v>1.72</v>
-      </c>
-      <c r="BG108">
-        <v>1.4</v>
-      </c>
-      <c r="BH108">
-        <v>2.7</v>
-      </c>
-      <c r="BI108">
-        <v>1.66</v>
-      </c>
-      <c r="BJ108">
-        <v>2.07</v>
-      </c>
       <c r="BK108">
-        <v>2.08</v>
+        <v>1.9</v>
       </c>
       <c r="BL108">
-        <v>1.65</v>
+        <v>1.78</v>
       </c>
       <c r="BM108">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BN108">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="BO108">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="BP108">
-        <v>1.24</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23489,7 +23489,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7516397</v>
+        <v>7516391</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23501,193 +23501,193 @@
         <v>45606.54166666666</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G109" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="H109" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M109">
         <v>0</v>
       </c>
       <c r="N109">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O109" t="s">
-        <v>165</v>
+        <v>91</v>
       </c>
       <c r="P109" t="s">
         <v>91</v>
       </c>
       <c r="Q109">
-        <v>1.57</v>
+        <v>3.5</v>
       </c>
       <c r="R109">
+        <v>2.1</v>
+      </c>
+      <c r="S109">
         <v>2.75</v>
       </c>
-      <c r="S109">
-        <v>8.5</v>
-      </c>
       <c r="T109">
+        <v>1.35</v>
+      </c>
+      <c r="U109">
+        <v>2.95</v>
+      </c>
+      <c r="V109">
+        <v>2.55</v>
+      </c>
+      <c r="W109">
+        <v>1.45</v>
+      </c>
+      <c r="X109">
+        <v>5.75</v>
+      </c>
+      <c r="Y109">
+        <v>1.1</v>
+      </c>
+      <c r="Z109">
+        <v>3.1</v>
+      </c>
+      <c r="AA109">
+        <v>3.3</v>
+      </c>
+      <c r="AB109">
+        <v>2.3</v>
+      </c>
+      <c r="AC109">
+        <v>1.05</v>
+      </c>
+      <c r="AD109">
+        <v>9</v>
+      </c>
+      <c r="AE109">
         <v>1.25</v>
       </c>
-      <c r="U109">
-        <v>3.65</v>
-      </c>
-      <c r="V109">
+      <c r="AF109">
+        <v>3.75</v>
+      </c>
+      <c r="AG109">
+        <v>1.85</v>
+      </c>
+      <c r="AH109">
+        <v>2</v>
+      </c>
+      <c r="AI109">
+        <v>1.62</v>
+      </c>
+      <c r="AJ109">
         <v>2.15</v>
       </c>
-      <c r="W109">
+      <c r="AK109">
         <v>1.62</v>
       </c>
-      <c r="X109">
-        <v>4.75</v>
-      </c>
-      <c r="Y109">
-        <v>1.15</v>
-      </c>
-      <c r="Z109">
-        <v>1.2</v>
-      </c>
-      <c r="AA109">
-        <v>7</v>
-      </c>
-      <c r="AB109">
-        <v>11</v>
-      </c>
-      <c r="AC109">
-        <v>1.01</v>
-      </c>
-      <c r="AD109">
-        <v>17</v>
-      </c>
-      <c r="AE109">
-        <v>1.14</v>
-      </c>
-      <c r="AF109">
-        <v>5.5</v>
-      </c>
-      <c r="AG109">
-        <v>1.46</v>
-      </c>
-      <c r="AH109">
-        <v>2.6</v>
-      </c>
-      <c r="AI109">
-        <v>2.05</v>
-      </c>
-      <c r="AJ109">
-        <v>1.7</v>
-      </c>
-      <c r="AK109">
-        <v>1.04</v>
-      </c>
       <c r="AL109">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
       <c r="AM109">
-        <v>4.2</v>
+        <v>1.35</v>
       </c>
       <c r="AN109">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AO109">
+        <v>1.6</v>
+      </c>
+      <c r="AP109">
+        <v>2</v>
+      </c>
+      <c r="AQ109">
+        <v>1.25</v>
+      </c>
+      <c r="AR109">
+        <v>1.59</v>
+      </c>
+      <c r="AS109">
+        <v>1.31</v>
+      </c>
+      <c r="AT109">
+        <v>2.9</v>
+      </c>
+      <c r="AU109">
+        <v>2</v>
+      </c>
+      <c r="AV109">
+        <v>2</v>
+      </c>
+      <c r="AW109">
+        <v>5</v>
+      </c>
+      <c r="AX109">
+        <v>8</v>
+      </c>
+      <c r="AY109">
+        <v>12</v>
+      </c>
+      <c r="AZ109">
+        <v>13</v>
+      </c>
+      <c r="BA109">
+        <v>6</v>
+      </c>
+      <c r="BB109">
+        <v>2</v>
+      </c>
+      <c r="BC109">
+        <v>8</v>
+      </c>
+      <c r="BD109">
+        <v>2.23</v>
+      </c>
+      <c r="BE109">
+        <v>6.4</v>
+      </c>
+      <c r="BF109">
+        <v>1.72</v>
+      </c>
+      <c r="BG109">
         <v>1.4</v>
       </c>
-      <c r="AP109">
-        <v>2.57</v>
-      </c>
-      <c r="AQ109">
-        <v>0.88</v>
-      </c>
-      <c r="AR109">
-        <v>1.89</v>
-      </c>
-      <c r="AS109">
-        <v>1.11</v>
-      </c>
-      <c r="AT109">
-        <v>3</v>
-      </c>
-      <c r="AU109">
-        <v>9</v>
-      </c>
-      <c r="AV109">
-        <v>2</v>
-      </c>
-      <c r="AW109">
-        <v>12</v>
-      </c>
-      <c r="AX109">
-        <v>3</v>
-      </c>
-      <c r="AY109">
-        <v>25</v>
-      </c>
-      <c r="AZ109">
-        <v>7</v>
-      </c>
-      <c r="BA109">
-        <v>8</v>
-      </c>
-      <c r="BB109">
-        <v>5</v>
-      </c>
-      <c r="BC109">
-        <v>13</v>
-      </c>
-      <c r="BD109">
-        <v>1.11</v>
-      </c>
-      <c r="BE109">
-        <v>9</v>
-      </c>
-      <c r="BF109">
-        <v>6.4</v>
-      </c>
-      <c r="BG109">
-        <v>1.33</v>
-      </c>
       <c r="BH109">
-        <v>2.95</v>
+        <v>2.7</v>
       </c>
       <c r="BI109">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="BJ109">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="BK109">
-        <v>1.9</v>
+        <v>2.08</v>
       </c>
       <c r="BL109">
-        <v>1.78</v>
+        <v>1.65</v>
       </c>
       <c r="BM109">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BN109">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="BO109">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="BP109">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23901,7 +23901,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7516406</v>
+        <v>7516400</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23916,190 +23916,190 @@
         <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H111" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N111">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="O111" t="s">
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>91</v>
+        <v>269</v>
       </c>
       <c r="Q111">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="R111">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S111">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="T111">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U111">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V111">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W111">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X111">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y111">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z111">
-        <v>2.3</v>
+        <v>2.86</v>
       </c>
       <c r="AA111">
-        <v>3.64</v>
+        <v>3.26</v>
       </c>
       <c r="AB111">
-        <v>2.51</v>
+        <v>2.21</v>
       </c>
       <c r="AC111">
         <v>1.03</v>
       </c>
       <c r="AD111">
-        <v>10.65</v>
+        <v>17</v>
       </c>
       <c r="AE111">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="AF111">
-        <v>3.61</v>
+        <v>4.5</v>
       </c>
       <c r="AG111">
-        <v>1.88</v>
+        <v>1.65</v>
       </c>
       <c r="AH111">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="AI111">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AJ111">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK111">
+        <v>2.8</v>
+      </c>
+      <c r="AL111">
+        <v>1.22</v>
+      </c>
+      <c r="AM111">
+        <v>1.15</v>
+      </c>
+      <c r="AN111">
+        <v>0.6</v>
+      </c>
+      <c r="AO111">
+        <v>2.33</v>
+      </c>
+      <c r="AP111">
+        <v>0.75</v>
+      </c>
+      <c r="AQ111">
+        <v>2</v>
+      </c>
+      <c r="AR111">
+        <v>1.64</v>
+      </c>
+      <c r="AS111">
+        <v>1.49</v>
+      </c>
+      <c r="AT111">
+        <v>3.13</v>
+      </c>
+      <c r="AU111">
+        <v>4</v>
+      </c>
+      <c r="AV111">
+        <v>11</v>
+      </c>
+      <c r="AW111">
+        <v>14</v>
+      </c>
+      <c r="AX111">
+        <v>7</v>
+      </c>
+      <c r="AY111">
+        <v>18</v>
+      </c>
+      <c r="AZ111">
+        <v>18</v>
+      </c>
+      <c r="BA111">
+        <v>10</v>
+      </c>
+      <c r="BB111">
+        <v>5</v>
+      </c>
+      <c r="BC111">
+        <v>15</v>
+      </c>
+      <c r="BD111">
+        <v>3.3</v>
+      </c>
+      <c r="BE111">
+        <v>7</v>
+      </c>
+      <c r="BF111">
+        <v>1.34</v>
+      </c>
+      <c r="BG111">
+        <v>1.3</v>
+      </c>
+      <c r="BH111">
+        <v>3.1</v>
+      </c>
+      <c r="BI111">
         <v>1.53</v>
       </c>
-      <c r="AL111">
-        <v>1.35</v>
-      </c>
-      <c r="AM111">
-        <v>1.52</v>
-      </c>
-      <c r="AN111">
-        <v>1.6</v>
-      </c>
-      <c r="AO111">
-        <v>1.17</v>
-      </c>
-      <c r="AP111">
-        <v>2.13</v>
-      </c>
-      <c r="AQ111">
-        <v>0.88</v>
-      </c>
-      <c r="AR111">
-        <v>1.46</v>
-      </c>
-      <c r="AS111">
-        <v>1.28</v>
-      </c>
-      <c r="AT111">
-        <v>2.74</v>
-      </c>
-      <c r="AU111">
-        <v>9</v>
-      </c>
-      <c r="AV111">
-        <v>8</v>
-      </c>
-      <c r="AW111">
-        <v>8</v>
-      </c>
-      <c r="AX111">
-        <v>9</v>
-      </c>
-      <c r="AY111">
-        <v>17</v>
-      </c>
-      <c r="AZ111">
-        <v>17</v>
-      </c>
-      <c r="BA111">
-        <v>2</v>
-      </c>
-      <c r="BB111">
-        <v>6</v>
-      </c>
-      <c r="BC111">
-        <v>8</v>
-      </c>
-      <c r="BD111">
-        <v>1.75</v>
-      </c>
-      <c r="BE111">
-        <v>5.8</v>
-      </c>
-      <c r="BF111">
-        <v>2.18</v>
-      </c>
-      <c r="BG111">
-        <v>1.41</v>
-      </c>
-      <c r="BH111">
-        <v>2.63</v>
-      </c>
-      <c r="BI111">
-        <v>1.72</v>
-      </c>
       <c r="BJ111">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="BK111">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="BL111">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="BM111">
-        <v>2.8</v>
+        <v>2.33</v>
       </c>
       <c r="BN111">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="BO111">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="BP111">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -24107,7 +24107,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7516400</v>
+        <v>7516406</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -24122,190 +24122,190 @@
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H112" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
         <v>3</v>
       </c>
-      <c r="K112">
-        <v>4</v>
-      </c>
-      <c r="L112">
-        <v>2</v>
-      </c>
       <c r="M112">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O112" t="s">
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="Q112">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="R112">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S112">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="T112">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U112">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W112">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X112">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y112">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z112">
-        <v>2.86</v>
+        <v>2.3</v>
       </c>
       <c r="AA112">
-        <v>3.26</v>
+        <v>3.64</v>
       </c>
       <c r="AB112">
-        <v>2.21</v>
+        <v>2.51</v>
       </c>
       <c r="AC112">
         <v>1.03</v>
       </c>
       <c r="AD112">
+        <v>10.65</v>
+      </c>
+      <c r="AE112">
+        <v>1.27</v>
+      </c>
+      <c r="AF112">
+        <v>3.61</v>
+      </c>
+      <c r="AG112">
+        <v>1.88</v>
+      </c>
+      <c r="AH112">
+        <v>1.98</v>
+      </c>
+      <c r="AI112">
+        <v>1.67</v>
+      </c>
+      <c r="AJ112">
+        <v>2.1</v>
+      </c>
+      <c r="AK112">
+        <v>1.53</v>
+      </c>
+      <c r="AL112">
+        <v>1.35</v>
+      </c>
+      <c r="AM112">
+        <v>1.52</v>
+      </c>
+      <c r="AN112">
+        <v>1.6</v>
+      </c>
+      <c r="AO112">
+        <v>1.17</v>
+      </c>
+      <c r="AP112">
+        <v>2.13</v>
+      </c>
+      <c r="AQ112">
+        <v>0.88</v>
+      </c>
+      <c r="AR112">
+        <v>1.46</v>
+      </c>
+      <c r="AS112">
+        <v>1.28</v>
+      </c>
+      <c r="AT112">
+        <v>2.74</v>
+      </c>
+      <c r="AU112">
+        <v>9</v>
+      </c>
+      <c r="AV112">
+        <v>8</v>
+      </c>
+      <c r="AW112">
+        <v>8</v>
+      </c>
+      <c r="AX112">
+        <v>9</v>
+      </c>
+      <c r="AY112">
         <v>17</v>
       </c>
-      <c r="AE112">
-        <v>1.19</v>
-      </c>
-      <c r="AF112">
-        <v>4.5</v>
-      </c>
-      <c r="AG112">
-        <v>1.65</v>
-      </c>
-      <c r="AH112">
-        <v>2.1</v>
-      </c>
-      <c r="AI112">
-        <v>1.73</v>
-      </c>
-      <c r="AJ112">
-        <v>2</v>
-      </c>
-      <c r="AK112">
+      <c r="AZ112">
+        <v>17</v>
+      </c>
+      <c r="BA112">
+        <v>2</v>
+      </c>
+      <c r="BB112">
+        <v>6</v>
+      </c>
+      <c r="BC112">
+        <v>8</v>
+      </c>
+      <c r="BD112">
+        <v>1.75</v>
+      </c>
+      <c r="BE112">
+        <v>5.8</v>
+      </c>
+      <c r="BF112">
+        <v>2.18</v>
+      </c>
+      <c r="BG112">
+        <v>1.41</v>
+      </c>
+      <c r="BH112">
+        <v>2.63</v>
+      </c>
+      <c r="BI112">
+        <v>1.72</v>
+      </c>
+      <c r="BJ112">
+        <v>1.98</v>
+      </c>
+      <c r="BK112">
+        <v>2.17</v>
+      </c>
+      <c r="BL112">
+        <v>1.6</v>
+      </c>
+      <c r="BM112">
         <v>2.8</v>
       </c>
-      <c r="AL112">
-        <v>1.22</v>
-      </c>
-      <c r="AM112">
-        <v>1.15</v>
-      </c>
-      <c r="AN112">
-        <v>0.6</v>
-      </c>
-      <c r="AO112">
-        <v>2.33</v>
-      </c>
-      <c r="AP112">
-        <v>0.75</v>
-      </c>
-      <c r="AQ112">
-        <v>2</v>
-      </c>
-      <c r="AR112">
-        <v>1.64</v>
-      </c>
-      <c r="AS112">
-        <v>1.49</v>
-      </c>
-      <c r="AT112">
-        <v>3.13</v>
-      </c>
-      <c r="AU112">
-        <v>4</v>
-      </c>
-      <c r="AV112">
-        <v>11</v>
-      </c>
-      <c r="AW112">
-        <v>14</v>
-      </c>
-      <c r="AX112">
-        <v>7</v>
-      </c>
-      <c r="AY112">
-        <v>18</v>
-      </c>
-      <c r="AZ112">
-        <v>18</v>
-      </c>
-      <c r="BA112">
-        <v>10</v>
-      </c>
-      <c r="BB112">
-        <v>5</v>
-      </c>
-      <c r="BC112">
-        <v>15</v>
-      </c>
-      <c r="BD112">
-        <v>3.3</v>
-      </c>
-      <c r="BE112">
-        <v>7</v>
-      </c>
-      <c r="BF112">
-        <v>1.34</v>
-      </c>
-      <c r="BG112">
-        <v>1.3</v>
-      </c>
-      <c r="BH112">
-        <v>3.1</v>
-      </c>
-      <c r="BI112">
-        <v>1.53</v>
-      </c>
-      <c r="BJ112">
-        <v>2.3</v>
-      </c>
-      <c r="BK112">
-        <v>1.86</v>
-      </c>
-      <c r="BL112">
-        <v>1.82</v>
-      </c>
-      <c r="BM112">
-        <v>2.33</v>
-      </c>
       <c r="BN112">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="BO112">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="BP112">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24725,7 +24725,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7516402</v>
+        <v>7516401</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24740,10 +24740,10 @@
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H115" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I115">
         <v>1</v>
@@ -24764,64 +24764,64 @@
         <v>2</v>
       </c>
       <c r="O115" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q115">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="R115">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S115">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="T115">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U115">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V115">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W115">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X115">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y115">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z115">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="AA115">
+        <v>3.35</v>
+      </c>
+      <c r="AB115">
         <v>3.6</v>
       </c>
-      <c r="AB115">
-        <v>4.4</v>
-      </c>
       <c r="AC115">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD115">
-        <v>10.65</v>
+        <v>9</v>
       </c>
       <c r="AE115">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="AF115">
-        <v>3.61</v>
+        <v>3.25</v>
       </c>
       <c r="AG115">
-        <v>1.94</v>
+        <v>2.1</v>
       </c>
       <c r="AH115">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AI115">
         <v>1.83</v>
@@ -24830,100 +24830,100 @@
         <v>1.83</v>
       </c>
       <c r="AK115">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AL115">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM115">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="AN115">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AO115">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="AP115">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AQ115">
-        <v>0.75</v>
+        <v>0.29</v>
       </c>
       <c r="AR115">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AS115">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="AT115">
-        <v>2.63</v>
+        <v>2.47</v>
       </c>
       <c r="AU115">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX115">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AY115">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ115">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB115">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC115">
         <v>10</v>
       </c>
       <c r="BD115">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BE115">
         <v>6.4</v>
       </c>
       <c r="BF115">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="BG115">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
       <c r="BH115">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BI115">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="BJ115">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="BK115">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="BL115">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="BM115">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="BN115">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="BO115">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BP115">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -24931,7 +24931,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7516401</v>
+        <v>7516402</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24946,10 +24946,10 @@
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H116" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I116">
         <v>1</v>
@@ -24970,64 +24970,64 @@
         <v>2</v>
       </c>
       <c r="O116" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q116">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="R116">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S116">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="T116">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U116">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V116">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W116">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X116">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y116">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z116">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="AA116">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="AB116">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="AC116">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD116">
-        <v>9</v>
+        <v>10.65</v>
       </c>
       <c r="AE116">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="AF116">
-        <v>3.25</v>
+        <v>3.61</v>
       </c>
       <c r="AG116">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="AH116">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="AI116">
         <v>1.83</v>
@@ -25036,100 +25036,100 @@
         <v>1.83</v>
       </c>
       <c r="AK116">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AL116">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AM116">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="AN116">
+        <v>1.67</v>
+      </c>
+      <c r="AO116">
+        <v>0.8</v>
+      </c>
+      <c r="AP116">
+        <v>1.75</v>
+      </c>
+      <c r="AQ116">
+        <v>0.75</v>
+      </c>
+      <c r="AR116">
         <v>1.6</v>
       </c>
-      <c r="AO116">
-        <v>0.2</v>
-      </c>
-      <c r="AP116">
-        <v>1.43</v>
-      </c>
-      <c r="AQ116">
-        <v>0.29</v>
-      </c>
-      <c r="AR116">
-        <v>1.38</v>
-      </c>
       <c r="AS116">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="AT116">
-        <v>2.47</v>
+        <v>2.63</v>
       </c>
       <c r="AU116">
+        <v>5</v>
+      </c>
+      <c r="AV116">
+        <v>5</v>
+      </c>
+      <c r="AW116">
         <v>3</v>
       </c>
-      <c r="AV116">
-        <v>4</v>
-      </c>
-      <c r="AW116">
-        <v>4</v>
-      </c>
       <c r="AX116">
+        <v>7</v>
+      </c>
+      <c r="AY116">
+        <v>12</v>
+      </c>
+      <c r="AZ116">
+        <v>16</v>
+      </c>
+      <c r="BA116">
+        <v>1</v>
+      </c>
+      <c r="BB116">
         <v>9</v>
-      </c>
-      <c r="AY116">
-        <v>11</v>
-      </c>
-      <c r="AZ116">
-        <v>15</v>
-      </c>
-      <c r="BA116">
-        <v>2</v>
-      </c>
-      <c r="BB116">
-        <v>8</v>
       </c>
       <c r="BC116">
         <v>10</v>
       </c>
       <c r="BD116">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BE116">
         <v>6.4</v>
       </c>
       <c r="BF116">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="BG116">
-        <v>1.35</v>
+        <v>1.41</v>
       </c>
       <c r="BH116">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BI116">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="BJ116">
-        <v>2.17</v>
+        <v>2.05</v>
       </c>
       <c r="BK116">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="BL116">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="BM116">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BN116">
-        <v>1.46</v>
+        <v>1.41</v>
       </c>
       <c r="BO116">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BP116">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -26991,7 +26991,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7516415</v>
+        <v>7516414</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -27006,10 +27006,10 @@
         <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -27021,13 +27021,13 @@
         <v>2</v>
       </c>
       <c r="L126">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M126">
         <v>1</v>
       </c>
       <c r="N126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O126" t="s">
         <v>178</v>
@@ -27036,94 +27036,94 @@
         <v>276</v>
       </c>
       <c r="Q126">
+        <v>4.33</v>
+      </c>
+      <c r="R126">
+        <v>2.3</v>
+      </c>
+      <c r="S126">
+        <v>2.4</v>
+      </c>
+      <c r="T126">
+        <v>1.33</v>
+      </c>
+      <c r="U126">
+        <v>3.25</v>
+      </c>
+      <c r="V126">
+        <v>2.63</v>
+      </c>
+      <c r="W126">
+        <v>1.44</v>
+      </c>
+      <c r="X126">
+        <v>6.5</v>
+      </c>
+      <c r="Y126">
+        <v>1.11</v>
+      </c>
+      <c r="Z126">
+        <v>4.1</v>
+      </c>
+      <c r="AA126">
+        <v>3.7</v>
+      </c>
+      <c r="AB126">
+        <v>1.81</v>
+      </c>
+      <c r="AC126">
+        <v>1.04</v>
+      </c>
+      <c r="AD126">
+        <v>15</v>
+      </c>
+      <c r="AE126">
+        <v>1.21</v>
+      </c>
+      <c r="AF126">
+        <v>4.22</v>
+      </c>
+      <c r="AG126">
+        <v>1.72</v>
+      </c>
+      <c r="AH126">
+        <v>2.13</v>
+      </c>
+      <c r="AI126">
         <v>1.67</v>
       </c>
-      <c r="R126">
-        <v>2.88</v>
-      </c>
-      <c r="S126">
-        <v>8</v>
-      </c>
-      <c r="T126">
-        <v>1.22</v>
-      </c>
-      <c r="U126">
-        <v>4</v>
-      </c>
-      <c r="V126">
+      <c r="AJ126">
         <v>2.1</v>
       </c>
-      <c r="W126">
-        <v>1.67</v>
-      </c>
-      <c r="X126">
-        <v>4.5</v>
-      </c>
-      <c r="Y126">
-        <v>1.18</v>
-      </c>
-      <c r="Z126">
-        <v>1.23</v>
-      </c>
-      <c r="AA126">
-        <v>6.4</v>
-      </c>
-      <c r="AB126">
-        <v>10</v>
-      </c>
-      <c r="AC126">
-        <v>1.01</v>
-      </c>
-      <c r="AD126">
-        <v>26</v>
-      </c>
-      <c r="AE126">
-        <v>1.1</v>
-      </c>
-      <c r="AF126">
-        <v>6.6</v>
-      </c>
-      <c r="AG126">
-        <v>1.36</v>
-      </c>
-      <c r="AH126">
-        <v>2.9</v>
-      </c>
-      <c r="AI126">
-        <v>1.83</v>
-      </c>
-      <c r="AJ126">
-        <v>1.83</v>
-      </c>
       <c r="AK126">
-        <v>1.06</v>
+        <v>2.05</v>
       </c>
       <c r="AL126">
-        <v>1.14</v>
+        <v>1.3</v>
       </c>
       <c r="AM126">
-        <v>4.33</v>
+        <v>1.28</v>
       </c>
       <c r="AN126">
-        <v>2.4</v>
+        <v>0.83</v>
       </c>
       <c r="AO126">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP126">
-        <v>2.57</v>
+        <v>0.78</v>
       </c>
       <c r="AQ126">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
-        <v>2</v>
+        <v>1.08</v>
       </c>
       <c r="AS126">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AT126">
-        <v>3.17</v>
+        <v>2.38</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27132,64 +27132,64 @@
         <v>3</v>
       </c>
       <c r="AW126">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX126">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY126">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="AZ126">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BA126">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BB126">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC126">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="BD126">
-        <v>1.18</v>
+        <v>2.7</v>
       </c>
       <c r="BE126">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF126">
-        <v>4.6</v>
+        <v>1.49</v>
       </c>
       <c r="BG126">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="BH126">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BI126">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="BJ126">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="BK126">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="BL126">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="BM126">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="BN126">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="BO126">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="BP126">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -27197,7 +27197,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7516414</v>
+        <v>7516415</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27212,10 +27212,10 @@
         <v>14</v>
       </c>
       <c r="G127" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="H127" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I127">
         <v>1</v>
@@ -27227,13 +27227,13 @@
         <v>2</v>
       </c>
       <c r="L127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M127">
         <v>1</v>
       </c>
       <c r="N127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O127" t="s">
         <v>179</v>
@@ -27242,94 +27242,94 @@
         <v>276</v>
       </c>
       <c r="Q127">
+        <v>1.67</v>
+      </c>
+      <c r="R127">
+        <v>2.88</v>
+      </c>
+      <c r="S127">
+        <v>8</v>
+      </c>
+      <c r="T127">
+        <v>1.22</v>
+      </c>
+      <c r="U127">
+        <v>4</v>
+      </c>
+      <c r="V127">
+        <v>2.1</v>
+      </c>
+      <c r="W127">
+        <v>1.67</v>
+      </c>
+      <c r="X127">
+        <v>4.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.18</v>
+      </c>
+      <c r="Z127">
+        <v>1.23</v>
+      </c>
+      <c r="AA127">
+        <v>6.4</v>
+      </c>
+      <c r="AB127">
+        <v>10</v>
+      </c>
+      <c r="AC127">
+        <v>1.01</v>
+      </c>
+      <c r="AD127">
+        <v>26</v>
+      </c>
+      <c r="AE127">
+        <v>1.1</v>
+      </c>
+      <c r="AF127">
+        <v>6.6</v>
+      </c>
+      <c r="AG127">
+        <v>1.36</v>
+      </c>
+      <c r="AH127">
+        <v>2.9</v>
+      </c>
+      <c r="AI127">
+        <v>1.83</v>
+      </c>
+      <c r="AJ127">
+        <v>1.83</v>
+      </c>
+      <c r="AK127">
+        <v>1.06</v>
+      </c>
+      <c r="AL127">
+        <v>1.14</v>
+      </c>
+      <c r="AM127">
         <v>4.33</v>
       </c>
-      <c r="R127">
-        <v>2.3</v>
-      </c>
-      <c r="S127">
+      <c r="AN127">
         <v>2.4</v>
       </c>
-      <c r="T127">
-        <v>1.33</v>
-      </c>
-      <c r="U127">
-        <v>3.25</v>
-      </c>
-      <c r="V127">
-        <v>2.63</v>
-      </c>
-      <c r="W127">
-        <v>1.44</v>
-      </c>
-      <c r="X127">
-        <v>6.5</v>
-      </c>
-      <c r="Y127">
-        <v>1.11</v>
-      </c>
-      <c r="Z127">
-        <v>4.1</v>
-      </c>
-      <c r="AA127">
-        <v>3.7</v>
-      </c>
-      <c r="AB127">
-        <v>1.81</v>
-      </c>
-      <c r="AC127">
-        <v>1.04</v>
-      </c>
-      <c r="AD127">
-        <v>15</v>
-      </c>
-      <c r="AE127">
-        <v>1.21</v>
-      </c>
-      <c r="AF127">
-        <v>4.22</v>
-      </c>
-      <c r="AG127">
-        <v>1.72</v>
-      </c>
-      <c r="AH127">
-        <v>2.13</v>
-      </c>
-      <c r="AI127">
-        <v>1.67</v>
-      </c>
-      <c r="AJ127">
-        <v>2.1</v>
-      </c>
-      <c r="AK127">
-        <v>2.05</v>
-      </c>
-      <c r="AL127">
-        <v>1.3</v>
-      </c>
-      <c r="AM127">
-        <v>1.28</v>
-      </c>
-      <c r="AN127">
-        <v>0.83</v>
-      </c>
       <c r="AO127">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>0.78</v>
+        <v>2.57</v>
       </c>
       <c r="AQ127">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="AR127">
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="AS127">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AT127">
-        <v>2.38</v>
+        <v>3.17</v>
       </c>
       <c r="AU127">
         <v>5</v>
@@ -27338,64 +27338,64 @@
         <v>3</v>
       </c>
       <c r="AW127">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX127">
+        <v>2</v>
+      </c>
+      <c r="AY127">
+        <v>19</v>
+      </c>
+      <c r="AZ127">
+        <v>7</v>
+      </c>
+      <c r="BA127">
+        <v>17</v>
+      </c>
+      <c r="BB127">
+        <v>3</v>
+      </c>
+      <c r="BC127">
+        <v>20</v>
+      </c>
+      <c r="BD127">
+        <v>1.18</v>
+      </c>
+      <c r="BE127">
         <v>8</v>
       </c>
-      <c r="AY127">
-        <v>14</v>
-      </c>
-      <c r="AZ127">
-        <v>13</v>
-      </c>
-      <c r="BA127">
-        <v>6</v>
-      </c>
-      <c r="BB127">
-        <v>9</v>
-      </c>
-      <c r="BC127">
-        <v>15</v>
-      </c>
-      <c r="BD127">
-        <v>2.7</v>
-      </c>
-      <c r="BE127">
-        <v>6.4</v>
-      </c>
       <c r="BF127">
-        <v>1.49</v>
+        <v>4.6</v>
       </c>
       <c r="BG127">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BH127">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="BI127">
-        <v>1.64</v>
+        <v>1.54</v>
       </c>
       <c r="BJ127">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BK127">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="BL127">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="BM127">
-        <v>2.55</v>
+        <v>2.33</v>
       </c>
       <c r="BN127">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="BO127">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BP127">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -28433,7 +28433,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7516417</v>
+        <v>7516418</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28445,193 +28445,193 @@
         <v>45634.41666666666</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H133" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L133">
         <v>2</v>
       </c>
       <c r="M133">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N133">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O133" t="s">
         <v>185</v>
       </c>
       <c r="P133" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="Q133">
+        <v>3</v>
+      </c>
+      <c r="R133">
+        <v>2.2</v>
+      </c>
+      <c r="S133">
+        <v>3.4</v>
+      </c>
+      <c r="T133">
+        <v>1.4</v>
+      </c>
+      <c r="U133">
+        <v>3.2</v>
+      </c>
+      <c r="V133">
+        <v>2.85</v>
+      </c>
+      <c r="W133">
+        <v>1.47</v>
+      </c>
+      <c r="X133">
+        <v>7.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.12</v>
+      </c>
+      <c r="Z133">
+        <v>2.36</v>
+      </c>
+      <c r="AA133">
+        <v>3.43</v>
+      </c>
+      <c r="AB133">
+        <v>2.87</v>
+      </c>
+      <c r="AC133">
+        <v>1.05</v>
+      </c>
+      <c r="AD133">
+        <v>13</v>
+      </c>
+      <c r="AE133">
+        <v>1.25</v>
+      </c>
+      <c r="AF133">
+        <v>3.82</v>
+      </c>
+      <c r="AG133">
+        <v>1.79</v>
+      </c>
+      <c r="AH133">
+        <v>1.98</v>
+      </c>
+      <c r="AI133">
+        <v>1.65</v>
+      </c>
+      <c r="AJ133">
+        <v>2.2</v>
+      </c>
+      <c r="AK133">
+        <v>1.45</v>
+      </c>
+      <c r="AL133">
+        <v>1.33</v>
+      </c>
+      <c r="AM133">
+        <v>1.65</v>
+      </c>
+      <c r="AN133">
+        <v>0.5</v>
+      </c>
+      <c r="AO133">
+        <v>0.83</v>
+      </c>
+      <c r="AP133">
+        <v>0.75</v>
+      </c>
+      <c r="AQ133">
+        <v>0.75</v>
+      </c>
+      <c r="AR133">
+        <v>1.67</v>
+      </c>
+      <c r="AS133">
+        <v>1.1</v>
+      </c>
+      <c r="AT133">
+        <v>2.77</v>
+      </c>
+      <c r="AU133">
+        <v>7</v>
+      </c>
+      <c r="AV133">
         <v>6</v>
       </c>
-      <c r="R133">
-        <v>2.8</v>
-      </c>
-      <c r="S133">
-        <v>1.8</v>
-      </c>
-      <c r="T133">
-        <v>1.25</v>
-      </c>
-      <c r="U133">
-        <v>4.33</v>
-      </c>
-      <c r="V133">
-        <v>2.15</v>
-      </c>
-      <c r="W133">
-        <v>1.78</v>
-      </c>
-      <c r="X133">
-        <v>4.75</v>
-      </c>
-      <c r="Y133">
-        <v>1.22</v>
-      </c>
-      <c r="Z133">
-        <v>7.91</v>
-      </c>
-      <c r="AA133">
-        <v>5.21</v>
-      </c>
-      <c r="AB133">
-        <v>1.34</v>
-      </c>
-      <c r="AC133">
-        <v>1.01</v>
-      </c>
-      <c r="AD133">
-        <v>26</v>
-      </c>
-      <c r="AE133">
-        <v>1.11</v>
-      </c>
-      <c r="AF133">
-        <v>6.09</v>
-      </c>
-      <c r="AG133">
-        <v>1.4</v>
-      </c>
-      <c r="AH133">
-        <v>2.87</v>
-      </c>
-      <c r="AI133">
-        <v>1.63</v>
-      </c>
-      <c r="AJ133">
-        <v>2.25</v>
-      </c>
-      <c r="AK133">
-        <v>3.3</v>
-      </c>
-      <c r="AL133">
-        <v>1.17</v>
-      </c>
-      <c r="AM133">
-        <v>1.11</v>
-      </c>
-      <c r="AN133">
-        <v>1.57</v>
-      </c>
-      <c r="AO133">
+      <c r="AW133">
         <v>3</v>
       </c>
-      <c r="AP133">
-        <v>1.33</v>
-      </c>
-      <c r="AQ133">
-        <v>3</v>
-      </c>
-      <c r="AR133">
-        <v>1.23</v>
-      </c>
-      <c r="AS133">
-        <v>1.89</v>
-      </c>
-      <c r="AT133">
-        <v>3.12</v>
-      </c>
-      <c r="AU133">
-        <v>6</v>
-      </c>
-      <c r="AV133">
-        <v>9</v>
-      </c>
-      <c r="AW133">
-        <v>5</v>
-      </c>
       <c r="AX133">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AY133">
         <v>12</v>
       </c>
       <c r="AZ133">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BA133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB133">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BC133">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BD133">
-        <v>4.1</v>
+        <v>1.91</v>
       </c>
       <c r="BE133">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF133">
+        <v>2.08</v>
+      </c>
+      <c r="BG133">
+        <v>1.38</v>
+      </c>
+      <c r="BH133">
+        <v>2.7</v>
+      </c>
+      <c r="BI133">
+        <v>1.65</v>
+      </c>
+      <c r="BJ133">
+        <v>2.08</v>
+      </c>
+      <c r="BK133">
+        <v>2.04</v>
+      </c>
+      <c r="BL133">
+        <v>1.67</v>
+      </c>
+      <c r="BM133">
+        <v>2.63</v>
+      </c>
+      <c r="BN133">
+        <v>1.41</v>
+      </c>
+      <c r="BO133">
+        <v>3.4</v>
+      </c>
+      <c r="BP133">
         <v>1.26</v>
-      </c>
-      <c r="BG133">
-        <v>1.28</v>
-      </c>
-      <c r="BH133">
-        <v>3.3</v>
-      </c>
-      <c r="BI133">
-        <v>1.49</v>
-      </c>
-      <c r="BJ133">
-        <v>2.4</v>
-      </c>
-      <c r="BK133">
-        <v>1.79</v>
-      </c>
-      <c r="BL133">
-        <v>1.9</v>
-      </c>
-      <c r="BM133">
-        <v>2.23</v>
-      </c>
-      <c r="BN133">
-        <v>1.57</v>
-      </c>
-      <c r="BO133">
-        <v>2.8</v>
-      </c>
-      <c r="BP133">
-        <v>1.36</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28639,7 +28639,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7516418</v>
+        <v>7516417</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28651,193 +28651,193 @@
         <v>45634.41666666666</v>
       </c>
       <c r="F134">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G134" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H134" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L134">
         <v>2</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O134" t="s">
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>91</v>
+        <v>278</v>
       </c>
       <c r="Q134">
+        <v>6</v>
+      </c>
+      <c r="R134">
+        <v>2.8</v>
+      </c>
+      <c r="S134">
+        <v>1.8</v>
+      </c>
+      <c r="T134">
+        <v>1.25</v>
+      </c>
+      <c r="U134">
+        <v>4.33</v>
+      </c>
+      <c r="V134">
+        <v>2.15</v>
+      </c>
+      <c r="W134">
+        <v>1.78</v>
+      </c>
+      <c r="X134">
+        <v>4.75</v>
+      </c>
+      <c r="Y134">
+        <v>1.22</v>
+      </c>
+      <c r="Z134">
+        <v>7.91</v>
+      </c>
+      <c r="AA134">
+        <v>5.21</v>
+      </c>
+      <c r="AB134">
+        <v>1.34</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>26</v>
+      </c>
+      <c r="AE134">
+        <v>1.11</v>
+      </c>
+      <c r="AF134">
+        <v>6.09</v>
+      </c>
+      <c r="AG134">
+        <v>1.4</v>
+      </c>
+      <c r="AH134">
+        <v>2.87</v>
+      </c>
+      <c r="AI134">
+        <v>1.63</v>
+      </c>
+      <c r="AJ134">
+        <v>2.25</v>
+      </c>
+      <c r="AK134">
+        <v>3.3</v>
+      </c>
+      <c r="AL134">
+        <v>1.17</v>
+      </c>
+      <c r="AM134">
+        <v>1.11</v>
+      </c>
+      <c r="AN134">
+        <v>1.57</v>
+      </c>
+      <c r="AO134">
         <v>3</v>
       </c>
-      <c r="R134">
-        <v>2.2</v>
-      </c>
-      <c r="S134">
-        <v>3.4</v>
-      </c>
-      <c r="T134">
-        <v>1.4</v>
-      </c>
-      <c r="U134">
-        <v>3.2</v>
-      </c>
-      <c r="V134">
-        <v>2.85</v>
-      </c>
-      <c r="W134">
-        <v>1.47</v>
-      </c>
-      <c r="X134">
-        <v>7.5</v>
-      </c>
-      <c r="Y134">
-        <v>1.12</v>
-      </c>
-      <c r="Z134">
-        <v>2.36</v>
-      </c>
-      <c r="AA134">
-        <v>3.43</v>
-      </c>
-      <c r="AB134">
-        <v>2.87</v>
-      </c>
-      <c r="AC134">
-        <v>1.05</v>
-      </c>
-      <c r="AD134">
-        <v>13</v>
-      </c>
-      <c r="AE134">
-        <v>1.25</v>
-      </c>
-      <c r="AF134">
-        <v>3.82</v>
-      </c>
-      <c r="AG134">
-        <v>1.79</v>
-      </c>
-      <c r="AH134">
-        <v>1.98</v>
-      </c>
-      <c r="AI134">
-        <v>1.65</v>
-      </c>
-      <c r="AJ134">
-        <v>2.2</v>
-      </c>
-      <c r="AK134">
-        <v>1.45</v>
-      </c>
-      <c r="AL134">
+      <c r="AP134">
         <v>1.33</v>
       </c>
-      <c r="AM134">
-        <v>1.65</v>
-      </c>
-      <c r="AN134">
-        <v>0.5</v>
-      </c>
-      <c r="AO134">
-        <v>0.83</v>
-      </c>
-      <c r="AP134">
-        <v>0.75</v>
-      </c>
       <c r="AQ134">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AR134">
-        <v>1.67</v>
+        <v>1.23</v>
       </c>
       <c r="AS134">
-        <v>1.1</v>
+        <v>1.89</v>
       </c>
       <c r="AT134">
-        <v>2.77</v>
+        <v>3.12</v>
       </c>
       <c r="AU134">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV134">
+        <v>9</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
         <v>6</v>
-      </c>
-      <c r="AW134">
-        <v>3</v>
-      </c>
-      <c r="AX134">
-        <v>1</v>
       </c>
       <c r="AY134">
         <v>12</v>
       </c>
       <c r="AZ134">
+        <v>18</v>
+      </c>
+      <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
+        <v>7</v>
+      </c>
+      <c r="BC134">
         <v>10</v>
       </c>
-      <c r="BA134">
-        <v>5</v>
-      </c>
-      <c r="BB134">
-        <v>10</v>
-      </c>
-      <c r="BC134">
-        <v>15</v>
-      </c>
       <c r="BD134">
-        <v>1.91</v>
+        <v>4.1</v>
       </c>
       <c r="BE134">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF134">
-        <v>2.08</v>
+        <v>1.26</v>
       </c>
       <c r="BG134">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="BH134">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BI134">
-        <v>1.65</v>
+        <v>1.49</v>
       </c>
       <c r="BJ134">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="BK134">
-        <v>2.04</v>
+        <v>1.79</v>
       </c>
       <c r="BL134">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="BM134">
-        <v>2.63</v>
+        <v>2.23</v>
       </c>
       <c r="BN134">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="BO134">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="BP134">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -31935,7 +31935,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7516437</v>
+        <v>7516442</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31950,190 +31950,190 @@
         <v>17</v>
       </c>
       <c r="G150" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H150" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="I150">
         <v>1</v>
       </c>
       <c r="J150">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
         <v>3</v>
       </c>
-      <c r="L150">
-        <v>1</v>
-      </c>
       <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>200</v>
+      </c>
+      <c r="P150" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q150">
+        <v>2.8</v>
+      </c>
+      <c r="R150">
+        <v>2.2</v>
+      </c>
+      <c r="S150">
+        <v>3.75</v>
+      </c>
+      <c r="T150">
+        <v>1.42</v>
+      </c>
+      <c r="U150">
+        <v>3.1</v>
+      </c>
+      <c r="V150">
+        <v>2.95</v>
+      </c>
+      <c r="W150">
+        <v>1.45</v>
+      </c>
+      <c r="X150">
+        <v>8</v>
+      </c>
+      <c r="Y150">
+        <v>1.11</v>
+      </c>
+      <c r="Z150">
+        <v>2.08</v>
+      </c>
+      <c r="AA150">
+        <v>3.6</v>
+      </c>
+      <c r="AB150">
+        <v>3.27</v>
+      </c>
+      <c r="AC150">
+        <v>1.03</v>
+      </c>
+      <c r="AD150">
+        <v>10.65</v>
+      </c>
+      <c r="AE150">
+        <v>1.27</v>
+      </c>
+      <c r="AF150">
+        <v>3.61</v>
+      </c>
+      <c r="AG150">
+        <v>1.88</v>
+      </c>
+      <c r="AH150">
+        <v>1.88</v>
+      </c>
+      <c r="AI150">
+        <v>1.72</v>
+      </c>
+      <c r="AJ150">
+        <v>2.1</v>
+      </c>
+      <c r="AK150">
+        <v>1.36</v>
+      </c>
+      <c r="AL150">
+        <v>1.33</v>
+      </c>
+      <c r="AM150">
+        <v>1.78</v>
+      </c>
+      <c r="AN150">
+        <v>2.71</v>
+      </c>
+      <c r="AO150">
+        <v>1.29</v>
+      </c>
+      <c r="AP150">
+        <v>2.75</v>
+      </c>
+      <c r="AQ150">
+        <v>1.13</v>
+      </c>
+      <c r="AR150">
+        <v>1.84</v>
+      </c>
+      <c r="AS150">
+        <v>1.12</v>
+      </c>
+      <c r="AT150">
+        <v>2.96</v>
+      </c>
+      <c r="AU150">
+        <v>6</v>
+      </c>
+      <c r="AV150">
+        <v>3</v>
+      </c>
+      <c r="AW150">
+        <v>11</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>17</v>
+      </c>
+      <c r="AZ150">
+        <v>12</v>
+      </c>
+      <c r="BA150">
+        <v>3</v>
+      </c>
+      <c r="BB150">
         <v>5</v>
       </c>
-      <c r="N150">
-        <v>6</v>
-      </c>
-      <c r="O150" t="s">
-        <v>96</v>
-      </c>
-      <c r="P150" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q150">
-        <v>6.77</v>
-      </c>
-      <c r="R150">
-        <v>3.03</v>
-      </c>
-      <c r="S150">
-        <v>1.71</v>
-      </c>
-      <c r="T150">
-        <v>1.17</v>
-      </c>
-      <c r="U150">
-        <v>4.45</v>
-      </c>
-      <c r="V150">
-        <v>1.99</v>
-      </c>
-      <c r="W150">
-        <v>1.84</v>
-      </c>
-      <c r="X150">
-        <v>4.05</v>
-      </c>
-      <c r="Y150">
-        <v>1.2</v>
-      </c>
-      <c r="Z150">
-        <v>7.03</v>
-      </c>
-      <c r="AA150">
-        <v>5.67</v>
-      </c>
-      <c r="AB150">
-        <v>1.34</v>
-      </c>
-      <c r="AC150">
-        <v>1.01</v>
-      </c>
-      <c r="AD150">
-        <v>29</v>
-      </c>
-      <c r="AE150">
-        <v>1.08</v>
-      </c>
-      <c r="AF150">
-        <v>7.32</v>
-      </c>
-      <c r="AG150">
-        <v>1.32</v>
-      </c>
-      <c r="AH150">
-        <v>3.25</v>
-      </c>
-      <c r="AI150">
-        <v>1.55</v>
-      </c>
-      <c r="AJ150">
-        <v>2.29</v>
-      </c>
-      <c r="AK150">
-        <v>3.1</v>
-      </c>
-      <c r="AL150">
-        <v>1.11</v>
-      </c>
-      <c r="AM150">
-        <v>1.08</v>
-      </c>
-      <c r="AN150">
-        <v>0.86</v>
-      </c>
-      <c r="AO150">
-        <v>3</v>
-      </c>
-      <c r="AP150">
-        <v>0.75</v>
-      </c>
-      <c r="AQ150">
-        <v>3</v>
-      </c>
-      <c r="AR150">
-        <v>1.61</v>
-      </c>
-      <c r="AS150">
-        <v>1.9</v>
-      </c>
-      <c r="AT150">
-        <v>3.51</v>
-      </c>
-      <c r="AU150">
-        <v>7</v>
-      </c>
-      <c r="AV150">
-        <v>12</v>
-      </c>
-      <c r="AW150">
-        <v>5</v>
-      </c>
-      <c r="AX150">
-        <v>5</v>
-      </c>
-      <c r="AY150">
-        <v>16</v>
-      </c>
-      <c r="AZ150">
-        <v>21</v>
-      </c>
-      <c r="BA150">
-        <v>7</v>
-      </c>
-      <c r="BB150">
-        <v>7</v>
-      </c>
       <c r="BC150">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BD150">
-        <v>4.6</v>
+        <v>1.74</v>
       </c>
       <c r="BE150">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF150">
-        <v>1.23</v>
+        <v>2.33</v>
       </c>
       <c r="BG150">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="BH150">
-        <v>3.95</v>
+        <v>2.65</v>
       </c>
       <c r="BI150">
-        <v>1.35</v>
+        <v>1.67</v>
       </c>
       <c r="BJ150">
-        <v>2.9</v>
+        <v>2.04</v>
       </c>
       <c r="BK150">
-        <v>1.58</v>
+        <v>2.08</v>
       </c>
       <c r="BL150">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="BM150">
-        <v>1.9</v>
+        <v>2.65</v>
       </c>
       <c r="BN150">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="BO150">
-        <v>2.35</v>
+        <v>3.55</v>
       </c>
       <c r="BP150">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -32141,7 +32141,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7516442</v>
+        <v>7516437</v>
       </c>
       <c r="C151" t="s">
         <v>68</v>
@@ -32156,190 +32156,190 @@
         <v>17</v>
       </c>
       <c r="G151" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H151" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I151">
         <v>1</v>
       </c>
       <c r="J151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K151">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>5</v>
+      </c>
+      <c r="N151">
+        <v>6</v>
+      </c>
+      <c r="O151" t="s">
+        <v>96</v>
+      </c>
+      <c r="P151" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q151">
+        <v>6.77</v>
+      </c>
+      <c r="R151">
+        <v>3.03</v>
+      </c>
+      <c r="S151">
+        <v>1.71</v>
+      </c>
+      <c r="T151">
+        <v>1.17</v>
+      </c>
+      <c r="U151">
+        <v>4.45</v>
+      </c>
+      <c r="V151">
+        <v>1.99</v>
+      </c>
+      <c r="W151">
+        <v>1.84</v>
+      </c>
+      <c r="X151">
+        <v>4.05</v>
+      </c>
+      <c r="Y151">
+        <v>1.2</v>
+      </c>
+      <c r="Z151">
+        <v>7.03</v>
+      </c>
+      <c r="AA151">
+        <v>5.67</v>
+      </c>
+      <c r="AB151">
+        <v>1.34</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>29</v>
+      </c>
+      <c r="AE151">
+        <v>1.08</v>
+      </c>
+      <c r="AF151">
+        <v>7.32</v>
+      </c>
+      <c r="AG151">
+        <v>1.32</v>
+      </c>
+      <c r="AH151">
+        <v>3.25</v>
+      </c>
+      <c r="AI151">
+        <v>1.55</v>
+      </c>
+      <c r="AJ151">
+        <v>2.29</v>
+      </c>
+      <c r="AK151">
+        <v>3.1</v>
+      </c>
+      <c r="AL151">
+        <v>1.11</v>
+      </c>
+      <c r="AM151">
+        <v>1.08</v>
+      </c>
+      <c r="AN151">
+        <v>0.86</v>
+      </c>
+      <c r="AO151">
         <v>3</v>
       </c>
-      <c r="M151">
-        <v>0</v>
-      </c>
-      <c r="N151">
+      <c r="AP151">
+        <v>0.75</v>
+      </c>
+      <c r="AQ151">
         <v>3</v>
       </c>
-      <c r="O151" t="s">
-        <v>200</v>
-      </c>
-      <c r="P151" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q151">
-        <v>2.8</v>
-      </c>
-      <c r="R151">
+      <c r="AR151">
+        <v>1.61</v>
+      </c>
+      <c r="AS151">
+        <v>1.9</v>
+      </c>
+      <c r="AT151">
+        <v>3.51</v>
+      </c>
+      <c r="AU151">
+        <v>7</v>
+      </c>
+      <c r="AV151">
+        <v>12</v>
+      </c>
+      <c r="AW151">
+        <v>5</v>
+      </c>
+      <c r="AX151">
+        <v>5</v>
+      </c>
+      <c r="AY151">
+        <v>16</v>
+      </c>
+      <c r="AZ151">
+        <v>21</v>
+      </c>
+      <c r="BA151">
+        <v>7</v>
+      </c>
+      <c r="BB151">
+        <v>7</v>
+      </c>
+      <c r="BC151">
+        <v>14</v>
+      </c>
+      <c r="BD151">
+        <v>4.6</v>
+      </c>
+      <c r="BE151">
+        <v>8</v>
+      </c>
+      <c r="BF151">
+        <v>1.23</v>
+      </c>
+      <c r="BG151">
+        <v>1.2</v>
+      </c>
+      <c r="BH151">
+        <v>3.95</v>
+      </c>
+      <c r="BI151">
+        <v>1.35</v>
+      </c>
+      <c r="BJ151">
+        <v>2.9</v>
+      </c>
+      <c r="BK151">
+        <v>1.58</v>
+      </c>
+      <c r="BL151">
         <v>2.2</v>
       </c>
-      <c r="S151">
-        <v>3.75</v>
-      </c>
-      <c r="T151">
-        <v>1.42</v>
-      </c>
-      <c r="U151">
-        <v>3.1</v>
-      </c>
-      <c r="V151">
-        <v>2.95</v>
-      </c>
-      <c r="W151">
-        <v>1.45</v>
-      </c>
-      <c r="X151">
-        <v>8</v>
-      </c>
-      <c r="Y151">
-        <v>1.11</v>
-      </c>
-      <c r="Z151">
-        <v>2.08</v>
-      </c>
-      <c r="AA151">
-        <v>3.6</v>
-      </c>
-      <c r="AB151">
-        <v>3.27</v>
-      </c>
-      <c r="AC151">
-        <v>1.03</v>
-      </c>
-      <c r="AD151">
-        <v>10.65</v>
-      </c>
-      <c r="AE151">
-        <v>1.27</v>
-      </c>
-      <c r="AF151">
-        <v>3.61</v>
-      </c>
-      <c r="AG151">
-        <v>1.88</v>
-      </c>
-      <c r="AH151">
-        <v>1.88</v>
-      </c>
-      <c r="AI151">
-        <v>1.72</v>
-      </c>
-      <c r="AJ151">
-        <v>2.1</v>
-      </c>
-      <c r="AK151">
-        <v>1.36</v>
-      </c>
-      <c r="AL151">
-        <v>1.33</v>
-      </c>
-      <c r="AM151">
+      <c r="BM151">
+        <v>1.9</v>
+      </c>
+      <c r="BN151">
         <v>1.78</v>
       </c>
-      <c r="AN151">
-        <v>2.71</v>
-      </c>
-      <c r="AO151">
-        <v>1.29</v>
-      </c>
-      <c r="AP151">
-        <v>2.75</v>
-      </c>
-      <c r="AQ151">
-        <v>1.13</v>
-      </c>
-      <c r="AR151">
-        <v>1.84</v>
-      </c>
-      <c r="AS151">
-        <v>1.12</v>
-      </c>
-      <c r="AT151">
-        <v>2.96</v>
-      </c>
-      <c r="AU151">
-        <v>6</v>
-      </c>
-      <c r="AV151">
-        <v>3</v>
-      </c>
-      <c r="AW151">
-        <v>11</v>
-      </c>
-      <c r="AX151">
-        <v>4</v>
-      </c>
-      <c r="AY151">
-        <v>17</v>
-      </c>
-      <c r="AZ151">
-        <v>12</v>
-      </c>
-      <c r="BA151">
-        <v>3</v>
-      </c>
-      <c r="BB151">
-        <v>5</v>
-      </c>
-      <c r="BC151">
-        <v>8</v>
-      </c>
-      <c r="BD151">
-        <v>1.74</v>
-      </c>
-      <c r="BE151">
-        <v>6.4</v>
-      </c>
-      <c r="BF151">
-        <v>2.33</v>
-      </c>
-      <c r="BG151">
-        <v>1.4</v>
-      </c>
-      <c r="BH151">
-        <v>2.65</v>
-      </c>
-      <c r="BI151">
-        <v>1.67</v>
-      </c>
-      <c r="BJ151">
-        <v>2.04</v>
-      </c>
-      <c r="BK151">
-        <v>2.08</v>
-      </c>
-      <c r="BL151">
-        <v>1.65</v>
-      </c>
-      <c r="BM151">
-        <v>2.65</v>
-      </c>
-      <c r="BN151">
-        <v>1.41</v>
-      </c>
       <c r="BO151">
-        <v>3.55</v>
+        <v>2.35</v>
       </c>
       <c r="BP151">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="152" spans="1:68">
@@ -32553,7 +32553,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7516435</v>
+        <v>7516440</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32568,190 +32568,190 @@
         <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H153" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M153">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N153">
         <v>4</v>
       </c>
       <c r="O153" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="P153" t="s">
         <v>283</v>
       </c>
       <c r="Q153">
+        <v>2.75</v>
+      </c>
+      <c r="R153">
         <v>2.2</v>
       </c>
-      <c r="R153">
-        <v>2.35</v>
-      </c>
       <c r="S153">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="T153">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="U153">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="V153">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="W153">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="X153">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y153">
         <v>1.12</v>
       </c>
       <c r="Z153">
-        <v>1.63</v>
+        <v>2.07</v>
       </c>
       <c r="AA153">
-        <v>4.14</v>
+        <v>3.57</v>
       </c>
       <c r="AB153">
-        <v>4.76</v>
+        <v>3.33</v>
       </c>
       <c r="AC153">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD153">
-        <v>15</v>
+        <v>10.65</v>
       </c>
       <c r="AE153">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AF153">
-        <v>4.12</v>
+        <v>3.61</v>
       </c>
       <c r="AG153">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="AH153">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AI153">
+        <v>1.7</v>
+      </c>
+      <c r="AJ153">
+        <v>2.1</v>
+      </c>
+      <c r="AK153">
+        <v>1.35</v>
+      </c>
+      <c r="AL153">
+        <v>1.33</v>
+      </c>
+      <c r="AM153">
+        <v>1.8</v>
+      </c>
+      <c r="AN153">
+        <v>2.14</v>
+      </c>
+      <c r="AO153">
+        <v>1.86</v>
+      </c>
+      <c r="AP153">
+        <v>2</v>
+      </c>
+      <c r="AQ153">
         <v>1.75</v>
       </c>
-      <c r="AJ153">
-        <v>2.05</v>
-      </c>
-      <c r="AK153">
-        <v>1.2</v>
-      </c>
-      <c r="AL153">
-        <v>1.25</v>
-      </c>
-      <c r="AM153">
-        <v>2.35</v>
-      </c>
-      <c r="AN153">
-        <v>0.88</v>
-      </c>
-      <c r="AO153">
-        <v>0.29</v>
-      </c>
-      <c r="AP153">
-        <v>0.78</v>
-      </c>
-      <c r="AQ153">
-        <v>0.63</v>
-      </c>
       <c r="AR153">
-        <v>1.16</v>
+        <v>1.53</v>
       </c>
       <c r="AS153">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AT153">
-        <v>2.36</v>
+        <v>2.83</v>
       </c>
       <c r="AU153">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV153">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW153">
+        <v>6</v>
+      </c>
+      <c r="AX153">
         <v>5</v>
       </c>
-      <c r="AX153">
-        <v>4</v>
-      </c>
       <c r="AY153">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ153">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA153">
         <v>4</v>
       </c>
       <c r="BB153">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BC153">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD153">
-        <v>1.47</v>
+        <v>1.91</v>
       </c>
       <c r="BE153">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="BF153">
-        <v>3.05</v>
+        <v>2.2</v>
       </c>
       <c r="BG153">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="BH153">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="BI153">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="BJ153">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="BK153">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="BL153">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="BM153">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="BN153">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BO153">
-        <v>3.15</v>
+        <v>3.58</v>
       </c>
       <c r="BP153">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32759,7 +32759,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7516440</v>
+        <v>7516435</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32774,190 +32774,190 @@
         <v>17</v>
       </c>
       <c r="G154" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H154" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
         <v>3</v>
-      </c>
-      <c r="L154">
-        <v>2</v>
-      </c>
-      <c r="M154">
-        <v>2</v>
       </c>
       <c r="N154">
         <v>4</v>
       </c>
       <c r="O154" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="P154" t="s">
         <v>284</v>
       </c>
       <c r="Q154">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="R154">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S154">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="T154">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="U154">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="V154">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="W154">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="X154">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y154">
         <v>1.12</v>
       </c>
       <c r="Z154">
+        <v>1.63</v>
+      </c>
+      <c r="AA154">
+        <v>4.14</v>
+      </c>
+      <c r="AB154">
+        <v>4.76</v>
+      </c>
+      <c r="AC154">
+        <v>1.04</v>
+      </c>
+      <c r="AD154">
+        <v>15</v>
+      </c>
+      <c r="AE154">
+        <v>1.22</v>
+      </c>
+      <c r="AF154">
+        <v>4.12</v>
+      </c>
+      <c r="AG154">
+        <v>1.72</v>
+      </c>
+      <c r="AH154">
         <v>2.07</v>
       </c>
-      <c r="AA154">
-        <v>3.57</v>
-      </c>
-      <c r="AB154">
-        <v>3.33</v>
-      </c>
-      <c r="AC154">
-        <v>1.03</v>
-      </c>
-      <c r="AD154">
-        <v>10.65</v>
-      </c>
-      <c r="AE154">
-        <v>1.27</v>
-      </c>
-      <c r="AF154">
-        <v>3.61</v>
-      </c>
-      <c r="AG154">
-        <v>1.83</v>
-      </c>
-      <c r="AH154">
-        <v>1.93</v>
-      </c>
       <c r="AI154">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AJ154">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK154">
-        <v>1.35</v>
+        <v>1.2</v>
       </c>
       <c r="AL154">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM154">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="AN154">
-        <v>2.14</v>
+        <v>0.88</v>
       </c>
       <c r="AO154">
-        <v>1.86</v>
+        <v>0.29</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>0.78</v>
       </c>
       <c r="AQ154">
-        <v>1.75</v>
+        <v>0.63</v>
       </c>
       <c r="AR154">
-        <v>1.53</v>
+        <v>1.16</v>
       </c>
       <c r="AS154">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AT154">
-        <v>2.83</v>
+        <v>2.36</v>
       </c>
       <c r="AU154">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
         <v>5</v>
       </c>
-      <c r="AW154">
-        <v>6</v>
-      </c>
       <c r="AX154">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY154">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ154">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA154">
         <v>4</v>
       </c>
       <c r="BB154">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC154">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD154">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="BE154">
-        <v>8</v>
+        <v>6.75</v>
       </c>
       <c r="BF154">
-        <v>2.2</v>
+        <v>3.05</v>
       </c>
       <c r="BG154">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="BH154">
-        <v>2.98</v>
+        <v>2.9</v>
       </c>
       <c r="BI154">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="BJ154">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="BK154">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="BL154">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="BM154">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="BN154">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BO154">
-        <v>3.58</v>
+        <v>3.15</v>
       </c>
       <c r="BP154">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,18 @@
     <t>['9', '42']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['9', '54']</t>
+  </si>
+  <si>
+    <t>['10', '61']</t>
+  </si>
+  <si>
+    <t>['30', '75']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -869,6 +881,15 @@
   </si>
   <si>
     <t>['61', '70', '75']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['32', '35', '41', '62']</t>
+  </si>
+  <si>
+    <t>['49']</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1567,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ2">
         <v>0.29</v>
@@ -1695,7 +1716,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1776,7 +1797,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ3">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1979,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2394,7 +2415,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2519,7 +2540,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2597,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2725,7 +2746,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2803,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2931,7 +2952,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3009,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3137,7 +3158,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3343,7 +3364,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3549,7 +3570,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3755,7 +3776,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3961,7 +3982,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4039,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ14">
         <v>1.13</v>
@@ -4167,7 +4188,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4373,7 +4394,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4579,7 +4600,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4785,7 +4806,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5275,10 +5296,10 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR20">
         <v>1.78</v>
@@ -5403,7 +5424,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5484,7 +5505,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5609,7 +5630,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5690,7 +5711,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ22">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.83</v>
@@ -5815,7 +5836,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -6021,7 +6042,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6099,7 +6120,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ24">
         <v>0.29</v>
@@ -6227,7 +6248,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -6305,7 +6326,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6639,7 +6660,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6717,7 +6738,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1.75</v>
@@ -7257,7 +7278,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7335,7 +7356,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ30">
         <v>3</v>
@@ -7463,7 +7484,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -7750,7 +7771,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR32">
         <v>1.56</v>
@@ -8081,7 +8102,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8287,7 +8308,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8493,7 +8514,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8571,10 +8592,10 @@
         <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ36">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.86</v>
@@ -8699,7 +8720,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8780,7 +8801,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ37">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR37">
         <v>1.47</v>
@@ -8983,7 +9004,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ38">
         <v>1.13</v>
@@ -9111,7 +9132,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9317,7 +9338,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9398,7 +9419,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR40">
         <v>2.02</v>
@@ -9601,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
         <v>0.29</v>
@@ -9729,7 +9750,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -9810,7 +9831,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -9935,7 +9956,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10013,7 +10034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP43">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ43">
         <v>0.63</v>
@@ -10141,7 +10162,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10219,7 +10240,7 @@
         <v>1.5</v>
       </c>
       <c r="AP44">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10425,10 +10446,10 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ45">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR45">
         <v>1.54</v>
@@ -10553,7 +10574,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -11171,7 +11192,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11583,7 +11604,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11661,7 +11682,7 @@
         <v>3</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -11789,7 +11810,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -11867,7 +11888,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ52">
         <v>0.75</v>
@@ -11995,7 +12016,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12076,7 +12097,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR53">
         <v>1.74</v>
@@ -12488,7 +12509,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ55">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR55">
         <v>1.55</v>
@@ -12613,7 +12634,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12694,7 +12715,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ56">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR56">
         <v>1.29</v>
@@ -12819,7 +12840,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -12897,10 +12918,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR57">
         <v>1.53</v>
@@ -13103,7 +13124,7 @@
         <v>1.5</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
         <v>1.13</v>
@@ -13231,7 +13252,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13309,7 +13330,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ59">
         <v>1.75</v>
@@ -13437,7 +13458,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13643,7 +13664,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13724,7 +13745,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ61">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR61">
         <v>1.54</v>
@@ -13849,7 +13870,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -14055,7 +14076,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14133,7 +14154,7 @@
         <v>2.33</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14261,7 +14282,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14342,7 +14363,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR64">
         <v>1.79</v>
@@ -14467,7 +14488,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14545,7 +14566,7 @@
         <v>0.33</v>
       </c>
       <c r="AP65">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
         <v>0.63</v>
@@ -14879,7 +14900,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15166,7 +15187,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ68">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR68">
         <v>0.8</v>
@@ -15291,7 +15312,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q69">
         <v>2.12</v>
@@ -15497,7 +15518,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15578,7 +15599,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ70">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR70">
         <v>1.39</v>
@@ -15703,7 +15724,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -15781,7 +15802,7 @@
         <v>3</v>
       </c>
       <c r="AP71">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ71">
         <v>2</v>
@@ -15987,7 +16008,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ72">
         <v>0.75</v>
@@ -16196,7 +16217,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ73">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR73">
         <v>1.52</v>
@@ -16321,7 +16342,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16608,7 +16629,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ75">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR75">
         <v>1.52</v>
@@ -16814,7 +16835,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ76">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR76">
         <v>1.47</v>
@@ -16939,7 +16960,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17017,7 +17038,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ77">
         <v>3</v>
@@ -17145,7 +17166,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17432,7 +17453,7 @@
         <v>2</v>
       </c>
       <c r="AQ79">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.77</v>
@@ -17557,7 +17578,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17635,7 +17656,7 @@
         <v>1.67</v>
       </c>
       <c r="AP80">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ80">
         <v>1.75</v>
@@ -17763,7 +17784,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17841,7 +17862,7 @@
         <v>2.5</v>
       </c>
       <c r="AP81">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ81">
         <v>2</v>
@@ -17969,7 +17990,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18175,7 +18196,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18253,7 +18274,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ83">
         <v>0.88</v>
@@ -18587,7 +18608,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18793,7 +18814,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -18874,7 +18895,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ86">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -18999,7 +19020,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19080,7 +19101,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ87">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.44</v>
@@ -19205,7 +19226,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19283,7 +19304,7 @@
         <v>0.25</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ88">
         <v>0.63</v>
@@ -19698,7 +19719,7 @@
         <v>2</v>
       </c>
       <c r="AQ90">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR90">
         <v>1.61</v>
@@ -19823,7 +19844,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -19901,10 +19922,10 @@
         <v>2</v>
       </c>
       <c r="AP91">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ91">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR91">
         <v>1.87</v>
@@ -20029,7 +20050,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20110,7 +20131,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ92">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
         <v>1.44</v>
@@ -20235,7 +20256,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20647,7 +20668,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20853,7 +20874,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -20934,7 +20955,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ96">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR96">
         <v>1.39</v>
@@ -21471,7 +21492,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21755,7 +21776,7 @@
         <v>0.8</v>
       </c>
       <c r="AP100">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ100">
         <v>0.63</v>
@@ -21883,7 +21904,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -22089,7 +22110,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22167,7 +22188,7 @@
         <v>0.8</v>
       </c>
       <c r="AP102">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ102">
         <v>0.5</v>
@@ -22295,7 +22316,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22501,7 +22522,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22579,10 +22600,10 @@
         <v>0.8</v>
       </c>
       <c r="AP104">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR104">
         <v>1.26</v>
@@ -22707,7 +22728,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -22785,10 +22806,10 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ105">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR105">
         <v>1.42</v>
@@ -22994,7 +23015,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ106">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.79</v>
@@ -23119,7 +23140,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23197,7 +23218,7 @@
         <v>3</v>
       </c>
       <c r="AP107">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ107">
         <v>2</v>
@@ -23612,7 +23633,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR109">
         <v>1.59</v>
@@ -23737,7 +23758,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23943,7 +23964,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -24230,7 +24251,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ112">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24355,7 +24376,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24767,7 +24788,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24973,7 +24994,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -25051,7 +25072,7 @@
         <v>0.8</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ116">
         <v>0.75</v>
@@ -25179,7 +25200,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25260,7 +25281,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR117">
         <v>1.67</v>
@@ -25591,7 +25612,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -25669,7 +25690,7 @@
         <v>1.17</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ119">
         <v>0.88</v>
@@ -25875,7 +25896,7 @@
         <v>0.67</v>
       </c>
       <c r="AP120">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ120">
         <v>0.5</v>
@@ -26003,7 +26024,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26081,10 +26102,10 @@
         <v>0.86</v>
       </c>
       <c r="AP121">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ121">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR121">
         <v>1.33</v>
@@ -26209,7 +26230,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26290,7 +26311,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR122">
         <v>1.44</v>
@@ -26415,7 +26436,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26493,10 +26514,10 @@
         <v>0.67</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ123">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR123">
         <v>1.28</v>
@@ -26699,7 +26720,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ124">
         <v>1.13</v>
@@ -26827,7 +26848,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -26905,10 +26926,10 @@
         <v>1.29</v>
       </c>
       <c r="AP125">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ125">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR125">
         <v>1.89</v>
@@ -27033,7 +27054,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27114,7 +27135,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR126">
         <v>1.08</v>
@@ -27239,7 +27260,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q127">
         <v>1.67</v>
@@ -27445,7 +27466,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27857,7 +27878,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28681,7 +28702,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -29380,7 +29401,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ137">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AR137">
         <v>1.4</v>
@@ -29789,10 +29810,10 @@
         <v>1.13</v>
       </c>
       <c r="AP139">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ139">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.31</v>
@@ -29995,7 +30016,7 @@
         <v>0.57</v>
       </c>
       <c r="AP140">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ140">
         <v>0.5</v>
@@ -30123,7 +30144,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30204,7 +30225,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ141">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR141">
         <v>1.1</v>
@@ -30407,7 +30428,7 @@
         <v>1.29</v>
       </c>
       <c r="AP142">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ142">
         <v>1.13</v>
@@ -30616,7 +30637,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ143">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AR143">
         <v>1.95</v>
@@ -30741,7 +30762,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30819,10 +30840,10 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AQ144">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AR144">
         <v>1.34</v>
@@ -30947,7 +30968,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31025,10 +31046,10 @@
         <v>0.57</v>
       </c>
       <c r="AP145">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="AQ145">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AR145">
         <v>2.07</v>
@@ -31153,7 +31174,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31565,7 +31586,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32183,7 +32204,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -32595,7 +32616,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32801,7 +32822,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -32958,6 +32979,1242 @@
       </c>
       <c r="BP154">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7516445</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45660.58333333334</v>
+      </c>
+      <c r="F155">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s">
+        <v>77</v>
+      </c>
+      <c r="H155" t="s">
+        <v>84</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>2</v>
+      </c>
+      <c r="O155" t="s">
+        <v>203</v>
+      </c>
+      <c r="P155" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q155">
+        <v>3.1</v>
+      </c>
+      <c r="R155">
+        <v>2.15</v>
+      </c>
+      <c r="S155">
+        <v>3</v>
+      </c>
+      <c r="T155">
+        <v>1.36</v>
+      </c>
+      <c r="U155">
+        <v>2.9</v>
+      </c>
+      <c r="V155">
+        <v>2.6</v>
+      </c>
+      <c r="W155">
+        <v>1.44</v>
+      </c>
+      <c r="X155">
+        <v>6</v>
+      </c>
+      <c r="Y155">
+        <v>1.09</v>
+      </c>
+      <c r="Z155">
+        <v>2.69</v>
+      </c>
+      <c r="AA155">
+        <v>3.43</v>
+      </c>
+      <c r="AB155">
+        <v>2.5</v>
+      </c>
+      <c r="AC155">
+        <v>1.05</v>
+      </c>
+      <c r="AD155">
+        <v>13</v>
+      </c>
+      <c r="AE155">
+        <v>1.25</v>
+      </c>
+      <c r="AF155">
+        <v>3.82</v>
+      </c>
+      <c r="AG155">
+        <v>1.79</v>
+      </c>
+      <c r="AH155">
+        <v>1.98</v>
+      </c>
+      <c r="AI155">
+        <v>1.62</v>
+      </c>
+      <c r="AJ155">
+        <v>2.15</v>
+      </c>
+      <c r="AK155">
+        <v>1.5</v>
+      </c>
+      <c r="AL155">
+        <v>1.25</v>
+      </c>
+      <c r="AM155">
+        <v>1.45</v>
+      </c>
+      <c r="AN155">
+        <v>1.38</v>
+      </c>
+      <c r="AO155">
+        <v>1.25</v>
+      </c>
+      <c r="AP155">
+        <v>1.33</v>
+      </c>
+      <c r="AQ155">
+        <v>1.22</v>
+      </c>
+      <c r="AR155">
+        <v>1.43</v>
+      </c>
+      <c r="AS155">
+        <v>1.42</v>
+      </c>
+      <c r="AT155">
+        <v>2.85</v>
+      </c>
+      <c r="AU155">
+        <v>7</v>
+      </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
+      <c r="AW155">
+        <v>8</v>
+      </c>
+      <c r="AX155">
+        <v>5</v>
+      </c>
+      <c r="AY155">
+        <v>24</v>
+      </c>
+      <c r="AZ155">
+        <v>10</v>
+      </c>
+      <c r="BA155">
+        <v>6</v>
+      </c>
+      <c r="BB155">
+        <v>2</v>
+      </c>
+      <c r="BC155">
+        <v>8</v>
+      </c>
+      <c r="BD155">
+        <v>1.98</v>
+      </c>
+      <c r="BE155">
+        <v>6.4</v>
+      </c>
+      <c r="BF155">
+        <v>1.98</v>
+      </c>
+      <c r="BG155">
+        <v>1.37</v>
+      </c>
+      <c r="BH155">
+        <v>2.8</v>
+      </c>
+      <c r="BI155">
+        <v>1.64</v>
+      </c>
+      <c r="BJ155">
+        <v>2.1</v>
+      </c>
+      <c r="BK155">
+        <v>2</v>
+      </c>
+      <c r="BL155">
+        <v>1.7</v>
+      </c>
+      <c r="BM155">
+        <v>2.55</v>
+      </c>
+      <c r="BN155">
+        <v>1.44</v>
+      </c>
+      <c r="BO155">
+        <v>3.4</v>
+      </c>
+      <c r="BP155">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7516450</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45660.58333333334</v>
+      </c>
+      <c r="F156">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s">
+        <v>75</v>
+      </c>
+      <c r="H156" t="s">
+        <v>79</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>204</v>
+      </c>
+      <c r="P156" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q156">
+        <v>2.62</v>
+      </c>
+      <c r="R156">
+        <v>2.17</v>
+      </c>
+      <c r="S156">
+        <v>4.65</v>
+      </c>
+      <c r="T156">
+        <v>1.45</v>
+      </c>
+      <c r="U156">
+        <v>2.84</v>
+      </c>
+      <c r="V156">
+        <v>3.24</v>
+      </c>
+      <c r="W156">
+        <v>1.36</v>
+      </c>
+      <c r="X156">
+        <v>8.1</v>
+      </c>
+      <c r="Y156">
+        <v>1.04</v>
+      </c>
+      <c r="Z156">
+        <v>1.98</v>
+      </c>
+      <c r="AA156">
+        <v>3.36</v>
+      </c>
+      <c r="AB156">
+        <v>3.82</v>
+      </c>
+      <c r="AC156">
+        <v>1.05</v>
+      </c>
+      <c r="AD156">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE156">
+        <v>1.36</v>
+      </c>
+      <c r="AF156">
+        <v>3.06</v>
+      </c>
+      <c r="AG156">
+        <v>2.12</v>
+      </c>
+      <c r="AH156">
+        <v>1.69</v>
+      </c>
+      <c r="AI156">
+        <v>1.88</v>
+      </c>
+      <c r="AJ156">
+        <v>1.88</v>
+      </c>
+      <c r="AK156">
+        <v>1.27</v>
+      </c>
+      <c r="AL156">
+        <v>1.35</v>
+      </c>
+      <c r="AM156">
+        <v>1.84</v>
+      </c>
+      <c r="AN156">
+        <v>1.5</v>
+      </c>
+      <c r="AO156">
+        <v>1.11</v>
+      </c>
+      <c r="AP156">
+        <v>1.67</v>
+      </c>
+      <c r="AQ156">
+        <v>1</v>
+      </c>
+      <c r="AR156">
+        <v>1.36</v>
+      </c>
+      <c r="AS156">
+        <v>1.19</v>
+      </c>
+      <c r="AT156">
+        <v>2.55</v>
+      </c>
+      <c r="AU156">
+        <v>7</v>
+      </c>
+      <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>3</v>
+      </c>
+      <c r="AX156">
+        <v>3</v>
+      </c>
+      <c r="AY156">
+        <v>13</v>
+      </c>
+      <c r="AZ156">
+        <v>9</v>
+      </c>
+      <c r="BA156">
+        <v>7</v>
+      </c>
+      <c r="BB156">
+        <v>2</v>
+      </c>
+      <c r="BC156">
+        <v>9</v>
+      </c>
+      <c r="BD156">
+        <v>1.53</v>
+      </c>
+      <c r="BE156">
+        <v>6.75</v>
+      </c>
+      <c r="BF156">
+        <v>2.8</v>
+      </c>
+      <c r="BG156">
+        <v>1.4</v>
+      </c>
+      <c r="BH156">
+        <v>2.65</v>
+      </c>
+      <c r="BI156">
+        <v>1.67</v>
+      </c>
+      <c r="BJ156">
+        <v>2.04</v>
+      </c>
+      <c r="BK156">
+        <v>2.08</v>
+      </c>
+      <c r="BL156">
+        <v>1.65</v>
+      </c>
+      <c r="BM156">
+        <v>2.65</v>
+      </c>
+      <c r="BN156">
+        <v>1.41</v>
+      </c>
+      <c r="BO156">
+        <v>3.45</v>
+      </c>
+      <c r="BP156">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7516447</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45661.3125</v>
+      </c>
+      <c r="F157">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s">
+        <v>82</v>
+      </c>
+      <c r="H157" t="s">
+        <v>83</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>91</v>
+      </c>
+      <c r="P157" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q157">
+        <v>4.33</v>
+      </c>
+      <c r="R157">
+        <v>2.2</v>
+      </c>
+      <c r="S157">
+        <v>2.3</v>
+      </c>
+      <c r="T157">
+        <v>1.33</v>
+      </c>
+      <c r="U157">
+        <v>3.29</v>
+      </c>
+      <c r="V157">
+        <v>2.65</v>
+      </c>
+      <c r="W157">
+        <v>1.48</v>
+      </c>
+      <c r="X157">
+        <v>5.75</v>
+      </c>
+      <c r="Y157">
+        <v>1.1</v>
+      </c>
+      <c r="Z157">
+        <v>4.26</v>
+      </c>
+      <c r="AA157">
+        <v>3.8</v>
+      </c>
+      <c r="AB157">
+        <v>1.77</v>
+      </c>
+      <c r="AC157">
+        <v>1.05</v>
+      </c>
+      <c r="AD157">
+        <v>13</v>
+      </c>
+      <c r="AE157">
+        <v>1.22</v>
+      </c>
+      <c r="AF157">
+        <v>4.12</v>
+      </c>
+      <c r="AG157">
+        <v>1.75</v>
+      </c>
+      <c r="AH157">
+        <v>2.03</v>
+      </c>
+      <c r="AI157">
+        <v>1.65</v>
+      </c>
+      <c r="AJ157">
+        <v>2.2</v>
+      </c>
+      <c r="AK157">
+        <v>2.05</v>
+      </c>
+      <c r="AL157">
+        <v>1.2</v>
+      </c>
+      <c r="AM157">
+        <v>1.2</v>
+      </c>
+      <c r="AN157">
+        <v>0.38</v>
+      </c>
+      <c r="AO157">
+        <v>0.88</v>
+      </c>
+      <c r="AP157">
+        <v>0.33</v>
+      </c>
+      <c r="AQ157">
+        <v>1.11</v>
+      </c>
+      <c r="AR157">
+        <v>1.33</v>
+      </c>
+      <c r="AS157">
+        <v>1.29</v>
+      </c>
+      <c r="AT157">
+        <v>2.62</v>
+      </c>
+      <c r="AU157">
+        <v>3</v>
+      </c>
+      <c r="AV157">
+        <v>7</v>
+      </c>
+      <c r="AW157">
+        <v>3</v>
+      </c>
+      <c r="AX157">
+        <v>4</v>
+      </c>
+      <c r="AY157">
+        <v>11</v>
+      </c>
+      <c r="AZ157">
+        <v>12</v>
+      </c>
+      <c r="BA157">
+        <v>3</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>6</v>
+      </c>
+      <c r="BD157">
+        <v>2.45</v>
+      </c>
+      <c r="BE157">
+        <v>6.5</v>
+      </c>
+      <c r="BF157">
+        <v>1.67</v>
+      </c>
+      <c r="BG157">
+        <v>1.32</v>
+      </c>
+      <c r="BH157">
+        <v>3.05</v>
+      </c>
+      <c r="BI157">
+        <v>1.55</v>
+      </c>
+      <c r="BJ157">
+        <v>2.25</v>
+      </c>
+      <c r="BK157">
+        <v>1.9</v>
+      </c>
+      <c r="BL157">
+        <v>1.79</v>
+      </c>
+      <c r="BM157">
+        <v>2.4</v>
+      </c>
+      <c r="BN157">
+        <v>1.5</v>
+      </c>
+      <c r="BO157">
+        <v>3.05</v>
+      </c>
+      <c r="BP157">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7516448</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45661.41666666666</v>
+      </c>
+      <c r="F158">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s">
+        <v>72</v>
+      </c>
+      <c r="H158" t="s">
+        <v>86</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>3</v>
+      </c>
+      <c r="K158">
+        <v>3</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>4</v>
+      </c>
+      <c r="N158">
+        <v>5</v>
+      </c>
+      <c r="O158" t="s">
+        <v>103</v>
+      </c>
+      <c r="P158" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q158">
+        <v>3</v>
+      </c>
+      <c r="R158">
+        <v>2.1</v>
+      </c>
+      <c r="S158">
+        <v>3.3</v>
+      </c>
+      <c r="T158">
+        <v>1.35</v>
+      </c>
+      <c r="U158">
+        <v>3.2</v>
+      </c>
+      <c r="V158">
+        <v>2.73</v>
+      </c>
+      <c r="W158">
+        <v>1.45</v>
+      </c>
+      <c r="X158">
+        <v>5.85</v>
+      </c>
+      <c r="Y158">
+        <v>1.1</v>
+      </c>
+      <c r="Z158">
+        <v>2.54</v>
+      </c>
+      <c r="AA158">
+        <v>3.43</v>
+      </c>
+      <c r="AB158">
+        <v>2.64</v>
+      </c>
+      <c r="AC158">
+        <v>1.03</v>
+      </c>
+      <c r="AD158">
+        <v>10.65</v>
+      </c>
+      <c r="AE158">
+        <v>1.27</v>
+      </c>
+      <c r="AF158">
+        <v>3.61</v>
+      </c>
+      <c r="AG158">
+        <v>1.83</v>
+      </c>
+      <c r="AH158">
+        <v>1.93</v>
+      </c>
+      <c r="AI158">
+        <v>1.62</v>
+      </c>
+      <c r="AJ158">
+        <v>2.25</v>
+      </c>
+      <c r="AK158">
+        <v>1.52</v>
+      </c>
+      <c r="AL158">
+        <v>1.33</v>
+      </c>
+      <c r="AM158">
+        <v>1.53</v>
+      </c>
+      <c r="AN158">
+        <v>2</v>
+      </c>
+      <c r="AO158">
+        <v>1.11</v>
+      </c>
+      <c r="AP158">
+        <v>1.78</v>
+      </c>
+      <c r="AQ158">
+        <v>1.3</v>
+      </c>
+      <c r="AR158">
+        <v>1.38</v>
+      </c>
+      <c r="AS158">
+        <v>1.06</v>
+      </c>
+      <c r="AT158">
+        <v>2.44</v>
+      </c>
+      <c r="AU158">
+        <v>9</v>
+      </c>
+      <c r="AV158">
+        <v>7</v>
+      </c>
+      <c r="AW158">
+        <v>6</v>
+      </c>
+      <c r="AX158">
+        <v>6</v>
+      </c>
+      <c r="AY158">
+        <v>23</v>
+      </c>
+      <c r="AZ158">
+        <v>16</v>
+      </c>
+      <c r="BA158">
+        <v>11</v>
+      </c>
+      <c r="BB158">
+        <v>4</v>
+      </c>
+      <c r="BC158">
+        <v>15</v>
+      </c>
+      <c r="BD158">
+        <v>1.95</v>
+      </c>
+      <c r="BE158">
+        <v>6.4</v>
+      </c>
+      <c r="BF158">
+        <v>2.07</v>
+      </c>
+      <c r="BG158">
+        <v>1.33</v>
+      </c>
+      <c r="BH158">
+        <v>2.95</v>
+      </c>
+      <c r="BI158">
+        <v>1.57</v>
+      </c>
+      <c r="BJ158">
+        <v>2.23</v>
+      </c>
+      <c r="BK158">
+        <v>1.92</v>
+      </c>
+      <c r="BL158">
+        <v>1.77</v>
+      </c>
+      <c r="BM158">
+        <v>2.43</v>
+      </c>
+      <c r="BN158">
+        <v>1.47</v>
+      </c>
+      <c r="BO158">
+        <v>3.15</v>
+      </c>
+      <c r="BP158">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7516444</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45661.54166666666</v>
+      </c>
+      <c r="F159">
+        <v>18</v>
+      </c>
+      <c r="G159" t="s">
+        <v>70</v>
+      </c>
+      <c r="H159" t="s">
+        <v>81</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>3</v>
+      </c>
+      <c r="O159" t="s">
+        <v>205</v>
+      </c>
+      <c r="P159" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q159">
+        <v>1.67</v>
+      </c>
+      <c r="R159">
+        <v>2.75</v>
+      </c>
+      <c r="S159">
+        <v>6.5</v>
+      </c>
+      <c r="T159">
+        <v>1.2</v>
+      </c>
+      <c r="U159">
+        <v>4</v>
+      </c>
+      <c r="V159">
+        <v>2.1</v>
+      </c>
+      <c r="W159">
+        <v>1.75</v>
+      </c>
+      <c r="X159">
+        <v>4</v>
+      </c>
+      <c r="Y159">
+        <v>1.2</v>
+      </c>
+      <c r="Z159">
+        <v>1.29</v>
+      </c>
+      <c r="AA159">
+        <v>5.66</v>
+      </c>
+      <c r="AB159">
+        <v>8.779999999999999</v>
+      </c>
+      <c r="AC159">
+        <v>1.01</v>
+      </c>
+      <c r="AD159">
+        <v>26</v>
+      </c>
+      <c r="AE159">
+        <v>1.1</v>
+      </c>
+      <c r="AF159">
+        <v>6.6</v>
+      </c>
+      <c r="AG159">
+        <v>1.38</v>
+      </c>
+      <c r="AH159">
+        <v>2.96</v>
+      </c>
+      <c r="AI159">
+        <v>1.6</v>
+      </c>
+      <c r="AJ159">
+        <v>2.3</v>
+      </c>
+      <c r="AK159">
+        <v>1.07</v>
+      </c>
+      <c r="AL159">
+        <v>1.1</v>
+      </c>
+      <c r="AM159">
+        <v>3.25</v>
+      </c>
+      <c r="AN159">
+        <v>2.56</v>
+      </c>
+      <c r="AO159">
+        <v>0.75</v>
+      </c>
+      <c r="AP159">
+        <v>2.6</v>
+      </c>
+      <c r="AQ159">
+        <v>0.67</v>
+      </c>
+      <c r="AR159">
+        <v>2.09</v>
+      </c>
+      <c r="AS159">
+        <v>1.36</v>
+      </c>
+      <c r="AT159">
+        <v>3.45</v>
+      </c>
+      <c r="AU159">
+        <v>5</v>
+      </c>
+      <c r="AV159">
+        <v>3</v>
+      </c>
+      <c r="AW159">
+        <v>4</v>
+      </c>
+      <c r="AX159">
+        <v>3</v>
+      </c>
+      <c r="AY159">
+        <v>14</v>
+      </c>
+      <c r="AZ159">
+        <v>8</v>
+      </c>
+      <c r="BA159">
+        <v>10</v>
+      </c>
+      <c r="BB159">
+        <v>4</v>
+      </c>
+      <c r="BC159">
+        <v>14</v>
+      </c>
+      <c r="BD159">
+        <v>1.23</v>
+      </c>
+      <c r="BE159">
+        <v>8.5</v>
+      </c>
+      <c r="BF159">
+        <v>4.4</v>
+      </c>
+      <c r="BG159">
+        <v>1.26</v>
+      </c>
+      <c r="BH159">
+        <v>3.4</v>
+      </c>
+      <c r="BI159">
+        <v>1.46</v>
+      </c>
+      <c r="BJ159">
+        <v>2.5</v>
+      </c>
+      <c r="BK159">
+        <v>1.73</v>
+      </c>
+      <c r="BL159">
+        <v>1.96</v>
+      </c>
+      <c r="BM159">
+        <v>2.12</v>
+      </c>
+      <c r="BN159">
+        <v>1.63</v>
+      </c>
+      <c r="BO159">
+        <v>2.7</v>
+      </c>
+      <c r="BP159">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7516446</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45661.58333333334</v>
+      </c>
+      <c r="F160">
+        <v>18</v>
+      </c>
+      <c r="G160" t="s">
+        <v>76</v>
+      </c>
+      <c r="H160" t="s">
+        <v>88</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>1</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>206</v>
+      </c>
+      <c r="P160" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q160">
+        <v>2.5</v>
+      </c>
+      <c r="R160">
+        <v>2.2</v>
+      </c>
+      <c r="S160">
+        <v>3.75</v>
+      </c>
+      <c r="T160">
+        <v>1.32</v>
+      </c>
+      <c r="U160">
+        <v>3.29</v>
+      </c>
+      <c r="V160">
+        <v>2.58</v>
+      </c>
+      <c r="W160">
+        <v>1.5</v>
+      </c>
+      <c r="X160">
+        <v>5.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.11</v>
+      </c>
+      <c r="Z160">
+        <v>2.03</v>
+      </c>
+      <c r="AA160">
+        <v>3.58</v>
+      </c>
+      <c r="AB160">
+        <v>3.44</v>
+      </c>
+      <c r="AC160">
+        <v>1.05</v>
+      </c>
+      <c r="AD160">
+        <v>13</v>
+      </c>
+      <c r="AE160">
+        <v>1.22</v>
+      </c>
+      <c r="AF160">
+        <v>4.12</v>
+      </c>
+      <c r="AG160">
+        <v>1.72</v>
+      </c>
+      <c r="AH160">
+        <v>2.07</v>
+      </c>
+      <c r="AI160">
+        <v>1.57</v>
+      </c>
+      <c r="AJ160">
+        <v>2.38</v>
+      </c>
+      <c r="AK160">
+        <v>1.3</v>
+      </c>
+      <c r="AL160">
+        <v>1.22</v>
+      </c>
+      <c r="AM160">
+        <v>1.77</v>
+      </c>
+      <c r="AN160">
+        <v>1.75</v>
+      </c>
+      <c r="AO160">
+        <v>0.5</v>
+      </c>
+      <c r="AP160">
+        <v>1.89</v>
+      </c>
+      <c r="AQ160">
+        <v>0.44</v>
+      </c>
+      <c r="AR160">
+        <v>1.54</v>
+      </c>
+      <c r="AS160">
+        <v>1.31</v>
+      </c>
+      <c r="AT160">
+        <v>2.85</v>
+      </c>
+      <c r="AU160">
+        <v>4</v>
+      </c>
+      <c r="AV160">
+        <v>6</v>
+      </c>
+      <c r="AW160">
+        <v>6</v>
+      </c>
+      <c r="AX160">
+        <v>6</v>
+      </c>
+      <c r="AY160">
+        <v>10</v>
+      </c>
+      <c r="AZ160">
+        <v>15</v>
+      </c>
+      <c r="BA160">
+        <v>2</v>
+      </c>
+      <c r="BB160">
+        <v>8</v>
+      </c>
+      <c r="BC160">
+        <v>10</v>
+      </c>
+      <c r="BD160">
+        <v>1.63</v>
+      </c>
+      <c r="BE160">
+        <v>6.5</v>
+      </c>
+      <c r="BF160">
+        <v>2.55</v>
+      </c>
+      <c r="BG160">
+        <v>1.35</v>
+      </c>
+      <c r="BH160">
+        <v>2.88</v>
+      </c>
+      <c r="BI160">
+        <v>1.6</v>
+      </c>
+      <c r="BJ160">
+        <v>2.17</v>
+      </c>
+      <c r="BK160">
+        <v>1.98</v>
+      </c>
+      <c r="BL160">
+        <v>1.72</v>
+      </c>
+      <c r="BM160">
+        <v>2.5</v>
+      </c>
+      <c r="BN160">
+        <v>1.46</v>
+      </c>
+      <c r="BO160">
+        <v>3.3</v>
+      </c>
+      <c r="BP160">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="295">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -637,6 +637,12 @@
     <t>['30', '75']</t>
   </si>
   <si>
+    <t>['7', '41']</t>
+  </si>
+  <si>
+    <t>['16', '45+5']</t>
+  </si>
+  <si>
     <t>['7', '81', '89']</t>
   </si>
   <si>
@@ -890,6 +896,9 @@
   </si>
   <si>
     <t>['49']</t>
+  </si>
+  <si>
+    <t>['9', '83']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1260,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1600,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ2">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1716,7 +1725,7 @@
         <v>90</v>
       </c>
       <c r="P3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1794,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2206,7 +2215,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ5">
         <v>0.63</v>
@@ -2540,7 +2549,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2746,7 +2755,7 @@
         <v>91</v>
       </c>
       <c r="P8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q8">
         <v>4.33</v>
@@ -2952,7 +2961,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -3158,7 +3167,7 @@
         <v>91</v>
       </c>
       <c r="P10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q10">
         <v>2.9</v>
@@ -3236,10 +3245,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ10">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3364,7 +3373,7 @@
         <v>95</v>
       </c>
       <c r="P11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>6.01</v>
@@ -3570,7 +3579,7 @@
         <v>96</v>
       </c>
       <c r="P12" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>2.86</v>
@@ -3776,7 +3785,7 @@
         <v>97</v>
       </c>
       <c r="P13" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>7.75</v>
@@ -3982,7 +3991,7 @@
         <v>98</v>
       </c>
       <c r="P14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>2.74</v>
@@ -4188,7 +4197,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>2.63</v>
@@ -4394,7 +4403,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q16">
         <v>1.9</v>
@@ -4600,7 +4609,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q17">
         <v>3.24</v>
@@ -4806,7 +4815,7 @@
         <v>101</v>
       </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q18">
         <v>2.55</v>
@@ -5424,7 +5433,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q21">
         <v>2.85</v>
@@ -5630,7 +5639,7 @@
         <v>104</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q22">
         <v>2.75</v>
@@ -5708,7 +5717,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5836,7 +5845,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q23">
         <v>2.12</v>
@@ -5914,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ23">
         <v>0.63</v>
@@ -6042,7 +6051,7 @@
         <v>106</v>
       </c>
       <c r="P24" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q24">
         <v>2.82</v>
@@ -6123,7 +6132,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ24">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR24">
         <v>1.29</v>
@@ -6248,7 +6257,7 @@
         <v>91</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q25">
         <v>5.44</v>
@@ -6532,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ26">
         <v>0.75</v>
@@ -6660,7 +6669,7 @@
         <v>91</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6947,7 +6956,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ28">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR28">
         <v>1.48</v>
@@ -7278,7 +7287,7 @@
         <v>109</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q30">
         <v>5.5</v>
@@ -7484,7 +7493,7 @@
         <v>110</v>
       </c>
       <c r="P31" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q31">
         <v>2.4</v>
@@ -8102,7 +8111,7 @@
         <v>91</v>
       </c>
       <c r="P34" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q34">
         <v>3.3</v>
@@ -8308,7 +8317,7 @@
         <v>112</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
@@ -8389,7 +8398,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8514,7 +8523,7 @@
         <v>91</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -8720,7 +8729,7 @@
         <v>91</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q37">
         <v>3.5</v>
@@ -8798,7 +8807,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ37">
         <v>1.11</v>
@@ -9132,7 +9141,7 @@
         <v>91</v>
       </c>
       <c r="P39" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q39">
         <v>5.55</v>
@@ -9210,7 +9219,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9338,7 +9347,7 @@
         <v>114</v>
       </c>
       <c r="P40" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q40">
         <v>3.25</v>
@@ -9625,7 +9634,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR41">
         <v>1.49</v>
@@ -9750,7 +9759,7 @@
         <v>115</v>
       </c>
       <c r="P42" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>3.7</v>
@@ -9956,7 +9965,7 @@
         <v>116</v>
       </c>
       <c r="P43" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q43">
         <v>2.4</v>
@@ -10162,7 +10171,7 @@
         <v>117</v>
       </c>
       <c r="P44" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q44">
         <v>1.62</v>
@@ -10243,7 +10252,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR44">
         <v>2.36</v>
@@ -10574,7 +10583,7 @@
         <v>119</v>
       </c>
       <c r="P46" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q46">
         <v>2.1</v>
@@ -10655,7 +10664,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ46">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR46">
         <v>0.55</v>
@@ -11192,7 +11201,7 @@
         <v>120</v>
       </c>
       <c r="P49" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q49">
         <v>2.61</v>
@@ -11270,7 +11279,7 @@
         <v>3</v>
       </c>
       <c r="AP49">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ49">
         <v>3</v>
@@ -11476,7 +11485,7 @@
         <v>0</v>
       </c>
       <c r="AP50">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ50">
         <v>0.63</v>
@@ -11604,7 +11613,7 @@
         <v>91</v>
       </c>
       <c r="P51" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11810,7 +11819,7 @@
         <v>91</v>
       </c>
       <c r="P52" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>3.4</v>
@@ -12016,7 +12025,7 @@
         <v>121</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q53">
         <v>1.9</v>
@@ -12303,7 +12312,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ54">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR54">
         <v>1.55</v>
@@ -12634,7 +12643,7 @@
         <v>123</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q56">
         <v>3.36</v>
@@ -12840,7 +12849,7 @@
         <v>124</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q57">
         <v>2.5</v>
@@ -13252,7 +13261,7 @@
         <v>126</v>
       </c>
       <c r="P59" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q59">
         <v>1.58</v>
@@ -13458,7 +13467,7 @@
         <v>127</v>
       </c>
       <c r="P60" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q60">
         <v>2.4</v>
@@ -13539,7 +13548,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ60">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR60">
         <v>1.5</v>
@@ -13664,7 +13673,7 @@
         <v>128</v>
       </c>
       <c r="P61" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q61">
         <v>2.44</v>
@@ -13870,7 +13879,7 @@
         <v>129</v>
       </c>
       <c r="P62" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q62">
         <v>2.4</v>
@@ -13948,7 +13957,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ62">
         <v>0.63</v>
@@ -14076,7 +14085,7 @@
         <v>91</v>
       </c>
       <c r="P63" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q63">
         <v>6.5</v>
@@ -14282,7 +14291,7 @@
         <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -14488,7 +14497,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q65">
         <v>2.4</v>
@@ -14772,7 +14781,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -14900,7 +14909,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -15312,7 +15321,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q69">
         <v>2.12</v>
@@ -15393,7 +15402,7 @@
         <v>2</v>
       </c>
       <c r="AQ69">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
         <v>1.48</v>
@@ -15518,7 +15527,7 @@
         <v>133</v>
       </c>
       <c r="P70" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q70">
         <v>2.88</v>
@@ -15724,7 +15733,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q71">
         <v>4.5</v>
@@ -16342,7 +16351,7 @@
         <v>137</v>
       </c>
       <c r="P74" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q74">
         <v>2.75</v>
@@ -16423,7 +16432,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ74">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR74">
         <v>1.58</v>
@@ -16960,7 +16969,7 @@
         <v>91</v>
       </c>
       <c r="P77" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17166,7 +17175,7 @@
         <v>140</v>
       </c>
       <c r="P78" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q78">
         <v>2.88</v>
@@ -17247,7 +17256,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR78">
         <v>1.31</v>
@@ -17578,7 +17587,7 @@
         <v>142</v>
       </c>
       <c r="P80" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q80">
         <v>2.88</v>
@@ -17784,7 +17793,7 @@
         <v>143</v>
       </c>
       <c r="P81" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q81">
         <v>4.5</v>
@@ -17990,7 +17999,7 @@
         <v>91</v>
       </c>
       <c r="P82" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q82">
         <v>3.2</v>
@@ -18068,7 +18077,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ82">
         <v>1.13</v>
@@ -18196,7 +18205,7 @@
         <v>144</v>
       </c>
       <c r="P83" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q83">
         <v>3.7</v>
@@ -18483,7 +18492,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR84">
         <v>0.9</v>
@@ -18608,7 +18617,7 @@
         <v>145</v>
       </c>
       <c r="P85" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q85">
         <v>3</v>
@@ -18686,7 +18695,7 @@
         <v>3</v>
       </c>
       <c r="AP85">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ85">
         <v>2</v>
@@ -18814,7 +18823,7 @@
         <v>146</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>2.9</v>
@@ -19020,7 +19029,7 @@
         <v>147</v>
       </c>
       <c r="P87" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19226,7 +19235,7 @@
         <v>148</v>
       </c>
       <c r="P88" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q88">
         <v>2.63</v>
@@ -19510,7 +19519,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19844,7 +19853,7 @@
         <v>151</v>
       </c>
       <c r="P91" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q91">
         <v>2.45</v>
@@ -20050,7 +20059,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>3.1</v>
@@ -20256,7 +20265,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q93">
         <v>2.9</v>
@@ -20668,7 +20677,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q95">
         <v>2.1</v>
@@ -20874,7 +20883,7 @@
         <v>155</v>
       </c>
       <c r="P96" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q96">
         <v>3.1</v>
@@ -21161,7 +21170,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ97">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR97">
         <v>1.48</v>
@@ -21364,7 +21373,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ98">
         <v>0.75</v>
@@ -21492,7 +21501,7 @@
         <v>157</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q99">
         <v>4.33</v>
@@ -21904,7 +21913,7 @@
         <v>159</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q101">
         <v>2.25</v>
@@ -21982,10 +21991,10 @@
         <v>1.2</v>
       </c>
       <c r="AP101">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ101">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR101">
         <v>1.41</v>
@@ -22110,7 +22119,7 @@
         <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q102">
         <v>3.22</v>
@@ -22316,7 +22325,7 @@
         <v>161</v>
       </c>
       <c r="P103" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q103">
         <v>2.88</v>
@@ -22397,7 +22406,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR103">
         <v>1</v>
@@ -22522,7 +22531,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q104">
         <v>3.2</v>
@@ -22728,7 +22737,7 @@
         <v>91</v>
       </c>
       <c r="P105" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q105">
         <v>4.75</v>
@@ -23140,7 +23149,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q107">
         <v>1.85</v>
@@ -23424,7 +23433,7 @@
         <v>1.4</v>
       </c>
       <c r="AP108">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ108">
         <v>0.88</v>
@@ -23758,7 +23767,7 @@
         <v>166</v>
       </c>
       <c r="P110" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q110">
         <v>2.63</v>
@@ -23964,7 +23973,7 @@
         <v>167</v>
       </c>
       <c r="P111" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q111">
         <v>6</v>
@@ -24376,7 +24385,7 @@
         <v>91</v>
       </c>
       <c r="P113" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q113">
         <v>6.5</v>
@@ -24454,7 +24463,7 @@
         <v>3</v>
       </c>
       <c r="AP113">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ113">
         <v>3</v>
@@ -24788,7 +24797,7 @@
         <v>115</v>
       </c>
       <c r="P115" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>2.6</v>
@@ -24869,7 +24878,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ115">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR115">
         <v>1.38</v>
@@ -24994,7 +25003,7 @@
         <v>169</v>
       </c>
       <c r="P116" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>2.38</v>
@@ -25200,7 +25209,7 @@
         <v>170</v>
       </c>
       <c r="P117" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q117">
         <v>2.1</v>
@@ -25612,7 +25621,7 @@
         <v>172</v>
       </c>
       <c r="P119" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q119">
         <v>2.55</v>
@@ -26024,7 +26033,7 @@
         <v>91</v>
       </c>
       <c r="P121" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q121">
         <v>4</v>
@@ -26230,7 +26239,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26436,7 +26445,7 @@
         <v>175</v>
       </c>
       <c r="P123" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q123">
         <v>3.1</v>
@@ -26723,7 +26732,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ124">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR124">
         <v>1.28</v>
@@ -26848,7 +26857,7 @@
         <v>177</v>
       </c>
       <c r="P125" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q125">
         <v>1.67</v>
@@ -27054,7 +27063,7 @@
         <v>178</v>
       </c>
       <c r="P126" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q126">
         <v>4.33</v>
@@ -27260,7 +27269,7 @@
         <v>179</v>
       </c>
       <c r="P127" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q127">
         <v>1.67</v>
@@ -27338,10 +27347,10 @@
         <v>0.67</v>
       </c>
       <c r="AP127">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ127">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR127">
         <v>2</v>
@@ -27466,7 +27475,7 @@
         <v>180</v>
       </c>
       <c r="P128" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27878,7 +27887,7 @@
         <v>182</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q130">
         <v>1.75</v>
@@ -28702,7 +28711,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q134">
         <v>6</v>
@@ -28989,7 +28998,7 @@
         <v>2</v>
       </c>
       <c r="AQ135">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR135">
         <v>1.47</v>
@@ -29398,7 +29407,7 @@
         <v>1.25</v>
       </c>
       <c r="AP137">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ137">
         <v>1.3</v>
@@ -29604,7 +29613,7 @@
         <v>1</v>
       </c>
       <c r="AP138">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AQ138">
         <v>0.88</v>
@@ -30019,7 +30028,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ140">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR140">
         <v>1.29</v>
@@ -30144,7 +30153,7 @@
         <v>193</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30431,7 +30440,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ142">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR142">
         <v>1.4</v>
@@ -30634,7 +30643,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ143">
         <v>1.11</v>
@@ -30762,7 +30771,7 @@
         <v>196</v>
       </c>
       <c r="P144" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q144">
         <v>6.5</v>
@@ -30968,7 +30977,7 @@
         <v>197</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q145">
         <v>1.73</v>
@@ -31174,7 +31183,7 @@
         <v>198</v>
       </c>
       <c r="P146" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -31586,7 +31595,7 @@
         <v>134</v>
       </c>
       <c r="P148" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q148">
         <v>2.13</v>
@@ -32204,7 +32213,7 @@
         <v>96</v>
       </c>
       <c r="P151" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q151">
         <v>6.77</v>
@@ -32616,7 +32625,7 @@
         <v>202</v>
       </c>
       <c r="P153" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q153">
         <v>2.75</v>
@@ -32822,7 +32831,7 @@
         <v>148</v>
       </c>
       <c r="P154" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q154">
         <v>2.2</v>
@@ -33234,7 +33243,7 @@
         <v>204</v>
       </c>
       <c r="P156" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33440,7 +33449,7 @@
         <v>91</v>
       </c>
       <c r="P157" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q157">
         <v>4.33</v>
@@ -33646,7 +33655,7 @@
         <v>103</v>
       </c>
       <c r="P158" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q158">
         <v>3</v>
@@ -34058,7 +34067,7 @@
         <v>206</v>
       </c>
       <c r="P160" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q160">
         <v>2.5</v>
@@ -34215,6 +34224,624 @@
       </c>
       <c r="BP160">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7516449</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45662.3125</v>
+      </c>
+      <c r="F161">
+        <v>18</v>
+      </c>
+      <c r="G161" t="s">
+        <v>71</v>
+      </c>
+      <c r="H161" t="s">
+        <v>85</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>3</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161" t="s">
+        <v>207</v>
+      </c>
+      <c r="P161" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q161">
+        <v>2.3</v>
+      </c>
+      <c r="R161">
+        <v>2.4</v>
+      </c>
+      <c r="S161">
+        <v>4.5</v>
+      </c>
+      <c r="T161">
+        <v>1.3</v>
+      </c>
+      <c r="U161">
+        <v>3.4</v>
+      </c>
+      <c r="V161">
+        <v>2.38</v>
+      </c>
+      <c r="W161">
+        <v>1.53</v>
+      </c>
+      <c r="X161">
+        <v>6</v>
+      </c>
+      <c r="Y161">
+        <v>1.13</v>
+      </c>
+      <c r="Z161">
+        <v>1.7</v>
+      </c>
+      <c r="AA161">
+        <v>3.9</v>
+      </c>
+      <c r="AB161">
+        <v>4.33</v>
+      </c>
+      <c r="AC161">
+        <v>1.04</v>
+      </c>
+      <c r="AD161">
+        <v>15</v>
+      </c>
+      <c r="AE161">
+        <v>1.19</v>
+      </c>
+      <c r="AF161">
+        <v>4.5</v>
+      </c>
+      <c r="AG161">
+        <v>1.62</v>
+      </c>
+      <c r="AH161">
+        <v>2.25</v>
+      </c>
+      <c r="AI161">
+        <v>1.62</v>
+      </c>
+      <c r="AJ161">
+        <v>2.2</v>
+      </c>
+      <c r="AK161">
+        <v>1.25</v>
+      </c>
+      <c r="AL161">
+        <v>1.28</v>
+      </c>
+      <c r="AM161">
+        <v>2.15</v>
+      </c>
+      <c r="AN161">
+        <v>0.75</v>
+      </c>
+      <c r="AO161">
+        <v>0.5</v>
+      </c>
+      <c r="AP161">
+        <v>0.78</v>
+      </c>
+      <c r="AQ161">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR161">
+        <v>1.42</v>
+      </c>
+      <c r="AS161">
+        <v>1.06</v>
+      </c>
+      <c r="AT161">
+        <v>2.48</v>
+      </c>
+      <c r="AU161">
+        <v>5</v>
+      </c>
+      <c r="AV161">
+        <v>7</v>
+      </c>
+      <c r="AW161">
+        <v>9</v>
+      </c>
+      <c r="AX161">
+        <v>5</v>
+      </c>
+      <c r="AY161">
+        <v>18</v>
+      </c>
+      <c r="AZ161">
+        <v>12</v>
+      </c>
+      <c r="BA161">
+        <v>8</v>
+      </c>
+      <c r="BB161">
+        <v>2</v>
+      </c>
+      <c r="BC161">
+        <v>10</v>
+      </c>
+      <c r="BD161">
+        <v>1.54</v>
+      </c>
+      <c r="BE161">
+        <v>6.75</v>
+      </c>
+      <c r="BF161">
+        <v>2.7</v>
+      </c>
+      <c r="BG161">
+        <v>1.27</v>
+      </c>
+      <c r="BH161">
+        <v>3.3</v>
+      </c>
+      <c r="BI161">
+        <v>1.48</v>
+      </c>
+      <c r="BJ161">
+        <v>2.45</v>
+      </c>
+      <c r="BK161">
+        <v>1.77</v>
+      </c>
+      <c r="BL161">
+        <v>1.92</v>
+      </c>
+      <c r="BM161">
+        <v>2.18</v>
+      </c>
+      <c r="BN161">
+        <v>1.58</v>
+      </c>
+      <c r="BO161">
+        <v>2.8</v>
+      </c>
+      <c r="BP161">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7516443</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45662.41666666666</v>
+      </c>
+      <c r="F162">
+        <v>18</v>
+      </c>
+      <c r="G162" t="s">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s">
+        <v>80</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>93</v>
+      </c>
+      <c r="P162" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q162">
+        <v>2.88</v>
+      </c>
+      <c r="R162">
+        <v>2.1</v>
+      </c>
+      <c r="S162">
+        <v>4</v>
+      </c>
+      <c r="T162">
+        <v>1.4</v>
+      </c>
+      <c r="U162">
+        <v>2.75</v>
+      </c>
+      <c r="V162">
+        <v>3</v>
+      </c>
+      <c r="W162">
+        <v>1.36</v>
+      </c>
+      <c r="X162">
+        <v>8</v>
+      </c>
+      <c r="Y162">
+        <v>1.08</v>
+      </c>
+      <c r="Z162">
+        <v>2.15</v>
+      </c>
+      <c r="AA162">
+        <v>3.25</v>
+      </c>
+      <c r="AB162">
+        <v>3.3</v>
+      </c>
+      <c r="AC162">
+        <v>1.04</v>
+      </c>
+      <c r="AD162">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE162">
+        <v>1.31</v>
+      </c>
+      <c r="AF162">
+        <v>3.33</v>
+      </c>
+      <c r="AG162">
+        <v>2</v>
+      </c>
+      <c r="AH162">
+        <v>1.8</v>
+      </c>
+      <c r="AI162">
+        <v>1.8</v>
+      </c>
+      <c r="AJ162">
+        <v>1.91</v>
+      </c>
+      <c r="AK162">
+        <v>1.35</v>
+      </c>
+      <c r="AL162">
+        <v>1.35</v>
+      </c>
+      <c r="AM162">
+        <v>1.75</v>
+      </c>
+      <c r="AN162">
+        <v>1.25</v>
+      </c>
+      <c r="AO162">
+        <v>1.13</v>
+      </c>
+      <c r="AP162">
+        <v>1.22</v>
+      </c>
+      <c r="AQ162">
+        <v>1.11</v>
+      </c>
+      <c r="AR162">
+        <v>1.29</v>
+      </c>
+      <c r="AS162">
+        <v>1.07</v>
+      </c>
+      <c r="AT162">
+        <v>2.36</v>
+      </c>
+      <c r="AU162">
+        <v>5</v>
+      </c>
+      <c r="AV162">
+        <v>4</v>
+      </c>
+      <c r="AW162">
+        <v>6</v>
+      </c>
+      <c r="AX162">
+        <v>2</v>
+      </c>
+      <c r="AY162">
+        <v>15</v>
+      </c>
+      <c r="AZ162">
+        <v>9</v>
+      </c>
+      <c r="BA162">
+        <v>6</v>
+      </c>
+      <c r="BB162">
+        <v>6</v>
+      </c>
+      <c r="BC162">
+        <v>12</v>
+      </c>
+      <c r="BD162">
+        <v>1.56</v>
+      </c>
+      <c r="BE162">
+        <v>6.75</v>
+      </c>
+      <c r="BF162">
+        <v>2.65</v>
+      </c>
+      <c r="BG162">
+        <v>1.34</v>
+      </c>
+      <c r="BH162">
+        <v>2.9</v>
+      </c>
+      <c r="BI162">
+        <v>1.58</v>
+      </c>
+      <c r="BJ162">
+        <v>2.18</v>
+      </c>
+      <c r="BK162">
+        <v>1.95</v>
+      </c>
+      <c r="BL162">
+        <v>1.75</v>
+      </c>
+      <c r="BM162">
+        <v>2.45</v>
+      </c>
+      <c r="BN162">
+        <v>1.48</v>
+      </c>
+      <c r="BO162">
+        <v>3.2</v>
+      </c>
+      <c r="BP162">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7516451</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45662.54166666666</v>
+      </c>
+      <c r="F163">
+        <v>18</v>
+      </c>
+      <c r="G163" t="s">
+        <v>73</v>
+      </c>
+      <c r="H163" t="s">
+        <v>87</v>
+      </c>
+      <c r="I163">
+        <v>2</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>3</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>1</v>
+      </c>
+      <c r="N163">
+        <v>3</v>
+      </c>
+      <c r="O163" t="s">
+        <v>208</v>
+      </c>
+      <c r="P163" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q163">
+        <v>1.4</v>
+      </c>
+      <c r="R163">
+        <v>3.25</v>
+      </c>
+      <c r="S163">
+        <v>15</v>
+      </c>
+      <c r="T163">
+        <v>1.2</v>
+      </c>
+      <c r="U163">
+        <v>4.33</v>
+      </c>
+      <c r="V163">
+        <v>1.91</v>
+      </c>
+      <c r="W163">
+        <v>1.8</v>
+      </c>
+      <c r="X163">
+        <v>4</v>
+      </c>
+      <c r="Y163">
+        <v>1.22</v>
+      </c>
+      <c r="Z163">
+        <v>1.09</v>
+      </c>
+      <c r="AA163">
+        <v>10.92</v>
+      </c>
+      <c r="AB163">
+        <v>21.26</v>
+      </c>
+      <c r="AC163">
+        <v>1.01</v>
+      </c>
+      <c r="AD163">
+        <v>29</v>
+      </c>
+      <c r="AE163">
+        <v>1.09</v>
+      </c>
+      <c r="AF163">
+        <v>6.89</v>
+      </c>
+      <c r="AG163">
+        <v>1.36</v>
+      </c>
+      <c r="AH163">
+        <v>3.1</v>
+      </c>
+      <c r="AI163">
+        <v>2.25</v>
+      </c>
+      <c r="AJ163">
+        <v>1.57</v>
+      </c>
+      <c r="AK163">
+        <v>1.01</v>
+      </c>
+      <c r="AL163">
+        <v>1.07</v>
+      </c>
+      <c r="AM163">
+        <v>7.5</v>
+      </c>
+      <c r="AN163">
+        <v>2.57</v>
+      </c>
+      <c r="AO163">
+        <v>0.29</v>
+      </c>
+      <c r="AP163">
+        <v>2.63</v>
+      </c>
+      <c r="AQ163">
+        <v>0.25</v>
+      </c>
+      <c r="AR163">
+        <v>1.98</v>
+      </c>
+      <c r="AS163">
+        <v>1.08</v>
+      </c>
+      <c r="AT163">
+        <v>3.06</v>
+      </c>
+      <c r="AU163">
+        <v>10</v>
+      </c>
+      <c r="AV163">
+        <v>3</v>
+      </c>
+      <c r="AW163">
+        <v>8</v>
+      </c>
+      <c r="AX163">
+        <v>2</v>
+      </c>
+      <c r="AY163">
+        <v>19</v>
+      </c>
+      <c r="AZ163">
+        <v>5</v>
+      </c>
+      <c r="BA163">
+        <v>7</v>
+      </c>
+      <c r="BB163">
+        <v>1</v>
+      </c>
+      <c r="BC163">
+        <v>8</v>
+      </c>
+      <c r="BD163">
+        <v>1.1</v>
+      </c>
+      <c r="BE163">
+        <v>11</v>
+      </c>
+      <c r="BF163">
+        <v>6.75</v>
+      </c>
+      <c r="BG163">
+        <v>1.27</v>
+      </c>
+      <c r="BH163">
+        <v>3.3</v>
+      </c>
+      <c r="BI163">
+        <v>1.48</v>
+      </c>
+      <c r="BJ163">
+        <v>2.45</v>
+      </c>
+      <c r="BK163">
+        <v>1.75</v>
+      </c>
+      <c r="BL163">
+        <v>1.95</v>
+      </c>
+      <c r="BM163">
+        <v>2.17</v>
+      </c>
+      <c r="BN163">
+        <v>1.6</v>
+      </c>
+      <c r="BO163">
+        <v>2.7</v>
+      </c>
+      <c r="BP163">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Turkey Süper Lig_20242025.xlsx
@@ -34369,7 +34369,7 @@
         <v>5</v>
       </c>
       <c r="AV161">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW161">
         <v>9</v>
@@ -34381,7 +34381,7 @@
         <v>18</v>
       </c>
       <c r="AZ161">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA161">
         <v>8</v>
